--- a/AAII_Financials/Yearly/REPYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/REPYY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>54760600</v>
+        <v>54635700</v>
       </c>
       <c r="E8" s="3">
-        <v>45751500</v>
+        <v>55239300</v>
       </c>
       <c r="F8" s="3">
-        <v>38088500</v>
+        <v>46151500</v>
       </c>
       <c r="G8" s="3">
-        <v>43631200</v>
+        <v>38421500</v>
       </c>
       <c r="H8" s="3">
-        <v>50334500</v>
+        <v>44012700</v>
       </c>
       <c r="I8" s="3">
-        <v>51445700</v>
+        <v>50774600</v>
       </c>
       <c r="J8" s="3">
+        <v>51895500</v>
+      </c>
+      <c r="K8" s="3">
         <v>63623600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>61785800</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>42454200</v>
+        <v>41734400</v>
       </c>
       <c r="E9" s="3">
-        <v>33913900</v>
+        <v>42825400</v>
       </c>
       <c r="F9" s="3">
-        <v>25787600</v>
+        <v>34210400</v>
       </c>
       <c r="G9" s="3">
-        <v>36654500</v>
+        <v>26013100</v>
       </c>
       <c r="H9" s="3">
-        <v>45561500</v>
+        <v>36975000</v>
       </c>
       <c r="I9" s="3">
-        <v>45944700</v>
+        <v>45959900</v>
       </c>
       <c r="J9" s="3">
+        <v>46346400</v>
+      </c>
+      <c r="K9" s="3">
         <v>48447100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>46491100</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12306400</v>
+        <v>12901300</v>
       </c>
       <c r="E10" s="3">
-        <v>11837500</v>
+        <v>12414000</v>
       </c>
       <c r="F10" s="3">
-        <v>12300900</v>
+        <v>11941000</v>
       </c>
       <c r="G10" s="3">
-        <v>6976700</v>
+        <v>12408400</v>
       </c>
       <c r="H10" s="3">
-        <v>4773000</v>
+        <v>7037700</v>
       </c>
       <c r="I10" s="3">
-        <v>5501000</v>
+        <v>4814700</v>
       </c>
       <c r="J10" s="3">
+        <v>5549100</v>
+      </c>
+      <c r="K10" s="3">
         <v>15176600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>15294700</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>576500</v>
+        <v>897200</v>
       </c>
       <c r="E12" s="3">
-        <v>719200</v>
+        <v>581500</v>
       </c>
       <c r="F12" s="3">
-        <v>370000</v>
+        <v>725500</v>
       </c>
       <c r="G12" s="3">
-        <v>1729400</v>
+        <v>373300</v>
       </c>
       <c r="H12" s="3">
-        <v>437000</v>
+        <v>1744500</v>
       </c>
       <c r="I12" s="3">
-        <v>184500</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>8</v>
+        <v>440800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>186100</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1249500</v>
+        <v>5111600</v>
       </c>
       <c r="E14" s="3">
-        <v>-1363700</v>
+        <v>1260400</v>
       </c>
       <c r="F14" s="3">
-        <v>-948700</v>
+        <v>-1375600</v>
       </c>
       <c r="G14" s="3">
-        <v>2478200</v>
+        <v>-957000</v>
       </c>
       <c r="H14" s="3">
-        <v>-107600</v>
+        <v>2499900</v>
       </c>
       <c r="I14" s="3">
-        <v>17600</v>
+        <v>-108500</v>
       </c>
       <c r="J14" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K14" s="3">
         <v>46100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>212500</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2100500</v>
+        <v>2563000</v>
       </c>
       <c r="E15" s="3">
-        <v>2439800</v>
+        <v>2118800</v>
       </c>
       <c r="F15" s="3">
-        <v>2512200</v>
+        <v>2461100</v>
       </c>
       <c r="G15" s="3">
-        <v>2559400</v>
+        <v>2534200</v>
       </c>
       <c r="H15" s="3">
-        <v>1535000</v>
+        <v>2581800</v>
       </c>
       <c r="I15" s="3">
-        <v>1484500</v>
+        <v>1548400</v>
       </c>
       <c r="J15" s="3">
+        <v>1497500</v>
+      </c>
+      <c r="K15" s="3">
         <v>2743900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2428600</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>52473400</v>
+        <v>58229900</v>
       </c>
       <c r="E17" s="3">
-        <v>42690200</v>
+        <v>52932200</v>
       </c>
       <c r="F17" s="3">
-        <v>35937500</v>
+        <v>43063500</v>
       </c>
       <c r="G17" s="3">
-        <v>46435500</v>
+        <v>36251700</v>
       </c>
       <c r="H17" s="3">
-        <v>49843700</v>
+        <v>46841500</v>
       </c>
       <c r="I17" s="3">
-        <v>50306000</v>
+        <v>50279500</v>
       </c>
       <c r="J17" s="3">
+        <v>50745800</v>
+      </c>
+      <c r="K17" s="3">
         <v>59629100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>57618800</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2287100</v>
+        <v>-3594200</v>
       </c>
       <c r="E18" s="3">
-        <v>3061200</v>
+        <v>2307100</v>
       </c>
       <c r="F18" s="3">
-        <v>2151000</v>
+        <v>3088000</v>
       </c>
       <c r="G18" s="3">
-        <v>-2804300</v>
+        <v>2169800</v>
       </c>
       <c r="H18" s="3">
-        <v>490800</v>
+        <v>-2828800</v>
       </c>
       <c r="I18" s="3">
-        <v>1139700</v>
+        <v>495100</v>
       </c>
       <c r="J18" s="3">
+        <v>1149700</v>
+      </c>
+      <c r="K18" s="3">
         <v>3994500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4167000</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1439500</v>
+        <v>167200</v>
       </c>
       <c r="E20" s="3">
-        <v>864100</v>
+        <v>1452100</v>
       </c>
       <c r="F20" s="3">
-        <v>455700</v>
+        <v>871700</v>
       </c>
       <c r="G20" s="3">
-        <v>799300</v>
+        <v>459700</v>
       </c>
       <c r="H20" s="3">
-        <v>1245100</v>
+        <v>806300</v>
       </c>
       <c r="I20" s="3">
-        <v>863000</v>
+        <v>1256000</v>
       </c>
       <c r="J20" s="3">
+        <v>870600</v>
+      </c>
+      <c r="K20" s="3">
         <v>1168300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9400</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6080000</v>
+        <v>-748800</v>
       </c>
       <c r="E21" s="3">
-        <v>6563500</v>
+        <v>6113800</v>
       </c>
       <c r="F21" s="3">
-        <v>5387800</v>
+        <v>6599300</v>
       </c>
       <c r="G21" s="3">
-        <v>1430500</v>
+        <v>5412100</v>
       </c>
       <c r="H21" s="3">
-        <v>3711000</v>
+        <v>1414900</v>
       </c>
       <c r="I21" s="3">
-        <v>3674300</v>
+        <v>3727300</v>
       </c>
       <c r="J21" s="3">
+        <v>3692700</v>
+      </c>
+      <c r="K21" s="3">
         <v>7910900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6606700</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>67000</v>
+        <v>118500</v>
       </c>
       <c r="E22" s="3">
-        <v>513900</v>
+        <v>67600</v>
       </c>
       <c r="F22" s="3">
-        <v>552300</v>
+        <v>518400</v>
       </c>
       <c r="G22" s="3">
-        <v>577500</v>
+        <v>557100</v>
       </c>
       <c r="H22" s="3">
-        <v>504000</v>
+        <v>582600</v>
       </c>
       <c r="I22" s="3">
-        <v>595100</v>
+        <v>508400</v>
       </c>
       <c r="J22" s="3">
+        <v>600300</v>
+      </c>
+      <c r="K22" s="3">
         <v>1975300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1022400</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3659600</v>
+        <v>-3545400</v>
       </c>
       <c r="E23" s="3">
-        <v>3411500</v>
+        <v>3691600</v>
       </c>
       <c r="F23" s="3">
-        <v>2054400</v>
+        <v>3441300</v>
       </c>
       <c r="G23" s="3">
-        <v>-2582500</v>
+        <v>2072300</v>
       </c>
       <c r="H23" s="3">
-        <v>1232000</v>
+        <v>-2605100</v>
       </c>
       <c r="I23" s="3">
-        <v>1407600</v>
+        <v>1242700</v>
       </c>
       <c r="J23" s="3">
+        <v>1419900</v>
+      </c>
+      <c r="K23" s="3">
         <v>3187500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3154000</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1521800</v>
+        <v>651300</v>
       </c>
       <c r="E24" s="3">
-        <v>1339600</v>
+        <v>1535100</v>
       </c>
       <c r="F24" s="3">
-        <v>429300</v>
+        <v>1351300</v>
       </c>
       <c r="G24" s="3">
-        <v>-1093600</v>
+        <v>433100</v>
       </c>
       <c r="H24" s="3">
-        <v>160300</v>
+        <v>-1103200</v>
       </c>
       <c r="I24" s="3">
-        <v>473200</v>
+        <v>161700</v>
       </c>
       <c r="J24" s="3">
+        <v>477400</v>
+      </c>
+      <c r="K24" s="3">
         <v>1543800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1163200</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2137800</v>
+        <v>-4196700</v>
       </c>
       <c r="E26" s="3">
-        <v>2071900</v>
+        <v>2156500</v>
       </c>
       <c r="F26" s="3">
-        <v>1625000</v>
+        <v>2090000</v>
       </c>
       <c r="G26" s="3">
-        <v>-1488900</v>
+        <v>1639200</v>
       </c>
       <c r="H26" s="3">
-        <v>1071600</v>
+        <v>-1501900</v>
       </c>
       <c r="I26" s="3">
-        <v>934400</v>
+        <v>1081000</v>
       </c>
       <c r="J26" s="3">
+        <v>942600</v>
+      </c>
+      <c r="K26" s="3">
         <v>1643700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1990800</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2086200</v>
+        <v>-4258700</v>
       </c>
       <c r="E27" s="3">
-        <v>1996200</v>
+        <v>2104400</v>
       </c>
       <c r="F27" s="3">
-        <v>1547100</v>
+        <v>2013600</v>
       </c>
       <c r="G27" s="3">
-        <v>-1559200</v>
+        <v>1560600</v>
       </c>
       <c r="H27" s="3">
-        <v>1114500</v>
+        <v>-1572800</v>
       </c>
       <c r="I27" s="3">
-        <v>965100</v>
+        <v>1124200</v>
       </c>
       <c r="J27" s="3">
+        <v>973600</v>
+      </c>
+      <c r="K27" s="3">
         <v>1570100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1663300</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,39 +1343,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>452400</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>300900</v>
+        <v>456300</v>
       </c>
       <c r="F29" s="3">
-        <v>328300</v>
+        <v>303500</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>331200</v>
       </c>
       <c r="H29" s="3">
-        <v>655500</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-751000</v>
+        <v>661200</v>
       </c>
       <c r="J29" s="3">
+        <v>-757600</v>
+      </c>
+      <c r="K29" s="3">
         <v>820200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>910900</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1439500</v>
+        <v>-167200</v>
       </c>
       <c r="E32" s="3">
-        <v>-864100</v>
+        <v>-1452100</v>
       </c>
       <c r="F32" s="3">
-        <v>-455700</v>
+        <v>-871700</v>
       </c>
       <c r="G32" s="3">
-        <v>-799300</v>
+        <v>-459700</v>
       </c>
       <c r="H32" s="3">
-        <v>-1245100</v>
+        <v>-806300</v>
       </c>
       <c r="I32" s="3">
-        <v>-863000</v>
+        <v>-1256000</v>
       </c>
       <c r="J32" s="3">
+        <v>-870600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1168300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9400</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2538600</v>
+        <v>-4258700</v>
       </c>
       <c r="E33" s="3">
-        <v>2297000</v>
+        <v>2560800</v>
       </c>
       <c r="F33" s="3">
-        <v>1875400</v>
+        <v>2317100</v>
       </c>
       <c r="G33" s="3">
-        <v>-1559200</v>
+        <v>1891800</v>
       </c>
       <c r="H33" s="3">
-        <v>1770000</v>
+        <v>-1572800</v>
       </c>
       <c r="I33" s="3">
-        <v>214100</v>
+        <v>1785500</v>
       </c>
       <c r="J33" s="3">
+        <v>216000</v>
+      </c>
+      <c r="K33" s="3">
         <v>2390300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2574200</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2538600</v>
+        <v>-4258700</v>
       </c>
       <c r="E35" s="3">
-        <v>2297000</v>
+        <v>2560800</v>
       </c>
       <c r="F35" s="3">
-        <v>1875400</v>
+        <v>2317100</v>
       </c>
       <c r="G35" s="3">
-        <v>-1559200</v>
+        <v>1891800</v>
       </c>
       <c r="H35" s="3">
-        <v>1770000</v>
+        <v>-1572800</v>
       </c>
       <c r="I35" s="3">
-        <v>214100</v>
+        <v>1785500</v>
       </c>
       <c r="J35" s="3">
+        <v>216000</v>
+      </c>
+      <c r="K35" s="3">
         <v>2390300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2574200</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4528200</v>
+        <v>2630200</v>
       </c>
       <c r="E41" s="3">
-        <v>4120800</v>
+        <v>4576800</v>
       </c>
       <c r="F41" s="3">
-        <v>3521300</v>
+        <v>4165100</v>
       </c>
       <c r="G41" s="3">
-        <v>5225400</v>
+        <v>3559100</v>
       </c>
       <c r="H41" s="3">
-        <v>2426600</v>
+        <v>5281500</v>
       </c>
       <c r="I41" s="3">
-        <v>10570400</v>
+        <v>2452700</v>
       </c>
       <c r="J41" s="3">
+        <v>10684000</v>
+      </c>
+      <c r="K41" s="3">
         <v>6481500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3142300</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2870200</v>
+        <v>3969800</v>
       </c>
       <c r="E42" s="3">
-        <v>1279200</v>
+        <v>2901000</v>
       </c>
       <c r="F42" s="3">
-        <v>3100800</v>
+        <v>1292900</v>
       </c>
       <c r="G42" s="3">
-        <v>1962100</v>
+        <v>3134100</v>
       </c>
       <c r="H42" s="3">
-        <v>5977500</v>
+        <v>1983200</v>
       </c>
       <c r="I42" s="3">
-        <v>2396900</v>
+        <v>6041800</v>
       </c>
       <c r="J42" s="3">
+        <v>2422700</v>
+      </c>
+      <c r="K42" s="3">
         <v>455700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>791100</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6438700</v>
+        <v>6373600</v>
       </c>
       <c r="E43" s="3">
-        <v>6425500</v>
+        <v>6507900</v>
       </c>
       <c r="F43" s="3">
-        <v>6391500</v>
+        <v>6494500</v>
       </c>
       <c r="G43" s="3">
-        <v>14883400</v>
+        <v>6460100</v>
       </c>
       <c r="H43" s="3">
-        <v>5689800</v>
+        <v>15043300</v>
       </c>
       <c r="I43" s="3">
-        <v>15805700</v>
+        <v>5751000</v>
       </c>
       <c r="J43" s="3">
+        <v>15975600</v>
+      </c>
+      <c r="K43" s="3">
         <v>8543500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10824900</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4820200</v>
+        <v>5101800</v>
       </c>
       <c r="E44" s="3">
-        <v>4169100</v>
+        <v>4872000</v>
       </c>
       <c r="F44" s="3">
-        <v>3958300</v>
+        <v>4213900</v>
       </c>
       <c r="G44" s="3">
-        <v>6265200</v>
+        <v>4000800</v>
       </c>
       <c r="H44" s="3">
-        <v>4316200</v>
+        <v>6332500</v>
       </c>
       <c r="I44" s="3">
-        <v>10843800</v>
+        <v>4362600</v>
       </c>
       <c r="J44" s="3">
+        <v>10960400</v>
+      </c>
+      <c r="K44" s="3">
         <v>6040100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8543000</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>331600</v>
+        <v>222000</v>
       </c>
       <c r="E45" s="3">
-        <v>224000</v>
+        <v>335200</v>
       </c>
       <c r="F45" s="3">
-        <v>517200</v>
+        <v>226400</v>
       </c>
       <c r="G45" s="3">
-        <v>585200</v>
+        <v>522700</v>
       </c>
       <c r="H45" s="3">
-        <v>300900</v>
+        <v>591500</v>
       </c>
       <c r="I45" s="3">
-        <v>2012600</v>
+        <v>304100</v>
       </c>
       <c r="J45" s="3">
+        <v>2034300</v>
+      </c>
+      <c r="K45" s="3">
         <v>616000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>561100</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18988800</v>
+        <v>18297300</v>
       </c>
       <c r="E46" s="3">
-        <v>16218600</v>
+        <v>19192900</v>
       </c>
       <c r="F46" s="3">
-        <v>17488900</v>
+        <v>16392900</v>
       </c>
       <c r="G46" s="3">
-        <v>14001700</v>
+        <v>17676900</v>
       </c>
       <c r="H46" s="3">
-        <v>18711000</v>
+        <v>14152200</v>
       </c>
       <c r="I46" s="3">
-        <v>19518000</v>
+        <v>18912100</v>
       </c>
       <c r="J46" s="3">
+        <v>19727800</v>
+      </c>
+      <c r="K46" s="3">
         <v>22136800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>23862400</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9146300</v>
+        <v>9290100</v>
       </c>
       <c r="E47" s="3">
-        <v>12416200</v>
+        <v>9244600</v>
       </c>
       <c r="F47" s="3">
-        <v>12495200</v>
+        <v>12549600</v>
       </c>
       <c r="G47" s="3">
-        <v>13742600</v>
+        <v>12629500</v>
       </c>
       <c r="H47" s="3">
-        <v>12849900</v>
+        <v>13890300</v>
       </c>
       <c r="I47" s="3">
-        <v>14769200</v>
+        <v>12988000</v>
       </c>
       <c r="J47" s="3">
+        <v>14927900</v>
+      </c>
+      <c r="K47" s="3">
         <v>8171300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3696300</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>27997900</v>
+        <v>25759600</v>
       </c>
       <c r="E48" s="3">
-        <v>27084400</v>
+        <v>28298800</v>
       </c>
       <c r="F48" s="3">
-        <v>30044600</v>
+        <v>27375400</v>
       </c>
       <c r="G48" s="3">
-        <v>61960100</v>
+        <v>30367500</v>
       </c>
       <c r="H48" s="3">
-        <v>18846100</v>
+        <v>62626000</v>
       </c>
       <c r="I48" s="3">
-        <v>35219400</v>
+        <v>19048600</v>
       </c>
       <c r="J48" s="3">
+        <v>35597900</v>
+      </c>
+      <c r="K48" s="3">
         <v>31020700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>43176300</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5595400</v>
+        <v>4960800</v>
       </c>
       <c r="E49" s="3">
-        <v>5033200</v>
+        <v>5655500</v>
       </c>
       <c r="F49" s="3">
-        <v>5609700</v>
+        <v>5087300</v>
       </c>
       <c r="G49" s="3">
-        <v>10510100</v>
+        <v>5670000</v>
       </c>
       <c r="H49" s="3">
-        <v>2041200</v>
+        <v>10623000</v>
       </c>
       <c r="I49" s="3">
-        <v>6166400</v>
+        <v>2063100</v>
       </c>
       <c r="J49" s="3">
+        <v>6232600</v>
+      </c>
+      <c r="K49" s="3">
         <v>6054400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9135800</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5005800</v>
+        <v>5944100</v>
       </c>
       <c r="E52" s="3">
-        <v>4970600</v>
+        <v>5059600</v>
       </c>
       <c r="F52" s="3">
-        <v>5565800</v>
+        <v>5024100</v>
       </c>
       <c r="G52" s="3">
-        <v>5686500</v>
+        <v>5625600</v>
       </c>
       <c r="H52" s="3">
-        <v>4526000</v>
+        <v>5747700</v>
       </c>
       <c r="I52" s="3">
-        <v>8802700</v>
+        <v>4574600</v>
       </c>
       <c r="J52" s="3">
+        <v>8897300</v>
+      </c>
+      <c r="K52" s="3">
         <v>3900100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3419300</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>66734200</v>
+        <v>64251900</v>
       </c>
       <c r="E54" s="3">
-        <v>65723000</v>
+        <v>67451400</v>
       </c>
       <c r="F54" s="3">
-        <v>71204200</v>
+        <v>66429300</v>
       </c>
       <c r="G54" s="3">
-        <v>69389200</v>
+        <v>71969400</v>
       </c>
       <c r="H54" s="3">
-        <v>56974100</v>
+        <v>70134900</v>
       </c>
       <c r="I54" s="3">
-        <v>60990600</v>
+        <v>57586400</v>
       </c>
       <c r="J54" s="3">
+        <v>61646100</v>
+      </c>
+      <c r="K54" s="3">
         <v>71283300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>83290000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3561900</v>
+        <v>4037500</v>
       </c>
       <c r="E57" s="3">
-        <v>3006300</v>
+        <v>3600200</v>
       </c>
       <c r="F57" s="3">
-        <v>2336500</v>
+        <v>3038600</v>
       </c>
       <c r="G57" s="3">
-        <v>1975300</v>
+        <v>2361700</v>
       </c>
       <c r="H57" s="3">
-        <v>2580300</v>
+        <v>1996500</v>
       </c>
       <c r="I57" s="3">
-        <v>2841600</v>
+        <v>2608000</v>
       </c>
       <c r="J57" s="3">
+        <v>2872200</v>
+      </c>
+      <c r="K57" s="3">
         <v>4804800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5583800</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4124100</v>
+        <v>7150400</v>
       </c>
       <c r="E58" s="3">
-        <v>4545700</v>
+        <v>4168400</v>
       </c>
       <c r="F58" s="3">
-        <v>4282200</v>
+        <v>4594600</v>
       </c>
       <c r="G58" s="3">
-        <v>4710400</v>
+        <v>4328200</v>
       </c>
       <c r="H58" s="3">
-        <v>1638200</v>
+        <v>4761000</v>
       </c>
       <c r="I58" s="3">
-        <v>3916600</v>
+        <v>1655800</v>
       </c>
       <c r="J58" s="3">
+        <v>3958700</v>
+      </c>
+      <c r="K58" s="3">
         <v>4407400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6113200</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6379400</v>
+        <v>5553400</v>
       </c>
       <c r="E59" s="3">
-        <v>5662400</v>
+        <v>6447900</v>
       </c>
       <c r="F59" s="3">
-        <v>9562500</v>
+        <v>5723200</v>
       </c>
       <c r="G59" s="3">
-        <v>23358900</v>
+        <v>9665200</v>
       </c>
       <c r="H59" s="3">
-        <v>7028300</v>
+        <v>23609900</v>
       </c>
       <c r="I59" s="3">
-        <v>17752500</v>
+        <v>7103800</v>
       </c>
       <c r="J59" s="3">
+        <v>17943200</v>
+      </c>
+      <c r="K59" s="3">
         <v>5402200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8379800</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14065400</v>
+        <v>16741300</v>
       </c>
       <c r="E60" s="3">
-        <v>13214400</v>
+        <v>14216500</v>
       </c>
       <c r="F60" s="3">
-        <v>16181200</v>
+        <v>13356400</v>
       </c>
       <c r="G60" s="3">
-        <v>15895700</v>
+        <v>16355100</v>
       </c>
       <c r="H60" s="3">
-        <v>11246800</v>
+        <v>16066600</v>
       </c>
       <c r="I60" s="3">
-        <v>14686800</v>
+        <v>11367700</v>
       </c>
       <c r="J60" s="3">
+        <v>14844700</v>
+      </c>
+      <c r="K60" s="3">
         <v>14614400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>20076800</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8735700</v>
+        <v>11940300</v>
       </c>
       <c r="E61" s="3">
-        <v>9588800</v>
+        <v>8829600</v>
       </c>
       <c r="F61" s="3">
-        <v>12018700</v>
+        <v>9691900</v>
       </c>
       <c r="G61" s="3">
-        <v>13199100</v>
+        <v>12147900</v>
       </c>
       <c r="H61" s="3">
-        <v>9813900</v>
+        <v>13340900</v>
       </c>
       <c r="I61" s="3">
-        <v>10624200</v>
+        <v>9919400</v>
       </c>
       <c r="J61" s="3">
+        <v>10738400</v>
+      </c>
+      <c r="K61" s="3">
         <v>19813400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>21373900</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9989600</v>
+        <v>7593300</v>
       </c>
       <c r="E62" s="3">
-        <v>9910500</v>
+        <v>10097000</v>
       </c>
       <c r="F62" s="3">
-        <v>8844400</v>
+        <v>10017100</v>
       </c>
       <c r="G62" s="3">
-        <v>15111800</v>
+        <v>8939400</v>
       </c>
       <c r="H62" s="3">
-        <v>5000300</v>
+        <v>15274200</v>
       </c>
       <c r="I62" s="3">
-        <v>10034600</v>
+        <v>5054000</v>
       </c>
       <c r="J62" s="3">
+        <v>10142500</v>
+      </c>
+      <c r="K62" s="3">
         <v>6691200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10095900</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33104700</v>
+        <v>36586800</v>
       </c>
       <c r="E66" s="3">
-        <v>33010300</v>
+        <v>33460500</v>
       </c>
       <c r="F66" s="3">
-        <v>37312200</v>
+        <v>33365000</v>
       </c>
       <c r="G66" s="3">
-        <v>38058900</v>
+        <v>37713200</v>
       </c>
       <c r="H66" s="3">
-        <v>26299300</v>
+        <v>38467900</v>
       </c>
       <c r="I66" s="3">
-        <v>31117300</v>
+        <v>26581900</v>
       </c>
       <c r="J66" s="3">
+        <v>31451700</v>
+      </c>
+      <c r="K66" s="3">
         <v>41964500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>55660900</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>23944100</v>
+        <v>18463700</v>
       </c>
       <c r="E72" s="3">
-        <v>23314900</v>
+        <v>24201400</v>
       </c>
       <c r="F72" s="3">
-        <v>21454900</v>
+        <v>23565500</v>
       </c>
       <c r="G72" s="3">
-        <v>19988000</v>
+        <v>21685500</v>
       </c>
       <c r="H72" s="3">
-        <v>21768900</v>
+        <v>20202800</v>
       </c>
       <c r="I72" s="3">
-        <v>51841000</v>
+        <v>22002900</v>
       </c>
       <c r="J72" s="3">
+        <v>52398100</v>
+      </c>
+      <c r="K72" s="3">
         <v>22421200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>22074700</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>33629500</v>
+        <v>27665100</v>
       </c>
       <c r="E76" s="3">
-        <v>32712700</v>
+        <v>33991000</v>
       </c>
       <c r="F76" s="3">
-        <v>33892000</v>
+        <v>33064300</v>
       </c>
       <c r="G76" s="3">
-        <v>31330300</v>
+        <v>34256200</v>
       </c>
       <c r="H76" s="3">
-        <v>30674800</v>
+        <v>31667000</v>
       </c>
       <c r="I76" s="3">
-        <v>29873300</v>
+        <v>31004500</v>
       </c>
       <c r="J76" s="3">
+        <v>30194300</v>
+      </c>
+      <c r="K76" s="3">
         <v>29318800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>27629100</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2538600</v>
+        <v>-4258700</v>
       </c>
       <c r="E81" s="3">
-        <v>2297000</v>
+        <v>2560800</v>
       </c>
       <c r="F81" s="3">
-        <v>1875400</v>
+        <v>2317100</v>
       </c>
       <c r="G81" s="3">
-        <v>-1559200</v>
+        <v>1891800</v>
       </c>
       <c r="H81" s="3">
-        <v>1770000</v>
+        <v>-1572800</v>
       </c>
       <c r="I81" s="3">
-        <v>214100</v>
+        <v>1785500</v>
       </c>
       <c r="J81" s="3">
+        <v>216000</v>
+      </c>
+      <c r="K81" s="3">
         <v>2390300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2574200</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2349700</v>
+        <v>2695900</v>
       </c>
       <c r="E83" s="3">
-        <v>2634100</v>
+        <v>2370300</v>
       </c>
       <c r="F83" s="3">
-        <v>2776800</v>
+        <v>2657100</v>
       </c>
       <c r="G83" s="3">
-        <v>3430200</v>
+        <v>2801100</v>
       </c>
       <c r="H83" s="3">
-        <v>1972000</v>
+        <v>3460100</v>
       </c>
       <c r="I83" s="3">
-        <v>1669000</v>
+        <v>1989200</v>
       </c>
       <c r="J83" s="3">
+        <v>1683600</v>
+      </c>
+      <c r="K83" s="3">
         <v>2743900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2428600</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5027700</v>
+        <v>5370800</v>
       </c>
       <c r="E89" s="3">
-        <v>5614100</v>
+        <v>5071700</v>
       </c>
       <c r="F89" s="3">
-        <v>4271200</v>
+        <v>5663200</v>
       </c>
       <c r="G89" s="3">
-        <v>5419700</v>
+        <v>4308600</v>
       </c>
       <c r="H89" s="3">
-        <v>3400500</v>
+        <v>5467100</v>
       </c>
       <c r="I89" s="3">
-        <v>2936100</v>
+        <v>3430200</v>
       </c>
       <c r="J89" s="3">
+        <v>2961700</v>
+      </c>
+      <c r="K89" s="3">
         <v>7434600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4836100</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2921800</v>
+        <v>-3574200</v>
       </c>
       <c r="E91" s="3">
-        <v>-2525400</v>
+        <v>-2947300</v>
       </c>
       <c r="F91" s="3">
-        <v>-2199300</v>
+        <v>-2547500</v>
       </c>
       <c r="G91" s="3">
-        <v>-3284100</v>
+        <v>-2218500</v>
       </c>
       <c r="H91" s="3">
-        <v>-2861400</v>
+        <v>-3312800</v>
       </c>
       <c r="I91" s="3">
-        <v>-2187200</v>
+        <v>-2886400</v>
       </c>
       <c r="J91" s="3">
+        <v>-2206300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3743100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4169400</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1492200</v>
+        <v>-4881200</v>
       </c>
       <c r="E94" s="3">
-        <v>-3062300</v>
+        <v>-1505200</v>
       </c>
       <c r="F94" s="3">
-        <v>429300</v>
+        <v>-3089100</v>
       </c>
       <c r="G94" s="3">
-        <v>-9838100</v>
+        <v>433100</v>
       </c>
       <c r="H94" s="3">
-        <v>1241800</v>
+        <v>-9924100</v>
       </c>
       <c r="I94" s="3">
-        <v>341500</v>
+        <v>1252700</v>
       </c>
       <c r="J94" s="3">
+        <v>344500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4125200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6225900</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-326100</v>
+        <v>-438600</v>
       </c>
       <c r="E96" s="3">
-        <v>-364500</v>
+        <v>-329000</v>
       </c>
       <c r="F96" s="3">
-        <v>-461200</v>
+        <v>-367700</v>
       </c>
       <c r="G96" s="3">
-        <v>-535800</v>
+        <v>-465200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1879800</v>
+        <v>-540500</v>
       </c>
       <c r="I96" s="3">
-        <v>-516100</v>
+        <v>-1896200</v>
       </c>
       <c r="J96" s="3">
+        <v>-520600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1039800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1564700</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3329100</v>
+        <v>-2535300</v>
       </c>
       <c r="E100" s="3">
-        <v>-2592400</v>
+        <v>-3358200</v>
       </c>
       <c r="F100" s="3">
-        <v>-2254200</v>
+        <v>-2615000</v>
       </c>
       <c r="G100" s="3">
-        <v>1949000</v>
+        <v>-2273900</v>
       </c>
       <c r="H100" s="3">
-        <v>-5987400</v>
+        <v>1966000</v>
       </c>
       <c r="I100" s="3">
-        <v>-1492200</v>
+        <v>-6039700</v>
       </c>
       <c r="J100" s="3">
+        <v>-1505200</v>
+      </c>
+      <c r="K100" s="3">
         <v>318400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2938000</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3300</v>
       </c>
-      <c r="E101" s="3">
-        <v>-53800</v>
-      </c>
       <c r="F101" s="3">
-        <v>12100</v>
+        <v>-54300</v>
       </c>
       <c r="G101" s="3">
-        <v>64800</v>
+        <v>12200</v>
       </c>
       <c r="H101" s="3">
-        <v>161400</v>
+        <v>65300</v>
       </c>
       <c r="I101" s="3">
-        <v>-19800</v>
+        <v>162800</v>
       </c>
       <c r="J101" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-85600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-98600</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>203100</v>
+        <v>-2001400</v>
       </c>
       <c r="E102" s="3">
-        <v>-94400</v>
+        <v>204900</v>
       </c>
       <c r="F102" s="3">
-        <v>2458400</v>
+        <v>-95300</v>
       </c>
       <c r="G102" s="3">
-        <v>-2404600</v>
+        <v>2479900</v>
       </c>
       <c r="H102" s="3">
-        <v>-1183600</v>
+        <v>-2425600</v>
       </c>
       <c r="I102" s="3">
-        <v>1765600</v>
+        <v>-1194000</v>
       </c>
       <c r="J102" s="3">
+        <v>1781000</v>
+      </c>
+      <c r="K102" s="3">
         <v>3542100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4426400</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/REPYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/REPYY_YR_FIN.xlsx
@@ -665,7 +665,9 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -717,25 +719,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>54635700</v>
+        <v>58350100</v>
       </c>
       <c r="E8" s="3">
-        <v>55239300</v>
+        <v>58994800</v>
       </c>
       <c r="F8" s="3">
-        <v>46151500</v>
+        <v>49289100</v>
       </c>
       <c r="G8" s="3">
-        <v>38421500</v>
+        <v>41033600</v>
       </c>
       <c r="H8" s="3">
-        <v>44012700</v>
+        <v>47004900</v>
       </c>
       <c r="I8" s="3">
-        <v>50774600</v>
+        <v>54226500</v>
       </c>
       <c r="J8" s="3">
-        <v>51895500</v>
+        <v>55423600</v>
       </c>
       <c r="K8" s="3">
         <v>63623600</v>
@@ -750,25 +752,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>41734400</v>
+        <v>44571700</v>
       </c>
       <c r="E9" s="3">
-        <v>42825400</v>
+        <v>45736800</v>
       </c>
       <c r="F9" s="3">
-        <v>34210400</v>
+        <v>36536200</v>
       </c>
       <c r="G9" s="3">
-        <v>26013100</v>
+        <v>27781600</v>
       </c>
       <c r="H9" s="3">
-        <v>36975000</v>
+        <v>39488800</v>
       </c>
       <c r="I9" s="3">
-        <v>45959900</v>
+        <v>49084400</v>
       </c>
       <c r="J9" s="3">
-        <v>46346400</v>
+        <v>49497300</v>
       </c>
       <c r="K9" s="3">
         <v>48447100</v>
@@ -783,25 +785,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12901300</v>
+        <v>13778400</v>
       </c>
       <c r="E10" s="3">
-        <v>12414000</v>
+        <v>13257900</v>
       </c>
       <c r="F10" s="3">
-        <v>11941000</v>
+        <v>12752800</v>
       </c>
       <c r="G10" s="3">
-        <v>12408400</v>
+        <v>13252000</v>
       </c>
       <c r="H10" s="3">
-        <v>7037700</v>
+        <v>7516100</v>
       </c>
       <c r="I10" s="3">
-        <v>4814700</v>
+        <v>5142100</v>
       </c>
       <c r="J10" s="3">
-        <v>5549100</v>
+        <v>5926300</v>
       </c>
       <c r="K10" s="3">
         <v>15176600</v>
@@ -831,25 +833,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>897200</v>
+        <v>958100</v>
       </c>
       <c r="E12" s="3">
-        <v>581500</v>
+        <v>621000</v>
       </c>
       <c r="F12" s="3">
-        <v>725500</v>
+        <v>774800</v>
       </c>
       <c r="G12" s="3">
-        <v>373300</v>
+        <v>398600</v>
       </c>
       <c r="H12" s="3">
-        <v>1744500</v>
+        <v>1863100</v>
       </c>
       <c r="I12" s="3">
-        <v>440800</v>
+        <v>470800</v>
       </c>
       <c r="J12" s="3">
-        <v>186100</v>
+        <v>198700</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>8</v>
@@ -897,25 +899,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5111600</v>
+        <v>5459100</v>
       </c>
       <c r="E14" s="3">
-        <v>1260400</v>
+        <v>1346100</v>
       </c>
       <c r="F14" s="3">
-        <v>-1375600</v>
+        <v>-1469200</v>
       </c>
       <c r="G14" s="3">
-        <v>-957000</v>
+        <v>-1022000</v>
       </c>
       <c r="H14" s="3">
-        <v>2499900</v>
+        <v>2669800</v>
       </c>
       <c r="I14" s="3">
-        <v>-108500</v>
+        <v>-115900</v>
       </c>
       <c r="J14" s="3">
-        <v>17700</v>
+        <v>18900</v>
       </c>
       <c r="K14" s="3">
         <v>46100</v>
@@ -930,25 +932,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2563000</v>
+        <v>2737200</v>
       </c>
       <c r="E15" s="3">
-        <v>2118800</v>
+        <v>2262900</v>
       </c>
       <c r="F15" s="3">
-        <v>2461100</v>
+        <v>2628400</v>
       </c>
       <c r="G15" s="3">
-        <v>2534200</v>
+        <v>2706500</v>
       </c>
       <c r="H15" s="3">
-        <v>2581800</v>
+        <v>2757300</v>
       </c>
       <c r="I15" s="3">
-        <v>1548400</v>
+        <v>1653700</v>
       </c>
       <c r="J15" s="3">
-        <v>1497500</v>
+        <v>1599300</v>
       </c>
       <c r="K15" s="3">
         <v>2743900</v>
@@ -975,25 +977,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>58229900</v>
+        <v>62188600</v>
       </c>
       <c r="E17" s="3">
-        <v>52932200</v>
+        <v>56530800</v>
       </c>
       <c r="F17" s="3">
-        <v>43063500</v>
+        <v>45991200</v>
       </c>
       <c r="G17" s="3">
-        <v>36251700</v>
+        <v>38716300</v>
       </c>
       <c r="H17" s="3">
-        <v>46841500</v>
+        <v>50026000</v>
       </c>
       <c r="I17" s="3">
-        <v>50279500</v>
+        <v>53697700</v>
       </c>
       <c r="J17" s="3">
-        <v>50745800</v>
+        <v>54195700</v>
       </c>
       <c r="K17" s="3">
         <v>59629100</v>
@@ -1008,25 +1010,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3594200</v>
+        <v>-3838500</v>
       </c>
       <c r="E18" s="3">
-        <v>2307100</v>
+        <v>2464000</v>
       </c>
       <c r="F18" s="3">
-        <v>3088000</v>
+        <v>3297900</v>
       </c>
       <c r="G18" s="3">
-        <v>2169800</v>
+        <v>2317300</v>
       </c>
       <c r="H18" s="3">
-        <v>-2828800</v>
+        <v>-3021100</v>
       </c>
       <c r="I18" s="3">
-        <v>495100</v>
+        <v>528800</v>
       </c>
       <c r="J18" s="3">
-        <v>1149700</v>
+        <v>1227900</v>
       </c>
       <c r="K18" s="3">
         <v>3994500</v>
@@ -1056,25 +1058,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>167200</v>
+        <v>178600</v>
       </c>
       <c r="E20" s="3">
-        <v>1452100</v>
+        <v>1550800</v>
       </c>
       <c r="F20" s="3">
-        <v>871700</v>
+        <v>930900</v>
       </c>
       <c r="G20" s="3">
-        <v>459700</v>
+        <v>490900</v>
       </c>
       <c r="H20" s="3">
-        <v>806300</v>
+        <v>861200</v>
       </c>
       <c r="I20" s="3">
-        <v>1256000</v>
+        <v>1341400</v>
       </c>
       <c r="J20" s="3">
-        <v>870600</v>
+        <v>929800</v>
       </c>
       <c r="K20" s="3">
         <v>1168300</v>
@@ -1089,25 +1091,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-748800</v>
+        <v>-779700</v>
       </c>
       <c r="E21" s="3">
-        <v>6113800</v>
+        <v>6547000</v>
       </c>
       <c r="F21" s="3">
-        <v>6599300</v>
+        <v>7067600</v>
       </c>
       <c r="G21" s="3">
-        <v>5412100</v>
+        <v>5800800</v>
       </c>
       <c r="H21" s="3">
-        <v>1414900</v>
+        <v>1536700</v>
       </c>
       <c r="I21" s="3">
-        <v>3727300</v>
+        <v>3995400</v>
       </c>
       <c r="J21" s="3">
-        <v>3692700</v>
+        <v>3956200</v>
       </c>
       <c r="K21" s="3">
         <v>7910900</v>
@@ -1122,25 +1124,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>118500</v>
+        <v>126600</v>
       </c>
       <c r="E22" s="3">
-        <v>67600</v>
+        <v>72200</v>
       </c>
       <c r="F22" s="3">
-        <v>518400</v>
+        <v>553600</v>
       </c>
       <c r="G22" s="3">
-        <v>557100</v>
+        <v>595000</v>
       </c>
       <c r="H22" s="3">
-        <v>582600</v>
+        <v>622200</v>
       </c>
       <c r="I22" s="3">
-        <v>508400</v>
+        <v>543000</v>
       </c>
       <c r="J22" s="3">
-        <v>600300</v>
+        <v>641100</v>
       </c>
       <c r="K22" s="3">
         <v>1975300</v>
@@ -1155,25 +1157,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3545400</v>
+        <v>-3786500</v>
       </c>
       <c r="E23" s="3">
-        <v>3691600</v>
+        <v>3942600</v>
       </c>
       <c r="F23" s="3">
-        <v>3441300</v>
+        <v>3675300</v>
       </c>
       <c r="G23" s="3">
-        <v>2072300</v>
+        <v>2213200</v>
       </c>
       <c r="H23" s="3">
-        <v>-2605100</v>
+        <v>-2782200</v>
       </c>
       <c r="I23" s="3">
-        <v>1242700</v>
+        <v>1327200</v>
       </c>
       <c r="J23" s="3">
-        <v>1419900</v>
+        <v>1516500</v>
       </c>
       <c r="K23" s="3">
         <v>3187500</v>
@@ -1188,25 +1190,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>651300</v>
+        <v>695500</v>
       </c>
       <c r="E24" s="3">
-        <v>1535100</v>
+        <v>1639500</v>
       </c>
       <c r="F24" s="3">
-        <v>1351300</v>
+        <v>1443100</v>
       </c>
       <c r="G24" s="3">
-        <v>433100</v>
+        <v>462500</v>
       </c>
       <c r="H24" s="3">
-        <v>-1103200</v>
+        <v>-1178200</v>
       </c>
       <c r="I24" s="3">
-        <v>161700</v>
+        <v>172700</v>
       </c>
       <c r="J24" s="3">
-        <v>477400</v>
+        <v>509800</v>
       </c>
       <c r="K24" s="3">
         <v>1543800</v>
@@ -1254,25 +1256,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4196700</v>
+        <v>-4482000</v>
       </c>
       <c r="E26" s="3">
-        <v>2156500</v>
+        <v>2303100</v>
       </c>
       <c r="F26" s="3">
-        <v>2090000</v>
+        <v>2232100</v>
       </c>
       <c r="G26" s="3">
-        <v>1639200</v>
+        <v>1750700</v>
       </c>
       <c r="H26" s="3">
-        <v>-1501900</v>
+        <v>-1604000</v>
       </c>
       <c r="I26" s="3">
-        <v>1081000</v>
+        <v>1154500</v>
       </c>
       <c r="J26" s="3">
-        <v>942600</v>
+        <v>1006600</v>
       </c>
       <c r="K26" s="3">
         <v>1643700</v>
@@ -1287,25 +1289,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4258700</v>
+        <v>-4548300</v>
       </c>
       <c r="E27" s="3">
-        <v>2104400</v>
+        <v>2247500</v>
       </c>
       <c r="F27" s="3">
-        <v>2013600</v>
+        <v>2150500</v>
       </c>
       <c r="G27" s="3">
-        <v>1560600</v>
+        <v>1666700</v>
       </c>
       <c r="H27" s="3">
-        <v>-1572800</v>
+        <v>-1679700</v>
       </c>
       <c r="I27" s="3">
-        <v>1124200</v>
+        <v>1200600</v>
       </c>
       <c r="J27" s="3">
-        <v>973600</v>
+        <v>1039800</v>
       </c>
       <c r="K27" s="3">
         <v>1570100</v>
@@ -1356,22 +1358,22 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>456300</v>
+        <v>487400</v>
       </c>
       <c r="F29" s="3">
-        <v>303500</v>
+        <v>324100</v>
       </c>
       <c r="G29" s="3">
-        <v>331200</v>
+        <v>353700</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>661200</v>
+        <v>706200</v>
       </c>
       <c r="J29" s="3">
-        <v>-757600</v>
+        <v>-809100</v>
       </c>
       <c r="K29" s="3">
         <v>820200</v>
@@ -1452,25 +1454,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-167200</v>
+        <v>-178600</v>
       </c>
       <c r="E32" s="3">
-        <v>-1452100</v>
+        <v>-1550800</v>
       </c>
       <c r="F32" s="3">
-        <v>-871700</v>
+        <v>-930900</v>
       </c>
       <c r="G32" s="3">
-        <v>-459700</v>
+        <v>-490900</v>
       </c>
       <c r="H32" s="3">
-        <v>-806300</v>
+        <v>-861200</v>
       </c>
       <c r="I32" s="3">
-        <v>-1256000</v>
+        <v>-1341400</v>
       </c>
       <c r="J32" s="3">
-        <v>-870600</v>
+        <v>-929800</v>
       </c>
       <c r="K32" s="3">
         <v>-1168300</v>
@@ -1485,25 +1487,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4258700</v>
+        <v>-4548300</v>
       </c>
       <c r="E33" s="3">
-        <v>2560800</v>
+        <v>2734900</v>
       </c>
       <c r="F33" s="3">
-        <v>2317100</v>
+        <v>2474600</v>
       </c>
       <c r="G33" s="3">
-        <v>1891800</v>
+        <v>2020400</v>
       </c>
       <c r="H33" s="3">
-        <v>-1572800</v>
+        <v>-1679700</v>
       </c>
       <c r="I33" s="3">
-        <v>1785500</v>
+        <v>1906800</v>
       </c>
       <c r="J33" s="3">
-        <v>216000</v>
+        <v>230700</v>
       </c>
       <c r="K33" s="3">
         <v>2390300</v>
@@ -1551,25 +1553,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4258700</v>
+        <v>-4548300</v>
       </c>
       <c r="E35" s="3">
-        <v>2560800</v>
+        <v>2734900</v>
       </c>
       <c r="F35" s="3">
-        <v>2317100</v>
+        <v>2474600</v>
       </c>
       <c r="G35" s="3">
-        <v>1891800</v>
+        <v>2020400</v>
       </c>
       <c r="H35" s="3">
-        <v>-1572800</v>
+        <v>-1679700</v>
       </c>
       <c r="I35" s="3">
-        <v>1785500</v>
+        <v>1906800</v>
       </c>
       <c r="J35" s="3">
-        <v>216000</v>
+        <v>230700</v>
       </c>
       <c r="K35" s="3">
         <v>2390300</v>
@@ -1652,25 +1654,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2630200</v>
+        <v>2803500</v>
       </c>
       <c r="E41" s="3">
-        <v>4576800</v>
+        <v>4878300</v>
       </c>
       <c r="F41" s="3">
-        <v>4165100</v>
+        <v>4439400</v>
       </c>
       <c r="G41" s="3">
-        <v>3559100</v>
+        <v>3793600</v>
       </c>
       <c r="H41" s="3">
-        <v>5281500</v>
+        <v>5629400</v>
       </c>
       <c r="I41" s="3">
-        <v>2452700</v>
+        <v>2614200</v>
       </c>
       <c r="J41" s="3">
-        <v>10684000</v>
+        <v>11387800</v>
       </c>
       <c r="K41" s="3">
         <v>6481500</v>
@@ -1685,25 +1687,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3969800</v>
+        <v>4231200</v>
       </c>
       <c r="E42" s="3">
-        <v>2901000</v>
+        <v>3092100</v>
       </c>
       <c r="F42" s="3">
-        <v>1292900</v>
+        <v>1378100</v>
       </c>
       <c r="G42" s="3">
-        <v>3134100</v>
+        <v>3340500</v>
       </c>
       <c r="H42" s="3">
-        <v>1983200</v>
+        <v>2113800</v>
       </c>
       <c r="I42" s="3">
-        <v>6041800</v>
+        <v>6439700</v>
       </c>
       <c r="J42" s="3">
-        <v>2422700</v>
+        <v>2582300</v>
       </c>
       <c r="K42" s="3">
         <v>455700</v>
@@ -1718,25 +1720,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6373600</v>
+        <v>6793400</v>
       </c>
       <c r="E43" s="3">
-        <v>6507900</v>
+        <v>6936500</v>
       </c>
       <c r="F43" s="3">
-        <v>6494500</v>
+        <v>6922300</v>
       </c>
       <c r="G43" s="3">
-        <v>6460100</v>
+        <v>6885700</v>
       </c>
       <c r="H43" s="3">
-        <v>15043300</v>
+        <v>16034200</v>
       </c>
       <c r="I43" s="3">
-        <v>5751000</v>
+        <v>6129800</v>
       </c>
       <c r="J43" s="3">
-        <v>15975600</v>
+        <v>17027800</v>
       </c>
       <c r="K43" s="3">
         <v>8543500</v>
@@ -1751,25 +1753,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5101800</v>
+        <v>5437800</v>
       </c>
       <c r="E44" s="3">
-        <v>4872000</v>
+        <v>5192900</v>
       </c>
       <c r="F44" s="3">
-        <v>4213900</v>
+        <v>4491500</v>
       </c>
       <c r="G44" s="3">
-        <v>4000800</v>
+        <v>4264400</v>
       </c>
       <c r="H44" s="3">
-        <v>6332500</v>
+        <v>6749600</v>
       </c>
       <c r="I44" s="3">
-        <v>4362600</v>
+        <v>4650000</v>
       </c>
       <c r="J44" s="3">
-        <v>10960400</v>
+        <v>11682300</v>
       </c>
       <c r="K44" s="3">
         <v>6040100</v>
@@ -1784,25 +1786,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>222000</v>
+        <v>236600</v>
       </c>
       <c r="E45" s="3">
-        <v>335200</v>
+        <v>357200</v>
       </c>
       <c r="F45" s="3">
-        <v>226400</v>
+        <v>241300</v>
       </c>
       <c r="G45" s="3">
-        <v>522700</v>
+        <v>557100</v>
       </c>
       <c r="H45" s="3">
-        <v>591500</v>
+        <v>630500</v>
       </c>
       <c r="I45" s="3">
-        <v>304100</v>
+        <v>324100</v>
       </c>
       <c r="J45" s="3">
-        <v>2034300</v>
+        <v>2168300</v>
       </c>
       <c r="K45" s="3">
         <v>616000</v>
@@ -1817,25 +1819,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18297300</v>
+        <v>19502500</v>
       </c>
       <c r="E46" s="3">
-        <v>19192900</v>
+        <v>20457100</v>
       </c>
       <c r="F46" s="3">
-        <v>16392900</v>
+        <v>17472600</v>
       </c>
       <c r="G46" s="3">
-        <v>17676900</v>
+        <v>18841200</v>
       </c>
       <c r="H46" s="3">
-        <v>14152200</v>
+        <v>15084300</v>
       </c>
       <c r="I46" s="3">
-        <v>18912100</v>
+        <v>20157800</v>
       </c>
       <c r="J46" s="3">
-        <v>19727800</v>
+        <v>21027200</v>
       </c>
       <c r="K46" s="3">
         <v>22136800</v>
@@ -1850,25 +1852,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9290100</v>
+        <v>9902100</v>
       </c>
       <c r="E47" s="3">
-        <v>9244600</v>
+        <v>9853600</v>
       </c>
       <c r="F47" s="3">
-        <v>12549600</v>
+        <v>13376200</v>
       </c>
       <c r="G47" s="3">
-        <v>12629500</v>
+        <v>13461400</v>
       </c>
       <c r="H47" s="3">
-        <v>13890300</v>
+        <v>14805200</v>
       </c>
       <c r="I47" s="3">
-        <v>12988000</v>
+        <v>13843500</v>
       </c>
       <c r="J47" s="3">
-        <v>14927900</v>
+        <v>15911200</v>
       </c>
       <c r="K47" s="3">
         <v>8171300</v>
@@ -1883,25 +1885,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25759600</v>
+        <v>27456300</v>
       </c>
       <c r="E48" s="3">
-        <v>28298800</v>
+        <v>30162800</v>
       </c>
       <c r="F48" s="3">
-        <v>27375400</v>
+        <v>29178600</v>
       </c>
       <c r="G48" s="3">
-        <v>30367500</v>
+        <v>32367700</v>
       </c>
       <c r="H48" s="3">
-        <v>62626000</v>
+        <v>66751000</v>
       </c>
       <c r="I48" s="3">
-        <v>19048600</v>
+        <v>20303300</v>
       </c>
       <c r="J48" s="3">
-        <v>35597900</v>
+        <v>37942700</v>
       </c>
       <c r="K48" s="3">
         <v>31020700</v>
@@ -1916,25 +1918,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4960800</v>
+        <v>5287600</v>
       </c>
       <c r="E49" s="3">
-        <v>5655500</v>
+        <v>6028100</v>
       </c>
       <c r="F49" s="3">
-        <v>5087300</v>
+        <v>5422400</v>
       </c>
       <c r="G49" s="3">
-        <v>5670000</v>
+        <v>6043400</v>
       </c>
       <c r="H49" s="3">
-        <v>10623000</v>
+        <v>11322700</v>
       </c>
       <c r="I49" s="3">
-        <v>2063100</v>
+        <v>2199000</v>
       </c>
       <c r="J49" s="3">
-        <v>6232600</v>
+        <v>6643200</v>
       </c>
       <c r="K49" s="3">
         <v>6054400</v>
@@ -2015,25 +2017,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5944100</v>
+        <v>6335600</v>
       </c>
       <c r="E52" s="3">
-        <v>5059600</v>
+        <v>5392800</v>
       </c>
       <c r="F52" s="3">
-        <v>5024100</v>
+        <v>5355000</v>
       </c>
       <c r="G52" s="3">
-        <v>5625600</v>
+        <v>5996100</v>
       </c>
       <c r="H52" s="3">
-        <v>5747700</v>
+        <v>6126200</v>
       </c>
       <c r="I52" s="3">
-        <v>4574600</v>
+        <v>4875900</v>
       </c>
       <c r="J52" s="3">
-        <v>8897300</v>
+        <v>9483300</v>
       </c>
       <c r="K52" s="3">
         <v>3900100</v>
@@ -2081,25 +2083,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>64251900</v>
+        <v>68484000</v>
       </c>
       <c r="E54" s="3">
-        <v>67451400</v>
+        <v>71894300</v>
       </c>
       <c r="F54" s="3">
-        <v>66429300</v>
+        <v>70804800</v>
       </c>
       <c r="G54" s="3">
-        <v>71969400</v>
+        <v>76709900</v>
       </c>
       <c r="H54" s="3">
-        <v>70134900</v>
+        <v>74754500</v>
       </c>
       <c r="I54" s="3">
-        <v>57586400</v>
+        <v>61379500</v>
       </c>
       <c r="J54" s="3">
-        <v>61646100</v>
+        <v>65706500</v>
       </c>
       <c r="K54" s="3">
         <v>71283300</v>
@@ -2144,25 +2146,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4037500</v>
+        <v>4303400</v>
       </c>
       <c r="E57" s="3">
-        <v>3600200</v>
+        <v>3837300</v>
       </c>
       <c r="F57" s="3">
-        <v>3038600</v>
+        <v>3238800</v>
       </c>
       <c r="G57" s="3">
-        <v>2361700</v>
+        <v>2517200</v>
       </c>
       <c r="H57" s="3">
-        <v>1996500</v>
+        <v>2128000</v>
       </c>
       <c r="I57" s="3">
-        <v>2608000</v>
+        <v>2779800</v>
       </c>
       <c r="J57" s="3">
-        <v>2872200</v>
+        <v>3061300</v>
       </c>
       <c r="K57" s="3">
         <v>4804800</v>
@@ -2177,25 +2179,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7150400</v>
+        <v>7621400</v>
       </c>
       <c r="E58" s="3">
-        <v>4168400</v>
+        <v>4443000</v>
       </c>
       <c r="F58" s="3">
-        <v>4594600</v>
+        <v>4897200</v>
       </c>
       <c r="G58" s="3">
-        <v>4328200</v>
+        <v>4613300</v>
       </c>
       <c r="H58" s="3">
-        <v>4761000</v>
+        <v>5074600</v>
       </c>
       <c r="I58" s="3">
-        <v>1655800</v>
+        <v>1764900</v>
       </c>
       <c r="J58" s="3">
-        <v>3958700</v>
+        <v>4219400</v>
       </c>
       <c r="K58" s="3">
         <v>4407400</v>
@@ -2210,25 +2212,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5553400</v>
+        <v>5919200</v>
       </c>
       <c r="E59" s="3">
-        <v>6447900</v>
+        <v>6872600</v>
       </c>
       <c r="F59" s="3">
-        <v>5723200</v>
+        <v>6100200</v>
       </c>
       <c r="G59" s="3">
-        <v>9665200</v>
+        <v>10301900</v>
       </c>
       <c r="H59" s="3">
-        <v>23609900</v>
+        <v>25165000</v>
       </c>
       <c r="I59" s="3">
-        <v>7103800</v>
+        <v>7571700</v>
       </c>
       <c r="J59" s="3">
-        <v>17943200</v>
+        <v>19125100</v>
       </c>
       <c r="K59" s="3">
         <v>5402200</v>
@@ -2243,25 +2245,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16741300</v>
+        <v>17844000</v>
       </c>
       <c r="E60" s="3">
-        <v>14216500</v>
+        <v>15152900</v>
       </c>
       <c r="F60" s="3">
-        <v>13356400</v>
+        <v>14236200</v>
       </c>
       <c r="G60" s="3">
-        <v>16355100</v>
+        <v>17432400</v>
       </c>
       <c r="H60" s="3">
-        <v>16066600</v>
+        <v>17124800</v>
       </c>
       <c r="I60" s="3">
-        <v>11367700</v>
+        <v>12116400</v>
       </c>
       <c r="J60" s="3">
-        <v>14844700</v>
+        <v>15822500</v>
       </c>
       <c r="K60" s="3">
         <v>14614400</v>
@@ -2276,25 +2278,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11940300</v>
+        <v>12726800</v>
       </c>
       <c r="E61" s="3">
-        <v>8829600</v>
+        <v>9411200</v>
       </c>
       <c r="F61" s="3">
-        <v>9691900</v>
+        <v>10330300</v>
       </c>
       <c r="G61" s="3">
-        <v>12147900</v>
+        <v>12948000</v>
       </c>
       <c r="H61" s="3">
-        <v>13340900</v>
+        <v>14219600</v>
       </c>
       <c r="I61" s="3">
-        <v>9919400</v>
+        <v>10572800</v>
       </c>
       <c r="J61" s="3">
-        <v>10738400</v>
+        <v>11445700</v>
       </c>
       <c r="K61" s="3">
         <v>19813400</v>
@@ -2309,25 +2311,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7593300</v>
+        <v>8093400</v>
       </c>
       <c r="E62" s="3">
-        <v>10097000</v>
+        <v>10762000</v>
       </c>
       <c r="F62" s="3">
-        <v>10017100</v>
+        <v>10676900</v>
       </c>
       <c r="G62" s="3">
-        <v>8939400</v>
+        <v>9528300</v>
       </c>
       <c r="H62" s="3">
-        <v>15274200</v>
+        <v>16280300</v>
       </c>
       <c r="I62" s="3">
-        <v>5054000</v>
+        <v>5386900</v>
       </c>
       <c r="J62" s="3">
-        <v>10142500</v>
+        <v>10810500</v>
       </c>
       <c r="K62" s="3">
         <v>6691200</v>
@@ -2441,25 +2443,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>36586800</v>
+        <v>38996700</v>
       </c>
       <c r="E66" s="3">
-        <v>33460500</v>
+        <v>35664400</v>
       </c>
       <c r="F66" s="3">
-        <v>33365000</v>
+        <v>35562700</v>
       </c>
       <c r="G66" s="3">
-        <v>37713200</v>
+        <v>40197300</v>
       </c>
       <c r="H66" s="3">
-        <v>38467900</v>
+        <v>41001700</v>
       </c>
       <c r="I66" s="3">
-        <v>26581900</v>
+        <v>28332800</v>
       </c>
       <c r="J66" s="3">
-        <v>31451700</v>
+        <v>33523400</v>
       </c>
       <c r="K66" s="3">
         <v>41964500</v>
@@ -2621,25 +2623,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18463700</v>
+        <v>19679900</v>
       </c>
       <c r="E72" s="3">
-        <v>24201400</v>
+        <v>25795500</v>
       </c>
       <c r="F72" s="3">
-        <v>23565500</v>
+        <v>25117700</v>
       </c>
       <c r="G72" s="3">
-        <v>21685500</v>
+        <v>23113900</v>
       </c>
       <c r="H72" s="3">
-        <v>20202800</v>
+        <v>21533500</v>
       </c>
       <c r="I72" s="3">
-        <v>22002900</v>
+        <v>23452200</v>
       </c>
       <c r="J72" s="3">
-        <v>52398100</v>
+        <v>55849400</v>
       </c>
       <c r="K72" s="3">
         <v>22421200</v>
@@ -2753,25 +2755,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>27665100</v>
+        <v>29487300</v>
       </c>
       <c r="E76" s="3">
-        <v>33991000</v>
+        <v>36229900</v>
       </c>
       <c r="F76" s="3">
-        <v>33064300</v>
+        <v>35242100</v>
       </c>
       <c r="G76" s="3">
-        <v>34256200</v>
+        <v>36512600</v>
       </c>
       <c r="H76" s="3">
-        <v>31667000</v>
+        <v>33752900</v>
       </c>
       <c r="I76" s="3">
-        <v>31004500</v>
+        <v>33046700</v>
       </c>
       <c r="J76" s="3">
-        <v>30194300</v>
+        <v>32183200</v>
       </c>
       <c r="K76" s="3">
         <v>29318800</v>
@@ -2857,25 +2859,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4258700</v>
+        <v>-4548300</v>
       </c>
       <c r="E81" s="3">
-        <v>2560800</v>
+        <v>2734900</v>
       </c>
       <c r="F81" s="3">
-        <v>2317100</v>
+        <v>2474600</v>
       </c>
       <c r="G81" s="3">
-        <v>1891800</v>
+        <v>2020400</v>
       </c>
       <c r="H81" s="3">
-        <v>-1572800</v>
+        <v>-1679700</v>
       </c>
       <c r="I81" s="3">
-        <v>1785500</v>
+        <v>1906800</v>
       </c>
       <c r="J81" s="3">
-        <v>216000</v>
+        <v>230700</v>
       </c>
       <c r="K81" s="3">
         <v>2390300</v>
@@ -2905,25 +2907,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2695900</v>
+        <v>2879200</v>
       </c>
       <c r="E83" s="3">
-        <v>2370300</v>
+        <v>2531400</v>
       </c>
       <c r="F83" s="3">
-        <v>2657100</v>
+        <v>2837800</v>
       </c>
       <c r="G83" s="3">
-        <v>2801100</v>
+        <v>2991600</v>
       </c>
       <c r="H83" s="3">
-        <v>3460100</v>
+        <v>3695400</v>
       </c>
       <c r="I83" s="3">
-        <v>1989200</v>
+        <v>2124500</v>
       </c>
       <c r="J83" s="3">
-        <v>1683600</v>
+        <v>1798000</v>
       </c>
       <c r="K83" s="3">
         <v>2743900</v>
@@ -3103,25 +3105,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5370800</v>
+        <v>5735900</v>
       </c>
       <c r="E89" s="3">
-        <v>5071700</v>
+        <v>5416500</v>
       </c>
       <c r="F89" s="3">
-        <v>5663200</v>
+        <v>6048200</v>
       </c>
       <c r="G89" s="3">
-        <v>4308600</v>
+        <v>4601500</v>
       </c>
       <c r="H89" s="3">
-        <v>5467100</v>
+        <v>5838800</v>
       </c>
       <c r="I89" s="3">
-        <v>3430200</v>
+        <v>3663400</v>
       </c>
       <c r="J89" s="3">
-        <v>2961700</v>
+        <v>3163100</v>
       </c>
       <c r="K89" s="3">
         <v>7434600</v>
@@ -3151,25 +3153,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3574200</v>
+        <v>-3817200</v>
       </c>
       <c r="E91" s="3">
-        <v>-2947300</v>
+        <v>-3147700</v>
       </c>
       <c r="F91" s="3">
-        <v>-2547500</v>
+        <v>-2720700</v>
       </c>
       <c r="G91" s="3">
-        <v>-2218500</v>
+        <v>-2369300</v>
       </c>
       <c r="H91" s="3">
-        <v>-3312800</v>
+        <v>-3538100</v>
       </c>
       <c r="I91" s="3">
-        <v>-2886400</v>
+        <v>-3082600</v>
       </c>
       <c r="J91" s="3">
-        <v>-2206300</v>
+        <v>-2356300</v>
       </c>
       <c r="K91" s="3">
         <v>-3743100</v>
@@ -3250,25 +3252,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4881200</v>
+        <v>-5213000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1505200</v>
+        <v>-1607600</v>
       </c>
       <c r="F94" s="3">
-        <v>-3089100</v>
+        <v>-3299100</v>
       </c>
       <c r="G94" s="3">
-        <v>433100</v>
+        <v>462500</v>
       </c>
       <c r="H94" s="3">
-        <v>-9924100</v>
+        <v>-10598800</v>
       </c>
       <c r="I94" s="3">
-        <v>1252700</v>
+        <v>1337900</v>
       </c>
       <c r="J94" s="3">
-        <v>344500</v>
+        <v>367900</v>
       </c>
       <c r="K94" s="3">
         <v>-4125200</v>
@@ -3298,25 +3300,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-438600</v>
+        <v>-468400</v>
       </c>
       <c r="E96" s="3">
-        <v>-329000</v>
+        <v>-351300</v>
       </c>
       <c r="F96" s="3">
-        <v>-367700</v>
+        <v>-392700</v>
       </c>
       <c r="G96" s="3">
-        <v>-465200</v>
+        <v>-496800</v>
       </c>
       <c r="H96" s="3">
-        <v>-540500</v>
+        <v>-577300</v>
       </c>
       <c r="I96" s="3">
-        <v>-1896200</v>
+        <v>-2025100</v>
       </c>
       <c r="J96" s="3">
-        <v>-520600</v>
+        <v>-556000</v>
       </c>
       <c r="K96" s="3">
         <v>-1039800</v>
@@ -3430,25 +3432,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2535300</v>
+        <v>-2707700</v>
       </c>
       <c r="E100" s="3">
-        <v>-3358200</v>
+        <v>-3586600</v>
       </c>
       <c r="F100" s="3">
-        <v>-2615000</v>
+        <v>-2792800</v>
       </c>
       <c r="G100" s="3">
-        <v>-2273900</v>
+        <v>-2428500</v>
       </c>
       <c r="H100" s="3">
-        <v>1966000</v>
+        <v>2099600</v>
       </c>
       <c r="I100" s="3">
-        <v>-6039700</v>
+        <v>-6450400</v>
       </c>
       <c r="J100" s="3">
-        <v>-1505200</v>
+        <v>-1607600</v>
       </c>
       <c r="K100" s="3">
         <v>318400</v>
@@ -3463,25 +3465,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>44300</v>
+        <v>47300</v>
       </c>
       <c r="E101" s="3">
-        <v>-3300</v>
+        <v>-3500</v>
       </c>
       <c r="F101" s="3">
-        <v>-54300</v>
+        <v>-58000</v>
       </c>
       <c r="G101" s="3">
-        <v>12200</v>
+        <v>13000</v>
       </c>
       <c r="H101" s="3">
-        <v>65300</v>
+        <v>69800</v>
       </c>
       <c r="I101" s="3">
-        <v>162800</v>
+        <v>173900</v>
       </c>
       <c r="J101" s="3">
-        <v>-19900</v>
+        <v>-21300</v>
       </c>
       <c r="K101" s="3">
         <v>-85600</v>
@@ -3496,25 +3498,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2001400</v>
+        <v>-2137500</v>
       </c>
       <c r="E102" s="3">
-        <v>204900</v>
+        <v>218800</v>
       </c>
       <c r="F102" s="3">
-        <v>-95300</v>
+        <v>-101700</v>
       </c>
       <c r="G102" s="3">
-        <v>2479900</v>
+        <v>2648500</v>
       </c>
       <c r="H102" s="3">
-        <v>-2425600</v>
+        <v>-2590600</v>
       </c>
       <c r="I102" s="3">
-        <v>-1194000</v>
+        <v>-1275200</v>
       </c>
       <c r="J102" s="3">
-        <v>1781000</v>
+        <v>1902100</v>
       </c>
       <c r="K102" s="3">
         <v>3542100</v>

--- a/AAII_Financials/Yearly/REPYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/REPYY_YR_FIN.xlsx
@@ -719,25 +719,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>58350100</v>
+        <v>59006200</v>
       </c>
       <c r="E8" s="3">
-        <v>58994800</v>
+        <v>59658100</v>
       </c>
       <c r="F8" s="3">
-        <v>49289100</v>
+        <v>49843300</v>
       </c>
       <c r="G8" s="3">
-        <v>41033600</v>
+        <v>41495000</v>
       </c>
       <c r="H8" s="3">
-        <v>47004900</v>
+        <v>47533400</v>
       </c>
       <c r="I8" s="3">
-        <v>54226500</v>
+        <v>54836200</v>
       </c>
       <c r="J8" s="3">
-        <v>55423600</v>
+        <v>56046800</v>
       </c>
       <c r="K8" s="3">
         <v>63623600</v>
@@ -752,25 +752,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>44571700</v>
+        <v>45072800</v>
       </c>
       <c r="E9" s="3">
-        <v>45736800</v>
+        <v>46251100</v>
       </c>
       <c r="F9" s="3">
-        <v>36536200</v>
+        <v>36947000</v>
       </c>
       <c r="G9" s="3">
-        <v>27781600</v>
+        <v>28094000</v>
       </c>
       <c r="H9" s="3">
-        <v>39488800</v>
+        <v>39932700</v>
       </c>
       <c r="I9" s="3">
-        <v>49084400</v>
+        <v>49636300</v>
       </c>
       <c r="J9" s="3">
-        <v>49497300</v>
+        <v>50053800</v>
       </c>
       <c r="K9" s="3">
         <v>48447100</v>
@@ -785,25 +785,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>13778400</v>
+        <v>13933300</v>
       </c>
       <c r="E10" s="3">
-        <v>13257900</v>
+        <v>13407000</v>
       </c>
       <c r="F10" s="3">
-        <v>12752800</v>
+        <v>12896200</v>
       </c>
       <c r="G10" s="3">
-        <v>13252000</v>
+        <v>13401000</v>
       </c>
       <c r="H10" s="3">
-        <v>7516100</v>
+        <v>7600700</v>
       </c>
       <c r="I10" s="3">
-        <v>5142100</v>
+        <v>5199900</v>
       </c>
       <c r="J10" s="3">
-        <v>5926300</v>
+        <v>5993000</v>
       </c>
       <c r="K10" s="3">
         <v>15176600</v>
@@ -833,25 +833,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>958100</v>
+        <v>968900</v>
       </c>
       <c r="E12" s="3">
-        <v>621000</v>
+        <v>628000</v>
       </c>
       <c r="F12" s="3">
-        <v>774800</v>
+        <v>783500</v>
       </c>
       <c r="G12" s="3">
-        <v>398600</v>
+        <v>403100</v>
       </c>
       <c r="H12" s="3">
-        <v>1863100</v>
+        <v>1884000</v>
       </c>
       <c r="I12" s="3">
-        <v>470800</v>
+        <v>476100</v>
       </c>
       <c r="J12" s="3">
-        <v>198700</v>
+        <v>201000</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>8</v>
@@ -899,25 +899,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5459100</v>
+        <v>5520500</v>
       </c>
       <c r="E14" s="3">
-        <v>1346100</v>
+        <v>1361300</v>
       </c>
       <c r="F14" s="3">
-        <v>-1469200</v>
+        <v>-1485700</v>
       </c>
       <c r="G14" s="3">
-        <v>-1022000</v>
+        <v>-1033500</v>
       </c>
       <c r="H14" s="3">
-        <v>2669800</v>
+        <v>2699800</v>
       </c>
       <c r="I14" s="3">
-        <v>-115900</v>
+        <v>-117200</v>
       </c>
       <c r="J14" s="3">
-        <v>18900</v>
+        <v>19100</v>
       </c>
       <c r="K14" s="3">
         <v>46100</v>
@@ -932,25 +932,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2737200</v>
+        <v>2768000</v>
       </c>
       <c r="E15" s="3">
-        <v>2262900</v>
+        <v>2288300</v>
       </c>
       <c r="F15" s="3">
-        <v>2628400</v>
+        <v>2658000</v>
       </c>
       <c r="G15" s="3">
-        <v>2706500</v>
+        <v>2736900</v>
       </c>
       <c r="H15" s="3">
-        <v>2757300</v>
+        <v>2788300</v>
       </c>
       <c r="I15" s="3">
-        <v>1653700</v>
+        <v>1672300</v>
       </c>
       <c r="J15" s="3">
-        <v>1599300</v>
+        <v>1617300</v>
       </c>
       <c r="K15" s="3">
         <v>2743900</v>
@@ -977,25 +977,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>62188600</v>
+        <v>62887800</v>
       </c>
       <c r="E17" s="3">
-        <v>56530800</v>
+        <v>57166400</v>
       </c>
       <c r="F17" s="3">
-        <v>45991200</v>
+        <v>46508300</v>
       </c>
       <c r="G17" s="3">
-        <v>38716300</v>
+        <v>39151600</v>
       </c>
       <c r="H17" s="3">
-        <v>50026000</v>
+        <v>50588500</v>
       </c>
       <c r="I17" s="3">
-        <v>53697700</v>
+        <v>54301500</v>
       </c>
       <c r="J17" s="3">
-        <v>54195700</v>
+        <v>54805100</v>
       </c>
       <c r="K17" s="3">
         <v>59629100</v>
@@ -1010,25 +1010,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3838500</v>
+        <v>-3881700</v>
       </c>
       <c r="E18" s="3">
-        <v>2464000</v>
+        <v>2491700</v>
       </c>
       <c r="F18" s="3">
-        <v>3297900</v>
+        <v>3335000</v>
       </c>
       <c r="G18" s="3">
-        <v>2317300</v>
+        <v>2343400</v>
       </c>
       <c r="H18" s="3">
-        <v>-3021100</v>
+        <v>-3055100</v>
       </c>
       <c r="I18" s="3">
-        <v>528800</v>
+        <v>534700</v>
       </c>
       <c r="J18" s="3">
-        <v>1227900</v>
+        <v>1241700</v>
       </c>
       <c r="K18" s="3">
         <v>3994500</v>
@@ -1058,25 +1058,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>178600</v>
+        <v>180600</v>
       </c>
       <c r="E20" s="3">
-        <v>1550800</v>
+        <v>1568200</v>
       </c>
       <c r="F20" s="3">
-        <v>930900</v>
+        <v>941400</v>
       </c>
       <c r="G20" s="3">
-        <v>490900</v>
+        <v>496400</v>
       </c>
       <c r="H20" s="3">
-        <v>861200</v>
+        <v>870800</v>
       </c>
       <c r="I20" s="3">
-        <v>1341400</v>
+        <v>1356500</v>
       </c>
       <c r="J20" s="3">
-        <v>929800</v>
+        <v>940200</v>
       </c>
       <c r="K20" s="3">
         <v>1168300</v>
@@ -1091,25 +1091,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-779700</v>
+        <v>-801400</v>
       </c>
       <c r="E21" s="3">
-        <v>6547000</v>
+        <v>6609300</v>
       </c>
       <c r="F21" s="3">
-        <v>7067600</v>
+        <v>7134300</v>
       </c>
       <c r="G21" s="3">
-        <v>5800800</v>
+        <v>5852600</v>
       </c>
       <c r="H21" s="3">
-        <v>1536700</v>
+        <v>1537400</v>
       </c>
       <c r="I21" s="3">
-        <v>3995400</v>
+        <v>4030800</v>
       </c>
       <c r="J21" s="3">
-        <v>3956200</v>
+        <v>3992600</v>
       </c>
       <c r="K21" s="3">
         <v>7910900</v>
@@ -1124,25 +1124,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>126600</v>
+        <v>128000</v>
       </c>
       <c r="E22" s="3">
-        <v>72200</v>
+        <v>73000</v>
       </c>
       <c r="F22" s="3">
-        <v>553600</v>
+        <v>559800</v>
       </c>
       <c r="G22" s="3">
-        <v>595000</v>
+        <v>601700</v>
       </c>
       <c r="H22" s="3">
-        <v>622200</v>
+        <v>629200</v>
       </c>
       <c r="I22" s="3">
-        <v>543000</v>
+        <v>549100</v>
       </c>
       <c r="J22" s="3">
-        <v>641100</v>
+        <v>648300</v>
       </c>
       <c r="K22" s="3">
         <v>1975300</v>
@@ -1157,25 +1157,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3786500</v>
+        <v>-3829000</v>
       </c>
       <c r="E23" s="3">
-        <v>3942600</v>
+        <v>3986900</v>
       </c>
       <c r="F23" s="3">
-        <v>3675300</v>
+        <v>3716600</v>
       </c>
       <c r="G23" s="3">
-        <v>2213200</v>
+        <v>2238100</v>
       </c>
       <c r="H23" s="3">
-        <v>-2782200</v>
+        <v>-2813500</v>
       </c>
       <c r="I23" s="3">
-        <v>1327200</v>
+        <v>1342100</v>
       </c>
       <c r="J23" s="3">
-        <v>1516500</v>
+        <v>1533500</v>
       </c>
       <c r="K23" s="3">
         <v>3187500</v>
@@ -1190,25 +1190,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>695500</v>
+        <v>703400</v>
       </c>
       <c r="E24" s="3">
-        <v>1639500</v>
+        <v>1657900</v>
       </c>
       <c r="F24" s="3">
-        <v>1443100</v>
+        <v>1459400</v>
       </c>
       <c r="G24" s="3">
-        <v>462500</v>
+        <v>467700</v>
       </c>
       <c r="H24" s="3">
-        <v>-1178200</v>
+        <v>-1191400</v>
       </c>
       <c r="I24" s="3">
-        <v>172700</v>
+        <v>174600</v>
       </c>
       <c r="J24" s="3">
-        <v>509800</v>
+        <v>515600</v>
       </c>
       <c r="K24" s="3">
         <v>1543800</v>
@@ -1256,25 +1256,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4482000</v>
+        <v>-4532400</v>
       </c>
       <c r="E26" s="3">
-        <v>2303100</v>
+        <v>2329000</v>
       </c>
       <c r="F26" s="3">
-        <v>2232100</v>
+        <v>2257200</v>
       </c>
       <c r="G26" s="3">
-        <v>1750700</v>
+        <v>1770400</v>
       </c>
       <c r="H26" s="3">
-        <v>-1604000</v>
+        <v>-1622000</v>
       </c>
       <c r="I26" s="3">
-        <v>1154500</v>
+        <v>1167500</v>
       </c>
       <c r="J26" s="3">
-        <v>1006600</v>
+        <v>1018000</v>
       </c>
       <c r="K26" s="3">
         <v>1643700</v>
@@ -1289,25 +1289,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4548300</v>
+        <v>-4599400</v>
       </c>
       <c r="E27" s="3">
-        <v>2247500</v>
+        <v>2272800</v>
       </c>
       <c r="F27" s="3">
-        <v>2150500</v>
+        <v>2174700</v>
       </c>
       <c r="G27" s="3">
-        <v>1666700</v>
+        <v>1685400</v>
       </c>
       <c r="H27" s="3">
-        <v>-1679700</v>
+        <v>-1698600</v>
       </c>
       <c r="I27" s="3">
-        <v>1200600</v>
+        <v>1214100</v>
       </c>
       <c r="J27" s="3">
-        <v>1039800</v>
+        <v>1051500</v>
       </c>
       <c r="K27" s="3">
         <v>1570100</v>
@@ -1358,22 +1358,22 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>487400</v>
+        <v>492800</v>
       </c>
       <c r="F29" s="3">
-        <v>324100</v>
+        <v>327800</v>
       </c>
       <c r="G29" s="3">
-        <v>353700</v>
+        <v>357700</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>706200</v>
+        <v>714100</v>
       </c>
       <c r="J29" s="3">
-        <v>-809100</v>
+        <v>-818200</v>
       </c>
       <c r="K29" s="3">
         <v>820200</v>
@@ -1454,25 +1454,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-178600</v>
+        <v>-180600</v>
       </c>
       <c r="E32" s="3">
-        <v>-1550800</v>
+        <v>-1568200</v>
       </c>
       <c r="F32" s="3">
-        <v>-930900</v>
+        <v>-941400</v>
       </c>
       <c r="G32" s="3">
-        <v>-490900</v>
+        <v>-496400</v>
       </c>
       <c r="H32" s="3">
-        <v>-861200</v>
+        <v>-870800</v>
       </c>
       <c r="I32" s="3">
-        <v>-1341400</v>
+        <v>-1356500</v>
       </c>
       <c r="J32" s="3">
-        <v>-929800</v>
+        <v>-940200</v>
       </c>
       <c r="K32" s="3">
         <v>-1168300</v>
@@ -1487,25 +1487,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4548300</v>
+        <v>-4599400</v>
       </c>
       <c r="E33" s="3">
-        <v>2734900</v>
+        <v>2765600</v>
       </c>
       <c r="F33" s="3">
-        <v>2474600</v>
+        <v>2502500</v>
       </c>
       <c r="G33" s="3">
-        <v>2020400</v>
+        <v>2043100</v>
       </c>
       <c r="H33" s="3">
-        <v>-1679700</v>
+        <v>-1698600</v>
       </c>
       <c r="I33" s="3">
-        <v>1906800</v>
+        <v>1928300</v>
       </c>
       <c r="J33" s="3">
-        <v>230700</v>
+        <v>233300</v>
       </c>
       <c r="K33" s="3">
         <v>2390300</v>
@@ -1553,25 +1553,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4548300</v>
+        <v>-4599400</v>
       </c>
       <c r="E35" s="3">
-        <v>2734900</v>
+        <v>2765600</v>
       </c>
       <c r="F35" s="3">
-        <v>2474600</v>
+        <v>2502500</v>
       </c>
       <c r="G35" s="3">
-        <v>2020400</v>
+        <v>2043100</v>
       </c>
       <c r="H35" s="3">
-        <v>-1679700</v>
+        <v>-1698600</v>
       </c>
       <c r="I35" s="3">
-        <v>1906800</v>
+        <v>1928300</v>
       </c>
       <c r="J35" s="3">
-        <v>230700</v>
+        <v>233300</v>
       </c>
       <c r="K35" s="3">
         <v>2390300</v>
@@ -1654,25 +1654,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2803500</v>
+        <v>2835000</v>
       </c>
       <c r="E41" s="3">
-        <v>4878300</v>
+        <v>4933100</v>
       </c>
       <c r="F41" s="3">
-        <v>4439400</v>
+        <v>4489300</v>
       </c>
       <c r="G41" s="3">
-        <v>3793600</v>
+        <v>3836200</v>
       </c>
       <c r="H41" s="3">
-        <v>5629400</v>
+        <v>5692700</v>
       </c>
       <c r="I41" s="3">
-        <v>2614200</v>
+        <v>2643600</v>
       </c>
       <c r="J41" s="3">
-        <v>11387800</v>
+        <v>11515800</v>
       </c>
       <c r="K41" s="3">
         <v>6481500</v>
@@ -1687,25 +1687,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4231200</v>
+        <v>4278800</v>
       </c>
       <c r="E42" s="3">
-        <v>3092100</v>
+        <v>3126900</v>
       </c>
       <c r="F42" s="3">
-        <v>1378100</v>
+        <v>1393600</v>
       </c>
       <c r="G42" s="3">
-        <v>3340500</v>
+        <v>3378100</v>
       </c>
       <c r="H42" s="3">
-        <v>2113800</v>
+        <v>2137600</v>
       </c>
       <c r="I42" s="3">
-        <v>6439700</v>
+        <v>6512100</v>
       </c>
       <c r="J42" s="3">
-        <v>2582300</v>
+        <v>2611300</v>
       </c>
       <c r="K42" s="3">
         <v>455700</v>
@@ -1720,25 +1720,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6793400</v>
+        <v>6869800</v>
       </c>
       <c r="E43" s="3">
-        <v>6936500</v>
+        <v>7014500</v>
       </c>
       <c r="F43" s="3">
-        <v>6922300</v>
+        <v>7000200</v>
       </c>
       <c r="G43" s="3">
-        <v>6885700</v>
+        <v>6963100</v>
       </c>
       <c r="H43" s="3">
-        <v>16034200</v>
+        <v>16214500</v>
       </c>
       <c r="I43" s="3">
-        <v>6129800</v>
+        <v>6198700</v>
       </c>
       <c r="J43" s="3">
-        <v>17027800</v>
+        <v>17219300</v>
       </c>
       <c r="K43" s="3">
         <v>8543500</v>
@@ -1753,25 +1753,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5437800</v>
+        <v>5498900</v>
       </c>
       <c r="E44" s="3">
-        <v>5192900</v>
+        <v>5251300</v>
       </c>
       <c r="F44" s="3">
-        <v>4491500</v>
+        <v>4542000</v>
       </c>
       <c r="G44" s="3">
-        <v>4264400</v>
+        <v>4312300</v>
       </c>
       <c r="H44" s="3">
-        <v>6749600</v>
+        <v>6825500</v>
       </c>
       <c r="I44" s="3">
-        <v>4650000</v>
+        <v>4702300</v>
       </c>
       <c r="J44" s="3">
-        <v>11682300</v>
+        <v>11813700</v>
       </c>
       <c r="K44" s="3">
         <v>6040100</v>
@@ -1786,25 +1786,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>236600</v>
+        <v>239200</v>
       </c>
       <c r="E45" s="3">
-        <v>357200</v>
+        <v>361300</v>
       </c>
       <c r="F45" s="3">
-        <v>241300</v>
+        <v>244000</v>
       </c>
       <c r="G45" s="3">
-        <v>557100</v>
+        <v>563400</v>
       </c>
       <c r="H45" s="3">
-        <v>630500</v>
+        <v>637600</v>
       </c>
       <c r="I45" s="3">
-        <v>324100</v>
+        <v>327800</v>
       </c>
       <c r="J45" s="3">
-        <v>2168300</v>
+        <v>2192600</v>
       </c>
       <c r="K45" s="3">
         <v>616000</v>
@@ -1819,25 +1819,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19502500</v>
+        <v>19721700</v>
       </c>
       <c r="E46" s="3">
-        <v>20457100</v>
+        <v>20687100</v>
       </c>
       <c r="F46" s="3">
-        <v>17472600</v>
+        <v>17669100</v>
       </c>
       <c r="G46" s="3">
-        <v>18841200</v>
+        <v>19053100</v>
       </c>
       <c r="H46" s="3">
-        <v>15084300</v>
+        <v>15253900</v>
       </c>
       <c r="I46" s="3">
-        <v>20157800</v>
+        <v>20384400</v>
       </c>
       <c r="J46" s="3">
-        <v>21027200</v>
+        <v>21263700</v>
       </c>
       <c r="K46" s="3">
         <v>22136800</v>
@@ -1852,25 +1852,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9902100</v>
+        <v>10013400</v>
       </c>
       <c r="E47" s="3">
-        <v>9853600</v>
+        <v>9964300</v>
       </c>
       <c r="F47" s="3">
-        <v>13376200</v>
+        <v>13526600</v>
       </c>
       <c r="G47" s="3">
-        <v>13461400</v>
+        <v>13612800</v>
       </c>
       <c r="H47" s="3">
-        <v>14805200</v>
+        <v>14971600</v>
       </c>
       <c r="I47" s="3">
-        <v>13843500</v>
+        <v>13999100</v>
       </c>
       <c r="J47" s="3">
-        <v>15911200</v>
+        <v>16090100</v>
       </c>
       <c r="K47" s="3">
         <v>8171300</v>
@@ -1885,25 +1885,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>27456300</v>
+        <v>27765000</v>
       </c>
       <c r="E48" s="3">
-        <v>30162800</v>
+        <v>30501900</v>
       </c>
       <c r="F48" s="3">
-        <v>29178600</v>
+        <v>29506700</v>
       </c>
       <c r="G48" s="3">
-        <v>32367700</v>
+        <v>32731600</v>
       </c>
       <c r="H48" s="3">
-        <v>66751000</v>
+        <v>67501600</v>
       </c>
       <c r="I48" s="3">
-        <v>20303300</v>
+        <v>20531600</v>
       </c>
       <c r="J48" s="3">
-        <v>37942700</v>
+        <v>38369300</v>
       </c>
       <c r="K48" s="3">
         <v>31020700</v>
@@ -1918,25 +1918,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5287600</v>
+        <v>5347000</v>
       </c>
       <c r="E49" s="3">
-        <v>6028100</v>
+        <v>6095800</v>
       </c>
       <c r="F49" s="3">
-        <v>5422400</v>
+        <v>5483400</v>
       </c>
       <c r="G49" s="3">
-        <v>6043400</v>
+        <v>6111400</v>
       </c>
       <c r="H49" s="3">
-        <v>11322700</v>
+        <v>11450000</v>
       </c>
       <c r="I49" s="3">
-        <v>2199000</v>
+        <v>2223700</v>
       </c>
       <c r="J49" s="3">
-        <v>6643200</v>
+        <v>6717900</v>
       </c>
       <c r="K49" s="3">
         <v>6054400</v>
@@ -2017,25 +2017,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6335600</v>
+        <v>6406800</v>
       </c>
       <c r="E52" s="3">
-        <v>5392800</v>
+        <v>5453500</v>
       </c>
       <c r="F52" s="3">
-        <v>5355000</v>
+        <v>5415200</v>
       </c>
       <c r="G52" s="3">
-        <v>5996100</v>
+        <v>6063500</v>
       </c>
       <c r="H52" s="3">
-        <v>6126200</v>
+        <v>6195100</v>
       </c>
       <c r="I52" s="3">
-        <v>4875900</v>
+        <v>4930700</v>
       </c>
       <c r="J52" s="3">
-        <v>9483300</v>
+        <v>9589900</v>
       </c>
       <c r="K52" s="3">
         <v>3900100</v>
@@ -2083,25 +2083,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>68484000</v>
+        <v>69254000</v>
       </c>
       <c r="E54" s="3">
-        <v>71894300</v>
+        <v>72702600</v>
       </c>
       <c r="F54" s="3">
-        <v>70804800</v>
+        <v>71600900</v>
       </c>
       <c r="G54" s="3">
-        <v>76709900</v>
+        <v>77572400</v>
       </c>
       <c r="H54" s="3">
-        <v>74754500</v>
+        <v>75595100</v>
       </c>
       <c r="I54" s="3">
-        <v>61379500</v>
+        <v>62069600</v>
       </c>
       <c r="J54" s="3">
-        <v>65706500</v>
+        <v>66445300</v>
       </c>
       <c r="K54" s="3">
         <v>71283300</v>
@@ -2146,25 +2146,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4303400</v>
+        <v>4351800</v>
       </c>
       <c r="E57" s="3">
-        <v>3837300</v>
+        <v>3880500</v>
       </c>
       <c r="F57" s="3">
-        <v>3238800</v>
+        <v>3275200</v>
       </c>
       <c r="G57" s="3">
-        <v>2517200</v>
+        <v>2545500</v>
       </c>
       <c r="H57" s="3">
-        <v>2128000</v>
+        <v>2152000</v>
       </c>
       <c r="I57" s="3">
-        <v>2779800</v>
+        <v>2811100</v>
       </c>
       <c r="J57" s="3">
-        <v>3061300</v>
+        <v>3095800</v>
       </c>
       <c r="K57" s="3">
         <v>4804800</v>
@@ -2179,25 +2179,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7621400</v>
+        <v>7707100</v>
       </c>
       <c r="E58" s="3">
-        <v>4443000</v>
+        <v>4492900</v>
       </c>
       <c r="F58" s="3">
-        <v>4897200</v>
+        <v>4952300</v>
       </c>
       <c r="G58" s="3">
-        <v>4613300</v>
+        <v>4665200</v>
       </c>
       <c r="H58" s="3">
-        <v>5074600</v>
+        <v>5131700</v>
       </c>
       <c r="I58" s="3">
-        <v>1764900</v>
+        <v>1784700</v>
       </c>
       <c r="J58" s="3">
-        <v>4219400</v>
+        <v>4266800</v>
       </c>
       <c r="K58" s="3">
         <v>4407400</v>
@@ -2212,25 +2212,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5919200</v>
+        <v>5985800</v>
       </c>
       <c r="E59" s="3">
-        <v>6872600</v>
+        <v>6949900</v>
       </c>
       <c r="F59" s="3">
-        <v>6100200</v>
+        <v>6168800</v>
       </c>
       <c r="G59" s="3">
-        <v>10301900</v>
+        <v>10417700</v>
       </c>
       <c r="H59" s="3">
-        <v>25165000</v>
+        <v>25448000</v>
       </c>
       <c r="I59" s="3">
-        <v>7571700</v>
+        <v>7656900</v>
       </c>
       <c r="J59" s="3">
-        <v>19125100</v>
+        <v>19340200</v>
       </c>
       <c r="K59" s="3">
         <v>5402200</v>
@@ -2245,25 +2245,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17844000</v>
+        <v>18044700</v>
       </c>
       <c r="E60" s="3">
-        <v>15152900</v>
+        <v>15323300</v>
       </c>
       <c r="F60" s="3">
-        <v>14236200</v>
+        <v>14396300</v>
       </c>
       <c r="G60" s="3">
-        <v>17432400</v>
+        <v>17628400</v>
       </c>
       <c r="H60" s="3">
-        <v>17124800</v>
+        <v>17317400</v>
       </c>
       <c r="I60" s="3">
-        <v>12116400</v>
+        <v>12252700</v>
       </c>
       <c r="J60" s="3">
-        <v>15822500</v>
+        <v>16000400</v>
       </c>
       <c r="K60" s="3">
         <v>14614400</v>
@@ -2278,25 +2278,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12726800</v>
+        <v>12869900</v>
       </c>
       <c r="E61" s="3">
-        <v>9411200</v>
+        <v>9517000</v>
       </c>
       <c r="F61" s="3">
-        <v>10330300</v>
+        <v>10446400</v>
       </c>
       <c r="G61" s="3">
-        <v>12948000</v>
+        <v>13093600</v>
       </c>
       <c r="H61" s="3">
-        <v>14219600</v>
+        <v>14380700</v>
       </c>
       <c r="I61" s="3">
-        <v>10572800</v>
+        <v>10691600</v>
       </c>
       <c r="J61" s="3">
-        <v>11445700</v>
+        <v>11574400</v>
       </c>
       <c r="K61" s="3">
         <v>19813400</v>
@@ -2311,25 +2311,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8093400</v>
+        <v>8184400</v>
       </c>
       <c r="E62" s="3">
-        <v>10762000</v>
+        <v>10883000</v>
       </c>
       <c r="F62" s="3">
-        <v>10676900</v>
+        <v>10796900</v>
       </c>
       <c r="G62" s="3">
-        <v>9528300</v>
+        <v>9635400</v>
       </c>
       <c r="H62" s="3">
-        <v>16280300</v>
+        <v>16462100</v>
       </c>
       <c r="I62" s="3">
-        <v>5386900</v>
+        <v>5447500</v>
       </c>
       <c r="J62" s="3">
-        <v>10810500</v>
+        <v>10932100</v>
       </c>
       <c r="K62" s="3">
         <v>6691200</v>
@@ -2443,25 +2443,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>38996700</v>
+        <v>39435100</v>
       </c>
       <c r="E66" s="3">
-        <v>35664400</v>
+        <v>36065400</v>
       </c>
       <c r="F66" s="3">
-        <v>35562700</v>
+        <v>35962600</v>
       </c>
       <c r="G66" s="3">
-        <v>40197300</v>
+        <v>40649300</v>
       </c>
       <c r="H66" s="3">
-        <v>41001700</v>
+        <v>41462700</v>
       </c>
       <c r="I66" s="3">
-        <v>28332800</v>
+        <v>28651400</v>
       </c>
       <c r="J66" s="3">
-        <v>33523400</v>
+        <v>33900300</v>
       </c>
       <c r="K66" s="3">
         <v>41964500</v>
@@ -2623,25 +2623,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19679900</v>
+        <v>19901200</v>
       </c>
       <c r="E72" s="3">
-        <v>25795500</v>
+        <v>26085500</v>
       </c>
       <c r="F72" s="3">
-        <v>25117700</v>
+        <v>25400100</v>
       </c>
       <c r="G72" s="3">
-        <v>23113900</v>
+        <v>23373700</v>
       </c>
       <c r="H72" s="3">
-        <v>21533500</v>
+        <v>21775600</v>
       </c>
       <c r="I72" s="3">
-        <v>23452200</v>
+        <v>23715900</v>
       </c>
       <c r="J72" s="3">
-        <v>55849400</v>
+        <v>56477400</v>
       </c>
       <c r="K72" s="3">
         <v>22421200</v>
@@ -2755,25 +2755,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29487300</v>
+        <v>29818900</v>
       </c>
       <c r="E76" s="3">
-        <v>36229900</v>
+        <v>36637200</v>
       </c>
       <c r="F76" s="3">
-        <v>35242100</v>
+        <v>35638400</v>
       </c>
       <c r="G76" s="3">
-        <v>36512600</v>
+        <v>36923100</v>
       </c>
       <c r="H76" s="3">
-        <v>33752900</v>
+        <v>34132400</v>
       </c>
       <c r="I76" s="3">
-        <v>33046700</v>
+        <v>33418200</v>
       </c>
       <c r="J76" s="3">
-        <v>32183200</v>
+        <v>32545000</v>
       </c>
       <c r="K76" s="3">
         <v>29318800</v>
@@ -2859,25 +2859,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4548300</v>
+        <v>-4599400</v>
       </c>
       <c r="E81" s="3">
-        <v>2734900</v>
+        <v>2765600</v>
       </c>
       <c r="F81" s="3">
-        <v>2474600</v>
+        <v>2502500</v>
       </c>
       <c r="G81" s="3">
-        <v>2020400</v>
+        <v>2043100</v>
       </c>
       <c r="H81" s="3">
-        <v>-1679700</v>
+        <v>-1698600</v>
       </c>
       <c r="I81" s="3">
-        <v>1906800</v>
+        <v>1928300</v>
       </c>
       <c r="J81" s="3">
-        <v>230700</v>
+        <v>233300</v>
       </c>
       <c r="K81" s="3">
         <v>2390300</v>
@@ -2907,25 +2907,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2879200</v>
+        <v>2911600</v>
       </c>
       <c r="E83" s="3">
-        <v>2531400</v>
+        <v>2559900</v>
       </c>
       <c r="F83" s="3">
-        <v>2837800</v>
+        <v>2869700</v>
       </c>
       <c r="G83" s="3">
-        <v>2991600</v>
+        <v>3025200</v>
       </c>
       <c r="H83" s="3">
-        <v>3695400</v>
+        <v>3736900</v>
       </c>
       <c r="I83" s="3">
-        <v>2124500</v>
+        <v>2148400</v>
       </c>
       <c r="J83" s="3">
-        <v>1798000</v>
+        <v>1818200</v>
       </c>
       <c r="K83" s="3">
         <v>2743900</v>
@@ -3105,25 +3105,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5735900</v>
+        <v>5800400</v>
       </c>
       <c r="E89" s="3">
-        <v>5416500</v>
+        <v>5477400</v>
       </c>
       <c r="F89" s="3">
-        <v>6048200</v>
+        <v>6116200</v>
       </c>
       <c r="G89" s="3">
-        <v>4601500</v>
+        <v>4653200</v>
       </c>
       <c r="H89" s="3">
-        <v>5838800</v>
+        <v>5904400</v>
       </c>
       <c r="I89" s="3">
-        <v>3663400</v>
+        <v>3704600</v>
       </c>
       <c r="J89" s="3">
-        <v>3163100</v>
+        <v>3198600</v>
       </c>
       <c r="K89" s="3">
         <v>7434600</v>
@@ -3153,25 +3153,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3817200</v>
+        <v>-3860100</v>
       </c>
       <c r="E91" s="3">
-        <v>-3147700</v>
+        <v>-3183100</v>
       </c>
       <c r="F91" s="3">
-        <v>-2720700</v>
+        <v>-2751300</v>
       </c>
       <c r="G91" s="3">
-        <v>-2369300</v>
+        <v>-2396000</v>
       </c>
       <c r="H91" s="3">
-        <v>-3538100</v>
+        <v>-3577800</v>
       </c>
       <c r="I91" s="3">
-        <v>-3082600</v>
+        <v>-3117300</v>
       </c>
       <c r="J91" s="3">
-        <v>-2356300</v>
+        <v>-2382800</v>
       </c>
       <c r="K91" s="3">
         <v>-3743100</v>
@@ -3252,25 +3252,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5213000</v>
+        <v>-5271700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1607600</v>
+        <v>-1625600</v>
       </c>
       <c r="F94" s="3">
-        <v>-3299100</v>
+        <v>-3336200</v>
       </c>
       <c r="G94" s="3">
-        <v>462500</v>
+        <v>467700</v>
       </c>
       <c r="H94" s="3">
-        <v>-10598800</v>
+        <v>-10718000</v>
       </c>
       <c r="I94" s="3">
-        <v>1337900</v>
+        <v>1352900</v>
       </c>
       <c r="J94" s="3">
-        <v>367900</v>
+        <v>372000</v>
       </c>
       <c r="K94" s="3">
         <v>-4125200</v>
@@ -3300,25 +3300,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-468400</v>
+        <v>-473700</v>
       </c>
       <c r="E96" s="3">
-        <v>-351300</v>
+        <v>-355300</v>
       </c>
       <c r="F96" s="3">
-        <v>-392700</v>
+        <v>-397100</v>
       </c>
       <c r="G96" s="3">
-        <v>-496800</v>
+        <v>-502400</v>
       </c>
       <c r="H96" s="3">
-        <v>-577300</v>
+        <v>-583700</v>
       </c>
       <c r="I96" s="3">
-        <v>-2025100</v>
+        <v>-2047900</v>
       </c>
       <c r="J96" s="3">
-        <v>-556000</v>
+        <v>-562200</v>
       </c>
       <c r="K96" s="3">
         <v>-1039800</v>
@@ -3432,25 +3432,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2707700</v>
+        <v>-2738100</v>
       </c>
       <c r="E100" s="3">
-        <v>-3586600</v>
+        <v>-3626900</v>
       </c>
       <c r="F100" s="3">
-        <v>-2792800</v>
+        <v>-2824200</v>
       </c>
       <c r="G100" s="3">
-        <v>-2428500</v>
+        <v>-2455800</v>
       </c>
       <c r="H100" s="3">
-        <v>2099600</v>
+        <v>2123300</v>
       </c>
       <c r="I100" s="3">
-        <v>-6450400</v>
+        <v>-6522900</v>
       </c>
       <c r="J100" s="3">
-        <v>-1607600</v>
+        <v>-1625600</v>
       </c>
       <c r="K100" s="3">
         <v>318400</v>
@@ -3465,25 +3465,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>47300</v>
+        <v>47800</v>
       </c>
       <c r="E101" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="F101" s="3">
-        <v>-58000</v>
+        <v>-58600</v>
       </c>
       <c r="G101" s="3">
-        <v>13000</v>
+        <v>13200</v>
       </c>
       <c r="H101" s="3">
-        <v>69800</v>
+        <v>70600</v>
       </c>
       <c r="I101" s="3">
-        <v>173900</v>
+        <v>175800</v>
       </c>
       <c r="J101" s="3">
-        <v>-21300</v>
+        <v>-21500</v>
       </c>
       <c r="K101" s="3">
         <v>-85600</v>
@@ -3498,25 +3498,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2137500</v>
+        <v>-2161500</v>
       </c>
       <c r="E102" s="3">
-        <v>218800</v>
+        <v>221300</v>
       </c>
       <c r="F102" s="3">
-        <v>-101700</v>
+        <v>-102900</v>
       </c>
       <c r="G102" s="3">
-        <v>2648500</v>
+        <v>2678300</v>
       </c>
       <c r="H102" s="3">
-        <v>-2590600</v>
+        <v>-2619700</v>
       </c>
       <c r="I102" s="3">
-        <v>-1275200</v>
+        <v>-1289500</v>
       </c>
       <c r="J102" s="3">
-        <v>1902100</v>
+        <v>1923500</v>
       </c>
       <c r="K102" s="3">
         <v>3542100</v>

--- a/AAII_Financials/Yearly/REPYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/REPYY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t>REPYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,167 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>59006200</v>
+        <v>39152900</v>
       </c>
       <c r="E8" s="3">
-        <v>59658100</v>
+        <v>58029500</v>
       </c>
       <c r="F8" s="3">
-        <v>49843300</v>
+        <v>58670600</v>
       </c>
       <c r="G8" s="3">
-        <v>41495000</v>
+        <v>49018200</v>
       </c>
       <c r="H8" s="3">
-        <v>47533400</v>
+        <v>40808100</v>
       </c>
       <c r="I8" s="3">
-        <v>54836200</v>
+        <v>46746600</v>
       </c>
       <c r="J8" s="3">
+        <v>53928500</v>
+      </c>
+      <c r="K8" s="3">
         <v>56046800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>63623600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>61785800</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>45072800</v>
+        <v>30604000</v>
       </c>
       <c r="E9" s="3">
-        <v>46251100</v>
+        <v>44326800</v>
       </c>
       <c r="F9" s="3">
-        <v>36947000</v>
+        <v>45485500</v>
       </c>
       <c r="G9" s="3">
-        <v>28094000</v>
+        <v>36335500</v>
       </c>
       <c r="H9" s="3">
-        <v>39932700</v>
+        <v>27628900</v>
       </c>
       <c r="I9" s="3">
-        <v>49636300</v>
+        <v>39271800</v>
       </c>
       <c r="J9" s="3">
+        <v>48814700</v>
+      </c>
+      <c r="K9" s="3">
         <v>50053800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>48447100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>46491100</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>13933300</v>
+        <v>8548900</v>
       </c>
       <c r="E10" s="3">
-        <v>13407000</v>
+        <v>13702700</v>
       </c>
       <c r="F10" s="3">
-        <v>12896200</v>
+        <v>13185100</v>
       </c>
       <c r="G10" s="3">
-        <v>13401000</v>
+        <v>12682800</v>
       </c>
       <c r="H10" s="3">
-        <v>7600700</v>
+        <v>13179200</v>
       </c>
       <c r="I10" s="3">
-        <v>5199900</v>
+        <v>7474800</v>
       </c>
       <c r="J10" s="3">
+        <v>5113800</v>
+      </c>
+      <c r="K10" s="3">
         <v>5993000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>15176600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>15294700</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,41 +839,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>968900</v>
+        <v>237600</v>
       </c>
       <c r="E12" s="3">
-        <v>628000</v>
+        <v>952900</v>
       </c>
       <c r="F12" s="3">
-        <v>783500</v>
+        <v>617600</v>
       </c>
       <c r="G12" s="3">
-        <v>403100</v>
+        <v>770500</v>
       </c>
       <c r="H12" s="3">
-        <v>1884000</v>
+        <v>396400</v>
       </c>
       <c r="I12" s="3">
-        <v>476100</v>
+        <v>1852800</v>
       </c>
       <c r="J12" s="3">
+        <v>468200</v>
+      </c>
+      <c r="K12" s="3">
         <v>201000</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -892,75 +908,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5520500</v>
+        <v>2117500</v>
       </c>
       <c r="E14" s="3">
-        <v>1361300</v>
+        <v>5429100</v>
       </c>
       <c r="F14" s="3">
-        <v>-1485700</v>
+        <v>1338700</v>
       </c>
       <c r="G14" s="3">
-        <v>-1033500</v>
+        <v>-1461100</v>
       </c>
       <c r="H14" s="3">
-        <v>2699800</v>
+        <v>-1016400</v>
       </c>
       <c r="I14" s="3">
-        <v>-117200</v>
+        <v>2655100</v>
       </c>
       <c r="J14" s="3">
+        <v>-115300</v>
+      </c>
+      <c r="K14" s="3">
         <v>19100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>46100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>212500</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2768000</v>
+        <v>2495100</v>
       </c>
       <c r="E15" s="3">
-        <v>2288300</v>
+        <v>2722200</v>
       </c>
       <c r="F15" s="3">
-        <v>2658000</v>
+        <v>2250500</v>
       </c>
       <c r="G15" s="3">
-        <v>2736900</v>
+        <v>2614000</v>
       </c>
       <c r="H15" s="3">
-        <v>2788300</v>
+        <v>2691600</v>
       </c>
       <c r="I15" s="3">
-        <v>1672300</v>
+        <v>2742200</v>
       </c>
       <c r="J15" s="3">
+        <v>1644600</v>
+      </c>
+      <c r="K15" s="3">
         <v>1617300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2743900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2428600</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -971,74 +996,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>62887800</v>
+        <v>42090400</v>
       </c>
       <c r="E17" s="3">
-        <v>57166400</v>
+        <v>61846900</v>
       </c>
       <c r="F17" s="3">
-        <v>46508300</v>
+        <v>56220200</v>
       </c>
       <c r="G17" s="3">
-        <v>39151600</v>
+        <v>45738400</v>
       </c>
       <c r="H17" s="3">
-        <v>50588500</v>
+        <v>38503600</v>
       </c>
       <c r="I17" s="3">
-        <v>54301500</v>
+        <v>49751100</v>
       </c>
       <c r="J17" s="3">
+        <v>53402700</v>
+      </c>
+      <c r="K17" s="3">
         <v>54805100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>59629100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>57618800</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3881700</v>
+        <v>-2937500</v>
       </c>
       <c r="E18" s="3">
-        <v>2491700</v>
+        <v>-3817400</v>
       </c>
       <c r="F18" s="3">
-        <v>3335000</v>
+        <v>2450400</v>
       </c>
       <c r="G18" s="3">
-        <v>2343400</v>
+        <v>3279800</v>
       </c>
       <c r="H18" s="3">
-        <v>-3055100</v>
+        <v>2304600</v>
       </c>
       <c r="I18" s="3">
-        <v>534700</v>
+        <v>-3004500</v>
       </c>
       <c r="J18" s="3">
+        <v>525900</v>
+      </c>
+      <c r="K18" s="3">
         <v>1241700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3994500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4167000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1052,173 +1084,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>180600</v>
+        <v>-815200</v>
       </c>
       <c r="E20" s="3">
-        <v>1568200</v>
+        <v>177600</v>
       </c>
       <c r="F20" s="3">
-        <v>941400</v>
+        <v>1542300</v>
       </c>
       <c r="G20" s="3">
-        <v>496400</v>
+        <v>925800</v>
       </c>
       <c r="H20" s="3">
-        <v>870800</v>
+        <v>488200</v>
       </c>
       <c r="I20" s="3">
-        <v>1356500</v>
+        <v>856400</v>
       </c>
       <c r="J20" s="3">
+        <v>1334000</v>
+      </c>
+      <c r="K20" s="3">
         <v>940200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1168300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>9400</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-801400</v>
+        <v>-1145800</v>
       </c>
       <c r="E21" s="3">
-        <v>6609300</v>
+        <v>-764700</v>
       </c>
       <c r="F21" s="3">
-        <v>7134300</v>
+        <v>6520500</v>
       </c>
       <c r="G21" s="3">
-        <v>5852600</v>
+        <v>7039300</v>
       </c>
       <c r="H21" s="3">
-        <v>1537400</v>
+        <v>5780000</v>
       </c>
       <c r="I21" s="3">
-        <v>4030800</v>
+        <v>1542000</v>
       </c>
       <c r="J21" s="3">
+        <v>3981300</v>
+      </c>
+      <c r="K21" s="3">
         <v>3992600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7910900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6606700</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>128000</v>
+        <v>134100</v>
       </c>
       <c r="E22" s="3">
-        <v>73000</v>
+        <v>125900</v>
       </c>
       <c r="F22" s="3">
-        <v>559800</v>
+        <v>71800</v>
       </c>
       <c r="G22" s="3">
-        <v>601700</v>
+        <v>550600</v>
       </c>
       <c r="H22" s="3">
-        <v>629200</v>
+        <v>591700</v>
       </c>
       <c r="I22" s="3">
-        <v>549100</v>
+        <v>618800</v>
       </c>
       <c r="J22" s="3">
+        <v>540000</v>
+      </c>
+      <c r="K22" s="3">
         <v>648300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1975300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1022400</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3829000</v>
+        <v>-3886800</v>
       </c>
       <c r="E23" s="3">
-        <v>3986900</v>
+        <v>-3765700</v>
       </c>
       <c r="F23" s="3">
-        <v>3716600</v>
+        <v>3920900</v>
       </c>
       <c r="G23" s="3">
-        <v>2238100</v>
+        <v>3655100</v>
       </c>
       <c r="H23" s="3">
-        <v>-2813500</v>
+        <v>2201000</v>
       </c>
       <c r="I23" s="3">
-        <v>1342100</v>
+        <v>-2766900</v>
       </c>
       <c r="J23" s="3">
+        <v>1319900</v>
+      </c>
+      <c r="K23" s="3">
         <v>1533500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3187500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3154000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>703400</v>
+        <v>18800</v>
       </c>
       <c r="E24" s="3">
-        <v>1657900</v>
+        <v>691700</v>
       </c>
       <c r="F24" s="3">
-        <v>1459400</v>
+        <v>1630500</v>
       </c>
       <c r="G24" s="3">
-        <v>467700</v>
+        <v>1435200</v>
       </c>
       <c r="H24" s="3">
-        <v>-1191400</v>
+        <v>460000</v>
       </c>
       <c r="I24" s="3">
-        <v>174600</v>
+        <v>-1171700</v>
       </c>
       <c r="J24" s="3">
+        <v>171800</v>
+      </c>
+      <c r="K24" s="3">
         <v>515600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1543800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1163200</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1249,75 +1297,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4532400</v>
+        <v>-3905600</v>
       </c>
       <c r="E26" s="3">
-        <v>2329000</v>
+        <v>-4457400</v>
       </c>
       <c r="F26" s="3">
-        <v>2257200</v>
+        <v>2290500</v>
       </c>
       <c r="G26" s="3">
-        <v>1770400</v>
+        <v>2219900</v>
       </c>
       <c r="H26" s="3">
-        <v>-1622000</v>
+        <v>1741100</v>
       </c>
       <c r="I26" s="3">
-        <v>1167500</v>
+        <v>-1595200</v>
       </c>
       <c r="J26" s="3">
+        <v>1148200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1018000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1643700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1990800</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4599400</v>
+        <v>-3932700</v>
       </c>
       <c r="E27" s="3">
-        <v>2272800</v>
+        <v>-4523300</v>
       </c>
       <c r="F27" s="3">
-        <v>2174700</v>
+        <v>2235200</v>
       </c>
       <c r="G27" s="3">
-        <v>1685400</v>
+        <v>2138700</v>
       </c>
       <c r="H27" s="3">
-        <v>-1698600</v>
+        <v>1657500</v>
       </c>
       <c r="I27" s="3">
-        <v>1214100</v>
+        <v>-1670500</v>
       </c>
       <c r="J27" s="3">
+        <v>1194000</v>
+      </c>
+      <c r="K27" s="3">
         <v>1051500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1570100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1663300</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1348,42 +1405,48 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>492800</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>327800</v>
+        <v>484700</v>
       </c>
       <c r="G29" s="3">
-        <v>357700</v>
+        <v>322300</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>351700</v>
       </c>
       <c r="I29" s="3">
-        <v>714100</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>702300</v>
+      </c>
+      <c r="K29" s="3">
         <v>-818200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>820200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>910900</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1414,9 +1477,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1447,75 +1513,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-180600</v>
+        <v>815200</v>
       </c>
       <c r="E32" s="3">
-        <v>-1568200</v>
+        <v>-177600</v>
       </c>
       <c r="F32" s="3">
-        <v>-941400</v>
+        <v>-1542300</v>
       </c>
       <c r="G32" s="3">
-        <v>-496400</v>
+        <v>-925800</v>
       </c>
       <c r="H32" s="3">
-        <v>-870800</v>
+        <v>-488200</v>
       </c>
       <c r="I32" s="3">
-        <v>-1356500</v>
+        <v>-856400</v>
       </c>
       <c r="J32" s="3">
+        <v>-1334000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-940200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1168300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-9400</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4599400</v>
+        <v>-3932700</v>
       </c>
       <c r="E33" s="3">
-        <v>2765600</v>
+        <v>-4523300</v>
       </c>
       <c r="F33" s="3">
-        <v>2502500</v>
+        <v>2719800</v>
       </c>
       <c r="G33" s="3">
-        <v>2043100</v>
+        <v>2461000</v>
       </c>
       <c r="H33" s="3">
-        <v>-1698600</v>
+        <v>2009300</v>
       </c>
       <c r="I33" s="3">
-        <v>1928300</v>
+        <v>-1670500</v>
       </c>
       <c r="J33" s="3">
+        <v>1896400</v>
+      </c>
+      <c r="K33" s="3">
         <v>233300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2390300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2574200</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1546,80 +1621,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4599400</v>
+        <v>-3932700</v>
       </c>
       <c r="E35" s="3">
-        <v>2765600</v>
+        <v>-4523300</v>
       </c>
       <c r="F35" s="3">
-        <v>2502500</v>
+        <v>2719800</v>
       </c>
       <c r="G35" s="3">
-        <v>2043100</v>
+        <v>2461000</v>
       </c>
       <c r="H35" s="3">
-        <v>-1698600</v>
+        <v>2009300</v>
       </c>
       <c r="I35" s="3">
-        <v>1928300</v>
+        <v>-1670500</v>
       </c>
       <c r="J35" s="3">
+        <v>1896400</v>
+      </c>
+      <c r="K35" s="3">
         <v>233300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2390300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2574200</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1633,8 +1717,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,305 +1733,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2835000</v>
+        <v>2628100</v>
       </c>
       <c r="E41" s="3">
-        <v>4933100</v>
+        <v>2788100</v>
       </c>
       <c r="F41" s="3">
-        <v>4489300</v>
+        <v>4851500</v>
       </c>
       <c r="G41" s="3">
-        <v>3836200</v>
+        <v>4415000</v>
       </c>
       <c r="H41" s="3">
-        <v>5692700</v>
+        <v>3772700</v>
       </c>
       <c r="I41" s="3">
-        <v>2643600</v>
+        <v>5598500</v>
       </c>
       <c r="J41" s="3">
+        <v>2599800</v>
+      </c>
+      <c r="K41" s="3">
         <v>11515800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6481500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3142300</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4278800</v>
+        <v>4553800</v>
       </c>
       <c r="E42" s="3">
-        <v>3126900</v>
+        <v>4208000</v>
       </c>
       <c r="F42" s="3">
-        <v>1393600</v>
+        <v>3075100</v>
       </c>
       <c r="G42" s="3">
-        <v>3378100</v>
+        <v>1370500</v>
       </c>
       <c r="H42" s="3">
-        <v>2137600</v>
+        <v>3322200</v>
       </c>
       <c r="I42" s="3">
-        <v>6512100</v>
+        <v>2102200</v>
       </c>
       <c r="J42" s="3">
+        <v>6404300</v>
+      </c>
+      <c r="K42" s="3">
         <v>2611300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>455700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>791100</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6869800</v>
+        <v>4536200</v>
       </c>
       <c r="E43" s="3">
-        <v>7014500</v>
+        <v>6756100</v>
       </c>
       <c r="F43" s="3">
-        <v>7000200</v>
+        <v>6898400</v>
       </c>
       <c r="G43" s="3">
-        <v>6963100</v>
+        <v>6884300</v>
       </c>
       <c r="H43" s="3">
-        <v>16214500</v>
+        <v>6847800</v>
       </c>
       <c r="I43" s="3">
-        <v>6198700</v>
+        <v>15946100</v>
       </c>
       <c r="J43" s="3">
+        <v>6096100</v>
+      </c>
+      <c r="K43" s="3">
         <v>17219300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8543500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10824900</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5498900</v>
+        <v>3975100</v>
       </c>
       <c r="E44" s="3">
-        <v>5251300</v>
+        <v>5407900</v>
       </c>
       <c r="F44" s="3">
-        <v>4542000</v>
+        <v>5164400</v>
       </c>
       <c r="G44" s="3">
-        <v>4312300</v>
+        <v>4466800</v>
       </c>
       <c r="H44" s="3">
-        <v>6825500</v>
+        <v>4240900</v>
       </c>
       <c r="I44" s="3">
-        <v>4702300</v>
+        <v>6712500</v>
       </c>
       <c r="J44" s="3">
+        <v>4624400</v>
+      </c>
+      <c r="K44" s="3">
         <v>11813700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6040100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8543000</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>239200</v>
+        <v>287000</v>
       </c>
       <c r="E45" s="3">
-        <v>361300</v>
+        <v>235300</v>
       </c>
       <c r="F45" s="3">
-        <v>244000</v>
+        <v>355300</v>
       </c>
       <c r="G45" s="3">
-        <v>563400</v>
+        <v>240000</v>
       </c>
       <c r="H45" s="3">
-        <v>637600</v>
+        <v>554100</v>
       </c>
       <c r="I45" s="3">
-        <v>327800</v>
+        <v>627000</v>
       </c>
       <c r="J45" s="3">
+        <v>322300</v>
+      </c>
+      <c r="K45" s="3">
         <v>2192600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>616000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>561100</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19721700</v>
+        <v>15980200</v>
       </c>
       <c r="E46" s="3">
-        <v>20687100</v>
+        <v>19395300</v>
       </c>
       <c r="F46" s="3">
-        <v>17669100</v>
+        <v>20344700</v>
       </c>
       <c r="G46" s="3">
-        <v>19053100</v>
+        <v>17376600</v>
       </c>
       <c r="H46" s="3">
-        <v>15253900</v>
+        <v>18737700</v>
       </c>
       <c r="I46" s="3">
-        <v>20384400</v>
+        <v>15001500</v>
       </c>
       <c r="J46" s="3">
+        <v>20047000</v>
+      </c>
+      <c r="K46" s="3">
         <v>21263700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>22136800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>23862400</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>10013400</v>
+        <v>8070100</v>
       </c>
       <c r="E47" s="3">
-        <v>9964300</v>
+        <v>9847600</v>
       </c>
       <c r="F47" s="3">
-        <v>13526600</v>
+        <v>9799400</v>
       </c>
       <c r="G47" s="3">
-        <v>13612800</v>
+        <v>13302700</v>
       </c>
       <c r="H47" s="3">
-        <v>14971600</v>
+        <v>13387400</v>
       </c>
       <c r="I47" s="3">
-        <v>13999100</v>
+        <v>14723800</v>
       </c>
       <c r="J47" s="3">
+        <v>13767400</v>
+      </c>
+      <c r="K47" s="3">
         <v>16090100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8171300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3696300</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>27765000</v>
+        <v>24618500</v>
       </c>
       <c r="E48" s="3">
-        <v>30501900</v>
+        <v>27305400</v>
       </c>
       <c r="F48" s="3">
-        <v>29506700</v>
+        <v>29997000</v>
       </c>
       <c r="G48" s="3">
-        <v>32731600</v>
+        <v>29018300</v>
       </c>
       <c r="H48" s="3">
-        <v>67501600</v>
+        <v>32189800</v>
       </c>
       <c r="I48" s="3">
-        <v>20531600</v>
+        <v>66384300</v>
       </c>
       <c r="J48" s="3">
+        <v>20191700</v>
+      </c>
+      <c r="K48" s="3">
         <v>38369300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>31020700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>43176300</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5347000</v>
+        <v>3944500</v>
       </c>
       <c r="E49" s="3">
-        <v>6095800</v>
+        <v>5258500</v>
       </c>
       <c r="F49" s="3">
-        <v>5483400</v>
+        <v>5994900</v>
       </c>
       <c r="G49" s="3">
-        <v>6111400</v>
+        <v>5392600</v>
       </c>
       <c r="H49" s="3">
-        <v>11450000</v>
+        <v>6010200</v>
       </c>
       <c r="I49" s="3">
-        <v>2223700</v>
+        <v>11260500</v>
       </c>
       <c r="J49" s="3">
+        <v>2186900</v>
+      </c>
+      <c r="K49" s="3">
         <v>6717900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6054400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9135800</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,9 +2090,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2010,42 +2126,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6406800</v>
+        <v>5385600</v>
       </c>
       <c r="E52" s="3">
-        <v>5453500</v>
+        <v>6300800</v>
       </c>
       <c r="F52" s="3">
-        <v>5415200</v>
+        <v>5363200</v>
       </c>
       <c r="G52" s="3">
-        <v>6063500</v>
+        <v>5325600</v>
       </c>
       <c r="H52" s="3">
-        <v>6195100</v>
+        <v>5963200</v>
       </c>
       <c r="I52" s="3">
-        <v>4930700</v>
+        <v>6092600</v>
       </c>
       <c r="J52" s="3">
+        <v>4849100</v>
+      </c>
+      <c r="K52" s="3">
         <v>9589900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3900100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3419300</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2076,42 +2198,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>69254000</v>
+        <v>57998900</v>
       </c>
       <c r="E54" s="3">
-        <v>72702600</v>
+        <v>68107700</v>
       </c>
       <c r="F54" s="3">
-        <v>71600900</v>
+        <v>71499200</v>
       </c>
       <c r="G54" s="3">
-        <v>77572400</v>
+        <v>70415800</v>
       </c>
       <c r="H54" s="3">
-        <v>75595100</v>
+        <v>76288400</v>
       </c>
       <c r="I54" s="3">
-        <v>62069600</v>
+        <v>74343800</v>
       </c>
       <c r="J54" s="3">
+        <v>61042200</v>
+      </c>
+      <c r="K54" s="3">
         <v>66445300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>71283300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>83290000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2125,8 +2253,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2140,206 +2269,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4351800</v>
+        <v>2906900</v>
       </c>
       <c r="E57" s="3">
-        <v>3880500</v>
+        <v>4279700</v>
       </c>
       <c r="F57" s="3">
-        <v>3275200</v>
+        <v>3816200</v>
       </c>
       <c r="G57" s="3">
-        <v>2545500</v>
+        <v>3221000</v>
       </c>
       <c r="H57" s="3">
-        <v>2152000</v>
+        <v>2503400</v>
       </c>
       <c r="I57" s="3">
-        <v>2811100</v>
+        <v>2116300</v>
       </c>
       <c r="J57" s="3">
+        <v>2764500</v>
+      </c>
+      <c r="K57" s="3">
         <v>3095800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4804800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5583800</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7707100</v>
+        <v>4263300</v>
       </c>
       <c r="E58" s="3">
-        <v>4492900</v>
+        <v>7579500</v>
       </c>
       <c r="F58" s="3">
-        <v>4952300</v>
+        <v>4418600</v>
       </c>
       <c r="G58" s="3">
-        <v>4665200</v>
+        <v>4870300</v>
       </c>
       <c r="H58" s="3">
-        <v>5131700</v>
+        <v>4588000</v>
       </c>
       <c r="I58" s="3">
-        <v>1784700</v>
+        <v>5046800</v>
       </c>
       <c r="J58" s="3">
+        <v>1755200</v>
+      </c>
+      <c r="K58" s="3">
         <v>4266800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4407400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6113200</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5985800</v>
+        <v>5204400</v>
       </c>
       <c r="E59" s="3">
-        <v>6949900</v>
+        <v>5886700</v>
       </c>
       <c r="F59" s="3">
-        <v>6168800</v>
+        <v>6834900</v>
       </c>
       <c r="G59" s="3">
-        <v>10417700</v>
+        <v>6066700</v>
       </c>
       <c r="H59" s="3">
-        <v>25448000</v>
+        <v>10245300</v>
       </c>
       <c r="I59" s="3">
-        <v>7656900</v>
+        <v>25026700</v>
       </c>
       <c r="J59" s="3">
+        <v>7530100</v>
+      </c>
+      <c r="K59" s="3">
         <v>19340200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5402200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8379800</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>18044700</v>
+        <v>12374600</v>
       </c>
       <c r="E60" s="3">
-        <v>15323300</v>
+        <v>17746000</v>
       </c>
       <c r="F60" s="3">
-        <v>14396300</v>
+        <v>15069700</v>
       </c>
       <c r="G60" s="3">
-        <v>17628400</v>
+        <v>14158000</v>
       </c>
       <c r="H60" s="3">
-        <v>17317400</v>
+        <v>17336600</v>
       </c>
       <c r="I60" s="3">
-        <v>12252700</v>
+        <v>17030700</v>
       </c>
       <c r="J60" s="3">
+        <v>12049900</v>
+      </c>
+      <c r="K60" s="3">
         <v>16000400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14614400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>20076800</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12869900</v>
+        <v>14040300</v>
       </c>
       <c r="E61" s="3">
-        <v>9517000</v>
+        <v>12656900</v>
       </c>
       <c r="F61" s="3">
-        <v>10446400</v>
+        <v>9359400</v>
       </c>
       <c r="G61" s="3">
-        <v>13093600</v>
+        <v>10273500</v>
       </c>
       <c r="H61" s="3">
-        <v>14380700</v>
+        <v>12876900</v>
       </c>
       <c r="I61" s="3">
-        <v>10691600</v>
+        <v>14142700</v>
       </c>
       <c r="J61" s="3">
+        <v>10514700</v>
+      </c>
+      <c r="K61" s="3">
         <v>11574400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>19813400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>21373900</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8184400</v>
+        <v>7421900</v>
       </c>
       <c r="E62" s="3">
-        <v>10883000</v>
+        <v>8048900</v>
       </c>
       <c r="F62" s="3">
-        <v>10796900</v>
+        <v>10702900</v>
       </c>
       <c r="G62" s="3">
-        <v>9635400</v>
+        <v>10618200</v>
       </c>
       <c r="H62" s="3">
-        <v>16462100</v>
+        <v>9475900</v>
       </c>
       <c r="I62" s="3">
-        <v>5447500</v>
+        <v>16189600</v>
       </c>
       <c r="J62" s="3">
+        <v>5357300</v>
+      </c>
+      <c r="K62" s="3">
         <v>10932100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6691200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10095900</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2370,9 +2518,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2403,9 +2554,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2436,42 +2590,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>39435100</v>
+        <v>34123800</v>
       </c>
       <c r="E66" s="3">
-        <v>36065400</v>
+        <v>38782400</v>
       </c>
       <c r="F66" s="3">
-        <v>35962600</v>
+        <v>35468500</v>
       </c>
       <c r="G66" s="3">
-        <v>40649300</v>
+        <v>35367300</v>
       </c>
       <c r="H66" s="3">
-        <v>41462700</v>
+        <v>39976400</v>
       </c>
       <c r="I66" s="3">
-        <v>28651400</v>
+        <v>40776400</v>
       </c>
       <c r="J66" s="3">
+        <v>28177100</v>
+      </c>
+      <c r="K66" s="3">
         <v>33900300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>41964500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>55660900</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2485,8 +2645,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2517,9 +2678,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2550,9 +2714,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2583,9 +2750,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2616,42 +2786,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19901200</v>
+        <v>16193100</v>
       </c>
       <c r="E72" s="3">
-        <v>26085500</v>
+        <v>19571800</v>
       </c>
       <c r="F72" s="3">
-        <v>25400100</v>
+        <v>25653800</v>
       </c>
       <c r="G72" s="3">
-        <v>23373700</v>
+        <v>24979700</v>
       </c>
       <c r="H72" s="3">
-        <v>21775600</v>
+        <v>22986900</v>
       </c>
       <c r="I72" s="3">
-        <v>23715900</v>
+        <v>21415200</v>
       </c>
       <c r="J72" s="3">
+        <v>23323300</v>
+      </c>
+      <c r="K72" s="3">
         <v>56477400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>22421200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>22074700</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2682,9 +2858,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2715,9 +2894,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2748,42 +2930,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29818900</v>
+        <v>23875000</v>
       </c>
       <c r="E76" s="3">
-        <v>36637200</v>
+        <v>29325300</v>
       </c>
       <c r="F76" s="3">
-        <v>35638400</v>
+        <v>36030800</v>
       </c>
       <c r="G76" s="3">
-        <v>36923100</v>
+        <v>35048500</v>
       </c>
       <c r="H76" s="3">
-        <v>34132400</v>
+        <v>36311900</v>
       </c>
       <c r="I76" s="3">
-        <v>33418200</v>
+        <v>33567400</v>
       </c>
       <c r="J76" s="3">
+        <v>32865100</v>
+      </c>
+      <c r="K76" s="3">
         <v>32545000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>29318800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>27629100</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2814,80 +3002,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4599400</v>
+        <v>-3932700</v>
       </c>
       <c r="E81" s="3">
-        <v>2765600</v>
+        <v>-4523300</v>
       </c>
       <c r="F81" s="3">
-        <v>2502500</v>
+        <v>2719800</v>
       </c>
       <c r="G81" s="3">
-        <v>2043100</v>
+        <v>2461000</v>
       </c>
       <c r="H81" s="3">
-        <v>-1698600</v>
+        <v>2009300</v>
       </c>
       <c r="I81" s="3">
-        <v>1928300</v>
+        <v>-1670500</v>
       </c>
       <c r="J81" s="3">
+        <v>1896400</v>
+      </c>
+      <c r="K81" s="3">
         <v>233300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2390300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2574200</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2901,41 +3098,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2911600</v>
+        <v>2596300</v>
       </c>
       <c r="E83" s="3">
-        <v>2559900</v>
+        <v>2863400</v>
       </c>
       <c r="F83" s="3">
-        <v>2869700</v>
+        <v>2517500</v>
       </c>
       <c r="G83" s="3">
-        <v>3025200</v>
+        <v>2822200</v>
       </c>
       <c r="H83" s="3">
-        <v>3736900</v>
+        <v>2975100</v>
       </c>
       <c r="I83" s="3">
-        <v>2148400</v>
+        <v>3675100</v>
       </c>
       <c r="J83" s="3">
+        <v>2112800</v>
+      </c>
+      <c r="K83" s="3">
         <v>1818200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2743900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2428600</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2966,9 +3167,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2999,9 +3203,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3032,9 +3239,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3065,9 +3275,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3098,42 +3311,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5800400</v>
+        <v>3221000</v>
       </c>
       <c r="E89" s="3">
-        <v>5477400</v>
+        <v>5704400</v>
       </c>
       <c r="F89" s="3">
-        <v>6116200</v>
+        <v>5386700</v>
       </c>
       <c r="G89" s="3">
-        <v>4653200</v>
+        <v>6014900</v>
       </c>
       <c r="H89" s="3">
-        <v>5904400</v>
+        <v>4576200</v>
       </c>
       <c r="I89" s="3">
-        <v>3704600</v>
+        <v>5806700</v>
       </c>
       <c r="J89" s="3">
+        <v>3643300</v>
+      </c>
+      <c r="K89" s="3">
         <v>3198600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7434600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4836100</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3147,41 +3366,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3860100</v>
+        <v>-2218700</v>
       </c>
       <c r="E91" s="3">
-        <v>-3183100</v>
+        <v>-3796200</v>
       </c>
       <c r="F91" s="3">
-        <v>-2751300</v>
+        <v>-3130400</v>
       </c>
       <c r="G91" s="3">
-        <v>-2396000</v>
+        <v>-2705700</v>
       </c>
       <c r="H91" s="3">
-        <v>-3577800</v>
+        <v>-2356300</v>
       </c>
       <c r="I91" s="3">
-        <v>-3117300</v>
+        <v>-3518600</v>
       </c>
       <c r="J91" s="3">
+        <v>-3065700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2382800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3743100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4169400</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3212,9 +3435,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3245,42 +3471,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5271700</v>
+        <v>261200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1625600</v>
+        <v>-5184400</v>
       </c>
       <c r="F94" s="3">
-        <v>-3336200</v>
+        <v>-1598700</v>
       </c>
       <c r="G94" s="3">
-        <v>467700</v>
+        <v>-3281000</v>
       </c>
       <c r="H94" s="3">
-        <v>-10718000</v>
+        <v>460000</v>
       </c>
       <c r="I94" s="3">
-        <v>1352900</v>
+        <v>-10540500</v>
       </c>
       <c r="J94" s="3">
+        <v>1330500</v>
+      </c>
+      <c r="K94" s="3">
         <v>372000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4125200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6225900</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3294,41 +3526,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-473700</v>
+        <v>-407000</v>
       </c>
       <c r="E96" s="3">
-        <v>-355300</v>
+        <v>-465900</v>
       </c>
       <c r="F96" s="3">
-        <v>-397100</v>
+        <v>-349400</v>
       </c>
       <c r="G96" s="3">
-        <v>-502400</v>
+        <v>-390600</v>
       </c>
       <c r="H96" s="3">
-        <v>-583700</v>
+        <v>-494100</v>
       </c>
       <c r="I96" s="3">
-        <v>-2047900</v>
+        <v>-574100</v>
       </c>
       <c r="J96" s="3">
+        <v>-2014000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-562200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1039800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1564700</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3359,9 +3595,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3392,9 +3631,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3425,106 +3667,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2738100</v>
+        <v>-1899900</v>
       </c>
       <c r="E100" s="3">
-        <v>-3626900</v>
+        <v>-2692800</v>
       </c>
       <c r="F100" s="3">
-        <v>-2824200</v>
+        <v>-3566800</v>
       </c>
       <c r="G100" s="3">
-        <v>-2455800</v>
+        <v>-2777500</v>
       </c>
       <c r="H100" s="3">
-        <v>2123300</v>
+        <v>-2415100</v>
       </c>
       <c r="I100" s="3">
-        <v>-6522900</v>
+        <v>2088100</v>
       </c>
       <c r="J100" s="3">
+        <v>-6414900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1625600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>318400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2938000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>47800</v>
+        <v>-3500</v>
       </c>
       <c r="E101" s="3">
-        <v>-3600</v>
+        <v>47100</v>
       </c>
       <c r="F101" s="3">
-        <v>-58600</v>
+        <v>-3500</v>
       </c>
       <c r="G101" s="3">
-        <v>13200</v>
+        <v>-57600</v>
       </c>
       <c r="H101" s="3">
-        <v>70600</v>
+        <v>12900</v>
       </c>
       <c r="I101" s="3">
-        <v>175800</v>
+        <v>69400</v>
       </c>
       <c r="J101" s="3">
+        <v>172900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-21500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-85600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-98600</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2161500</v>
+        <v>1578700</v>
       </c>
       <c r="E102" s="3">
-        <v>221300</v>
+        <v>-2125800</v>
       </c>
       <c r="F102" s="3">
-        <v>-102900</v>
+        <v>217600</v>
       </c>
       <c r="G102" s="3">
-        <v>2678300</v>
+        <v>-101200</v>
       </c>
       <c r="H102" s="3">
-        <v>-2619700</v>
+        <v>2634000</v>
       </c>
       <c r="I102" s="3">
-        <v>-1289500</v>
+        <v>-2576300</v>
       </c>
       <c r="J102" s="3">
+        <v>-1268200</v>
+      </c>
+      <c r="K102" s="3">
         <v>1923500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3542100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4426400</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/REPYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/REPYY_YR_FIN.xlsx
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>39152900</v>
+        <v>40770100</v>
       </c>
       <c r="E8" s="3">
-        <v>58029500</v>
+        <v>60426300</v>
       </c>
       <c r="F8" s="3">
-        <v>58670600</v>
+        <v>61093900</v>
       </c>
       <c r="G8" s="3">
-        <v>49018200</v>
+        <v>51042900</v>
       </c>
       <c r="H8" s="3">
-        <v>40808100</v>
+        <v>42493700</v>
       </c>
       <c r="I8" s="3">
-        <v>46746600</v>
+        <v>48677400</v>
       </c>
       <c r="J8" s="3">
-        <v>53928500</v>
+        <v>56156000</v>
       </c>
       <c r="K8" s="3">
         <v>56046800</v>
@@ -758,25 +758,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>30604000</v>
+        <v>31868100</v>
       </c>
       <c r="E9" s="3">
-        <v>44326800</v>
+        <v>46157600</v>
       </c>
       <c r="F9" s="3">
-        <v>45485500</v>
+        <v>47364200</v>
       </c>
       <c r="G9" s="3">
-        <v>36335500</v>
+        <v>37836300</v>
       </c>
       <c r="H9" s="3">
-        <v>27628900</v>
+        <v>28770100</v>
       </c>
       <c r="I9" s="3">
-        <v>39271800</v>
+        <v>40893800</v>
       </c>
       <c r="J9" s="3">
-        <v>48814700</v>
+        <v>50831000</v>
       </c>
       <c r="K9" s="3">
         <v>50053800</v>
@@ -794,25 +794,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8548900</v>
+        <v>8902000</v>
       </c>
       <c r="E10" s="3">
-        <v>13702700</v>
+        <v>14268700</v>
       </c>
       <c r="F10" s="3">
-        <v>13185100</v>
+        <v>13729700</v>
       </c>
       <c r="G10" s="3">
-        <v>12682800</v>
+        <v>13206600</v>
       </c>
       <c r="H10" s="3">
-        <v>13179200</v>
+        <v>13723600</v>
       </c>
       <c r="I10" s="3">
-        <v>7474800</v>
+        <v>7783600</v>
       </c>
       <c r="J10" s="3">
-        <v>5113800</v>
+        <v>5325000</v>
       </c>
       <c r="K10" s="3">
         <v>5993000</v>
@@ -846,25 +846,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>237600</v>
+        <v>247400</v>
       </c>
       <c r="E12" s="3">
-        <v>952900</v>
+        <v>992200</v>
       </c>
       <c r="F12" s="3">
-        <v>617600</v>
+        <v>643100</v>
       </c>
       <c r="G12" s="3">
-        <v>770500</v>
+        <v>802400</v>
       </c>
       <c r="H12" s="3">
-        <v>396400</v>
+        <v>412800</v>
       </c>
       <c r="I12" s="3">
-        <v>1852800</v>
+        <v>1929400</v>
       </c>
       <c r="J12" s="3">
-        <v>468200</v>
+        <v>487500</v>
       </c>
       <c r="K12" s="3">
         <v>201000</v>
@@ -918,25 +918,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2117500</v>
+        <v>2205000</v>
       </c>
       <c r="E14" s="3">
-        <v>5429100</v>
+        <v>5653300</v>
       </c>
       <c r="F14" s="3">
-        <v>1338700</v>
+        <v>1394000</v>
       </c>
       <c r="G14" s="3">
-        <v>-1461100</v>
+        <v>-1521400</v>
       </c>
       <c r="H14" s="3">
-        <v>-1016400</v>
+        <v>-1058400</v>
       </c>
       <c r="I14" s="3">
-        <v>2655100</v>
+        <v>2764800</v>
       </c>
       <c r="J14" s="3">
-        <v>-115300</v>
+        <v>-120000</v>
       </c>
       <c r="K14" s="3">
         <v>19100</v>
@@ -954,25 +954,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2495100</v>
+        <v>2598200</v>
       </c>
       <c r="E15" s="3">
-        <v>2722200</v>
+        <v>2834600</v>
       </c>
       <c r="F15" s="3">
-        <v>2250500</v>
+        <v>2343400</v>
       </c>
       <c r="G15" s="3">
-        <v>2614000</v>
+        <v>2721900</v>
       </c>
       <c r="H15" s="3">
-        <v>2691600</v>
+        <v>2802800</v>
       </c>
       <c r="I15" s="3">
-        <v>2742200</v>
+        <v>2855500</v>
       </c>
       <c r="J15" s="3">
-        <v>1644600</v>
+        <v>1712500</v>
       </c>
       <c r="K15" s="3">
         <v>1617300</v>
@@ -1003,25 +1003,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>42090400</v>
+        <v>43828900</v>
       </c>
       <c r="E17" s="3">
-        <v>61846900</v>
+        <v>64401400</v>
       </c>
       <c r="F17" s="3">
-        <v>56220200</v>
+        <v>58542300</v>
       </c>
       <c r="G17" s="3">
-        <v>45738400</v>
+        <v>47627600</v>
       </c>
       <c r="H17" s="3">
-        <v>38503600</v>
+        <v>40093900</v>
       </c>
       <c r="I17" s="3">
-        <v>49751100</v>
+        <v>51806100</v>
       </c>
       <c r="J17" s="3">
-        <v>53402700</v>
+        <v>55608400</v>
       </c>
       <c r="K17" s="3">
         <v>54805100</v>
@@ -1039,25 +1039,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2937500</v>
+        <v>-3058800</v>
       </c>
       <c r="E18" s="3">
-        <v>-3817400</v>
+        <v>-3975100</v>
       </c>
       <c r="F18" s="3">
-        <v>2450400</v>
+        <v>2551700</v>
       </c>
       <c r="G18" s="3">
-        <v>3279800</v>
+        <v>3415300</v>
       </c>
       <c r="H18" s="3">
-        <v>2304600</v>
+        <v>2399800</v>
       </c>
       <c r="I18" s="3">
-        <v>-3004500</v>
+        <v>-3128600</v>
       </c>
       <c r="J18" s="3">
-        <v>525900</v>
+        <v>547600</v>
       </c>
       <c r="K18" s="3">
         <v>1241700</v>
@@ -1091,25 +1091,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-815200</v>
+        <v>-848900</v>
       </c>
       <c r="E20" s="3">
-        <v>177600</v>
+        <v>185000</v>
       </c>
       <c r="F20" s="3">
-        <v>1542300</v>
+        <v>1606000</v>
       </c>
       <c r="G20" s="3">
-        <v>925800</v>
+        <v>964100</v>
       </c>
       <c r="H20" s="3">
-        <v>488200</v>
+        <v>508400</v>
       </c>
       <c r="I20" s="3">
-        <v>856400</v>
+        <v>891800</v>
       </c>
       <c r="J20" s="3">
-        <v>1334000</v>
+        <v>1389100</v>
       </c>
       <c r="K20" s="3">
         <v>940200</v>
@@ -1127,25 +1127,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1145800</v>
+        <v>-1211900</v>
       </c>
       <c r="E21" s="3">
-        <v>-764700</v>
+        <v>-817000</v>
       </c>
       <c r="F21" s="3">
-        <v>6520500</v>
+        <v>6771600</v>
       </c>
       <c r="G21" s="3">
-        <v>7039300</v>
+        <v>7309700</v>
       </c>
       <c r="H21" s="3">
-        <v>5780000</v>
+        <v>5997300</v>
       </c>
       <c r="I21" s="3">
-        <v>1542000</v>
+        <v>1579100</v>
       </c>
       <c r="J21" s="3">
-        <v>3981300</v>
+        <v>4130500</v>
       </c>
       <c r="K21" s="3">
         <v>3992600</v>
@@ -1163,25 +1163,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>134100</v>
+        <v>139600</v>
       </c>
       <c r="E22" s="3">
-        <v>125900</v>
+        <v>131100</v>
       </c>
       <c r="F22" s="3">
-        <v>71800</v>
+        <v>74700</v>
       </c>
       <c r="G22" s="3">
-        <v>550600</v>
+        <v>573300</v>
       </c>
       <c r="H22" s="3">
-        <v>591700</v>
+        <v>616200</v>
       </c>
       <c r="I22" s="3">
-        <v>618800</v>
+        <v>644300</v>
       </c>
       <c r="J22" s="3">
-        <v>540000</v>
+        <v>562300</v>
       </c>
       <c r="K22" s="3">
         <v>648300</v>
@@ -1199,25 +1199,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3886800</v>
+        <v>-4047400</v>
       </c>
       <c r="E23" s="3">
-        <v>-3765700</v>
+        <v>-3921200</v>
       </c>
       <c r="F23" s="3">
-        <v>3920900</v>
+        <v>4082900</v>
       </c>
       <c r="G23" s="3">
-        <v>3655100</v>
+        <v>3806000</v>
       </c>
       <c r="H23" s="3">
-        <v>2201000</v>
+        <v>2292000</v>
       </c>
       <c r="I23" s="3">
-        <v>-2766900</v>
+        <v>-2881200</v>
       </c>
       <c r="J23" s="3">
-        <v>1319900</v>
+        <v>1374400</v>
       </c>
       <c r="K23" s="3">
         <v>1533500</v>
@@ -1235,25 +1235,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>18800</v>
+        <v>19600</v>
       </c>
       <c r="E24" s="3">
-        <v>691700</v>
+        <v>720300</v>
       </c>
       <c r="F24" s="3">
-        <v>1630500</v>
+        <v>1697800</v>
       </c>
       <c r="G24" s="3">
-        <v>1435200</v>
+        <v>1494500</v>
       </c>
       <c r="H24" s="3">
-        <v>460000</v>
+        <v>479000</v>
       </c>
       <c r="I24" s="3">
-        <v>-1171700</v>
+        <v>-1220100</v>
       </c>
       <c r="J24" s="3">
-        <v>171800</v>
+        <v>178800</v>
       </c>
       <c r="K24" s="3">
         <v>515600</v>
@@ -1307,25 +1307,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3905600</v>
+        <v>-4067000</v>
       </c>
       <c r="E26" s="3">
-        <v>-4457400</v>
+        <v>-4641500</v>
       </c>
       <c r="F26" s="3">
-        <v>2290500</v>
+        <v>2385100</v>
       </c>
       <c r="G26" s="3">
-        <v>2219900</v>
+        <v>2311600</v>
       </c>
       <c r="H26" s="3">
-        <v>1741100</v>
+        <v>1813000</v>
       </c>
       <c r="I26" s="3">
-        <v>-1595200</v>
+        <v>-1661100</v>
       </c>
       <c r="J26" s="3">
-        <v>1148200</v>
+        <v>1195600</v>
       </c>
       <c r="K26" s="3">
         <v>1018000</v>
@@ -1343,25 +1343,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3932700</v>
+        <v>-4095100</v>
       </c>
       <c r="E27" s="3">
-        <v>-4523300</v>
+        <v>-4710100</v>
       </c>
       <c r="F27" s="3">
-        <v>2235200</v>
+        <v>2327500</v>
       </c>
       <c r="G27" s="3">
-        <v>2138700</v>
+        <v>2227000</v>
       </c>
       <c r="H27" s="3">
-        <v>1657500</v>
+        <v>1726000</v>
       </c>
       <c r="I27" s="3">
-        <v>-1670500</v>
+        <v>-1739500</v>
       </c>
       <c r="J27" s="3">
-        <v>1194000</v>
+        <v>1243400</v>
       </c>
       <c r="K27" s="3">
         <v>1051500</v>
@@ -1421,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>484700</v>
+        <v>504700</v>
       </c>
       <c r="G29" s="3">
-        <v>322300</v>
+        <v>335600</v>
       </c>
       <c r="H29" s="3">
-        <v>351700</v>
+        <v>366300</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>702300</v>
+        <v>731300</v>
       </c>
       <c r="K29" s="3">
         <v>-818200</v>
@@ -1523,25 +1523,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>815200</v>
+        <v>848900</v>
       </c>
       <c r="E32" s="3">
-        <v>-177600</v>
+        <v>-185000</v>
       </c>
       <c r="F32" s="3">
-        <v>-1542300</v>
+        <v>-1606000</v>
       </c>
       <c r="G32" s="3">
-        <v>-925800</v>
+        <v>-964100</v>
       </c>
       <c r="H32" s="3">
-        <v>-488200</v>
+        <v>-508400</v>
       </c>
       <c r="I32" s="3">
-        <v>-856400</v>
+        <v>-891800</v>
       </c>
       <c r="J32" s="3">
-        <v>-1334000</v>
+        <v>-1389100</v>
       </c>
       <c r="K32" s="3">
         <v>-940200</v>
@@ -1559,25 +1559,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3932700</v>
+        <v>-4095100</v>
       </c>
       <c r="E33" s="3">
-        <v>-4523300</v>
+        <v>-4710100</v>
       </c>
       <c r="F33" s="3">
-        <v>2719800</v>
+        <v>2832200</v>
       </c>
       <c r="G33" s="3">
-        <v>2461000</v>
+        <v>2562700</v>
       </c>
       <c r="H33" s="3">
-        <v>2009300</v>
+        <v>2092300</v>
       </c>
       <c r="I33" s="3">
-        <v>-1670500</v>
+        <v>-1739500</v>
       </c>
       <c r="J33" s="3">
-        <v>1896400</v>
+        <v>1974700</v>
       </c>
       <c r="K33" s="3">
         <v>233300</v>
@@ -1631,25 +1631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3932700</v>
+        <v>-4095100</v>
       </c>
       <c r="E35" s="3">
-        <v>-4523300</v>
+        <v>-4710100</v>
       </c>
       <c r="F35" s="3">
-        <v>2719800</v>
+        <v>2832200</v>
       </c>
       <c r="G35" s="3">
-        <v>2461000</v>
+        <v>2562700</v>
       </c>
       <c r="H35" s="3">
-        <v>2009300</v>
+        <v>2092300</v>
       </c>
       <c r="I35" s="3">
-        <v>-1670500</v>
+        <v>-1739500</v>
       </c>
       <c r="J35" s="3">
-        <v>1896400</v>
+        <v>1974700</v>
       </c>
       <c r="K35" s="3">
         <v>233300</v>
@@ -1740,25 +1740,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2628100</v>
+        <v>2736600</v>
       </c>
       <c r="E41" s="3">
-        <v>2788100</v>
+        <v>2903200</v>
       </c>
       <c r="F41" s="3">
-        <v>4851500</v>
+        <v>5051900</v>
       </c>
       <c r="G41" s="3">
-        <v>4415000</v>
+        <v>4597400</v>
       </c>
       <c r="H41" s="3">
-        <v>3772700</v>
+        <v>3928500</v>
       </c>
       <c r="I41" s="3">
-        <v>5598500</v>
+        <v>5829700</v>
       </c>
       <c r="J41" s="3">
-        <v>2599800</v>
+        <v>2707200</v>
       </c>
       <c r="K41" s="3">
         <v>11515800</v>
@@ -1776,25 +1776,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4553800</v>
+        <v>4741900</v>
       </c>
       <c r="E42" s="3">
-        <v>4208000</v>
+        <v>4381800</v>
       </c>
       <c r="F42" s="3">
-        <v>3075100</v>
+        <v>3202100</v>
       </c>
       <c r="G42" s="3">
-        <v>1370500</v>
+        <v>1427100</v>
       </c>
       <c r="H42" s="3">
-        <v>3322200</v>
+        <v>3459400</v>
       </c>
       <c r="I42" s="3">
-        <v>2102200</v>
+        <v>2189100</v>
       </c>
       <c r="J42" s="3">
-        <v>6404300</v>
+        <v>6668800</v>
       </c>
       <c r="K42" s="3">
         <v>2611300</v>
@@ -1812,25 +1812,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4536200</v>
+        <v>4723600</v>
       </c>
       <c r="E43" s="3">
-        <v>6756100</v>
+        <v>7035100</v>
       </c>
       <c r="F43" s="3">
-        <v>6898400</v>
+        <v>7183300</v>
       </c>
       <c r="G43" s="3">
-        <v>6884300</v>
+        <v>7168600</v>
       </c>
       <c r="H43" s="3">
-        <v>6847800</v>
+        <v>7130700</v>
       </c>
       <c r="I43" s="3">
-        <v>15946100</v>
+        <v>16604700</v>
       </c>
       <c r="J43" s="3">
-        <v>6096100</v>
+        <v>6347900</v>
       </c>
       <c r="K43" s="3">
         <v>17219300</v>
@@ -1848,25 +1848,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3975100</v>
+        <v>4139200</v>
       </c>
       <c r="E44" s="3">
-        <v>5407900</v>
+        <v>5631300</v>
       </c>
       <c r="F44" s="3">
-        <v>5164400</v>
+        <v>5377700</v>
       </c>
       <c r="G44" s="3">
-        <v>4466800</v>
+        <v>4651300</v>
       </c>
       <c r="H44" s="3">
-        <v>4240900</v>
+        <v>4416100</v>
       </c>
       <c r="I44" s="3">
-        <v>6712500</v>
+        <v>6989800</v>
       </c>
       <c r="J44" s="3">
-        <v>4624400</v>
+        <v>4815400</v>
       </c>
       <c r="K44" s="3">
         <v>11813700</v>
@@ -1884,25 +1884,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>287000</v>
+        <v>298900</v>
       </c>
       <c r="E45" s="3">
-        <v>235300</v>
+        <v>245000</v>
       </c>
       <c r="F45" s="3">
-        <v>355300</v>
+        <v>369900</v>
       </c>
       <c r="G45" s="3">
-        <v>240000</v>
+        <v>249900</v>
       </c>
       <c r="H45" s="3">
-        <v>554100</v>
+        <v>577000</v>
       </c>
       <c r="I45" s="3">
-        <v>627000</v>
+        <v>652900</v>
       </c>
       <c r="J45" s="3">
-        <v>322300</v>
+        <v>335600</v>
       </c>
       <c r="K45" s="3">
         <v>2192600</v>
@@ -1920,25 +1920,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15980200</v>
+        <v>16640300</v>
       </c>
       <c r="E46" s="3">
-        <v>19395300</v>
+        <v>20196400</v>
       </c>
       <c r="F46" s="3">
-        <v>20344700</v>
+        <v>21185000</v>
       </c>
       <c r="G46" s="3">
-        <v>17376600</v>
+        <v>18094300</v>
       </c>
       <c r="H46" s="3">
-        <v>18737700</v>
+        <v>19511600</v>
       </c>
       <c r="I46" s="3">
-        <v>15001500</v>
+        <v>15621100</v>
       </c>
       <c r="J46" s="3">
-        <v>20047000</v>
+        <v>20875100</v>
       </c>
       <c r="K46" s="3">
         <v>21263700</v>
@@ -1956,25 +1956,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8070100</v>
+        <v>8403400</v>
       </c>
       <c r="E47" s="3">
-        <v>9847600</v>
+        <v>10254400</v>
       </c>
       <c r="F47" s="3">
-        <v>9799400</v>
+        <v>10204200</v>
       </c>
       <c r="G47" s="3">
-        <v>13302700</v>
+        <v>13852200</v>
       </c>
       <c r="H47" s="3">
-        <v>13387400</v>
+        <v>13940400</v>
       </c>
       <c r="I47" s="3">
-        <v>14723800</v>
+        <v>15332000</v>
       </c>
       <c r="J47" s="3">
-        <v>13767400</v>
+        <v>14336100</v>
       </c>
       <c r="K47" s="3">
         <v>16090100</v>
@@ -1992,25 +1992,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24618500</v>
+        <v>25635400</v>
       </c>
       <c r="E48" s="3">
-        <v>27305400</v>
+        <v>28433200</v>
       </c>
       <c r="F48" s="3">
-        <v>29997000</v>
+        <v>31236000</v>
       </c>
       <c r="G48" s="3">
-        <v>29018300</v>
+        <v>30216800</v>
       </c>
       <c r="H48" s="3">
-        <v>32189800</v>
+        <v>33519400</v>
       </c>
       <c r="I48" s="3">
-        <v>66384300</v>
+        <v>69126200</v>
       </c>
       <c r="J48" s="3">
-        <v>20191700</v>
+        <v>21025700</v>
       </c>
       <c r="K48" s="3">
         <v>38369300</v>
@@ -2028,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3944500</v>
+        <v>4107400</v>
       </c>
       <c r="E49" s="3">
-        <v>5258500</v>
+        <v>5475700</v>
       </c>
       <c r="F49" s="3">
-        <v>5994900</v>
+        <v>6242500</v>
       </c>
       <c r="G49" s="3">
-        <v>5392600</v>
+        <v>5615400</v>
       </c>
       <c r="H49" s="3">
-        <v>6010200</v>
+        <v>6258500</v>
       </c>
       <c r="I49" s="3">
-        <v>11260500</v>
+        <v>11725600</v>
       </c>
       <c r="J49" s="3">
-        <v>2186900</v>
+        <v>2277300</v>
       </c>
       <c r="K49" s="3">
         <v>6717900</v>
@@ -2136,25 +2136,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5385600</v>
+        <v>5608000</v>
       </c>
       <c r="E52" s="3">
-        <v>6300800</v>
+        <v>6561000</v>
       </c>
       <c r="F52" s="3">
-        <v>5363200</v>
+        <v>5584700</v>
       </c>
       <c r="G52" s="3">
-        <v>5325600</v>
+        <v>5545500</v>
       </c>
       <c r="H52" s="3">
-        <v>5963200</v>
+        <v>6209500</v>
       </c>
       <c r="I52" s="3">
-        <v>6092600</v>
+        <v>6344200</v>
       </c>
       <c r="J52" s="3">
-        <v>4849100</v>
+        <v>5049400</v>
       </c>
       <c r="K52" s="3">
         <v>9589900</v>
@@ -2208,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>57998900</v>
+        <v>60394500</v>
       </c>
       <c r="E54" s="3">
-        <v>68107700</v>
+        <v>70920800</v>
       </c>
       <c r="F54" s="3">
-        <v>71499200</v>
+        <v>74452400</v>
       </c>
       <c r="G54" s="3">
-        <v>70415800</v>
+        <v>73324200</v>
       </c>
       <c r="H54" s="3">
-        <v>76288400</v>
+        <v>79439400</v>
       </c>
       <c r="I54" s="3">
-        <v>74343800</v>
+        <v>77414500</v>
       </c>
       <c r="J54" s="3">
-        <v>61042200</v>
+        <v>63563500</v>
       </c>
       <c r="K54" s="3">
         <v>66445300</v>
@@ -2276,25 +2276,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2906900</v>
+        <v>3027000</v>
       </c>
       <c r="E57" s="3">
-        <v>4279700</v>
+        <v>4456500</v>
       </c>
       <c r="F57" s="3">
-        <v>3816200</v>
+        <v>3973900</v>
       </c>
       <c r="G57" s="3">
-        <v>3221000</v>
+        <v>3354000</v>
       </c>
       <c r="H57" s="3">
-        <v>2503400</v>
+        <v>2606800</v>
       </c>
       <c r="I57" s="3">
-        <v>2116300</v>
+        <v>2203800</v>
       </c>
       <c r="J57" s="3">
-        <v>2764500</v>
+        <v>2878700</v>
       </c>
       <c r="K57" s="3">
         <v>3095800</v>
@@ -2312,25 +2312,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4263300</v>
+        <v>4439400</v>
       </c>
       <c r="E58" s="3">
-        <v>7579500</v>
+        <v>7892600</v>
       </c>
       <c r="F58" s="3">
-        <v>4418600</v>
+        <v>4601100</v>
       </c>
       <c r="G58" s="3">
-        <v>4870300</v>
+        <v>5071500</v>
       </c>
       <c r="H58" s="3">
-        <v>4588000</v>
+        <v>4777500</v>
       </c>
       <c r="I58" s="3">
-        <v>5046800</v>
+        <v>5255200</v>
       </c>
       <c r="J58" s="3">
-        <v>1755200</v>
+        <v>1827700</v>
       </c>
       <c r="K58" s="3">
         <v>4266800</v>
@@ -2348,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5204400</v>
+        <v>5419400</v>
       </c>
       <c r="E59" s="3">
-        <v>5886700</v>
+        <v>6129800</v>
       </c>
       <c r="F59" s="3">
-        <v>6834900</v>
+        <v>7117200</v>
       </c>
       <c r="G59" s="3">
-        <v>6066700</v>
+        <v>6317300</v>
       </c>
       <c r="H59" s="3">
-        <v>10245300</v>
+        <v>10668400</v>
       </c>
       <c r="I59" s="3">
-        <v>25026700</v>
+        <v>26060400</v>
       </c>
       <c r="J59" s="3">
-        <v>7530100</v>
+        <v>7841200</v>
       </c>
       <c r="K59" s="3">
         <v>19340200</v>
@@ -2384,25 +2384,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12374600</v>
+        <v>12885700</v>
       </c>
       <c r="E60" s="3">
-        <v>17746000</v>
+        <v>18479000</v>
       </c>
       <c r="F60" s="3">
-        <v>15069700</v>
+        <v>15692100</v>
       </c>
       <c r="G60" s="3">
-        <v>14158000</v>
+        <v>14742800</v>
       </c>
       <c r="H60" s="3">
-        <v>17336600</v>
+        <v>18052700</v>
       </c>
       <c r="I60" s="3">
-        <v>17030700</v>
+        <v>17734200</v>
       </c>
       <c r="J60" s="3">
-        <v>12049900</v>
+        <v>12547600</v>
       </c>
       <c r="K60" s="3">
         <v>16000400</v>
@@ -2420,25 +2420,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14040300</v>
+        <v>14620300</v>
       </c>
       <c r="E61" s="3">
-        <v>12656900</v>
+        <v>13179700</v>
       </c>
       <c r="F61" s="3">
-        <v>9359400</v>
+        <v>9746000</v>
       </c>
       <c r="G61" s="3">
-        <v>10273500</v>
+        <v>10697800</v>
       </c>
       <c r="H61" s="3">
-        <v>12876900</v>
+        <v>13408700</v>
       </c>
       <c r="I61" s="3">
-        <v>14142700</v>
+        <v>14726800</v>
       </c>
       <c r="J61" s="3">
-        <v>10514700</v>
+        <v>10949000</v>
       </c>
       <c r="K61" s="3">
         <v>11574400</v>
@@ -2456,25 +2456,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7421900</v>
+        <v>7728500</v>
       </c>
       <c r="E62" s="3">
-        <v>8048900</v>
+        <v>8381400</v>
       </c>
       <c r="F62" s="3">
-        <v>10702900</v>
+        <v>11145000</v>
       </c>
       <c r="G62" s="3">
-        <v>10618200</v>
+        <v>11056800</v>
       </c>
       <c r="H62" s="3">
-        <v>9475900</v>
+        <v>9867300</v>
       </c>
       <c r="I62" s="3">
-        <v>16189600</v>
+        <v>16858300</v>
       </c>
       <c r="J62" s="3">
-        <v>5357300</v>
+        <v>5578600</v>
       </c>
       <c r="K62" s="3">
         <v>10932100</v>
@@ -2600,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>34123800</v>
+        <v>35533300</v>
       </c>
       <c r="E66" s="3">
-        <v>38782400</v>
+        <v>40384200</v>
       </c>
       <c r="F66" s="3">
-        <v>35468500</v>
+        <v>36933400</v>
       </c>
       <c r="G66" s="3">
-        <v>35367300</v>
+        <v>36828100</v>
       </c>
       <c r="H66" s="3">
-        <v>39976400</v>
+        <v>41627600</v>
       </c>
       <c r="I66" s="3">
-        <v>40776400</v>
+        <v>42460600</v>
       </c>
       <c r="J66" s="3">
-        <v>28177100</v>
+        <v>29341000</v>
       </c>
       <c r="K66" s="3">
         <v>33900300</v>
@@ -2796,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16193100</v>
+        <v>16862000</v>
       </c>
       <c r="E72" s="3">
-        <v>19571800</v>
+        <v>20380200</v>
       </c>
       <c r="F72" s="3">
-        <v>25653800</v>
+        <v>26713400</v>
       </c>
       <c r="G72" s="3">
-        <v>24979700</v>
+        <v>26011400</v>
       </c>
       <c r="H72" s="3">
-        <v>22986900</v>
+        <v>23936300</v>
       </c>
       <c r="I72" s="3">
-        <v>21415200</v>
+        <v>22299700</v>
       </c>
       <c r="J72" s="3">
-        <v>23323300</v>
+        <v>24286700</v>
       </c>
       <c r="K72" s="3">
         <v>56477400</v>
@@ -2940,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>23875000</v>
+        <v>24861200</v>
       </c>
       <c r="E76" s="3">
-        <v>29325300</v>
+        <v>30536600</v>
       </c>
       <c r="F76" s="3">
-        <v>36030800</v>
+        <v>37519000</v>
       </c>
       <c r="G76" s="3">
-        <v>35048500</v>
+        <v>36496100</v>
       </c>
       <c r="H76" s="3">
-        <v>36311900</v>
+        <v>37811800</v>
       </c>
       <c r="I76" s="3">
-        <v>33567400</v>
+        <v>34953900</v>
       </c>
       <c r="J76" s="3">
-        <v>32865100</v>
+        <v>34222500</v>
       </c>
       <c r="K76" s="3">
         <v>32545000</v>
@@ -3053,25 +3053,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3932700</v>
+        <v>-4095100</v>
       </c>
       <c r="E81" s="3">
-        <v>-4523300</v>
+        <v>-4710100</v>
       </c>
       <c r="F81" s="3">
-        <v>2719800</v>
+        <v>2832200</v>
       </c>
       <c r="G81" s="3">
-        <v>2461000</v>
+        <v>2562700</v>
       </c>
       <c r="H81" s="3">
-        <v>2009300</v>
+        <v>2092300</v>
       </c>
       <c r="I81" s="3">
-        <v>-1670500</v>
+        <v>-1739500</v>
       </c>
       <c r="J81" s="3">
-        <v>1896400</v>
+        <v>1974700</v>
       </c>
       <c r="K81" s="3">
         <v>233300</v>
@@ -3105,25 +3105,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2596300</v>
+        <v>2703600</v>
       </c>
       <c r="E83" s="3">
-        <v>2863400</v>
+        <v>2981600</v>
       </c>
       <c r="F83" s="3">
-        <v>2517500</v>
+        <v>2621500</v>
       </c>
       <c r="G83" s="3">
-        <v>2822200</v>
+        <v>2938800</v>
       </c>
       <c r="H83" s="3">
-        <v>2975100</v>
+        <v>3098000</v>
       </c>
       <c r="I83" s="3">
-        <v>3675100</v>
+        <v>3826900</v>
       </c>
       <c r="J83" s="3">
-        <v>2112800</v>
+        <v>2200100</v>
       </c>
       <c r="K83" s="3">
         <v>1818200</v>
@@ -3321,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3221000</v>
+        <v>3354000</v>
       </c>
       <c r="E89" s="3">
-        <v>5704400</v>
+        <v>5940000</v>
       </c>
       <c r="F89" s="3">
-        <v>5386700</v>
+        <v>5609200</v>
       </c>
       <c r="G89" s="3">
-        <v>6014900</v>
+        <v>6263400</v>
       </c>
       <c r="H89" s="3">
-        <v>4576200</v>
+        <v>4765200</v>
       </c>
       <c r="I89" s="3">
-        <v>5806700</v>
+        <v>6046600</v>
       </c>
       <c r="J89" s="3">
-        <v>3643300</v>
+        <v>3793800</v>
       </c>
       <c r="K89" s="3">
         <v>3198600</v>
@@ -3373,25 +3373,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2218700</v>
+        <v>-2310300</v>
       </c>
       <c r="E91" s="3">
-        <v>-3796200</v>
+        <v>-3953000</v>
       </c>
       <c r="F91" s="3">
-        <v>-3130400</v>
+        <v>-3259700</v>
       </c>
       <c r="G91" s="3">
-        <v>-2705700</v>
+        <v>-2817500</v>
       </c>
       <c r="H91" s="3">
-        <v>-2356300</v>
+        <v>-2453700</v>
       </c>
       <c r="I91" s="3">
-        <v>-3518600</v>
+        <v>-3663900</v>
       </c>
       <c r="J91" s="3">
-        <v>-3065700</v>
+        <v>-3192300</v>
       </c>
       <c r="K91" s="3">
         <v>-2382800</v>
@@ -3481,25 +3481,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>261200</v>
+        <v>271900</v>
       </c>
       <c r="E94" s="3">
-        <v>-5184400</v>
+        <v>-5398500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1598700</v>
+        <v>-1664800</v>
       </c>
       <c r="G94" s="3">
-        <v>-3281000</v>
+        <v>-3416500</v>
       </c>
       <c r="H94" s="3">
-        <v>460000</v>
+        <v>479000</v>
       </c>
       <c r="I94" s="3">
-        <v>-10540500</v>
+        <v>-10975900</v>
       </c>
       <c r="J94" s="3">
-        <v>1330500</v>
+        <v>1385500</v>
       </c>
       <c r="K94" s="3">
         <v>372000</v>
@@ -3533,25 +3533,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-407000</v>
+        <v>-423800</v>
       </c>
       <c r="E96" s="3">
-        <v>-465900</v>
+        <v>-485100</v>
       </c>
       <c r="F96" s="3">
-        <v>-349400</v>
+        <v>-363800</v>
       </c>
       <c r="G96" s="3">
-        <v>-390600</v>
+        <v>-406700</v>
       </c>
       <c r="H96" s="3">
-        <v>-494100</v>
+        <v>-514500</v>
       </c>
       <c r="I96" s="3">
-        <v>-574100</v>
+        <v>-597800</v>
       </c>
       <c r="J96" s="3">
-        <v>-2014000</v>
+        <v>-2097200</v>
       </c>
       <c r="K96" s="3">
         <v>-562200</v>
@@ -3677,25 +3677,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1899900</v>
+        <v>-1978400</v>
       </c>
       <c r="E100" s="3">
-        <v>-2692800</v>
+        <v>-2804000</v>
       </c>
       <c r="F100" s="3">
-        <v>-3566800</v>
+        <v>-3714200</v>
       </c>
       <c r="G100" s="3">
-        <v>-2777500</v>
+        <v>-2892200</v>
       </c>
       <c r="H100" s="3">
-        <v>-2415100</v>
+        <v>-2514900</v>
       </c>
       <c r="I100" s="3">
-        <v>2088100</v>
+        <v>2174400</v>
       </c>
       <c r="J100" s="3">
-        <v>-6414900</v>
+        <v>-6679900</v>
       </c>
       <c r="K100" s="3">
         <v>-1625600</v>
@@ -3713,25 +3713,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3500</v>
+        <v>-3700</v>
       </c>
       <c r="E101" s="3">
-        <v>47100</v>
+        <v>49000</v>
       </c>
       <c r="F101" s="3">
-        <v>-3500</v>
+        <v>-3700</v>
       </c>
       <c r="G101" s="3">
-        <v>-57600</v>
+        <v>-60000</v>
       </c>
       <c r="H101" s="3">
-        <v>12900</v>
+        <v>13500</v>
       </c>
       <c r="I101" s="3">
-        <v>69400</v>
+        <v>72300</v>
       </c>
       <c r="J101" s="3">
-        <v>172900</v>
+        <v>180100</v>
       </c>
       <c r="K101" s="3">
         <v>-21500</v>
@@ -3749,25 +3749,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1578700</v>
+        <v>1643900</v>
       </c>
       <c r="E102" s="3">
-        <v>-2125800</v>
+        <v>-2213600</v>
       </c>
       <c r="F102" s="3">
-        <v>217600</v>
+        <v>226600</v>
       </c>
       <c r="G102" s="3">
-        <v>-101200</v>
+        <v>-105300</v>
       </c>
       <c r="H102" s="3">
-        <v>2634000</v>
+        <v>2742800</v>
       </c>
       <c r="I102" s="3">
-        <v>-2576300</v>
+        <v>-2682700</v>
       </c>
       <c r="J102" s="3">
-        <v>-1268200</v>
+        <v>-1320500</v>
       </c>
       <c r="K102" s="3">
         <v>1923500</v>

--- a/AAII_Financials/Yearly/REPYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/REPYY_YR_FIN.xlsx
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>40770100</v>
+        <v>38853700</v>
       </c>
       <c r="E8" s="3">
-        <v>60426300</v>
+        <v>57586000</v>
       </c>
       <c r="F8" s="3">
-        <v>61093900</v>
+        <v>58222200</v>
       </c>
       <c r="G8" s="3">
-        <v>51042900</v>
+        <v>48643600</v>
       </c>
       <c r="H8" s="3">
-        <v>42493700</v>
+        <v>40496300</v>
       </c>
       <c r="I8" s="3">
-        <v>48677400</v>
+        <v>46389400</v>
       </c>
       <c r="J8" s="3">
-        <v>56156000</v>
+        <v>53516400</v>
       </c>
       <c r="K8" s="3">
         <v>56046800</v>
@@ -758,25 +758,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>31868100</v>
+        <v>30370200</v>
       </c>
       <c r="E9" s="3">
-        <v>46157600</v>
+        <v>43988000</v>
       </c>
       <c r="F9" s="3">
-        <v>47364200</v>
+        <v>45137900</v>
       </c>
       <c r="G9" s="3">
-        <v>37836300</v>
+        <v>36057800</v>
       </c>
       <c r="H9" s="3">
-        <v>28770100</v>
+        <v>27417800</v>
       </c>
       <c r="I9" s="3">
-        <v>40893800</v>
+        <v>38971600</v>
       </c>
       <c r="J9" s="3">
-        <v>50831000</v>
+        <v>48441700</v>
       </c>
       <c r="K9" s="3">
         <v>50053800</v>
@@ -794,25 +794,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8902000</v>
+        <v>8483600</v>
       </c>
       <c r="E10" s="3">
-        <v>14268700</v>
+        <v>13598000</v>
       </c>
       <c r="F10" s="3">
-        <v>13729700</v>
+        <v>13084300</v>
       </c>
       <c r="G10" s="3">
-        <v>13206600</v>
+        <v>12585800</v>
       </c>
       <c r="H10" s="3">
-        <v>13723600</v>
+        <v>13078500</v>
       </c>
       <c r="I10" s="3">
-        <v>7783600</v>
+        <v>7417700</v>
       </c>
       <c r="J10" s="3">
-        <v>5325000</v>
+        <v>5074700</v>
       </c>
       <c r="K10" s="3">
         <v>5993000</v>
@@ -846,25 +846,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>247400</v>
+        <v>235800</v>
       </c>
       <c r="E12" s="3">
-        <v>992200</v>
+        <v>945600</v>
       </c>
       <c r="F12" s="3">
-        <v>643100</v>
+        <v>612900</v>
       </c>
       <c r="G12" s="3">
-        <v>802400</v>
+        <v>764700</v>
       </c>
       <c r="H12" s="3">
-        <v>412800</v>
+        <v>393400</v>
       </c>
       <c r="I12" s="3">
-        <v>1929400</v>
+        <v>1838700</v>
       </c>
       <c r="J12" s="3">
-        <v>487500</v>
+        <v>464600</v>
       </c>
       <c r="K12" s="3">
         <v>201000</v>
@@ -918,25 +918,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2205000</v>
+        <v>2101300</v>
       </c>
       <c r="E14" s="3">
-        <v>5653300</v>
+        <v>5387600</v>
       </c>
       <c r="F14" s="3">
-        <v>1394000</v>
+        <v>1304000</v>
       </c>
       <c r="G14" s="3">
-        <v>-1521400</v>
+        <v>-1449900</v>
       </c>
       <c r="H14" s="3">
-        <v>-1058400</v>
+        <v>-1008600</v>
       </c>
       <c r="I14" s="3">
-        <v>2764800</v>
+        <v>2634800</v>
       </c>
       <c r="J14" s="3">
-        <v>-120000</v>
+        <v>-114400</v>
       </c>
       <c r="K14" s="3">
         <v>19100</v>
@@ -954,25 +954,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2598200</v>
+        <v>2476100</v>
       </c>
       <c r="E15" s="3">
-        <v>2834600</v>
+        <v>2701400</v>
       </c>
       <c r="F15" s="3">
-        <v>2343400</v>
+        <v>2233300</v>
       </c>
       <c r="G15" s="3">
-        <v>2721900</v>
+        <v>2594000</v>
       </c>
       <c r="H15" s="3">
-        <v>2802800</v>
+        <v>2671000</v>
       </c>
       <c r="I15" s="3">
-        <v>2855500</v>
+        <v>2721200</v>
       </c>
       <c r="J15" s="3">
-        <v>1712500</v>
+        <v>1632000</v>
       </c>
       <c r="K15" s="3">
         <v>1617300</v>
@@ -1003,25 +1003,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>43828900</v>
+        <v>41768800</v>
       </c>
       <c r="E17" s="3">
-        <v>64401400</v>
+        <v>61374200</v>
       </c>
       <c r="F17" s="3">
-        <v>58542300</v>
+        <v>55790500</v>
       </c>
       <c r="G17" s="3">
-        <v>47627600</v>
+        <v>45388900</v>
       </c>
       <c r="H17" s="3">
-        <v>40093900</v>
+        <v>38209300</v>
       </c>
       <c r="I17" s="3">
-        <v>51806100</v>
+        <v>49370900</v>
       </c>
       <c r="J17" s="3">
-        <v>55608400</v>
+        <v>52994600</v>
       </c>
       <c r="K17" s="3">
         <v>54805100</v>
@@ -1039,25 +1039,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3058800</v>
+        <v>-2915000</v>
       </c>
       <c r="E18" s="3">
-        <v>-3975100</v>
+        <v>-3788200</v>
       </c>
       <c r="F18" s="3">
-        <v>2551700</v>
+        <v>2431700</v>
       </c>
       <c r="G18" s="3">
-        <v>3415300</v>
+        <v>3254700</v>
       </c>
       <c r="H18" s="3">
-        <v>2399800</v>
+        <v>2287000</v>
       </c>
       <c r="I18" s="3">
-        <v>-3128600</v>
+        <v>-2981600</v>
       </c>
       <c r="J18" s="3">
-        <v>547600</v>
+        <v>521800</v>
       </c>
       <c r="K18" s="3">
         <v>1241700</v>
@@ -1091,25 +1091,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-848900</v>
+        <v>-809000</v>
       </c>
       <c r="E20" s="3">
-        <v>185000</v>
+        <v>176300</v>
       </c>
       <c r="F20" s="3">
-        <v>1606000</v>
+        <v>1530500</v>
       </c>
       <c r="G20" s="3">
-        <v>964100</v>
+        <v>918800</v>
       </c>
       <c r="H20" s="3">
-        <v>508400</v>
+        <v>484500</v>
       </c>
       <c r="I20" s="3">
-        <v>891800</v>
+        <v>849900</v>
       </c>
       <c r="J20" s="3">
-        <v>1389100</v>
+        <v>1323800</v>
       </c>
       <c r="K20" s="3">
         <v>940200</v>
@@ -1127,25 +1127,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1211900</v>
+        <v>-1139600</v>
       </c>
       <c r="E21" s="3">
-        <v>-817000</v>
+        <v>-761800</v>
       </c>
       <c r="F21" s="3">
-        <v>6771600</v>
+        <v>6468100</v>
       </c>
       <c r="G21" s="3">
-        <v>7309700</v>
+        <v>6982700</v>
       </c>
       <c r="H21" s="3">
-        <v>5997300</v>
+        <v>5732900</v>
       </c>
       <c r="I21" s="3">
-        <v>1579100</v>
+        <v>1526500</v>
       </c>
       <c r="J21" s="3">
-        <v>4130500</v>
+        <v>3948800</v>
       </c>
       <c r="K21" s="3">
         <v>3992600</v>
@@ -1163,25 +1163,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>139600</v>
+        <v>133100</v>
       </c>
       <c r="E22" s="3">
-        <v>131100</v>
+        <v>124900</v>
       </c>
       <c r="F22" s="3">
-        <v>74700</v>
+        <v>71200</v>
       </c>
       <c r="G22" s="3">
-        <v>573300</v>
+        <v>546300</v>
       </c>
       <c r="H22" s="3">
-        <v>616200</v>
+        <v>587200</v>
       </c>
       <c r="I22" s="3">
-        <v>644300</v>
+        <v>614100</v>
       </c>
       <c r="J22" s="3">
-        <v>562300</v>
+        <v>535800</v>
       </c>
       <c r="K22" s="3">
         <v>648300</v>
@@ -1199,25 +1199,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4047400</v>
+        <v>-3857100</v>
       </c>
       <c r="E23" s="3">
-        <v>-3921200</v>
+        <v>-3736900</v>
       </c>
       <c r="F23" s="3">
-        <v>4082900</v>
+        <v>3891000</v>
       </c>
       <c r="G23" s="3">
-        <v>3806000</v>
+        <v>3627100</v>
       </c>
       <c r="H23" s="3">
-        <v>2292000</v>
+        <v>2184200</v>
       </c>
       <c r="I23" s="3">
-        <v>-2881200</v>
+        <v>-2745700</v>
       </c>
       <c r="J23" s="3">
-        <v>1374400</v>
+        <v>1309800</v>
       </c>
       <c r="K23" s="3">
         <v>1533500</v>
@@ -1235,25 +1235,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>19600</v>
+        <v>18700</v>
       </c>
       <c r="E24" s="3">
-        <v>720300</v>
+        <v>686400</v>
       </c>
       <c r="F24" s="3">
-        <v>1697800</v>
+        <v>1618000</v>
       </c>
       <c r="G24" s="3">
-        <v>1494500</v>
+        <v>1424200</v>
       </c>
       <c r="H24" s="3">
-        <v>479000</v>
+        <v>456500</v>
       </c>
       <c r="I24" s="3">
-        <v>-1220100</v>
+        <v>-1162700</v>
       </c>
       <c r="J24" s="3">
-        <v>178800</v>
+        <v>170400</v>
       </c>
       <c r="K24" s="3">
         <v>515600</v>
@@ -1307,25 +1307,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4067000</v>
+        <v>-3875800</v>
       </c>
       <c r="E26" s="3">
-        <v>-4641500</v>
+        <v>-4423300</v>
       </c>
       <c r="F26" s="3">
-        <v>2385100</v>
+        <v>2272900</v>
       </c>
       <c r="G26" s="3">
-        <v>2311600</v>
+        <v>2202900</v>
       </c>
       <c r="H26" s="3">
-        <v>1813000</v>
+        <v>1727800</v>
       </c>
       <c r="I26" s="3">
-        <v>-1661100</v>
+        <v>-1583000</v>
       </c>
       <c r="J26" s="3">
-        <v>1195600</v>
+        <v>1139400</v>
       </c>
       <c r="K26" s="3">
         <v>1018000</v>
@@ -1343,25 +1343,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4095100</v>
+        <v>-3902700</v>
       </c>
       <c r="E27" s="3">
-        <v>-4710100</v>
+        <v>-4488700</v>
       </c>
       <c r="F27" s="3">
-        <v>2327500</v>
+        <v>2218100</v>
       </c>
       <c r="G27" s="3">
-        <v>2227000</v>
+        <v>2122400</v>
       </c>
       <c r="H27" s="3">
-        <v>1726000</v>
+        <v>1644900</v>
       </c>
       <c r="I27" s="3">
-        <v>-1739500</v>
+        <v>-1657700</v>
       </c>
       <c r="J27" s="3">
-        <v>1243400</v>
+        <v>1184900</v>
       </c>
       <c r="K27" s="3">
         <v>1051500</v>
@@ -1421,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>504700</v>
+        <v>481000</v>
       </c>
       <c r="G29" s="3">
-        <v>335600</v>
+        <v>319900</v>
       </c>
       <c r="H29" s="3">
-        <v>366300</v>
+        <v>349100</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>731300</v>
+        <v>696900</v>
       </c>
       <c r="K29" s="3">
         <v>-818200</v>
@@ -1523,25 +1523,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>848900</v>
+        <v>809000</v>
       </c>
       <c r="E32" s="3">
-        <v>-185000</v>
+        <v>-176300</v>
       </c>
       <c r="F32" s="3">
-        <v>-1606000</v>
+        <v>-1530500</v>
       </c>
       <c r="G32" s="3">
-        <v>-964100</v>
+        <v>-918800</v>
       </c>
       <c r="H32" s="3">
-        <v>-508400</v>
+        <v>-484500</v>
       </c>
       <c r="I32" s="3">
-        <v>-891800</v>
+        <v>-849900</v>
       </c>
       <c r="J32" s="3">
-        <v>-1389100</v>
+        <v>-1323800</v>
       </c>
       <c r="K32" s="3">
         <v>-940200</v>
@@ -1559,25 +1559,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4095100</v>
+        <v>-3902700</v>
       </c>
       <c r="E33" s="3">
-        <v>-4710100</v>
+        <v>-4488700</v>
       </c>
       <c r="F33" s="3">
-        <v>2832200</v>
+        <v>2699100</v>
       </c>
       <c r="G33" s="3">
-        <v>2562700</v>
+        <v>2442200</v>
       </c>
       <c r="H33" s="3">
-        <v>2092300</v>
+        <v>1993900</v>
       </c>
       <c r="I33" s="3">
-        <v>-1739500</v>
+        <v>-1657700</v>
       </c>
       <c r="J33" s="3">
-        <v>1974700</v>
+        <v>1881900</v>
       </c>
       <c r="K33" s="3">
         <v>233300</v>
@@ -1631,25 +1631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4095100</v>
+        <v>-3902700</v>
       </c>
       <c r="E35" s="3">
-        <v>-4710100</v>
+        <v>-4488700</v>
       </c>
       <c r="F35" s="3">
-        <v>2832200</v>
+        <v>2699100</v>
       </c>
       <c r="G35" s="3">
-        <v>2562700</v>
+        <v>2442200</v>
       </c>
       <c r="H35" s="3">
-        <v>2092300</v>
+        <v>1993900</v>
       </c>
       <c r="I35" s="3">
-        <v>-1739500</v>
+        <v>-1657700</v>
       </c>
       <c r="J35" s="3">
-        <v>1974700</v>
+        <v>1881900</v>
       </c>
       <c r="K35" s="3">
         <v>233300</v>
@@ -1740,25 +1740,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2736600</v>
+        <v>2608000</v>
       </c>
       <c r="E41" s="3">
-        <v>2903200</v>
+        <v>2766800</v>
       </c>
       <c r="F41" s="3">
-        <v>5051900</v>
+        <v>4814400</v>
       </c>
       <c r="G41" s="3">
-        <v>4597400</v>
+        <v>4381300</v>
       </c>
       <c r="H41" s="3">
-        <v>3928500</v>
+        <v>3743900</v>
       </c>
       <c r="I41" s="3">
-        <v>5829700</v>
+        <v>5555700</v>
       </c>
       <c r="J41" s="3">
-        <v>2707200</v>
+        <v>2580000</v>
       </c>
       <c r="K41" s="3">
         <v>11515800</v>
@@ -1776,25 +1776,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4741900</v>
+        <v>4519000</v>
       </c>
       <c r="E42" s="3">
-        <v>4381800</v>
+        <v>4175800</v>
       </c>
       <c r="F42" s="3">
-        <v>3202100</v>
+        <v>3051600</v>
       </c>
       <c r="G42" s="3">
-        <v>1427100</v>
+        <v>1360000</v>
       </c>
       <c r="H42" s="3">
-        <v>3459400</v>
+        <v>3296800</v>
       </c>
       <c r="I42" s="3">
-        <v>2189100</v>
+        <v>2086200</v>
       </c>
       <c r="J42" s="3">
-        <v>6668800</v>
+        <v>6355400</v>
       </c>
       <c r="K42" s="3">
         <v>2611300</v>
@@ -1812,25 +1812,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4723600</v>
+        <v>4501500</v>
       </c>
       <c r="E43" s="3">
-        <v>7035100</v>
+        <v>6704400</v>
       </c>
       <c r="F43" s="3">
-        <v>7183300</v>
+        <v>6845700</v>
       </c>
       <c r="G43" s="3">
-        <v>7168600</v>
+        <v>6831700</v>
       </c>
       <c r="H43" s="3">
-        <v>7130700</v>
+        <v>6795500</v>
       </c>
       <c r="I43" s="3">
-        <v>16604700</v>
+        <v>15824200</v>
       </c>
       <c r="J43" s="3">
-        <v>6347900</v>
+        <v>6049500</v>
       </c>
       <c r="K43" s="3">
         <v>17219300</v>
@@ -1848,25 +1848,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4139200</v>
+        <v>3944700</v>
       </c>
       <c r="E44" s="3">
-        <v>5631300</v>
+        <v>5366600</v>
       </c>
       <c r="F44" s="3">
-        <v>5377700</v>
+        <v>5124900</v>
       </c>
       <c r="G44" s="3">
-        <v>4651300</v>
+        <v>4432700</v>
       </c>
       <c r="H44" s="3">
-        <v>4416100</v>
+        <v>4208500</v>
       </c>
       <c r="I44" s="3">
-        <v>6989800</v>
+        <v>6661200</v>
       </c>
       <c r="J44" s="3">
-        <v>4815400</v>
+        <v>4589100</v>
       </c>
       <c r="K44" s="3">
         <v>11813700</v>
@@ -1884,25 +1884,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>298900</v>
+        <v>284800</v>
       </c>
       <c r="E45" s="3">
-        <v>245000</v>
+        <v>233500</v>
       </c>
       <c r="F45" s="3">
-        <v>369900</v>
+        <v>352600</v>
       </c>
       <c r="G45" s="3">
-        <v>249900</v>
+        <v>238200</v>
       </c>
       <c r="H45" s="3">
-        <v>577000</v>
+        <v>549900</v>
       </c>
       <c r="I45" s="3">
-        <v>652900</v>
+        <v>622200</v>
       </c>
       <c r="J45" s="3">
-        <v>335600</v>
+        <v>319900</v>
       </c>
       <c r="K45" s="3">
         <v>2192600</v>
@@ -1920,25 +1920,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16640300</v>
+        <v>15858100</v>
       </c>
       <c r="E46" s="3">
-        <v>20196400</v>
+        <v>19247100</v>
       </c>
       <c r="F46" s="3">
-        <v>21185000</v>
+        <v>20189200</v>
       </c>
       <c r="G46" s="3">
-        <v>18094300</v>
+        <v>17243800</v>
       </c>
       <c r="H46" s="3">
-        <v>19511600</v>
+        <v>18594500</v>
       </c>
       <c r="I46" s="3">
-        <v>15621100</v>
+        <v>14886800</v>
       </c>
       <c r="J46" s="3">
-        <v>20875100</v>
+        <v>19893800</v>
       </c>
       <c r="K46" s="3">
         <v>21263700</v>
@@ -1956,25 +1956,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8403400</v>
+        <v>8008400</v>
       </c>
       <c r="E47" s="3">
-        <v>10254400</v>
+        <v>9772400</v>
       </c>
       <c r="F47" s="3">
-        <v>10204200</v>
+        <v>9724500</v>
       </c>
       <c r="G47" s="3">
-        <v>13852200</v>
+        <v>13201100</v>
       </c>
       <c r="H47" s="3">
-        <v>13940400</v>
+        <v>13285100</v>
       </c>
       <c r="I47" s="3">
-        <v>15332000</v>
+        <v>14611300</v>
       </c>
       <c r="J47" s="3">
-        <v>14336100</v>
+        <v>13662200</v>
       </c>
       <c r="K47" s="3">
         <v>16090100</v>
@@ -1992,25 +1992,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25635400</v>
+        <v>24430400</v>
       </c>
       <c r="E48" s="3">
-        <v>28433200</v>
+        <v>27096800</v>
       </c>
       <c r="F48" s="3">
-        <v>31236000</v>
+        <v>29767800</v>
       </c>
       <c r="G48" s="3">
-        <v>30216800</v>
+        <v>28796500</v>
       </c>
       <c r="H48" s="3">
-        <v>33519400</v>
+        <v>31943800</v>
       </c>
       <c r="I48" s="3">
-        <v>69126200</v>
+        <v>65876900</v>
       </c>
       <c r="J48" s="3">
-        <v>21025700</v>
+        <v>20037400</v>
       </c>
       <c r="K48" s="3">
         <v>38369300</v>
@@ -2028,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4107400</v>
+        <v>3914300</v>
       </c>
       <c r="E49" s="3">
-        <v>5475700</v>
+        <v>5218300</v>
       </c>
       <c r="F49" s="3">
-        <v>6242500</v>
+        <v>5949100</v>
       </c>
       <c r="G49" s="3">
-        <v>5615400</v>
+        <v>5351400</v>
       </c>
       <c r="H49" s="3">
-        <v>6258500</v>
+        <v>5964300</v>
       </c>
       <c r="I49" s="3">
-        <v>11725600</v>
+        <v>11174400</v>
       </c>
       <c r="J49" s="3">
-        <v>2277300</v>
+        <v>2170200</v>
       </c>
       <c r="K49" s="3">
         <v>6717900</v>
@@ -2136,25 +2136,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5608000</v>
+        <v>5344400</v>
       </c>
       <c r="E52" s="3">
-        <v>6561000</v>
+        <v>6252600</v>
       </c>
       <c r="F52" s="3">
-        <v>5584700</v>
+        <v>5322200</v>
       </c>
       <c r="G52" s="3">
-        <v>5545500</v>
+        <v>5284900</v>
       </c>
       <c r="H52" s="3">
-        <v>6209500</v>
+        <v>5917600</v>
       </c>
       <c r="I52" s="3">
-        <v>6344200</v>
+        <v>6046000</v>
       </c>
       <c r="J52" s="3">
-        <v>5049400</v>
+        <v>4812100</v>
       </c>
       <c r="K52" s="3">
         <v>9589900</v>
@@ -2208,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>60394500</v>
+        <v>57555600</v>
       </c>
       <c r="E54" s="3">
-        <v>70920800</v>
+        <v>67587200</v>
       </c>
       <c r="F54" s="3">
-        <v>74452400</v>
+        <v>70952800</v>
       </c>
       <c r="G54" s="3">
-        <v>73324200</v>
+        <v>69877700</v>
       </c>
       <c r="H54" s="3">
-        <v>79439400</v>
+        <v>75705400</v>
       </c>
       <c r="I54" s="3">
-        <v>77414500</v>
+        <v>73775600</v>
       </c>
       <c r="J54" s="3">
-        <v>63563500</v>
+        <v>60575700</v>
       </c>
       <c r="K54" s="3">
         <v>66445300</v>
@@ -2276,25 +2276,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3027000</v>
+        <v>2884700</v>
       </c>
       <c r="E57" s="3">
-        <v>4456500</v>
+        <v>4247000</v>
       </c>
       <c r="F57" s="3">
-        <v>3973900</v>
+        <v>3787100</v>
       </c>
       <c r="G57" s="3">
-        <v>3354000</v>
+        <v>3196400</v>
       </c>
       <c r="H57" s="3">
-        <v>2606800</v>
+        <v>2484200</v>
       </c>
       <c r="I57" s="3">
-        <v>2203800</v>
+        <v>2100200</v>
       </c>
       <c r="J57" s="3">
-        <v>2878700</v>
+        <v>2743400</v>
       </c>
       <c r="K57" s="3">
         <v>3095800</v>
@@ -2312,25 +2312,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4439400</v>
+        <v>4230700</v>
       </c>
       <c r="E58" s="3">
-        <v>7892600</v>
+        <v>7521600</v>
       </c>
       <c r="F58" s="3">
-        <v>4601100</v>
+        <v>5155300</v>
       </c>
       <c r="G58" s="3">
-        <v>5071500</v>
+        <v>4833100</v>
       </c>
       <c r="H58" s="3">
-        <v>4777500</v>
+        <v>4552900</v>
       </c>
       <c r="I58" s="3">
-        <v>5255200</v>
+        <v>5008200</v>
       </c>
       <c r="J58" s="3">
-        <v>1827700</v>
+        <v>1741800</v>
       </c>
       <c r="K58" s="3">
         <v>4266800</v>
@@ -2348,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5419400</v>
+        <v>5164600</v>
       </c>
       <c r="E59" s="3">
-        <v>6129800</v>
+        <v>5841700</v>
       </c>
       <c r="F59" s="3">
-        <v>7117200</v>
+        <v>6012200</v>
       </c>
       <c r="G59" s="3">
-        <v>6317300</v>
+        <v>6020300</v>
       </c>
       <c r="H59" s="3">
-        <v>10668400</v>
+        <v>10167000</v>
       </c>
       <c r="I59" s="3">
-        <v>26060400</v>
+        <v>24835500</v>
       </c>
       <c r="J59" s="3">
-        <v>7841200</v>
+        <v>7472600</v>
       </c>
       <c r="K59" s="3">
         <v>19340200</v>
@@ -2384,25 +2384,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12885700</v>
+        <v>12280000</v>
       </c>
       <c r="E60" s="3">
-        <v>18479000</v>
+        <v>17610400</v>
       </c>
       <c r="F60" s="3">
-        <v>15692100</v>
+        <v>14954500</v>
       </c>
       <c r="G60" s="3">
-        <v>14742800</v>
+        <v>14049800</v>
       </c>
       <c r="H60" s="3">
-        <v>18052700</v>
+        <v>17204100</v>
       </c>
       <c r="I60" s="3">
-        <v>17734200</v>
+        <v>16900600</v>
       </c>
       <c r="J60" s="3">
-        <v>12547600</v>
+        <v>11957800</v>
       </c>
       <c r="K60" s="3">
         <v>16000400</v>
@@ -2420,25 +2420,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14620300</v>
+        <v>13933000</v>
       </c>
       <c r="E61" s="3">
-        <v>13179700</v>
+        <v>12574200</v>
       </c>
       <c r="F61" s="3">
-        <v>9746000</v>
+        <v>12452800</v>
       </c>
       <c r="G61" s="3">
-        <v>10697800</v>
+        <v>10195000</v>
       </c>
       <c r="H61" s="3">
-        <v>13408700</v>
+        <v>12778500</v>
       </c>
       <c r="I61" s="3">
-        <v>14726800</v>
+        <v>14034600</v>
       </c>
       <c r="J61" s="3">
-        <v>10949000</v>
+        <v>10434300</v>
       </c>
       <c r="K61" s="3">
         <v>11574400</v>
@@ -2456,25 +2456,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7728500</v>
+        <v>7365200</v>
       </c>
       <c r="E62" s="3">
-        <v>8381400</v>
+        <v>7973400</v>
       </c>
       <c r="F62" s="3">
-        <v>11145000</v>
+        <v>7456200</v>
       </c>
       <c r="G62" s="3">
-        <v>11056800</v>
+        <v>10537000</v>
       </c>
       <c r="H62" s="3">
-        <v>9867300</v>
+        <v>9403500</v>
       </c>
       <c r="I62" s="3">
-        <v>16858300</v>
+        <v>16065900</v>
       </c>
       <c r="J62" s="3">
-        <v>5578600</v>
+        <v>5316400</v>
       </c>
       <c r="K62" s="3">
         <v>10932100</v>
@@ -2600,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35533300</v>
+        <v>33863100</v>
       </c>
       <c r="E66" s="3">
-        <v>40384200</v>
+        <v>38486000</v>
       </c>
       <c r="F66" s="3">
-        <v>36933400</v>
+        <v>35197400</v>
       </c>
       <c r="G66" s="3">
-        <v>36828100</v>
+        <v>35097000</v>
       </c>
       <c r="H66" s="3">
-        <v>41627600</v>
+        <v>39670900</v>
       </c>
       <c r="I66" s="3">
-        <v>42460600</v>
+        <v>40464800</v>
       </c>
       <c r="J66" s="3">
-        <v>29341000</v>
+        <v>27961800</v>
       </c>
       <c r="K66" s="3">
         <v>33900300</v>
@@ -2796,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16862000</v>
+        <v>16069400</v>
       </c>
       <c r="E72" s="3">
-        <v>20380200</v>
+        <v>19422200</v>
       </c>
       <c r="F72" s="3">
-        <v>26713400</v>
+        <v>25457700</v>
       </c>
       <c r="G72" s="3">
-        <v>26011400</v>
+        <v>24788800</v>
       </c>
       <c r="H72" s="3">
-        <v>23936300</v>
+        <v>22811200</v>
       </c>
       <c r="I72" s="3">
-        <v>22299700</v>
+        <v>21251500</v>
       </c>
       <c r="J72" s="3">
-        <v>24286700</v>
+        <v>23145100</v>
       </c>
       <c r="K72" s="3">
         <v>56477400</v>
@@ -2940,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24861200</v>
+        <v>23692600</v>
       </c>
       <c r="E76" s="3">
-        <v>30536600</v>
+        <v>29101200</v>
       </c>
       <c r="F76" s="3">
-        <v>37519000</v>
+        <v>35755400</v>
       </c>
       <c r="G76" s="3">
-        <v>36496100</v>
+        <v>34780600</v>
       </c>
       <c r="H76" s="3">
-        <v>37811800</v>
+        <v>36034400</v>
       </c>
       <c r="I76" s="3">
-        <v>34953900</v>
+        <v>33310900</v>
       </c>
       <c r="J76" s="3">
-        <v>34222500</v>
+        <v>32613900</v>
       </c>
       <c r="K76" s="3">
         <v>32545000</v>
@@ -3053,25 +3053,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4095100</v>
+        <v>-3902700</v>
       </c>
       <c r="E81" s="3">
-        <v>-4710100</v>
+        <v>-4488700</v>
       </c>
       <c r="F81" s="3">
-        <v>2832200</v>
+        <v>2699100</v>
       </c>
       <c r="G81" s="3">
-        <v>2562700</v>
+        <v>2442200</v>
       </c>
       <c r="H81" s="3">
-        <v>2092300</v>
+        <v>1993900</v>
       </c>
       <c r="I81" s="3">
-        <v>-1739500</v>
+        <v>-1657700</v>
       </c>
       <c r="J81" s="3">
-        <v>1974700</v>
+        <v>1881900</v>
       </c>
       <c r="K81" s="3">
         <v>233300</v>
@@ -3105,25 +3105,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2703600</v>
+        <v>2576500</v>
       </c>
       <c r="E83" s="3">
-        <v>2981600</v>
+        <v>2841500</v>
       </c>
       <c r="F83" s="3">
-        <v>2621500</v>
+        <v>2498300</v>
       </c>
       <c r="G83" s="3">
-        <v>2938800</v>
+        <v>2800600</v>
       </c>
       <c r="H83" s="3">
-        <v>3098000</v>
+        <v>2952400</v>
       </c>
       <c r="I83" s="3">
-        <v>3826900</v>
+        <v>3647000</v>
       </c>
       <c r="J83" s="3">
-        <v>2200100</v>
+        <v>2096700</v>
       </c>
       <c r="K83" s="3">
         <v>1818200</v>
@@ -3321,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3354000</v>
+        <v>3196400</v>
       </c>
       <c r="E89" s="3">
-        <v>5940000</v>
+        <v>5660800</v>
       </c>
       <c r="F89" s="3">
-        <v>5609200</v>
+        <v>5345600</v>
       </c>
       <c r="G89" s="3">
-        <v>6263400</v>
+        <v>5969000</v>
       </c>
       <c r="H89" s="3">
-        <v>4765200</v>
+        <v>4541200</v>
       </c>
       <c r="I89" s="3">
-        <v>6046600</v>
+        <v>5762300</v>
       </c>
       <c r="J89" s="3">
-        <v>3793800</v>
+        <v>3615500</v>
       </c>
       <c r="K89" s="3">
         <v>3198600</v>
@@ -3373,25 +3373,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2310300</v>
+        <v>-2201700</v>
       </c>
       <c r="E91" s="3">
-        <v>-3953000</v>
+        <v>-3767200</v>
       </c>
       <c r="F91" s="3">
-        <v>-3259700</v>
+        <v>-3106500</v>
       </c>
       <c r="G91" s="3">
-        <v>-2817500</v>
+        <v>-2685000</v>
       </c>
       <c r="H91" s="3">
-        <v>-2453700</v>
+        <v>-2338300</v>
       </c>
       <c r="I91" s="3">
-        <v>-3663900</v>
+        <v>-3491700</v>
       </c>
       <c r="J91" s="3">
-        <v>-3192300</v>
+        <v>-3042300</v>
       </c>
       <c r="K91" s="3">
         <v>-2382800</v>
@@ -3481,25 +3481,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>271900</v>
+        <v>259200</v>
       </c>
       <c r="E94" s="3">
-        <v>-5398500</v>
+        <v>-5144800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1664800</v>
+        <v>-1586500</v>
       </c>
       <c r="G94" s="3">
-        <v>-3416500</v>
+        <v>-3255900</v>
       </c>
       <c r="H94" s="3">
-        <v>479000</v>
+        <v>456500</v>
       </c>
       <c r="I94" s="3">
-        <v>-10975900</v>
+        <v>-10460000</v>
       </c>
       <c r="J94" s="3">
-        <v>1385500</v>
+        <v>1320300</v>
       </c>
       <c r="K94" s="3">
         <v>372000</v>
@@ -3533,25 +3533,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-423800</v>
+        <v>-403900</v>
       </c>
       <c r="E96" s="3">
-        <v>-485100</v>
+        <v>-462300</v>
       </c>
       <c r="F96" s="3">
-        <v>-363800</v>
+        <v>-346700</v>
       </c>
       <c r="G96" s="3">
-        <v>-406700</v>
+        <v>-387600</v>
       </c>
       <c r="H96" s="3">
-        <v>-514500</v>
+        <v>-490300</v>
       </c>
       <c r="I96" s="3">
-        <v>-597800</v>
+        <v>-569700</v>
       </c>
       <c r="J96" s="3">
-        <v>-2097200</v>
+        <v>-1998600</v>
       </c>
       <c r="K96" s="3">
         <v>-562200</v>
@@ -3677,25 +3677,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1978400</v>
+        <v>-1885400</v>
       </c>
       <c r="E100" s="3">
-        <v>-2804000</v>
+        <v>-2672200</v>
       </c>
       <c r="F100" s="3">
-        <v>-3714200</v>
+        <v>-3539600</v>
       </c>
       <c r="G100" s="3">
-        <v>-2892200</v>
+        <v>-2756300</v>
       </c>
       <c r="H100" s="3">
-        <v>-2514900</v>
+        <v>-2396700</v>
       </c>
       <c r="I100" s="3">
-        <v>2174400</v>
+        <v>2072200</v>
       </c>
       <c r="J100" s="3">
-        <v>-6679900</v>
+        <v>-6365900</v>
       </c>
       <c r="K100" s="3">
         <v>-1625600</v>
@@ -3713,25 +3713,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3700</v>
+        <v>-3500</v>
       </c>
       <c r="E101" s="3">
-        <v>49000</v>
+        <v>46700</v>
       </c>
       <c r="F101" s="3">
-        <v>-3700</v>
+        <v>-3500</v>
       </c>
       <c r="G101" s="3">
-        <v>-60000</v>
+        <v>-57200</v>
       </c>
       <c r="H101" s="3">
-        <v>13500</v>
+        <v>12800</v>
       </c>
       <c r="I101" s="3">
-        <v>72300</v>
+        <v>68900</v>
       </c>
       <c r="J101" s="3">
-        <v>180100</v>
+        <v>171600</v>
       </c>
       <c r="K101" s="3">
         <v>-21500</v>
@@ -3749,25 +3749,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1643900</v>
+        <v>1566700</v>
       </c>
       <c r="E102" s="3">
-        <v>-2213600</v>
+        <v>-2109500</v>
       </c>
       <c r="F102" s="3">
-        <v>226600</v>
+        <v>216000</v>
       </c>
       <c r="G102" s="3">
-        <v>-105300</v>
+        <v>-100400</v>
       </c>
       <c r="H102" s="3">
-        <v>2742800</v>
+        <v>2613800</v>
       </c>
       <c r="I102" s="3">
-        <v>-2682700</v>
+        <v>-2556600</v>
       </c>
       <c r="J102" s="3">
-        <v>-1320500</v>
+        <v>-1258500</v>
       </c>
       <c r="K102" s="3">
         <v>1923500</v>

--- a/AAII_Financials/Yearly/REPYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/REPYY_YR_FIN.xlsx
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>38853700</v>
+        <v>37578700</v>
       </c>
       <c r="E8" s="3">
-        <v>57586000</v>
+        <v>55696200</v>
       </c>
       <c r="F8" s="3">
-        <v>58222200</v>
+        <v>56311600</v>
       </c>
       <c r="G8" s="3">
-        <v>48643600</v>
+        <v>47047300</v>
       </c>
       <c r="H8" s="3">
-        <v>40496300</v>
+        <v>39167300</v>
       </c>
       <c r="I8" s="3">
-        <v>46389400</v>
+        <v>44867000</v>
       </c>
       <c r="J8" s="3">
-        <v>53516400</v>
+        <v>51760200</v>
       </c>
       <c r="K8" s="3">
         <v>56046800</v>
@@ -758,25 +758,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>30370200</v>
+        <v>29373500</v>
       </c>
       <c r="E9" s="3">
-        <v>43988000</v>
+        <v>42544500</v>
       </c>
       <c r="F9" s="3">
-        <v>45137900</v>
+        <v>43656700</v>
       </c>
       <c r="G9" s="3">
-        <v>36057800</v>
+        <v>34874500</v>
       </c>
       <c r="H9" s="3">
-        <v>27417800</v>
+        <v>26518000</v>
       </c>
       <c r="I9" s="3">
-        <v>38971600</v>
+        <v>37692700</v>
       </c>
       <c r="J9" s="3">
-        <v>48441700</v>
+        <v>46852000</v>
       </c>
       <c r="K9" s="3">
         <v>50053800</v>
@@ -794,25 +794,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8483600</v>
+        <v>8205200</v>
       </c>
       <c r="E10" s="3">
-        <v>13598000</v>
+        <v>13151800</v>
       </c>
       <c r="F10" s="3">
-        <v>13084300</v>
+        <v>12655000</v>
       </c>
       <c r="G10" s="3">
-        <v>12585800</v>
+        <v>12172800</v>
       </c>
       <c r="H10" s="3">
-        <v>13078500</v>
+        <v>12649300</v>
       </c>
       <c r="I10" s="3">
-        <v>7417700</v>
+        <v>7174300</v>
       </c>
       <c r="J10" s="3">
-        <v>5074700</v>
+        <v>4908200</v>
       </c>
       <c r="K10" s="3">
         <v>5993000</v>
@@ -846,25 +846,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>235800</v>
+        <v>228100</v>
       </c>
       <c r="E12" s="3">
-        <v>945600</v>
+        <v>914600</v>
       </c>
       <c r="F12" s="3">
-        <v>612900</v>
+        <v>592800</v>
       </c>
       <c r="G12" s="3">
-        <v>764700</v>
+        <v>739600</v>
       </c>
       <c r="H12" s="3">
-        <v>393400</v>
+        <v>380500</v>
       </c>
       <c r="I12" s="3">
-        <v>1838700</v>
+        <v>1778300</v>
       </c>
       <c r="J12" s="3">
-        <v>464600</v>
+        <v>449400</v>
       </c>
       <c r="K12" s="3">
         <v>201000</v>
@@ -918,25 +918,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2101300</v>
+        <v>2032400</v>
       </c>
       <c r="E14" s="3">
-        <v>5387600</v>
+        <v>5210800</v>
       </c>
       <c r="F14" s="3">
-        <v>1304000</v>
+        <v>1261200</v>
       </c>
       <c r="G14" s="3">
-        <v>-1449900</v>
+        <v>-1402300</v>
       </c>
       <c r="H14" s="3">
-        <v>-1008600</v>
+        <v>-975500</v>
       </c>
       <c r="I14" s="3">
-        <v>2634800</v>
+        <v>2548400</v>
       </c>
       <c r="J14" s="3">
-        <v>-114400</v>
+        <v>-110700</v>
       </c>
       <c r="K14" s="3">
         <v>19100</v>
@@ -954,25 +954,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2476100</v>
+        <v>2394800</v>
       </c>
       <c r="E15" s="3">
-        <v>2701400</v>
+        <v>2612700</v>
       </c>
       <c r="F15" s="3">
-        <v>2233300</v>
+        <v>2160000</v>
       </c>
       <c r="G15" s="3">
-        <v>2594000</v>
+        <v>2508900</v>
       </c>
       <c r="H15" s="3">
-        <v>2671000</v>
+        <v>2583400</v>
       </c>
       <c r="I15" s="3">
-        <v>2721200</v>
+        <v>2631900</v>
       </c>
       <c r="J15" s="3">
-        <v>1632000</v>
+        <v>1578500</v>
       </c>
       <c r="K15" s="3">
         <v>1617300</v>
@@ -1003,25 +1003,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>41768800</v>
+        <v>40398100</v>
       </c>
       <c r="E17" s="3">
-        <v>61374200</v>
+        <v>59360200</v>
       </c>
       <c r="F17" s="3">
-        <v>55790500</v>
+        <v>53959700</v>
       </c>
       <c r="G17" s="3">
-        <v>45388900</v>
+        <v>43899400</v>
       </c>
       <c r="H17" s="3">
-        <v>38209300</v>
+        <v>36955400</v>
       </c>
       <c r="I17" s="3">
-        <v>49370900</v>
+        <v>47750800</v>
       </c>
       <c r="J17" s="3">
-        <v>52994600</v>
+        <v>51255500</v>
       </c>
       <c r="K17" s="3">
         <v>54805100</v>
@@ -1039,25 +1039,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2915000</v>
+        <v>-2819400</v>
       </c>
       <c r="E18" s="3">
-        <v>-3788200</v>
+        <v>-3663900</v>
       </c>
       <c r="F18" s="3">
-        <v>2431700</v>
+        <v>2351900</v>
       </c>
       <c r="G18" s="3">
-        <v>3254700</v>
+        <v>3147900</v>
       </c>
       <c r="H18" s="3">
-        <v>2287000</v>
+        <v>2211900</v>
       </c>
       <c r="I18" s="3">
-        <v>-2981600</v>
+        <v>-2883700</v>
       </c>
       <c r="J18" s="3">
-        <v>521800</v>
+        <v>504700</v>
       </c>
       <c r="K18" s="3">
         <v>1241700</v>
@@ -1091,25 +1091,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-809000</v>
+        <v>-782500</v>
       </c>
       <c r="E20" s="3">
-        <v>176300</v>
+        <v>170500</v>
       </c>
       <c r="F20" s="3">
-        <v>1530500</v>
+        <v>1480300</v>
       </c>
       <c r="G20" s="3">
-        <v>918800</v>
+        <v>888600</v>
       </c>
       <c r="H20" s="3">
-        <v>484500</v>
+        <v>468600</v>
       </c>
       <c r="I20" s="3">
-        <v>849900</v>
+        <v>822000</v>
       </c>
       <c r="J20" s="3">
-        <v>1323800</v>
+        <v>1280400</v>
       </c>
       <c r="K20" s="3">
         <v>940200</v>
@@ -1127,25 +1127,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1139600</v>
+        <v>-1104200</v>
       </c>
       <c r="E21" s="3">
-        <v>-761800</v>
+        <v>-738900</v>
       </c>
       <c r="F21" s="3">
-        <v>6468100</v>
+        <v>6254000</v>
       </c>
       <c r="G21" s="3">
-        <v>6982700</v>
+        <v>6751500</v>
       </c>
       <c r="H21" s="3">
-        <v>5732900</v>
+        <v>5542600</v>
       </c>
       <c r="I21" s="3">
-        <v>1526500</v>
+        <v>1473700</v>
       </c>
       <c r="J21" s="3">
-        <v>3948800</v>
+        <v>3817600</v>
       </c>
       <c r="K21" s="3">
         <v>3992600</v>
@@ -1163,25 +1163,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>133100</v>
+        <v>128700</v>
       </c>
       <c r="E22" s="3">
-        <v>124900</v>
+        <v>120800</v>
       </c>
       <c r="F22" s="3">
-        <v>71200</v>
+        <v>68900</v>
       </c>
       <c r="G22" s="3">
-        <v>546300</v>
+        <v>528400</v>
       </c>
       <c r="H22" s="3">
-        <v>587200</v>
+        <v>567900</v>
       </c>
       <c r="I22" s="3">
-        <v>614100</v>
+        <v>593900</v>
       </c>
       <c r="J22" s="3">
-        <v>535800</v>
+        <v>518300</v>
       </c>
       <c r="K22" s="3">
         <v>648300</v>
@@ -1199,25 +1199,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3857100</v>
+        <v>-3730500</v>
       </c>
       <c r="E23" s="3">
-        <v>-3736900</v>
+        <v>-3614200</v>
       </c>
       <c r="F23" s="3">
-        <v>3891000</v>
+        <v>3763300</v>
       </c>
       <c r="G23" s="3">
-        <v>3627100</v>
+        <v>3508100</v>
       </c>
       <c r="H23" s="3">
-        <v>2184200</v>
+        <v>2112500</v>
       </c>
       <c r="I23" s="3">
-        <v>-2745700</v>
+        <v>-2655600</v>
       </c>
       <c r="J23" s="3">
-        <v>1309800</v>
+        <v>1266900</v>
       </c>
       <c r="K23" s="3">
         <v>1533500</v>
@@ -1235,25 +1235,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>18700</v>
+        <v>18100</v>
       </c>
       <c r="E24" s="3">
-        <v>686400</v>
+        <v>663900</v>
       </c>
       <c r="F24" s="3">
-        <v>1618000</v>
+        <v>1564900</v>
       </c>
       <c r="G24" s="3">
-        <v>1424200</v>
+        <v>1377500</v>
       </c>
       <c r="H24" s="3">
-        <v>456500</v>
+        <v>441500</v>
       </c>
       <c r="I24" s="3">
-        <v>-1162700</v>
+        <v>-1124600</v>
       </c>
       <c r="J24" s="3">
-        <v>170400</v>
+        <v>164800</v>
       </c>
       <c r="K24" s="3">
         <v>515600</v>
@@ -1307,25 +1307,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3875800</v>
+        <v>-3748600</v>
       </c>
       <c r="E26" s="3">
-        <v>-4423300</v>
+        <v>-4278200</v>
       </c>
       <c r="F26" s="3">
-        <v>2272900</v>
+        <v>2198400</v>
       </c>
       <c r="G26" s="3">
-        <v>2202900</v>
+        <v>2130600</v>
       </c>
       <c r="H26" s="3">
-        <v>1727800</v>
+        <v>1671100</v>
       </c>
       <c r="I26" s="3">
-        <v>-1583000</v>
+        <v>-1531100</v>
       </c>
       <c r="J26" s="3">
-        <v>1139400</v>
+        <v>1102000</v>
       </c>
       <c r="K26" s="3">
         <v>1018000</v>
@@ -1343,25 +1343,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3902700</v>
+        <v>-3774600</v>
       </c>
       <c r="E27" s="3">
-        <v>-4488700</v>
+        <v>-4341400</v>
       </c>
       <c r="F27" s="3">
-        <v>2218100</v>
+        <v>2145300</v>
       </c>
       <c r="G27" s="3">
-        <v>2122400</v>
+        <v>2052700</v>
       </c>
       <c r="H27" s="3">
-        <v>1644900</v>
+        <v>1590900</v>
       </c>
       <c r="I27" s="3">
-        <v>-1657700</v>
+        <v>-1603300</v>
       </c>
       <c r="J27" s="3">
-        <v>1184900</v>
+        <v>1146000</v>
       </c>
       <c r="K27" s="3">
         <v>1051500</v>
@@ -1421,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>481000</v>
+        <v>465200</v>
       </c>
       <c r="G29" s="3">
-        <v>319900</v>
+        <v>309400</v>
       </c>
       <c r="H29" s="3">
-        <v>349100</v>
+        <v>337600</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>696900</v>
+        <v>674100</v>
       </c>
       <c r="K29" s="3">
         <v>-818200</v>
@@ -1523,25 +1523,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>809000</v>
+        <v>782500</v>
       </c>
       <c r="E32" s="3">
-        <v>-176300</v>
+        <v>-170500</v>
       </c>
       <c r="F32" s="3">
-        <v>-1530500</v>
+        <v>-1480300</v>
       </c>
       <c r="G32" s="3">
-        <v>-918800</v>
+        <v>-888600</v>
       </c>
       <c r="H32" s="3">
-        <v>-484500</v>
+        <v>-468600</v>
       </c>
       <c r="I32" s="3">
-        <v>-849900</v>
+        <v>-822000</v>
       </c>
       <c r="J32" s="3">
-        <v>-1323800</v>
+        <v>-1280400</v>
       </c>
       <c r="K32" s="3">
         <v>-940200</v>
@@ -1559,25 +1559,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3902700</v>
+        <v>-3774600</v>
       </c>
       <c r="E33" s="3">
-        <v>-4488700</v>
+        <v>-4341400</v>
       </c>
       <c r="F33" s="3">
-        <v>2699100</v>
+        <v>2610500</v>
       </c>
       <c r="G33" s="3">
-        <v>2442200</v>
+        <v>2362100</v>
       </c>
       <c r="H33" s="3">
-        <v>1993900</v>
+        <v>1928500</v>
       </c>
       <c r="I33" s="3">
-        <v>-1657700</v>
+        <v>-1603300</v>
       </c>
       <c r="J33" s="3">
-        <v>1881900</v>
+        <v>1820100</v>
       </c>
       <c r="K33" s="3">
         <v>233300</v>
@@ -1631,25 +1631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3902700</v>
+        <v>-3774600</v>
       </c>
       <c r="E35" s="3">
-        <v>-4488700</v>
+        <v>-4341400</v>
       </c>
       <c r="F35" s="3">
-        <v>2699100</v>
+        <v>2610500</v>
       </c>
       <c r="G35" s="3">
-        <v>2442200</v>
+        <v>2362100</v>
       </c>
       <c r="H35" s="3">
-        <v>1993900</v>
+        <v>1928500</v>
       </c>
       <c r="I35" s="3">
-        <v>-1657700</v>
+        <v>-1603300</v>
       </c>
       <c r="J35" s="3">
-        <v>1881900</v>
+        <v>1820100</v>
       </c>
       <c r="K35" s="3">
         <v>233300</v>
@@ -1740,25 +1740,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2608000</v>
+        <v>2522400</v>
       </c>
       <c r="E41" s="3">
-        <v>2766800</v>
+        <v>2676000</v>
       </c>
       <c r="F41" s="3">
-        <v>4814400</v>
+        <v>4656400</v>
       </c>
       <c r="G41" s="3">
-        <v>4381300</v>
+        <v>4237500</v>
       </c>
       <c r="H41" s="3">
-        <v>3743900</v>
+        <v>3621000</v>
       </c>
       <c r="I41" s="3">
-        <v>5555700</v>
+        <v>5373400</v>
       </c>
       <c r="J41" s="3">
-        <v>2580000</v>
+        <v>2495300</v>
       </c>
       <c r="K41" s="3">
         <v>11515800</v>
@@ -1776,25 +1776,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4519000</v>
+        <v>4370700</v>
       </c>
       <c r="E42" s="3">
-        <v>4175800</v>
+        <v>4038800</v>
       </c>
       <c r="F42" s="3">
-        <v>3051600</v>
+        <v>2951500</v>
       </c>
       <c r="G42" s="3">
-        <v>1360000</v>
+        <v>1315400</v>
       </c>
       <c r="H42" s="3">
-        <v>3296800</v>
+        <v>3188600</v>
       </c>
       <c r="I42" s="3">
-        <v>2086200</v>
+        <v>2017700</v>
       </c>
       <c r="J42" s="3">
-        <v>6355400</v>
+        <v>6146800</v>
       </c>
       <c r="K42" s="3">
         <v>2611300</v>
@@ -1812,25 +1812,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4501500</v>
+        <v>4353800</v>
       </c>
       <c r="E43" s="3">
-        <v>6704400</v>
+        <v>6484400</v>
       </c>
       <c r="F43" s="3">
-        <v>6845700</v>
+        <v>6621000</v>
       </c>
       <c r="G43" s="3">
-        <v>6831700</v>
+        <v>6607500</v>
       </c>
       <c r="H43" s="3">
-        <v>6795500</v>
+        <v>6572500</v>
       </c>
       <c r="I43" s="3">
-        <v>15824200</v>
+        <v>15305000</v>
       </c>
       <c r="J43" s="3">
-        <v>6049500</v>
+        <v>5851000</v>
       </c>
       <c r="K43" s="3">
         <v>17219300</v>
@@ -1848,25 +1848,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3944700</v>
+        <v>3815200</v>
       </c>
       <c r="E44" s="3">
-        <v>5366600</v>
+        <v>5190500</v>
       </c>
       <c r="F44" s="3">
-        <v>5124900</v>
+        <v>4956700</v>
       </c>
       <c r="G44" s="3">
-        <v>4432700</v>
+        <v>4287200</v>
       </c>
       <c r="H44" s="3">
-        <v>4208500</v>
+        <v>4070400</v>
       </c>
       <c r="I44" s="3">
-        <v>6661200</v>
+        <v>6442600</v>
       </c>
       <c r="J44" s="3">
-        <v>4589100</v>
+        <v>4438500</v>
       </c>
       <c r="K44" s="3">
         <v>11813700</v>
@@ -1884,25 +1884,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>284800</v>
+        <v>275500</v>
       </c>
       <c r="E45" s="3">
-        <v>233500</v>
+        <v>225800</v>
       </c>
       <c r="F45" s="3">
-        <v>352600</v>
+        <v>341000</v>
       </c>
       <c r="G45" s="3">
-        <v>238200</v>
+        <v>230300</v>
       </c>
       <c r="H45" s="3">
-        <v>549900</v>
+        <v>531800</v>
       </c>
       <c r="I45" s="3">
-        <v>622200</v>
+        <v>601800</v>
       </c>
       <c r="J45" s="3">
-        <v>319900</v>
+        <v>309400</v>
       </c>
       <c r="K45" s="3">
         <v>2192600</v>
@@ -1920,25 +1920,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15858100</v>
+        <v>15337700</v>
       </c>
       <c r="E46" s="3">
-        <v>19247100</v>
+        <v>18615500</v>
       </c>
       <c r="F46" s="3">
-        <v>20189200</v>
+        <v>19526700</v>
       </c>
       <c r="G46" s="3">
-        <v>17243800</v>
+        <v>16677900</v>
       </c>
       <c r="H46" s="3">
-        <v>18594500</v>
+        <v>17984300</v>
       </c>
       <c r="I46" s="3">
-        <v>14886800</v>
+        <v>14398300</v>
       </c>
       <c r="J46" s="3">
-        <v>19893800</v>
+        <v>19241000</v>
       </c>
       <c r="K46" s="3">
         <v>21263700</v>
@@ -1956,25 +1956,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8008400</v>
+        <v>7745600</v>
       </c>
       <c r="E47" s="3">
-        <v>9772400</v>
+        <v>9451700</v>
       </c>
       <c r="F47" s="3">
-        <v>9724500</v>
+        <v>9405400</v>
       </c>
       <c r="G47" s="3">
-        <v>13201100</v>
+        <v>12767900</v>
       </c>
       <c r="H47" s="3">
-        <v>13285100</v>
+        <v>12849200</v>
       </c>
       <c r="I47" s="3">
-        <v>14611300</v>
+        <v>14131800</v>
       </c>
       <c r="J47" s="3">
-        <v>13662200</v>
+        <v>13213900</v>
       </c>
       <c r="K47" s="3">
         <v>16090100</v>
@@ -1992,25 +1992,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24430400</v>
+        <v>23628700</v>
       </c>
       <c r="E48" s="3">
-        <v>27096800</v>
+        <v>26207500</v>
       </c>
       <c r="F48" s="3">
-        <v>29767800</v>
+        <v>28790900</v>
       </c>
       <c r="G48" s="3">
-        <v>28796500</v>
+        <v>27851500</v>
       </c>
       <c r="H48" s="3">
-        <v>31943800</v>
+        <v>30895600</v>
       </c>
       <c r="I48" s="3">
-        <v>65876900</v>
+        <v>63715100</v>
       </c>
       <c r="J48" s="3">
-        <v>20037400</v>
+        <v>19379900</v>
       </c>
       <c r="K48" s="3">
         <v>38369300</v>
@@ -2028,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3914300</v>
+        <v>3785900</v>
       </c>
       <c r="E49" s="3">
-        <v>5218300</v>
+        <v>5047100</v>
       </c>
       <c r="F49" s="3">
-        <v>5949100</v>
+        <v>5753900</v>
       </c>
       <c r="G49" s="3">
-        <v>5351400</v>
+        <v>5175800</v>
       </c>
       <c r="H49" s="3">
-        <v>5964300</v>
+        <v>5768600</v>
       </c>
       <c r="I49" s="3">
-        <v>11174400</v>
+        <v>10807700</v>
       </c>
       <c r="J49" s="3">
-        <v>2170200</v>
+        <v>2099000</v>
       </c>
       <c r="K49" s="3">
         <v>6717900</v>
@@ -2136,25 +2136,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5344400</v>
+        <v>5169000</v>
       </c>
       <c r="E52" s="3">
-        <v>6252600</v>
+        <v>6047500</v>
       </c>
       <c r="F52" s="3">
-        <v>5322200</v>
+        <v>5147600</v>
       </c>
       <c r="G52" s="3">
-        <v>5284900</v>
+        <v>5111400</v>
       </c>
       <c r="H52" s="3">
-        <v>5917600</v>
+        <v>5723400</v>
       </c>
       <c r="I52" s="3">
-        <v>6046000</v>
+        <v>5847600</v>
       </c>
       <c r="J52" s="3">
-        <v>4812100</v>
+        <v>4654200</v>
       </c>
       <c r="K52" s="3">
         <v>9589900</v>
@@ -2208,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>57555600</v>
+        <v>55666900</v>
       </c>
       <c r="E54" s="3">
-        <v>67587200</v>
+        <v>65369200</v>
       </c>
       <c r="F54" s="3">
-        <v>70952800</v>
+        <v>68624400</v>
       </c>
       <c r="G54" s="3">
-        <v>69877700</v>
+        <v>67584500</v>
       </c>
       <c r="H54" s="3">
-        <v>75705400</v>
+        <v>73221000</v>
       </c>
       <c r="I54" s="3">
-        <v>73775600</v>
+        <v>71354600</v>
       </c>
       <c r="J54" s="3">
-        <v>60575700</v>
+        <v>58587900</v>
       </c>
       <c r="K54" s="3">
         <v>66445300</v>
@@ -2276,25 +2276,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2884700</v>
+        <v>2790000</v>
       </c>
       <c r="E57" s="3">
-        <v>4247000</v>
+        <v>4107700</v>
       </c>
       <c r="F57" s="3">
-        <v>3787100</v>
+        <v>3662800</v>
       </c>
       <c r="G57" s="3">
-        <v>3196400</v>
+        <v>3091500</v>
       </c>
       <c r="H57" s="3">
-        <v>2484200</v>
+        <v>2402700</v>
       </c>
       <c r="I57" s="3">
-        <v>2100200</v>
+        <v>2031300</v>
       </c>
       <c r="J57" s="3">
-        <v>2743400</v>
+        <v>2653400</v>
       </c>
       <c r="K57" s="3">
         <v>3095800</v>
@@ -2312,25 +2312,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4230700</v>
+        <v>4091900</v>
       </c>
       <c r="E58" s="3">
-        <v>7521600</v>
+        <v>7274800</v>
       </c>
       <c r="F58" s="3">
-        <v>5155300</v>
+        <v>4986100</v>
       </c>
       <c r="G58" s="3">
-        <v>4833100</v>
+        <v>4674500</v>
       </c>
       <c r="H58" s="3">
-        <v>4552900</v>
+        <v>4403500</v>
       </c>
       <c r="I58" s="3">
-        <v>5008200</v>
+        <v>4843800</v>
       </c>
       <c r="J58" s="3">
-        <v>1741800</v>
+        <v>1684600</v>
       </c>
       <c r="K58" s="3">
         <v>4266800</v>
@@ -2348,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5164600</v>
+        <v>4995100</v>
       </c>
       <c r="E59" s="3">
-        <v>5841700</v>
+        <v>5650000</v>
       </c>
       <c r="F59" s="3">
-        <v>6012200</v>
+        <v>5814900</v>
       </c>
       <c r="G59" s="3">
-        <v>6020300</v>
+        <v>5822800</v>
       </c>
       <c r="H59" s="3">
-        <v>10167000</v>
+        <v>9833300</v>
       </c>
       <c r="I59" s="3">
-        <v>24835500</v>
+        <v>24020500</v>
       </c>
       <c r="J59" s="3">
-        <v>7472600</v>
+        <v>7227400</v>
       </c>
       <c r="K59" s="3">
         <v>19340200</v>
@@ -2384,25 +2384,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12280000</v>
+        <v>11877000</v>
       </c>
       <c r="E60" s="3">
-        <v>17610400</v>
+        <v>17032500</v>
       </c>
       <c r="F60" s="3">
-        <v>14954500</v>
+        <v>14463800</v>
       </c>
       <c r="G60" s="3">
-        <v>14049800</v>
+        <v>13588700</v>
       </c>
       <c r="H60" s="3">
-        <v>17204100</v>
+        <v>16639500</v>
       </c>
       <c r="I60" s="3">
-        <v>16900600</v>
+        <v>16346000</v>
       </c>
       <c r="J60" s="3">
-        <v>11957800</v>
+        <v>11565400</v>
       </c>
       <c r="K60" s="3">
         <v>16000400</v>
@@ -2420,25 +2420,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13933000</v>
+        <v>13475800</v>
       </c>
       <c r="E61" s="3">
-        <v>12574200</v>
+        <v>12161500</v>
       </c>
       <c r="F61" s="3">
-        <v>12452800</v>
+        <v>12044100</v>
       </c>
       <c r="G61" s="3">
-        <v>10195000</v>
+        <v>9860400</v>
       </c>
       <c r="H61" s="3">
-        <v>12778500</v>
+        <v>12359100</v>
       </c>
       <c r="I61" s="3">
-        <v>14034600</v>
+        <v>13574000</v>
       </c>
       <c r="J61" s="3">
-        <v>10434300</v>
+        <v>10091900</v>
       </c>
       <c r="K61" s="3">
         <v>11574400</v>
@@ -2456,25 +2456,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7365200</v>
+        <v>7123500</v>
       </c>
       <c r="E62" s="3">
-        <v>7973400</v>
+        <v>7711800</v>
       </c>
       <c r="F62" s="3">
-        <v>7456200</v>
+        <v>7211600</v>
       </c>
       <c r="G62" s="3">
-        <v>10537000</v>
+        <v>10191300</v>
       </c>
       <c r="H62" s="3">
-        <v>9403500</v>
+        <v>9094900</v>
       </c>
       <c r="I62" s="3">
-        <v>16065900</v>
+        <v>15538700</v>
       </c>
       <c r="J62" s="3">
-        <v>5316400</v>
+        <v>5141900</v>
       </c>
       <c r="K62" s="3">
         <v>10932100</v>
@@ -2600,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33863100</v>
+        <v>32751800</v>
       </c>
       <c r="E66" s="3">
-        <v>38486000</v>
+        <v>37223000</v>
       </c>
       <c r="F66" s="3">
-        <v>35197400</v>
+        <v>34042400</v>
       </c>
       <c r="G66" s="3">
-        <v>35097000</v>
+        <v>33945300</v>
       </c>
       <c r="H66" s="3">
-        <v>39670900</v>
+        <v>38369100</v>
       </c>
       <c r="I66" s="3">
-        <v>40464800</v>
+        <v>39136900</v>
       </c>
       <c r="J66" s="3">
-        <v>27961800</v>
+        <v>27044200</v>
       </c>
       <c r="K66" s="3">
         <v>33900300</v>
@@ -2796,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16069400</v>
+        <v>15542100</v>
       </c>
       <c r="E72" s="3">
-        <v>19422200</v>
+        <v>18784800</v>
       </c>
       <c r="F72" s="3">
-        <v>25457700</v>
+        <v>24622300</v>
       </c>
       <c r="G72" s="3">
-        <v>24788800</v>
+        <v>23975300</v>
       </c>
       <c r="H72" s="3">
-        <v>22811200</v>
+        <v>22062600</v>
       </c>
       <c r="I72" s="3">
-        <v>21251500</v>
+        <v>20554100</v>
       </c>
       <c r="J72" s="3">
-        <v>23145100</v>
+        <v>22385500</v>
       </c>
       <c r="K72" s="3">
         <v>56477400</v>
@@ -2940,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>23692600</v>
+        <v>22915100</v>
       </c>
       <c r="E76" s="3">
-        <v>29101200</v>
+        <v>28146200</v>
       </c>
       <c r="F76" s="3">
-        <v>35755400</v>
+        <v>34582100</v>
       </c>
       <c r="G76" s="3">
-        <v>34780600</v>
+        <v>33639300</v>
       </c>
       <c r="H76" s="3">
-        <v>36034400</v>
+        <v>34851900</v>
       </c>
       <c r="I76" s="3">
-        <v>33310900</v>
+        <v>32217700</v>
       </c>
       <c r="J76" s="3">
-        <v>32613900</v>
+        <v>31543700</v>
       </c>
       <c r="K76" s="3">
         <v>32545000</v>
@@ -3053,25 +3053,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3902700</v>
+        <v>-3774600</v>
       </c>
       <c r="E81" s="3">
-        <v>-4488700</v>
+        <v>-4341400</v>
       </c>
       <c r="F81" s="3">
-        <v>2699100</v>
+        <v>2610500</v>
       </c>
       <c r="G81" s="3">
-        <v>2442200</v>
+        <v>2362100</v>
       </c>
       <c r="H81" s="3">
-        <v>1993900</v>
+        <v>1928500</v>
       </c>
       <c r="I81" s="3">
-        <v>-1657700</v>
+        <v>-1603300</v>
       </c>
       <c r="J81" s="3">
-        <v>1881900</v>
+        <v>1820100</v>
       </c>
       <c r="K81" s="3">
         <v>233300</v>
@@ -3105,25 +3105,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2576500</v>
+        <v>2491900</v>
       </c>
       <c r="E83" s="3">
-        <v>2841500</v>
+        <v>2748200</v>
       </c>
       <c r="F83" s="3">
-        <v>2498300</v>
+        <v>2416300</v>
       </c>
       <c r="G83" s="3">
-        <v>2800600</v>
+        <v>2708700</v>
       </c>
       <c r="H83" s="3">
-        <v>2952400</v>
+        <v>2855500</v>
       </c>
       <c r="I83" s="3">
-        <v>3647000</v>
+        <v>3527300</v>
       </c>
       <c r="J83" s="3">
-        <v>2096700</v>
+        <v>2027900</v>
       </c>
       <c r="K83" s="3">
         <v>1818200</v>
@@ -3321,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3196400</v>
+        <v>3091500</v>
       </c>
       <c r="E89" s="3">
-        <v>5660800</v>
+        <v>5475000</v>
       </c>
       <c r="F89" s="3">
-        <v>5345600</v>
+        <v>5170100</v>
       </c>
       <c r="G89" s="3">
-        <v>5969000</v>
+        <v>5773100</v>
       </c>
       <c r="H89" s="3">
-        <v>4541200</v>
+        <v>4392200</v>
       </c>
       <c r="I89" s="3">
-        <v>5762300</v>
+        <v>5573200</v>
       </c>
       <c r="J89" s="3">
-        <v>3615500</v>
+        <v>3496800</v>
       </c>
       <c r="K89" s="3">
         <v>3198600</v>
@@ -3373,25 +3373,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2201700</v>
+        <v>-2129500</v>
       </c>
       <c r="E91" s="3">
-        <v>-3767200</v>
+        <v>-3643600</v>
       </c>
       <c r="F91" s="3">
-        <v>-3106500</v>
+        <v>-3004500</v>
       </c>
       <c r="G91" s="3">
-        <v>-2685000</v>
+        <v>-2596900</v>
       </c>
       <c r="H91" s="3">
-        <v>-2338300</v>
+        <v>-2261600</v>
       </c>
       <c r="I91" s="3">
-        <v>-3491700</v>
+        <v>-3377100</v>
       </c>
       <c r="J91" s="3">
-        <v>-3042300</v>
+        <v>-2942400</v>
       </c>
       <c r="K91" s="3">
         <v>-2382800</v>
@@ -3481,25 +3481,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>259200</v>
+        <v>250700</v>
       </c>
       <c r="E94" s="3">
-        <v>-5144800</v>
+        <v>-4975900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1586500</v>
+        <v>-1534400</v>
       </c>
       <c r="G94" s="3">
-        <v>-3255900</v>
+        <v>-3149100</v>
       </c>
       <c r="H94" s="3">
-        <v>456500</v>
+        <v>441500</v>
       </c>
       <c r="I94" s="3">
-        <v>-10460000</v>
+        <v>-10116700</v>
       </c>
       <c r="J94" s="3">
-        <v>1320300</v>
+        <v>1277000</v>
       </c>
       <c r="K94" s="3">
         <v>372000</v>
@@ -3533,25 +3533,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-403900</v>
+        <v>-390700</v>
       </c>
       <c r="E96" s="3">
-        <v>-462300</v>
+        <v>-447100</v>
       </c>
       <c r="F96" s="3">
-        <v>-346700</v>
+        <v>-335300</v>
       </c>
       <c r="G96" s="3">
-        <v>-387600</v>
+        <v>-374900</v>
       </c>
       <c r="H96" s="3">
-        <v>-490300</v>
+        <v>-474200</v>
       </c>
       <c r="I96" s="3">
-        <v>-569700</v>
+        <v>-551000</v>
       </c>
       <c r="J96" s="3">
-        <v>-1998600</v>
+        <v>-1933000</v>
       </c>
       <c r="K96" s="3">
         <v>-562200</v>
@@ -3677,25 +3677,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1885400</v>
+        <v>-1823500</v>
       </c>
       <c r="E100" s="3">
-        <v>-2672200</v>
+        <v>-2584500</v>
       </c>
       <c r="F100" s="3">
-        <v>-3539600</v>
+        <v>-3423400</v>
       </c>
       <c r="G100" s="3">
-        <v>-2756300</v>
+        <v>-2665800</v>
       </c>
       <c r="H100" s="3">
-        <v>-2396700</v>
+        <v>-2318000</v>
       </c>
       <c r="I100" s="3">
-        <v>2072200</v>
+        <v>2004200</v>
       </c>
       <c r="J100" s="3">
-        <v>-6365900</v>
+        <v>-6157000</v>
       </c>
       <c r="K100" s="3">
         <v>-1625600</v>
@@ -3713,25 +3713,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="E101" s="3">
-        <v>46700</v>
+        <v>45200</v>
       </c>
       <c r="F101" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="G101" s="3">
-        <v>-57200</v>
+        <v>-55300</v>
       </c>
       <c r="H101" s="3">
-        <v>12800</v>
+        <v>12400</v>
       </c>
       <c r="I101" s="3">
-        <v>68900</v>
+        <v>66600</v>
       </c>
       <c r="J101" s="3">
-        <v>171600</v>
+        <v>166000</v>
       </c>
       <c r="K101" s="3">
         <v>-21500</v>
@@ -3749,25 +3749,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1566700</v>
+        <v>1515300</v>
       </c>
       <c r="E102" s="3">
-        <v>-2109500</v>
+        <v>-2040300</v>
       </c>
       <c r="F102" s="3">
-        <v>216000</v>
+        <v>208900</v>
       </c>
       <c r="G102" s="3">
-        <v>-100400</v>
+        <v>-97100</v>
       </c>
       <c r="H102" s="3">
-        <v>2613800</v>
+        <v>2528100</v>
       </c>
       <c r="I102" s="3">
-        <v>-2556600</v>
+        <v>-2472700</v>
       </c>
       <c r="J102" s="3">
-        <v>-1258500</v>
+        <v>-1217200</v>
       </c>
       <c r="K102" s="3">
         <v>1923500</v>

--- a/AAII_Financials/Yearly/REPYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/REPYY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
   <si>
     <t>REPYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,177 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>37578700</v>
+        <v>54267300</v>
       </c>
       <c r="E8" s="3">
-        <v>55696200</v>
+        <v>36307700</v>
       </c>
       <c r="F8" s="3">
-        <v>56311600</v>
+        <v>53812400</v>
       </c>
       <c r="G8" s="3">
-        <v>47047300</v>
+        <v>54407000</v>
       </c>
       <c r="H8" s="3">
-        <v>39167300</v>
+        <v>45456000</v>
       </c>
       <c r="I8" s="3">
-        <v>44867000</v>
+        <v>37842600</v>
       </c>
       <c r="J8" s="3">
+        <v>43349500</v>
+      </c>
+      <c r="K8" s="3">
         <v>51760200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>56046800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>63623600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>61785800</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>29373500</v>
+        <v>40863300</v>
       </c>
       <c r="E9" s="3">
-        <v>42544500</v>
+        <v>28380000</v>
       </c>
       <c r="F9" s="3">
-        <v>43656700</v>
+        <v>41105500</v>
       </c>
       <c r="G9" s="3">
-        <v>34874500</v>
+        <v>42180000</v>
       </c>
       <c r="H9" s="3">
-        <v>26518000</v>
+        <v>33694900</v>
       </c>
       <c r="I9" s="3">
-        <v>37692700</v>
+        <v>25621100</v>
       </c>
       <c r="J9" s="3">
+        <v>36417800</v>
+      </c>
+      <c r="K9" s="3">
         <v>46852000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>50053800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>48447100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>46491100</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8205200</v>
+        <v>13404000</v>
       </c>
       <c r="E10" s="3">
-        <v>13151800</v>
+        <v>7927600</v>
       </c>
       <c r="F10" s="3">
-        <v>12655000</v>
+        <v>12706900</v>
       </c>
       <c r="G10" s="3">
-        <v>12172800</v>
+        <v>12226900</v>
       </c>
       <c r="H10" s="3">
-        <v>12649300</v>
+        <v>11761100</v>
       </c>
       <c r="I10" s="3">
-        <v>7174300</v>
+        <v>12221500</v>
       </c>
       <c r="J10" s="3">
+        <v>6931600</v>
+      </c>
+      <c r="K10" s="3">
         <v>4908200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5993000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>15176600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>15294700</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,44 +850,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>228100</v>
+        <v>413500</v>
       </c>
       <c r="E12" s="3">
-        <v>914600</v>
+        <v>220400</v>
       </c>
       <c r="F12" s="3">
-        <v>592800</v>
+        <v>883600</v>
       </c>
       <c r="G12" s="3">
-        <v>739600</v>
+        <v>572700</v>
       </c>
       <c r="H12" s="3">
-        <v>380500</v>
+        <v>714500</v>
       </c>
       <c r="I12" s="3">
-        <v>1778300</v>
+        <v>367600</v>
       </c>
       <c r="J12" s="3">
+        <v>1718200</v>
+      </c>
+      <c r="K12" s="3">
         <v>449400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>201000</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,81 +925,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2032400</v>
+        <v>426500</v>
       </c>
       <c r="E14" s="3">
-        <v>5210800</v>
+        <v>1963600</v>
       </c>
       <c r="F14" s="3">
-        <v>1261200</v>
+        <v>5034500</v>
       </c>
       <c r="G14" s="3">
-        <v>-1402300</v>
+        <v>1218500</v>
       </c>
       <c r="H14" s="3">
-        <v>-975500</v>
+        <v>-1354900</v>
       </c>
       <c r="I14" s="3">
-        <v>2548400</v>
+        <v>-942500</v>
       </c>
       <c r="J14" s="3">
+        <v>2462200</v>
+      </c>
+      <c r="K14" s="3">
         <v>-110700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>19100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>46100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>212500</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2394800</v>
+        <v>2128400</v>
       </c>
       <c r="E15" s="3">
-        <v>2612700</v>
+        <v>2313800</v>
       </c>
       <c r="F15" s="3">
-        <v>2160000</v>
+        <v>2524400</v>
       </c>
       <c r="G15" s="3">
-        <v>2508900</v>
+        <v>2086900</v>
       </c>
       <c r="H15" s="3">
-        <v>2583400</v>
+        <v>2424000</v>
       </c>
       <c r="I15" s="3">
-        <v>2631900</v>
+        <v>2496000</v>
       </c>
       <c r="J15" s="3">
+        <v>2542900</v>
+      </c>
+      <c r="K15" s="3">
         <v>1578500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1617300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2743900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2428600</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -997,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>40398100</v>
+        <v>50139300</v>
       </c>
       <c r="E17" s="3">
-        <v>59360200</v>
+        <v>39031700</v>
       </c>
       <c r="F17" s="3">
-        <v>53959700</v>
+        <v>57352400</v>
       </c>
       <c r="G17" s="3">
-        <v>43899400</v>
+        <v>52134600</v>
       </c>
       <c r="H17" s="3">
-        <v>36955400</v>
+        <v>42414600</v>
       </c>
       <c r="I17" s="3">
-        <v>47750800</v>
+        <v>35705500</v>
       </c>
       <c r="J17" s="3">
+        <v>46135700</v>
+      </c>
+      <c r="K17" s="3">
         <v>51255500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>54805100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>59629100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>57618800</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2819400</v>
+        <v>4128000</v>
       </c>
       <c r="E18" s="3">
-        <v>-3663900</v>
+        <v>-2724000</v>
       </c>
       <c r="F18" s="3">
-        <v>2351900</v>
+        <v>-3540000</v>
       </c>
       <c r="G18" s="3">
-        <v>3147900</v>
+        <v>2272400</v>
       </c>
       <c r="H18" s="3">
-        <v>2211900</v>
+        <v>3041500</v>
       </c>
       <c r="I18" s="3">
-        <v>-2883700</v>
+        <v>2137100</v>
       </c>
       <c r="J18" s="3">
+        <v>-2786200</v>
+      </c>
+      <c r="K18" s="3">
         <v>504700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1241700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3994500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4167000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1085,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-782500</v>
+        <v>692700</v>
       </c>
       <c r="E20" s="3">
-        <v>170500</v>
+        <v>-756000</v>
       </c>
       <c r="F20" s="3">
-        <v>1480300</v>
+        <v>164700</v>
       </c>
       <c r="G20" s="3">
-        <v>888600</v>
+        <v>1430200</v>
       </c>
       <c r="H20" s="3">
-        <v>468600</v>
+        <v>858500</v>
       </c>
       <c r="I20" s="3">
-        <v>822000</v>
+        <v>452700</v>
       </c>
       <c r="J20" s="3">
+        <v>794200</v>
+      </c>
+      <c r="K20" s="3">
         <v>1280400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>940200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1168300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>9400</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1104200</v>
+        <v>7040200</v>
       </c>
       <c r="E21" s="3">
-        <v>-738900</v>
+        <v>-1035700</v>
       </c>
       <c r="F21" s="3">
-        <v>6254000</v>
+        <v>-679600</v>
       </c>
       <c r="G21" s="3">
-        <v>6751500</v>
+        <v>6072600</v>
       </c>
       <c r="H21" s="3">
-        <v>5542600</v>
+        <v>6556900</v>
       </c>
       <c r="I21" s="3">
-        <v>1473700</v>
+        <v>5390700</v>
       </c>
       <c r="J21" s="3">
+        <v>1467900</v>
+      </c>
+      <c r="K21" s="3">
         <v>3817600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3992600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7910900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6606700</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>128700</v>
+        <v>98200</v>
       </c>
       <c r="E22" s="3">
-        <v>120800</v>
+        <v>124400</v>
       </c>
       <c r="F22" s="3">
-        <v>68900</v>
+        <v>116700</v>
       </c>
       <c r="G22" s="3">
-        <v>528400</v>
+        <v>66500</v>
       </c>
       <c r="H22" s="3">
-        <v>567900</v>
+        <v>510500</v>
       </c>
       <c r="I22" s="3">
-        <v>593900</v>
+        <v>548700</v>
       </c>
       <c r="J22" s="3">
+        <v>573800</v>
+      </c>
+      <c r="K22" s="3">
         <v>518300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>648300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1975300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1022400</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3730500</v>
+        <v>4722500</v>
       </c>
       <c r="E23" s="3">
-        <v>-3614200</v>
+        <v>-3604400</v>
       </c>
       <c r="F23" s="3">
-        <v>3763300</v>
+        <v>-3492000</v>
       </c>
       <c r="G23" s="3">
-        <v>3508100</v>
+        <v>3636000</v>
       </c>
       <c r="H23" s="3">
-        <v>2112500</v>
+        <v>3389500</v>
       </c>
       <c r="I23" s="3">
-        <v>-2655600</v>
+        <v>2041100</v>
       </c>
       <c r="J23" s="3">
+        <v>-2565800</v>
+      </c>
+      <c r="K23" s="3">
         <v>1266900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1533500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3187500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3154000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>18100</v>
+        <v>1964700</v>
       </c>
       <c r="E24" s="3">
-        <v>663900</v>
+        <v>17500</v>
       </c>
       <c r="F24" s="3">
-        <v>1564900</v>
+        <v>641500</v>
       </c>
       <c r="G24" s="3">
-        <v>1377500</v>
+        <v>1512000</v>
       </c>
       <c r="H24" s="3">
-        <v>441500</v>
+        <v>1330900</v>
       </c>
       <c r="I24" s="3">
-        <v>-1124600</v>
+        <v>426500</v>
       </c>
       <c r="J24" s="3">
+        <v>-1086500</v>
+      </c>
+      <c r="K24" s="3">
         <v>164800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>515600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1543800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1163200</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1300,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3748600</v>
+        <v>2757800</v>
       </c>
       <c r="E26" s="3">
-        <v>-4278200</v>
+        <v>-3621800</v>
       </c>
       <c r="F26" s="3">
-        <v>2198400</v>
+        <v>-4133500</v>
       </c>
       <c r="G26" s="3">
-        <v>2130600</v>
+        <v>2124000</v>
       </c>
       <c r="H26" s="3">
-        <v>1671100</v>
+        <v>2058500</v>
       </c>
       <c r="I26" s="3">
-        <v>-1531100</v>
+        <v>1614500</v>
       </c>
       <c r="J26" s="3">
+        <v>-1479300</v>
+      </c>
+      <c r="K26" s="3">
         <v>1102000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1018000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1643700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1990800</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3774600</v>
+        <v>2660700</v>
       </c>
       <c r="E27" s="3">
-        <v>-4341400</v>
+        <v>-3646900</v>
       </c>
       <c r="F27" s="3">
-        <v>2145300</v>
+        <v>-4194500</v>
       </c>
       <c r="G27" s="3">
-        <v>2052700</v>
+        <v>2072700</v>
       </c>
       <c r="H27" s="3">
-        <v>1590900</v>
+        <v>1983300</v>
       </c>
       <c r="I27" s="3">
-        <v>-1603300</v>
+        <v>1537100</v>
       </c>
       <c r="J27" s="3">
+        <v>-1549100</v>
+      </c>
+      <c r="K27" s="3">
         <v>1146000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1051500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1570100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1663300</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1408,45 +1463,51 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>465200</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>309400</v>
+        <v>449500</v>
       </c>
       <c r="H29" s="3">
-        <v>337600</v>
+        <v>298900</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>326200</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>674100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-818200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>820200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>910900</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1480,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1516,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>782500</v>
+        <v>-692700</v>
       </c>
       <c r="E32" s="3">
-        <v>-170500</v>
+        <v>756000</v>
       </c>
       <c r="F32" s="3">
-        <v>-1480300</v>
+        <v>-164700</v>
       </c>
       <c r="G32" s="3">
-        <v>-888600</v>
+        <v>-1430200</v>
       </c>
       <c r="H32" s="3">
-        <v>-468600</v>
+        <v>-858500</v>
       </c>
       <c r="I32" s="3">
-        <v>-822000</v>
+        <v>-452700</v>
       </c>
       <c r="J32" s="3">
+        <v>-794200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1280400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-940200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1168300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-9400</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3774600</v>
+        <v>2660700</v>
       </c>
       <c r="E33" s="3">
-        <v>-4341400</v>
+        <v>-3646900</v>
       </c>
       <c r="F33" s="3">
-        <v>2610500</v>
+        <v>-4194500</v>
       </c>
       <c r="G33" s="3">
-        <v>2362100</v>
+        <v>2522200</v>
       </c>
       <c r="H33" s="3">
-        <v>1928500</v>
+        <v>2282200</v>
       </c>
       <c r="I33" s="3">
-        <v>-1603300</v>
+        <v>1863300</v>
       </c>
       <c r="J33" s="3">
+        <v>-1549100</v>
+      </c>
+      <c r="K33" s="3">
         <v>1820100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>233300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2390300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2574200</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1624,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3774600</v>
+        <v>2660700</v>
       </c>
       <c r="E35" s="3">
-        <v>-4341400</v>
+        <v>-3646900</v>
       </c>
       <c r="F35" s="3">
-        <v>2610500</v>
+        <v>-4194500</v>
       </c>
       <c r="G35" s="3">
-        <v>2362100</v>
+        <v>2522200</v>
       </c>
       <c r="H35" s="3">
-        <v>1928500</v>
+        <v>2282200</v>
       </c>
       <c r="I35" s="3">
-        <v>-1603300</v>
+        <v>1863300</v>
       </c>
       <c r="J35" s="3">
+        <v>-1549100</v>
+      </c>
+      <c r="K35" s="3">
         <v>1820100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>233300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2390300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2574200</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1718,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1734,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2522400</v>
+        <v>2736000</v>
       </c>
       <c r="E41" s="3">
-        <v>2676000</v>
+        <v>2437100</v>
       </c>
       <c r="F41" s="3">
-        <v>4656400</v>
+        <v>2585500</v>
       </c>
       <c r="G41" s="3">
-        <v>4237500</v>
+        <v>4498900</v>
       </c>
       <c r="H41" s="3">
-        <v>3621000</v>
+        <v>4094200</v>
       </c>
       <c r="I41" s="3">
-        <v>5373400</v>
+        <v>3498500</v>
       </c>
       <c r="J41" s="3">
+        <v>5191600</v>
+      </c>
+      <c r="K41" s="3">
         <v>2495300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11515800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6481500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3142300</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4370700</v>
+        <v>7161800</v>
       </c>
       <c r="E42" s="3">
-        <v>4038800</v>
+        <v>4222900</v>
       </c>
       <c r="F42" s="3">
-        <v>2951500</v>
+        <v>3902200</v>
       </c>
       <c r="G42" s="3">
-        <v>1315400</v>
+        <v>2851600</v>
       </c>
       <c r="H42" s="3">
-        <v>3188600</v>
+        <v>1270900</v>
       </c>
       <c r="I42" s="3">
-        <v>2017700</v>
+        <v>3080700</v>
       </c>
       <c r="J42" s="3">
+        <v>1949500</v>
+      </c>
+      <c r="K42" s="3">
         <v>6146800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2611300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>455700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>791100</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4353800</v>
+        <v>7866600</v>
       </c>
       <c r="E43" s="3">
-        <v>6484400</v>
+        <v>4206500</v>
       </c>
       <c r="F43" s="3">
-        <v>6621000</v>
+        <v>6265100</v>
       </c>
       <c r="G43" s="3">
-        <v>6607500</v>
+        <v>6397100</v>
       </c>
       <c r="H43" s="3">
-        <v>6572500</v>
+        <v>6384000</v>
       </c>
       <c r="I43" s="3">
-        <v>15305000</v>
+        <v>6350200</v>
       </c>
       <c r="J43" s="3">
+        <v>14787300</v>
+      </c>
+      <c r="K43" s="3">
         <v>5851000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17219300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8543500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10824900</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3815200</v>
+        <v>5702200</v>
       </c>
       <c r="E44" s="3">
-        <v>5190500</v>
+        <v>3686200</v>
       </c>
       <c r="F44" s="3">
-        <v>4956700</v>
+        <v>5014900</v>
       </c>
       <c r="G44" s="3">
-        <v>4287200</v>
+        <v>4789100</v>
       </c>
       <c r="H44" s="3">
-        <v>4070400</v>
+        <v>4142200</v>
       </c>
       <c r="I44" s="3">
-        <v>6442600</v>
+        <v>3932700</v>
       </c>
       <c r="J44" s="3">
+        <v>6224700</v>
+      </c>
+      <c r="K44" s="3">
         <v>4438500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>11813700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6040100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8543000</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>275500</v>
+        <v>1015600</v>
       </c>
       <c r="E45" s="3">
-        <v>225800</v>
+        <v>266200</v>
       </c>
       <c r="F45" s="3">
-        <v>341000</v>
+        <v>218200</v>
       </c>
       <c r="G45" s="3">
-        <v>230300</v>
+        <v>329500</v>
       </c>
       <c r="H45" s="3">
-        <v>531800</v>
+        <v>222500</v>
       </c>
       <c r="I45" s="3">
-        <v>601800</v>
+        <v>513800</v>
       </c>
       <c r="J45" s="3">
+        <v>581500</v>
+      </c>
+      <c r="K45" s="3">
         <v>309400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2192600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>616000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>561100</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15337700</v>
+        <v>24482200</v>
       </c>
       <c r="E46" s="3">
-        <v>18615500</v>
+        <v>14818900</v>
       </c>
       <c r="F46" s="3">
-        <v>19526700</v>
+        <v>17985800</v>
       </c>
       <c r="G46" s="3">
-        <v>16677900</v>
+        <v>18866200</v>
       </c>
       <c r="H46" s="3">
-        <v>17984300</v>
+        <v>16113800</v>
       </c>
       <c r="I46" s="3">
-        <v>14398300</v>
+        <v>17376000</v>
       </c>
       <c r="J46" s="3">
+        <v>13911300</v>
+      </c>
+      <c r="K46" s="3">
         <v>19241000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>21263700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>22136800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>23862400</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7745600</v>
+        <v>5384700</v>
       </c>
       <c r="E47" s="3">
-        <v>9451700</v>
+        <v>7483600</v>
       </c>
       <c r="F47" s="3">
-        <v>9405400</v>
+        <v>9132000</v>
       </c>
       <c r="G47" s="3">
-        <v>12767900</v>
+        <v>9087300</v>
       </c>
       <c r="H47" s="3">
-        <v>12849200</v>
+        <v>12336000</v>
       </c>
       <c r="I47" s="3">
-        <v>14131800</v>
+        <v>12414600</v>
       </c>
       <c r="J47" s="3">
+        <v>13653800</v>
+      </c>
+      <c r="K47" s="3">
         <v>13213900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>16090100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8171300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3696300</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23628700</v>
+        <v>23701100</v>
       </c>
       <c r="E48" s="3">
-        <v>26207500</v>
+        <v>22829500</v>
       </c>
       <c r="F48" s="3">
-        <v>28790900</v>
+        <v>25321100</v>
       </c>
       <c r="G48" s="3">
-        <v>27851500</v>
+        <v>27817100</v>
       </c>
       <c r="H48" s="3">
-        <v>30895600</v>
+        <v>26909500</v>
       </c>
       <c r="I48" s="3">
-        <v>63715100</v>
+        <v>29850600</v>
       </c>
       <c r="J48" s="3">
+        <v>61560100</v>
+      </c>
+      <c r="K48" s="3">
         <v>19379900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>38369300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>31020700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>43176300</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3785900</v>
+        <v>3814900</v>
       </c>
       <c r="E49" s="3">
-        <v>5047100</v>
+        <v>3657800</v>
       </c>
       <c r="F49" s="3">
-        <v>5753900</v>
+        <v>4876400</v>
       </c>
       <c r="G49" s="3">
-        <v>5175800</v>
+        <v>5559300</v>
       </c>
       <c r="H49" s="3">
-        <v>5768600</v>
+        <v>5000700</v>
       </c>
       <c r="I49" s="3">
-        <v>10807700</v>
+        <v>5573500</v>
       </c>
       <c r="J49" s="3">
+        <v>10442200</v>
+      </c>
+      <c r="K49" s="3">
         <v>2099000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6717900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6054400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9135800</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2093,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2129,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5169000</v>
+        <v>3985100</v>
       </c>
       <c r="E52" s="3">
-        <v>6047500</v>
+        <v>4994200</v>
       </c>
       <c r="F52" s="3">
-        <v>5147600</v>
+        <v>5842900</v>
       </c>
       <c r="G52" s="3">
-        <v>5111400</v>
+        <v>4973500</v>
       </c>
       <c r="H52" s="3">
-        <v>5723400</v>
+        <v>4938500</v>
       </c>
       <c r="I52" s="3">
-        <v>5847600</v>
+        <v>5529800</v>
       </c>
       <c r="J52" s="3">
+        <v>5649800</v>
+      </c>
+      <c r="K52" s="3">
         <v>4654200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9589900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3900100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3419300</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2201,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>55666900</v>
+        <v>61368100</v>
       </c>
       <c r="E54" s="3">
-        <v>65369200</v>
+        <v>53784000</v>
       </c>
       <c r="F54" s="3">
-        <v>68624400</v>
+        <v>63158200</v>
       </c>
       <c r="G54" s="3">
-        <v>67584500</v>
+        <v>66303300</v>
       </c>
       <c r="H54" s="3">
-        <v>73221000</v>
+        <v>65298600</v>
       </c>
       <c r="I54" s="3">
-        <v>71354600</v>
+        <v>70744400</v>
       </c>
       <c r="J54" s="3">
+        <v>68941100</v>
+      </c>
+      <c r="K54" s="3">
         <v>58587900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>66445300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>71283300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>83290000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2254,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2270,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2790000</v>
+        <v>6052400</v>
       </c>
       <c r="E57" s="3">
-        <v>4107700</v>
+        <v>2695600</v>
       </c>
       <c r="F57" s="3">
-        <v>3662800</v>
+        <v>3968700</v>
       </c>
       <c r="G57" s="3">
-        <v>3091500</v>
+        <v>3538900</v>
       </c>
       <c r="H57" s="3">
-        <v>2402700</v>
+        <v>2986900</v>
       </c>
       <c r="I57" s="3">
-        <v>2031300</v>
+        <v>2321500</v>
       </c>
       <c r="J57" s="3">
+        <v>1962500</v>
+      </c>
+      <c r="K57" s="3">
         <v>2653400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3095800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4804800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5583800</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4091900</v>
+        <v>4891600</v>
       </c>
       <c r="E58" s="3">
-        <v>7274800</v>
+        <v>3953500</v>
       </c>
       <c r="F58" s="3">
-        <v>4986100</v>
+        <v>7028700</v>
       </c>
       <c r="G58" s="3">
-        <v>4674500</v>
+        <v>4817500</v>
       </c>
       <c r="H58" s="3">
-        <v>4403500</v>
+        <v>4516400</v>
       </c>
       <c r="I58" s="3">
-        <v>4843800</v>
+        <v>4254500</v>
       </c>
       <c r="J58" s="3">
+        <v>4680000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1684600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4266800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4407400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6113200</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4995100</v>
+        <v>7948400</v>
       </c>
       <c r="E59" s="3">
-        <v>5650000</v>
+        <v>4826200</v>
       </c>
       <c r="F59" s="3">
-        <v>5814900</v>
+        <v>5458900</v>
       </c>
       <c r="G59" s="3">
-        <v>5822800</v>
+        <v>5618200</v>
       </c>
       <c r="H59" s="3">
-        <v>9833300</v>
+        <v>5625800</v>
       </c>
       <c r="I59" s="3">
-        <v>24020500</v>
+        <v>9500700</v>
       </c>
       <c r="J59" s="3">
+        <v>23208000</v>
+      </c>
+      <c r="K59" s="3">
         <v>7227400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19340200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5402200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8379800</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11877000</v>
+        <v>18892400</v>
       </c>
       <c r="E60" s="3">
-        <v>17032500</v>
+        <v>11475300</v>
       </c>
       <c r="F60" s="3">
-        <v>14463800</v>
+        <v>16456400</v>
       </c>
       <c r="G60" s="3">
-        <v>13588700</v>
+        <v>13974600</v>
       </c>
       <c r="H60" s="3">
-        <v>16639500</v>
+        <v>13129100</v>
       </c>
       <c r="I60" s="3">
-        <v>16346000</v>
+        <v>16076700</v>
       </c>
       <c r="J60" s="3">
+        <v>15793100</v>
+      </c>
+      <c r="K60" s="3">
         <v>11565400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16000400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14614400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>20076800</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13475800</v>
+        <v>10917800</v>
       </c>
       <c r="E61" s="3">
-        <v>12161500</v>
+        <v>13020000</v>
       </c>
       <c r="F61" s="3">
-        <v>12044100</v>
+        <v>11750200</v>
       </c>
       <c r="G61" s="3">
-        <v>9860400</v>
+        <v>11636700</v>
       </c>
       <c r="H61" s="3">
-        <v>12359100</v>
+        <v>9526900</v>
       </c>
       <c r="I61" s="3">
-        <v>13574000</v>
+        <v>11941100</v>
       </c>
       <c r="J61" s="3">
+        <v>13114900</v>
+      </c>
+      <c r="K61" s="3">
         <v>10091900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11574400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>19813400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>21373900</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7123500</v>
+        <v>6691600</v>
       </c>
       <c r="E62" s="3">
-        <v>7711800</v>
+        <v>6882600</v>
       </c>
       <c r="F62" s="3">
-        <v>7211600</v>
+        <v>7450900</v>
       </c>
       <c r="G62" s="3">
-        <v>10191300</v>
+        <v>6967600</v>
       </c>
       <c r="H62" s="3">
-        <v>9094900</v>
+        <v>9846600</v>
       </c>
       <c r="I62" s="3">
-        <v>15538700</v>
+        <v>8787300</v>
       </c>
       <c r="J62" s="3">
+        <v>15013100</v>
+      </c>
+      <c r="K62" s="3">
         <v>5141900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10932100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6691200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10095900</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2521,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2557,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2593,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32751800</v>
+        <v>36916400</v>
       </c>
       <c r="E66" s="3">
-        <v>37223000</v>
+        <v>31644000</v>
       </c>
       <c r="F66" s="3">
-        <v>34042400</v>
+        <v>35964000</v>
       </c>
       <c r="G66" s="3">
-        <v>33945300</v>
+        <v>32890900</v>
       </c>
       <c r="H66" s="3">
-        <v>38369100</v>
+        <v>32797100</v>
       </c>
       <c r="I66" s="3">
-        <v>39136900</v>
+        <v>37071300</v>
       </c>
       <c r="J66" s="3">
+        <v>37813100</v>
+      </c>
+      <c r="K66" s="3">
         <v>27044200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>33900300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>41964500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>55660900</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2646,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2681,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2717,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2753,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2789,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15542100</v>
+        <v>16490200</v>
       </c>
       <c r="E72" s="3">
-        <v>18784800</v>
+        <v>15016400</v>
       </c>
       <c r="F72" s="3">
-        <v>24622300</v>
+        <v>18149500</v>
       </c>
       <c r="G72" s="3">
-        <v>23975300</v>
+        <v>23789500</v>
       </c>
       <c r="H72" s="3">
-        <v>22062600</v>
+        <v>23164400</v>
       </c>
       <c r="I72" s="3">
-        <v>20554100</v>
+        <v>21316400</v>
       </c>
       <c r="J72" s="3">
+        <v>19858900</v>
+      </c>
+      <c r="K72" s="3">
         <v>22385500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>56477400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>22421200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>22074700</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2861,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2897,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2933,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22915100</v>
+        <v>24451700</v>
       </c>
       <c r="E76" s="3">
-        <v>28146200</v>
+        <v>22140000</v>
       </c>
       <c r="F76" s="3">
-        <v>34582100</v>
+        <v>27194200</v>
       </c>
       <c r="G76" s="3">
-        <v>33639300</v>
+        <v>33412400</v>
       </c>
       <c r="H76" s="3">
-        <v>34851900</v>
+        <v>32501500</v>
       </c>
       <c r="I76" s="3">
-        <v>32217700</v>
+        <v>33673100</v>
       </c>
       <c r="J76" s="3">
+        <v>31128000</v>
+      </c>
+      <c r="K76" s="3">
         <v>31543700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>32545000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>29318800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>27629100</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3005,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3774600</v>
+        <v>2660700</v>
       </c>
       <c r="E81" s="3">
-        <v>-4341400</v>
+        <v>-3646900</v>
       </c>
       <c r="F81" s="3">
-        <v>2610500</v>
+        <v>-4194500</v>
       </c>
       <c r="G81" s="3">
-        <v>2362100</v>
+        <v>2522200</v>
       </c>
       <c r="H81" s="3">
-        <v>1928500</v>
+        <v>2282200</v>
       </c>
       <c r="I81" s="3">
-        <v>-1603300</v>
+        <v>1863300</v>
       </c>
       <c r="J81" s="3">
+        <v>-1549100</v>
+      </c>
+      <c r="K81" s="3">
         <v>1820100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>233300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2390300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2574200</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3099,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2491900</v>
+        <v>2186200</v>
       </c>
       <c r="E83" s="3">
-        <v>2748200</v>
+        <v>2407600</v>
       </c>
       <c r="F83" s="3">
-        <v>2416300</v>
+        <v>2655300</v>
       </c>
       <c r="G83" s="3">
-        <v>2708700</v>
+        <v>2334500</v>
       </c>
       <c r="H83" s="3">
-        <v>2855500</v>
+        <v>2617100</v>
       </c>
       <c r="I83" s="3">
-        <v>3527300</v>
+        <v>2758900</v>
       </c>
       <c r="J83" s="3">
+        <v>3408000</v>
+      </c>
+      <c r="K83" s="3">
         <v>2027900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1818200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2743900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2428600</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3170,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3206,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3242,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3278,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3314,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3091500</v>
+        <v>5102200</v>
       </c>
       <c r="E89" s="3">
-        <v>5475000</v>
+        <v>2986900</v>
       </c>
       <c r="F89" s="3">
-        <v>5170100</v>
+        <v>5289800</v>
       </c>
       <c r="G89" s="3">
-        <v>5773100</v>
+        <v>4995300</v>
       </c>
       <c r="H89" s="3">
-        <v>4392200</v>
+        <v>5577800</v>
       </c>
       <c r="I89" s="3">
-        <v>5573200</v>
+        <v>4243600</v>
       </c>
       <c r="J89" s="3">
+        <v>5384700</v>
+      </c>
+      <c r="K89" s="3">
         <v>3496800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3198600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7434600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4836100</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3367,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2129500</v>
+        <v>-2074900</v>
       </c>
       <c r="E91" s="3">
-        <v>-3643600</v>
+        <v>-2057500</v>
       </c>
       <c r="F91" s="3">
-        <v>-3004500</v>
+        <v>-3520400</v>
       </c>
       <c r="G91" s="3">
-        <v>-2596900</v>
+        <v>-2902900</v>
       </c>
       <c r="H91" s="3">
-        <v>-2261600</v>
+        <v>-2509100</v>
       </c>
       <c r="I91" s="3">
-        <v>-3377100</v>
+        <v>-2185100</v>
       </c>
       <c r="J91" s="3">
+        <v>-3262900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2942400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2382800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3743100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4169400</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3438,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3474,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>250700</v>
+        <v>-3199600</v>
       </c>
       <c r="E94" s="3">
-        <v>-4975900</v>
+        <v>242200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1534400</v>
+        <v>-4807600</v>
       </c>
       <c r="G94" s="3">
-        <v>-3149100</v>
+        <v>-1482500</v>
       </c>
       <c r="H94" s="3">
-        <v>441500</v>
+        <v>-3042500</v>
       </c>
       <c r="I94" s="3">
-        <v>-10116700</v>
+        <v>426500</v>
       </c>
       <c r="J94" s="3">
+        <v>-9774600</v>
+      </c>
+      <c r="K94" s="3">
         <v>1277000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>372000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4125200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6225900</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3527,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-390700</v>
+        <v>-681800</v>
       </c>
       <c r="E96" s="3">
-        <v>-447100</v>
+        <v>-377500</v>
       </c>
       <c r="F96" s="3">
-        <v>-335300</v>
+        <v>-432000</v>
       </c>
       <c r="G96" s="3">
-        <v>-374900</v>
+        <v>-324000</v>
       </c>
       <c r="H96" s="3">
-        <v>-474200</v>
+        <v>-362200</v>
       </c>
       <c r="I96" s="3">
-        <v>-551000</v>
+        <v>-458200</v>
       </c>
       <c r="J96" s="3">
+        <v>-532400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1933000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-562200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1039800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1564700</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3598,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3634,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3670,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1823500</v>
+        <v>-577100</v>
       </c>
       <c r="E100" s="3">
-        <v>-2584500</v>
+        <v>-1761800</v>
       </c>
       <c r="F100" s="3">
-        <v>-3423400</v>
+        <v>-2497100</v>
       </c>
       <c r="G100" s="3">
-        <v>-2665800</v>
+        <v>-3307600</v>
       </c>
       <c r="H100" s="3">
-        <v>-2318000</v>
+        <v>-2575600</v>
       </c>
       <c r="I100" s="3">
-        <v>2004200</v>
+        <v>-2239600</v>
       </c>
       <c r="J100" s="3">
+        <v>1936400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-6157000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1625600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>318400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2938000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3400</v>
+        <v>64400</v>
       </c>
       <c r="E101" s="3">
-        <v>45200</v>
+        <v>-3300</v>
       </c>
       <c r="F101" s="3">
-        <v>-3400</v>
+        <v>43600</v>
       </c>
       <c r="G101" s="3">
-        <v>-55300</v>
+        <v>-3300</v>
       </c>
       <c r="H101" s="3">
-        <v>12400</v>
+        <v>-53500</v>
       </c>
       <c r="I101" s="3">
-        <v>66600</v>
+        <v>12000</v>
       </c>
       <c r="J101" s="3">
+        <v>64400</v>
+      </c>
+      <c r="K101" s="3">
         <v>166000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-21500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-85600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-98600</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1515300</v>
+        <v>1389800</v>
       </c>
       <c r="E102" s="3">
-        <v>-2040300</v>
+        <v>1464000</v>
       </c>
       <c r="F102" s="3">
-        <v>208900</v>
+        <v>-1971300</v>
       </c>
       <c r="G102" s="3">
-        <v>-97100</v>
+        <v>201800</v>
       </c>
       <c r="H102" s="3">
-        <v>2528100</v>
+        <v>-93800</v>
       </c>
       <c r="I102" s="3">
-        <v>-2472700</v>
+        <v>2442500</v>
       </c>
       <c r="J102" s="3">
+        <v>-2389100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1217200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1923500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3542100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4426400</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/REPYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/REPYY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>REPYY</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>54267300</v>
+        <v>51630300</v>
       </c>
       <c r="E8" s="3">
-        <v>36307700</v>
+        <v>34543400</v>
       </c>
       <c r="F8" s="3">
-        <v>53812400</v>
+        <v>51197500</v>
       </c>
       <c r="G8" s="3">
-        <v>54407000</v>
+        <v>51763200</v>
       </c>
       <c r="H8" s="3">
-        <v>45456000</v>
+        <v>43247200</v>
       </c>
       <c r="I8" s="3">
-        <v>37842600</v>
+        <v>36003700</v>
       </c>
       <c r="J8" s="3">
-        <v>43349500</v>
+        <v>41243000</v>
       </c>
       <c r="K8" s="3">
         <v>51760200</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>40863300</v>
+        <v>38877700</v>
       </c>
       <c r="E9" s="3">
-        <v>28380000</v>
+        <v>27001000</v>
       </c>
       <c r="F9" s="3">
-        <v>41105500</v>
+        <v>39108100</v>
       </c>
       <c r="G9" s="3">
-        <v>42180000</v>
+        <v>40130400</v>
       </c>
       <c r="H9" s="3">
-        <v>33694900</v>
+        <v>32057600</v>
       </c>
       <c r="I9" s="3">
-        <v>25621100</v>
+        <v>24376100</v>
       </c>
       <c r="J9" s="3">
-        <v>36417800</v>
+        <v>34648200</v>
       </c>
       <c r="K9" s="3">
         <v>46852000</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>13404000</v>
+        <v>12752700</v>
       </c>
       <c r="E10" s="3">
-        <v>7927600</v>
+        <v>7542400</v>
       </c>
       <c r="F10" s="3">
-        <v>12706900</v>
+        <v>12089500</v>
       </c>
       <c r="G10" s="3">
-        <v>12226900</v>
+        <v>11632800</v>
       </c>
       <c r="H10" s="3">
-        <v>11761100</v>
+        <v>11189600</v>
       </c>
       <c r="I10" s="3">
-        <v>12221500</v>
+        <v>11627600</v>
       </c>
       <c r="J10" s="3">
-        <v>6931600</v>
+        <v>6594800</v>
       </c>
       <c r="K10" s="3">
         <v>4908200</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>413500</v>
-      </c>
-      <c r="E12" s="3">
-        <v>220400</v>
-      </c>
-      <c r="F12" s="3">
-        <v>883600</v>
+        <v>84100</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G12" s="3">
-        <v>572700</v>
+        <v>544900</v>
       </c>
       <c r="H12" s="3">
-        <v>714500</v>
+        <v>679800</v>
       </c>
       <c r="I12" s="3">
-        <v>367600</v>
+        <v>349800</v>
       </c>
       <c r="J12" s="3">
-        <v>1718200</v>
+        <v>1634700</v>
       </c>
       <c r="K12" s="3">
         <v>449400</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>426500</v>
+        <v>456700</v>
       </c>
       <c r="E14" s="3">
-        <v>1963600</v>
+        <v>1988600</v>
       </c>
       <c r="F14" s="3">
-        <v>5034500</v>
+        <v>5506100</v>
       </c>
       <c r="G14" s="3">
-        <v>1218500</v>
+        <v>1159300</v>
       </c>
       <c r="H14" s="3">
-        <v>-1354900</v>
+        <v>-1289100</v>
       </c>
       <c r="I14" s="3">
-        <v>-942500</v>
+        <v>-896700</v>
       </c>
       <c r="J14" s="3">
-        <v>2462200</v>
+        <v>2342500</v>
       </c>
       <c r="K14" s="3">
         <v>-110700</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2128400</v>
+        <v>2080000</v>
       </c>
       <c r="E15" s="3">
-        <v>2313800</v>
+        <v>2290600</v>
       </c>
       <c r="F15" s="3">
-        <v>2524400</v>
+        <v>2526200</v>
       </c>
       <c r="G15" s="3">
-        <v>2086900</v>
+        <v>1985500</v>
       </c>
       <c r="H15" s="3">
-        <v>2424000</v>
+        <v>2306200</v>
       </c>
       <c r="I15" s="3">
-        <v>2496000</v>
+        <v>2374700</v>
       </c>
       <c r="J15" s="3">
-        <v>2542900</v>
+        <v>2419300</v>
       </c>
       <c r="K15" s="3">
         <v>1578500</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>50139300</v>
+        <v>47702900</v>
       </c>
       <c r="E17" s="3">
-        <v>39031700</v>
+        <v>37135000</v>
       </c>
       <c r="F17" s="3">
-        <v>57352400</v>
+        <v>54565500</v>
       </c>
       <c r="G17" s="3">
-        <v>52134600</v>
+        <v>49601200</v>
       </c>
       <c r="H17" s="3">
-        <v>42414600</v>
+        <v>40353600</v>
       </c>
       <c r="I17" s="3">
-        <v>35705500</v>
+        <v>33970500</v>
       </c>
       <c r="J17" s="3">
-        <v>46135700</v>
+        <v>43893800</v>
       </c>
       <c r="K17" s="3">
         <v>51255500</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4128000</v>
+        <v>3927400</v>
       </c>
       <c r="E18" s="3">
-        <v>-2724000</v>
+        <v>-2591600</v>
       </c>
       <c r="F18" s="3">
-        <v>-3540000</v>
+        <v>-3368000</v>
       </c>
       <c r="G18" s="3">
-        <v>2272400</v>
+        <v>2161900</v>
       </c>
       <c r="H18" s="3">
-        <v>3041500</v>
+        <v>2893700</v>
       </c>
       <c r="I18" s="3">
-        <v>2137100</v>
+        <v>2033200</v>
       </c>
       <c r="J18" s="3">
-        <v>-2786200</v>
+        <v>-2650800</v>
       </c>
       <c r="K18" s="3">
         <v>504700</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>692700</v>
+        <v>664300</v>
       </c>
       <c r="E20" s="3">
-        <v>-756000</v>
+        <v>-719300</v>
       </c>
       <c r="F20" s="3">
-        <v>164700</v>
+        <v>156700</v>
       </c>
       <c r="G20" s="3">
-        <v>1430200</v>
+        <v>1360700</v>
       </c>
       <c r="H20" s="3">
-        <v>858500</v>
+        <v>816800</v>
       </c>
       <c r="I20" s="3">
-        <v>452700</v>
+        <v>430700</v>
       </c>
       <c r="J20" s="3">
-        <v>794200</v>
+        <v>755600</v>
       </c>
       <c r="K20" s="3">
         <v>1280400</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7040200</v>
+        <v>6698100</v>
       </c>
       <c r="E21" s="3">
-        <v>-1035700</v>
+        <v>-991100</v>
       </c>
       <c r="F21" s="3">
-        <v>-679600</v>
+        <v>-652900</v>
       </c>
       <c r="G21" s="3">
-        <v>6072600</v>
+        <v>5772000</v>
       </c>
       <c r="H21" s="3">
-        <v>6556900</v>
+        <v>6232100</v>
       </c>
       <c r="I21" s="3">
-        <v>5390700</v>
+        <v>5122200</v>
       </c>
       <c r="J21" s="3">
-        <v>1467900</v>
+        <v>1388400</v>
       </c>
       <c r="K21" s="3">
         <v>3817600</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>98200</v>
+        <v>98600</v>
       </c>
       <c r="E22" s="3">
-        <v>124400</v>
+        <v>118300</v>
       </c>
       <c r="F22" s="3">
-        <v>116700</v>
+        <v>111100</v>
       </c>
       <c r="G22" s="3">
-        <v>66500</v>
+        <v>63300</v>
       </c>
       <c r="H22" s="3">
-        <v>510500</v>
+        <v>485700</v>
       </c>
       <c r="I22" s="3">
-        <v>548700</v>
+        <v>522100</v>
       </c>
       <c r="J22" s="3">
-        <v>573800</v>
+        <v>545900</v>
       </c>
       <c r="K22" s="3">
         <v>518300</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4722500</v>
+        <v>4493100</v>
       </c>
       <c r="E23" s="3">
-        <v>-3604400</v>
+        <v>-3429200</v>
       </c>
       <c r="F23" s="3">
-        <v>-3492000</v>
+        <v>-3322300</v>
       </c>
       <c r="G23" s="3">
-        <v>3636000</v>
+        <v>3459300</v>
       </c>
       <c r="H23" s="3">
-        <v>3389500</v>
+        <v>3224800</v>
       </c>
       <c r="I23" s="3">
-        <v>2041100</v>
+        <v>1941900</v>
       </c>
       <c r="J23" s="3">
-        <v>-2565800</v>
+        <v>-2441100</v>
       </c>
       <c r="K23" s="3">
         <v>1266900</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1964700</v>
+        <v>1869300</v>
       </c>
       <c r="E24" s="3">
-        <v>17500</v>
+        <v>16600</v>
       </c>
       <c r="F24" s="3">
-        <v>641500</v>
+        <v>610300</v>
       </c>
       <c r="G24" s="3">
-        <v>1512000</v>
+        <v>1438500</v>
       </c>
       <c r="H24" s="3">
-        <v>1330900</v>
+        <v>1266200</v>
       </c>
       <c r="I24" s="3">
-        <v>426500</v>
+        <v>405800</v>
       </c>
       <c r="J24" s="3">
-        <v>-1086500</v>
+        <v>-1033700</v>
       </c>
       <c r="K24" s="3">
         <v>164800</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2757800</v>
+        <v>2623800</v>
       </c>
       <c r="E26" s="3">
-        <v>-3621800</v>
+        <v>-3445800</v>
       </c>
       <c r="F26" s="3">
-        <v>-4133500</v>
+        <v>-3932600</v>
       </c>
       <c r="G26" s="3">
-        <v>2124000</v>
+        <v>2020800</v>
       </c>
       <c r="H26" s="3">
-        <v>2058500</v>
+        <v>1958500</v>
       </c>
       <c r="I26" s="3">
-        <v>1614500</v>
+        <v>1536100</v>
       </c>
       <c r="J26" s="3">
-        <v>-1479300</v>
+        <v>-1407400</v>
       </c>
       <c r="K26" s="3">
         <v>1102000</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2660700</v>
+        <v>2531400</v>
       </c>
       <c r="E27" s="3">
-        <v>-3646900</v>
+        <v>-3469700</v>
       </c>
       <c r="F27" s="3">
-        <v>-4194500</v>
+        <v>-3990700</v>
       </c>
       <c r="G27" s="3">
-        <v>2072700</v>
+        <v>1972000</v>
       </c>
       <c r="H27" s="3">
-        <v>1983300</v>
+        <v>1886900</v>
       </c>
       <c r="I27" s="3">
-        <v>1537100</v>
+        <v>1462400</v>
       </c>
       <c r="J27" s="3">
-        <v>-1549100</v>
+        <v>-1473800</v>
       </c>
       <c r="K27" s="3">
         <v>1146000</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>449500</v>
+        <v>427600</v>
       </c>
       <c r="H29" s="3">
-        <v>298900</v>
+        <v>284400</v>
       </c>
       <c r="I29" s="3">
-        <v>326200</v>
+        <v>310300</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-692700</v>
+        <v>-664300</v>
       </c>
       <c r="E32" s="3">
-        <v>756000</v>
+        <v>719300</v>
       </c>
       <c r="F32" s="3">
-        <v>-164700</v>
+        <v>-156700</v>
       </c>
       <c r="G32" s="3">
-        <v>-1430200</v>
+        <v>-1360700</v>
       </c>
       <c r="H32" s="3">
-        <v>-858500</v>
+        <v>-816800</v>
       </c>
       <c r="I32" s="3">
-        <v>-452700</v>
+        <v>-430700</v>
       </c>
       <c r="J32" s="3">
-        <v>-794200</v>
+        <v>-755600</v>
       </c>
       <c r="K32" s="3">
         <v>-1280400</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2660700</v>
+        <v>2531400</v>
       </c>
       <c r="E33" s="3">
-        <v>-3646900</v>
+        <v>-3469700</v>
       </c>
       <c r="F33" s="3">
-        <v>-4194500</v>
+        <v>-3990700</v>
       </c>
       <c r="G33" s="3">
-        <v>2522200</v>
+        <v>2399600</v>
       </c>
       <c r="H33" s="3">
-        <v>2282200</v>
+        <v>2171300</v>
       </c>
       <c r="I33" s="3">
-        <v>1863300</v>
+        <v>1772700</v>
       </c>
       <c r="J33" s="3">
-        <v>-1549100</v>
+        <v>-1473800</v>
       </c>
       <c r="K33" s="3">
         <v>1820100</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2660700</v>
+        <v>2531400</v>
       </c>
       <c r="E35" s="3">
-        <v>-3646900</v>
+        <v>-3469700</v>
       </c>
       <c r="F35" s="3">
-        <v>-4194500</v>
+        <v>-3990700</v>
       </c>
       <c r="G35" s="3">
-        <v>2522200</v>
+        <v>2399600</v>
       </c>
       <c r="H35" s="3">
-        <v>2282200</v>
+        <v>2171300</v>
       </c>
       <c r="I35" s="3">
-        <v>1863300</v>
+        <v>1772700</v>
       </c>
       <c r="J35" s="3">
-        <v>-1549100</v>
+        <v>-1473800</v>
       </c>
       <c r="K35" s="3">
         <v>1820100</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2736000</v>
+        <v>2603100</v>
       </c>
       <c r="E41" s="3">
-        <v>2437100</v>
+        <v>2318700</v>
       </c>
       <c r="F41" s="3">
-        <v>2585500</v>
+        <v>2459800</v>
       </c>
       <c r="G41" s="3">
-        <v>4498900</v>
+        <v>4280300</v>
       </c>
       <c r="H41" s="3">
-        <v>4094200</v>
+        <v>3895200</v>
       </c>
       <c r="I41" s="3">
-        <v>3498500</v>
+        <v>3328500</v>
       </c>
       <c r="J41" s="3">
-        <v>5191600</v>
+        <v>4939400</v>
       </c>
       <c r="K41" s="3">
         <v>2495300</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7161800</v>
+        <v>6813800</v>
       </c>
       <c r="E42" s="3">
-        <v>4222900</v>
+        <v>4017700</v>
       </c>
       <c r="F42" s="3">
-        <v>3902200</v>
+        <v>3712600</v>
       </c>
       <c r="G42" s="3">
-        <v>2851600</v>
+        <v>2713100</v>
       </c>
       <c r="H42" s="3">
-        <v>1270900</v>
+        <v>1209200</v>
       </c>
       <c r="I42" s="3">
-        <v>3080700</v>
+        <v>2931000</v>
       </c>
       <c r="J42" s="3">
-        <v>1949500</v>
+        <v>1854700</v>
       </c>
       <c r="K42" s="3">
         <v>6146800</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7866600</v>
+        <v>7484300</v>
       </c>
       <c r="E43" s="3">
-        <v>4206500</v>
+        <v>4002100</v>
       </c>
       <c r="F43" s="3">
-        <v>6265100</v>
+        <v>5960700</v>
       </c>
       <c r="G43" s="3">
-        <v>6397100</v>
+        <v>6086200</v>
       </c>
       <c r="H43" s="3">
-        <v>6384000</v>
+        <v>6073800</v>
       </c>
       <c r="I43" s="3">
-        <v>6350200</v>
+        <v>6041600</v>
       </c>
       <c r="J43" s="3">
-        <v>14787300</v>
+        <v>14068700</v>
       </c>
       <c r="K43" s="3">
         <v>5851000</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5702200</v>
+        <v>5425100</v>
       </c>
       <c r="E44" s="3">
-        <v>3686200</v>
+        <v>3507100</v>
       </c>
       <c r="F44" s="3">
-        <v>5014900</v>
+        <v>4771200</v>
       </c>
       <c r="G44" s="3">
-        <v>4789100</v>
+        <v>4556400</v>
       </c>
       <c r="H44" s="3">
-        <v>4142200</v>
+        <v>3940900</v>
       </c>
       <c r="I44" s="3">
-        <v>3932700</v>
+        <v>3741600</v>
       </c>
       <c r="J44" s="3">
-        <v>6224700</v>
+        <v>5922300</v>
       </c>
       <c r="K44" s="3">
         <v>4438500</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1015600</v>
+        <v>966300</v>
       </c>
       <c r="E45" s="3">
-        <v>266200</v>
+        <v>253200</v>
       </c>
       <c r="F45" s="3">
-        <v>218200</v>
+        <v>207600</v>
       </c>
       <c r="G45" s="3">
-        <v>329500</v>
+        <v>313400</v>
       </c>
       <c r="H45" s="3">
-        <v>222500</v>
+        <v>211700</v>
       </c>
       <c r="I45" s="3">
-        <v>513800</v>
+        <v>488900</v>
       </c>
       <c r="J45" s="3">
-        <v>581500</v>
+        <v>553200</v>
       </c>
       <c r="K45" s="3">
         <v>309400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>24482200</v>
+        <v>23292600</v>
       </c>
       <c r="E46" s="3">
-        <v>14818900</v>
+        <v>14098800</v>
       </c>
       <c r="F46" s="3">
-        <v>17985800</v>
+        <v>17111900</v>
       </c>
       <c r="G46" s="3">
-        <v>18866200</v>
+        <v>17949400</v>
       </c>
       <c r="H46" s="3">
-        <v>16113800</v>
+        <v>15330800</v>
       </c>
       <c r="I46" s="3">
-        <v>17376000</v>
+        <v>16531700</v>
       </c>
       <c r="J46" s="3">
-        <v>13911300</v>
+        <v>13235300</v>
       </c>
       <c r="K46" s="3">
         <v>19241000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5384700</v>
+        <v>5123100</v>
       </c>
       <c r="E47" s="3">
-        <v>7483600</v>
+        <v>7120000</v>
       </c>
       <c r="F47" s="3">
-        <v>9132000</v>
+        <v>8688300</v>
       </c>
       <c r="G47" s="3">
-        <v>9087300</v>
+        <v>8645700</v>
       </c>
       <c r="H47" s="3">
-        <v>12336000</v>
+        <v>11736600</v>
       </c>
       <c r="I47" s="3">
-        <v>12414600</v>
+        <v>11811300</v>
       </c>
       <c r="J47" s="3">
-        <v>13653800</v>
+        <v>12990400</v>
       </c>
       <c r="K47" s="3">
         <v>13213900</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23701100</v>
+        <v>22549400</v>
       </c>
       <c r="E48" s="3">
-        <v>22829500</v>
+        <v>21720100</v>
       </c>
       <c r="F48" s="3">
-        <v>25321100</v>
+        <v>24090700</v>
       </c>
       <c r="G48" s="3">
-        <v>27817100</v>
+        <v>26465400</v>
       </c>
       <c r="H48" s="3">
-        <v>26909500</v>
+        <v>25601900</v>
       </c>
       <c r="I48" s="3">
-        <v>29850600</v>
+        <v>28400100</v>
       </c>
       <c r="J48" s="3">
-        <v>61560100</v>
+        <v>58568700</v>
       </c>
       <c r="K48" s="3">
         <v>19379900</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3814900</v>
+        <v>3629500</v>
       </c>
       <c r="E49" s="3">
-        <v>3657800</v>
+        <v>3480100</v>
       </c>
       <c r="F49" s="3">
-        <v>4876400</v>
+        <v>4639400</v>
       </c>
       <c r="G49" s="3">
-        <v>5559300</v>
+        <v>5289100</v>
       </c>
       <c r="H49" s="3">
-        <v>5000700</v>
+        <v>4757700</v>
       </c>
       <c r="I49" s="3">
-        <v>5573500</v>
+        <v>5302600</v>
       </c>
       <c r="J49" s="3">
-        <v>10442200</v>
+        <v>9934800</v>
       </c>
       <c r="K49" s="3">
         <v>2099000</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3985100</v>
+        <v>3791400</v>
       </c>
       <c r="E52" s="3">
-        <v>4994200</v>
+        <v>4751500</v>
       </c>
       <c r="F52" s="3">
-        <v>5842900</v>
+        <v>5559000</v>
       </c>
       <c r="G52" s="3">
-        <v>4973500</v>
+        <v>4731800</v>
       </c>
       <c r="H52" s="3">
-        <v>4938500</v>
+        <v>4698600</v>
       </c>
       <c r="I52" s="3">
-        <v>5529800</v>
+        <v>5261100</v>
       </c>
       <c r="J52" s="3">
-        <v>5649800</v>
+        <v>5375300</v>
       </c>
       <c r="K52" s="3">
         <v>4654200</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>61368100</v>
+        <v>58386000</v>
       </c>
       <c r="E54" s="3">
-        <v>53784000</v>
+        <v>51170500</v>
       </c>
       <c r="F54" s="3">
-        <v>63158200</v>
+        <v>60089200</v>
       </c>
       <c r="G54" s="3">
-        <v>66303300</v>
+        <v>63081500</v>
       </c>
       <c r="H54" s="3">
-        <v>65298600</v>
+        <v>62125600</v>
       </c>
       <c r="I54" s="3">
-        <v>70744400</v>
+        <v>67306800</v>
       </c>
       <c r="J54" s="3">
-        <v>68941100</v>
+        <v>65591100</v>
       </c>
       <c r="K54" s="3">
         <v>58587900</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6052400</v>
+        <v>5758300</v>
       </c>
       <c r="E57" s="3">
-        <v>2695600</v>
+        <v>2564700</v>
       </c>
       <c r="F57" s="3">
-        <v>3968700</v>
+        <v>3775900</v>
       </c>
       <c r="G57" s="3">
-        <v>3538900</v>
+        <v>3366900</v>
       </c>
       <c r="H57" s="3">
-        <v>2986900</v>
+        <v>2841800</v>
       </c>
       <c r="I57" s="3">
-        <v>2321500</v>
+        <v>2208700</v>
       </c>
       <c r="J57" s="3">
-        <v>1962500</v>
+        <v>1867200</v>
       </c>
       <c r="K57" s="3">
         <v>2653400</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4891600</v>
+        <v>4653900</v>
       </c>
       <c r="E58" s="3">
-        <v>3953500</v>
+        <v>3761300</v>
       </c>
       <c r="F58" s="3">
-        <v>7028700</v>
+        <v>6687200</v>
       </c>
       <c r="G58" s="3">
-        <v>4817500</v>
+        <v>4583400</v>
       </c>
       <c r="H58" s="3">
-        <v>4516400</v>
+        <v>4296900</v>
       </c>
       <c r="I58" s="3">
-        <v>4254500</v>
+        <v>4047800</v>
       </c>
       <c r="J58" s="3">
-        <v>4680000</v>
+        <v>4452600</v>
       </c>
       <c r="K58" s="3">
         <v>1684600</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7948400</v>
+        <v>7562100</v>
       </c>
       <c r="E59" s="3">
-        <v>4826200</v>
+        <v>4591700</v>
       </c>
       <c r="F59" s="3">
-        <v>5458900</v>
+        <v>5193700</v>
       </c>
       <c r="G59" s="3">
-        <v>5618200</v>
+        <v>5345200</v>
       </c>
       <c r="H59" s="3">
-        <v>5625800</v>
+        <v>5352500</v>
       </c>
       <c r="I59" s="3">
-        <v>9500700</v>
+        <v>9039100</v>
       </c>
       <c r="J59" s="3">
-        <v>23208000</v>
+        <v>22080300</v>
       </c>
       <c r="K59" s="3">
         <v>7227400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>18892400</v>
+        <v>17974400</v>
       </c>
       <c r="E60" s="3">
-        <v>11475300</v>
+        <v>10917700</v>
       </c>
       <c r="F60" s="3">
-        <v>16456400</v>
+        <v>15656700</v>
       </c>
       <c r="G60" s="3">
-        <v>13974600</v>
+        <v>13295500</v>
       </c>
       <c r="H60" s="3">
-        <v>13129100</v>
+        <v>12491100</v>
       </c>
       <c r="I60" s="3">
-        <v>16076700</v>
+        <v>15295500</v>
       </c>
       <c r="J60" s="3">
-        <v>15793100</v>
+        <v>15025700</v>
       </c>
       <c r="K60" s="3">
         <v>11565400</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10917800</v>
+        <v>10387300</v>
       </c>
       <c r="E61" s="3">
-        <v>13020000</v>
+        <v>12387300</v>
       </c>
       <c r="F61" s="3">
-        <v>11750200</v>
+        <v>11179200</v>
       </c>
       <c r="G61" s="3">
-        <v>11636700</v>
+        <v>11071300</v>
       </c>
       <c r="H61" s="3">
-        <v>9526900</v>
+        <v>9064000</v>
       </c>
       <c r="I61" s="3">
-        <v>11941100</v>
+        <v>11360900</v>
       </c>
       <c r="J61" s="3">
-        <v>13114900</v>
+        <v>12477600</v>
       </c>
       <c r="K61" s="3">
         <v>10091900</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6691600</v>
+        <v>6366500</v>
       </c>
       <c r="E62" s="3">
-        <v>6882600</v>
+        <v>6548100</v>
       </c>
       <c r="F62" s="3">
-        <v>7450900</v>
+        <v>7088900</v>
       </c>
       <c r="G62" s="3">
-        <v>6967600</v>
+        <v>6629100</v>
       </c>
       <c r="H62" s="3">
-        <v>9846600</v>
+        <v>9368100</v>
       </c>
       <c r="I62" s="3">
-        <v>8787300</v>
+        <v>8360300</v>
       </c>
       <c r="J62" s="3">
-        <v>15013100</v>
+        <v>14283600</v>
       </c>
       <c r="K62" s="3">
         <v>5141900</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>36916400</v>
+        <v>35122500</v>
       </c>
       <c r="E66" s="3">
-        <v>31644000</v>
+        <v>30106400</v>
       </c>
       <c r="F66" s="3">
-        <v>35964000</v>
+        <v>34216400</v>
       </c>
       <c r="G66" s="3">
-        <v>32890900</v>
+        <v>31292700</v>
       </c>
       <c r="H66" s="3">
-        <v>32797100</v>
+        <v>31203400</v>
       </c>
       <c r="I66" s="3">
-        <v>37071300</v>
+        <v>35269900</v>
       </c>
       <c r="J66" s="3">
-        <v>37813100</v>
+        <v>35975700</v>
       </c>
       <c r="K66" s="3">
         <v>27044200</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16490200</v>
+        <v>15688900</v>
       </c>
       <c r="E72" s="3">
-        <v>15016400</v>
+        <v>14286700</v>
       </c>
       <c r="F72" s="3">
-        <v>18149500</v>
+        <v>17267500</v>
       </c>
       <c r="G72" s="3">
-        <v>23789500</v>
+        <v>22633500</v>
       </c>
       <c r="H72" s="3">
-        <v>23164400</v>
+        <v>22038800</v>
       </c>
       <c r="I72" s="3">
-        <v>21316400</v>
+        <v>20280600</v>
       </c>
       <c r="J72" s="3">
-        <v>19858900</v>
+        <v>18893900</v>
       </c>
       <c r="K72" s="3">
         <v>22385500</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24451700</v>
+        <v>23263500</v>
       </c>
       <c r="E76" s="3">
-        <v>22140000</v>
+        <v>21064200</v>
       </c>
       <c r="F76" s="3">
-        <v>27194200</v>
+        <v>25872800</v>
       </c>
       <c r="G76" s="3">
-        <v>33412400</v>
+        <v>31788800</v>
       </c>
       <c r="H76" s="3">
-        <v>32501500</v>
+        <v>30922200</v>
       </c>
       <c r="I76" s="3">
-        <v>33673100</v>
+        <v>32036900</v>
       </c>
       <c r="J76" s="3">
-        <v>31128000</v>
+        <v>29615400</v>
       </c>
       <c r="K76" s="3">
         <v>31543700</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2660700</v>
+        <v>2531400</v>
       </c>
       <c r="E81" s="3">
-        <v>-3646900</v>
+        <v>-3469700</v>
       </c>
       <c r="F81" s="3">
-        <v>-4194500</v>
+        <v>-3990700</v>
       </c>
       <c r="G81" s="3">
-        <v>2522200</v>
+        <v>2399600</v>
       </c>
       <c r="H81" s="3">
-        <v>2282200</v>
+        <v>2171300</v>
       </c>
       <c r="I81" s="3">
-        <v>1863300</v>
+        <v>1772700</v>
       </c>
       <c r="J81" s="3">
-        <v>-1549100</v>
+        <v>-1473800</v>
       </c>
       <c r="K81" s="3">
         <v>1820100</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2186200</v>
+        <v>2080000</v>
       </c>
       <c r="E83" s="3">
-        <v>2407600</v>
+        <v>2290600</v>
       </c>
       <c r="F83" s="3">
-        <v>2655300</v>
+        <v>2526200</v>
       </c>
       <c r="G83" s="3">
-        <v>2334500</v>
+        <v>2221100</v>
       </c>
       <c r="H83" s="3">
-        <v>2617100</v>
+        <v>2489900</v>
       </c>
       <c r="I83" s="3">
-        <v>2758900</v>
+        <v>2624800</v>
       </c>
       <c r="J83" s="3">
-        <v>3408000</v>
+        <v>3242400</v>
       </c>
       <c r="K83" s="3">
         <v>2027900</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5102200</v>
+        <v>4854300</v>
       </c>
       <c r="E89" s="3">
-        <v>2986900</v>
+        <v>2841800</v>
       </c>
       <c r="F89" s="3">
-        <v>5289800</v>
+        <v>5032800</v>
       </c>
       <c r="G89" s="3">
-        <v>4995300</v>
+        <v>4752500</v>
       </c>
       <c r="H89" s="3">
-        <v>5577800</v>
+        <v>5306800</v>
       </c>
       <c r="I89" s="3">
-        <v>4243600</v>
+        <v>4037400</v>
       </c>
       <c r="J89" s="3">
-        <v>5384700</v>
+        <v>5123100</v>
       </c>
       <c r="K89" s="3">
         <v>3496800</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2074900</v>
+        <v>-1974100</v>
       </c>
       <c r="E91" s="3">
-        <v>-2057500</v>
+        <v>-1957500</v>
       </c>
       <c r="F91" s="3">
-        <v>-3520400</v>
+        <v>-3349300</v>
       </c>
       <c r="G91" s="3">
-        <v>-2902900</v>
+        <v>-2761900</v>
       </c>
       <c r="H91" s="3">
-        <v>-2509100</v>
+        <v>-2387200</v>
       </c>
       <c r="I91" s="3">
-        <v>-2185100</v>
+        <v>-2078900</v>
       </c>
       <c r="J91" s="3">
-        <v>-3262900</v>
+        <v>-3104400</v>
       </c>
       <c r="K91" s="3">
         <v>-2942400</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3199600</v>
+        <v>-3044200</v>
       </c>
       <c r="E94" s="3">
-        <v>242200</v>
+        <v>230400</v>
       </c>
       <c r="F94" s="3">
-        <v>-4807600</v>
+        <v>-4574000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1482500</v>
+        <v>-1410500</v>
       </c>
       <c r="H94" s="3">
-        <v>-3042500</v>
+        <v>-2894700</v>
       </c>
       <c r="I94" s="3">
-        <v>426500</v>
+        <v>405800</v>
       </c>
       <c r="J94" s="3">
-        <v>-9774600</v>
+        <v>-9299600</v>
       </c>
       <c r="K94" s="3">
         <v>1277000</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-681800</v>
+        <v>-648700</v>
       </c>
       <c r="E96" s="3">
-        <v>-377500</v>
+        <v>-359100</v>
       </c>
       <c r="F96" s="3">
-        <v>-432000</v>
+        <v>-411000</v>
       </c>
       <c r="G96" s="3">
-        <v>-324000</v>
+        <v>-308300</v>
       </c>
       <c r="H96" s="3">
-        <v>-362200</v>
+        <v>-344600</v>
       </c>
       <c r="I96" s="3">
-        <v>-458200</v>
+        <v>-435900</v>
       </c>
       <c r="J96" s="3">
-        <v>-532400</v>
+        <v>-506500</v>
       </c>
       <c r="K96" s="3">
         <v>-1933000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-577100</v>
+        <v>-549000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1761800</v>
+        <v>-1676200</v>
       </c>
       <c r="F100" s="3">
-        <v>-2497100</v>
+        <v>-2375800</v>
       </c>
       <c r="G100" s="3">
-        <v>-3307600</v>
+        <v>-3146900</v>
       </c>
       <c r="H100" s="3">
-        <v>-2575600</v>
+        <v>-2450500</v>
       </c>
       <c r="I100" s="3">
-        <v>-2239600</v>
+        <v>-2130800</v>
       </c>
       <c r="J100" s="3">
-        <v>1936400</v>
+        <v>1842300</v>
       </c>
       <c r="K100" s="3">
         <v>-6157000</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>64400</v>
+        <v>61200</v>
       </c>
       <c r="E101" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="F101" s="3">
-        <v>43600</v>
+        <v>41500</v>
       </c>
       <c r="G101" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="H101" s="3">
-        <v>-53500</v>
+        <v>-50900</v>
       </c>
       <c r="I101" s="3">
-        <v>12000</v>
+        <v>11400</v>
       </c>
       <c r="J101" s="3">
-        <v>64400</v>
+        <v>61200</v>
       </c>
       <c r="K101" s="3">
         <v>166000</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1389800</v>
+        <v>1322300</v>
       </c>
       <c r="E102" s="3">
-        <v>1464000</v>
+        <v>1392900</v>
       </c>
       <c r="F102" s="3">
-        <v>-1971300</v>
+        <v>-1875500</v>
       </c>
       <c r="G102" s="3">
-        <v>201800</v>
+        <v>192000</v>
       </c>
       <c r="H102" s="3">
-        <v>-93800</v>
+        <v>-89300</v>
       </c>
       <c r="I102" s="3">
-        <v>2442500</v>
+        <v>2323900</v>
       </c>
       <c r="J102" s="3">
-        <v>-2389100</v>
+        <v>-2273000</v>
       </c>
       <c r="K102" s="3">
         <v>-1217200</v>

--- a/AAII_Financials/Yearly/REPYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/REPYY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>51630300</v>
+        <v>49615700</v>
       </c>
       <c r="E8" s="3">
-        <v>34543400</v>
+        <v>33195500</v>
       </c>
       <c r="F8" s="3">
-        <v>51197500</v>
+        <v>49199700</v>
       </c>
       <c r="G8" s="3">
-        <v>51763200</v>
+        <v>49743300</v>
       </c>
       <c r="H8" s="3">
-        <v>43247200</v>
+        <v>41559700</v>
       </c>
       <c r="I8" s="3">
-        <v>36003700</v>
+        <v>34598800</v>
       </c>
       <c r="J8" s="3">
-        <v>41243000</v>
+        <v>39633700</v>
       </c>
       <c r="K8" s="3">
         <v>51760200</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>38877700</v>
+        <v>37360600</v>
       </c>
       <c r="E9" s="3">
-        <v>27001000</v>
+        <v>25947400</v>
       </c>
       <c r="F9" s="3">
-        <v>39108100</v>
+        <v>37582000</v>
       </c>
       <c r="G9" s="3">
-        <v>40130400</v>
+        <v>38564500</v>
       </c>
       <c r="H9" s="3">
-        <v>32057600</v>
+        <v>30806700</v>
       </c>
       <c r="I9" s="3">
-        <v>24376100</v>
+        <v>23424900</v>
       </c>
       <c r="J9" s="3">
-        <v>34648200</v>
+        <v>33296200</v>
       </c>
       <c r="K9" s="3">
         <v>46852000</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12752700</v>
+        <v>12255100</v>
       </c>
       <c r="E10" s="3">
-        <v>7542400</v>
+        <v>7248100</v>
       </c>
       <c r="F10" s="3">
-        <v>12089500</v>
+        <v>11617700</v>
       </c>
       <c r="G10" s="3">
-        <v>11632800</v>
+        <v>11178900</v>
       </c>
       <c r="H10" s="3">
-        <v>11189600</v>
+        <v>10753000</v>
       </c>
       <c r="I10" s="3">
-        <v>11627600</v>
+        <v>11173900</v>
       </c>
       <c r="J10" s="3">
-        <v>6594800</v>
+        <v>6337500</v>
       </c>
       <c r="K10" s="3">
         <v>4908200</v>
@@ -857,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>84100</v>
+        <v>80800</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>8</v>
@@ -866,16 +866,16 @@
         <v>8</v>
       </c>
       <c r="G12" s="3">
-        <v>544900</v>
+        <v>523600</v>
       </c>
       <c r="H12" s="3">
-        <v>679800</v>
+        <v>653300</v>
       </c>
       <c r="I12" s="3">
-        <v>349800</v>
+        <v>336100</v>
       </c>
       <c r="J12" s="3">
-        <v>1634700</v>
+        <v>1570900</v>
       </c>
       <c r="K12" s="3">
         <v>449400</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>456700</v>
+        <v>438900</v>
       </c>
       <c r="E14" s="3">
-        <v>1988600</v>
+        <v>1911000</v>
       </c>
       <c r="F14" s="3">
-        <v>5506100</v>
+        <v>5291200</v>
       </c>
       <c r="G14" s="3">
-        <v>1159300</v>
+        <v>1114100</v>
       </c>
       <c r="H14" s="3">
-        <v>-1289100</v>
+        <v>-1238800</v>
       </c>
       <c r="I14" s="3">
-        <v>-896700</v>
+        <v>-861800</v>
       </c>
       <c r="J14" s="3">
-        <v>2342500</v>
+        <v>2251100</v>
       </c>
       <c r="K14" s="3">
         <v>-110700</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2080000</v>
+        <v>1998800</v>
       </c>
       <c r="E15" s="3">
-        <v>2290600</v>
+        <v>2201300</v>
       </c>
       <c r="F15" s="3">
-        <v>2526200</v>
+        <v>2427700</v>
       </c>
       <c r="G15" s="3">
-        <v>1985500</v>
+        <v>1908000</v>
       </c>
       <c r="H15" s="3">
-        <v>2306200</v>
+        <v>2216200</v>
       </c>
       <c r="I15" s="3">
-        <v>2374700</v>
+        <v>2282100</v>
       </c>
       <c r="J15" s="3">
-        <v>2419300</v>
+        <v>2324900</v>
       </c>
       <c r="K15" s="3">
         <v>1578500</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>47702900</v>
+        <v>45841500</v>
       </c>
       <c r="E17" s="3">
-        <v>37135000</v>
+        <v>35686000</v>
       </c>
       <c r="F17" s="3">
-        <v>54565500</v>
+        <v>52436300</v>
       </c>
       <c r="G17" s="3">
-        <v>49601200</v>
+        <v>47665700</v>
       </c>
       <c r="H17" s="3">
-        <v>40353600</v>
+        <v>38778900</v>
       </c>
       <c r="I17" s="3">
-        <v>33970500</v>
+        <v>32644900</v>
       </c>
       <c r="J17" s="3">
-        <v>43893800</v>
+        <v>42181000</v>
       </c>
       <c r="K17" s="3">
         <v>51255500</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3927400</v>
+        <v>3774200</v>
       </c>
       <c r="E18" s="3">
-        <v>-2591600</v>
+        <v>-2490500</v>
       </c>
       <c r="F18" s="3">
-        <v>-3368000</v>
+        <v>-3236600</v>
       </c>
       <c r="G18" s="3">
-        <v>2161900</v>
+        <v>2077600</v>
       </c>
       <c r="H18" s="3">
-        <v>2893700</v>
+        <v>2780800</v>
       </c>
       <c r="I18" s="3">
-        <v>2033200</v>
+        <v>1953900</v>
       </c>
       <c r="J18" s="3">
-        <v>-2650800</v>
+        <v>-2547400</v>
       </c>
       <c r="K18" s="3">
         <v>504700</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>664300</v>
+        <v>638300</v>
       </c>
       <c r="E20" s="3">
-        <v>-719300</v>
+        <v>-691200</v>
       </c>
       <c r="F20" s="3">
-        <v>156700</v>
+        <v>150600</v>
       </c>
       <c r="G20" s="3">
-        <v>1360700</v>
+        <v>1307600</v>
       </c>
       <c r="H20" s="3">
-        <v>816800</v>
+        <v>785000</v>
       </c>
       <c r="I20" s="3">
-        <v>430700</v>
+        <v>413900</v>
       </c>
       <c r="J20" s="3">
-        <v>755600</v>
+        <v>726100</v>
       </c>
       <c r="K20" s="3">
         <v>1280400</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6698100</v>
+        <v>6409500</v>
       </c>
       <c r="E21" s="3">
-        <v>-991100</v>
+        <v>-982400</v>
       </c>
       <c r="F21" s="3">
-        <v>-652900</v>
+        <v>-660500</v>
       </c>
       <c r="G21" s="3">
-        <v>5772000</v>
+        <v>5517700</v>
       </c>
       <c r="H21" s="3">
-        <v>6232100</v>
+        <v>5956300</v>
       </c>
       <c r="I21" s="3">
-        <v>5122200</v>
+        <v>4888000</v>
       </c>
       <c r="J21" s="3">
-        <v>1388400</v>
+        <v>1291800</v>
       </c>
       <c r="K21" s="3">
         <v>3817600</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>98600</v>
+        <v>94800</v>
       </c>
       <c r="E22" s="3">
-        <v>118300</v>
+        <v>113700</v>
       </c>
       <c r="F22" s="3">
-        <v>111100</v>
+        <v>106700</v>
       </c>
       <c r="G22" s="3">
-        <v>63300</v>
+        <v>60800</v>
       </c>
       <c r="H22" s="3">
-        <v>485700</v>
+        <v>466800</v>
       </c>
       <c r="I22" s="3">
-        <v>522100</v>
+        <v>501700</v>
       </c>
       <c r="J22" s="3">
-        <v>545900</v>
+        <v>524600</v>
       </c>
       <c r="K22" s="3">
         <v>518300</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4493100</v>
+        <v>4317700</v>
       </c>
       <c r="E23" s="3">
-        <v>-3429200</v>
+        <v>-3295400</v>
       </c>
       <c r="F23" s="3">
-        <v>-3322300</v>
+        <v>-3192700</v>
       </c>
       <c r="G23" s="3">
-        <v>3459300</v>
+        <v>3324300</v>
       </c>
       <c r="H23" s="3">
-        <v>3224800</v>
+        <v>3098900</v>
       </c>
       <c r="I23" s="3">
-        <v>1941900</v>
+        <v>1866100</v>
       </c>
       <c r="J23" s="3">
-        <v>-2441100</v>
+        <v>-2345900</v>
       </c>
       <c r="K23" s="3">
         <v>1266900</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1869300</v>
+        <v>1796300</v>
       </c>
       <c r="E24" s="3">
-        <v>16600</v>
+        <v>16000</v>
       </c>
       <c r="F24" s="3">
-        <v>610300</v>
+        <v>586500</v>
       </c>
       <c r="G24" s="3">
-        <v>1438500</v>
+        <v>1382400</v>
       </c>
       <c r="H24" s="3">
-        <v>1266200</v>
+        <v>1216800</v>
       </c>
       <c r="I24" s="3">
-        <v>405800</v>
+        <v>390000</v>
       </c>
       <c r="J24" s="3">
-        <v>-1033700</v>
+        <v>-993400</v>
       </c>
       <c r="K24" s="3">
         <v>164800</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2623800</v>
+        <v>2521400</v>
       </c>
       <c r="E26" s="3">
-        <v>-3445800</v>
+        <v>-3311400</v>
       </c>
       <c r="F26" s="3">
-        <v>-3932600</v>
+        <v>-3779100</v>
       </c>
       <c r="G26" s="3">
-        <v>2020800</v>
+        <v>1941900</v>
       </c>
       <c r="H26" s="3">
-        <v>1958500</v>
+        <v>1882100</v>
       </c>
       <c r="I26" s="3">
-        <v>1536100</v>
+        <v>1476200</v>
       </c>
       <c r="J26" s="3">
-        <v>-1407400</v>
+        <v>-1352500</v>
       </c>
       <c r="K26" s="3">
         <v>1102000</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2531400</v>
+        <v>2432700</v>
       </c>
       <c r="E27" s="3">
-        <v>-3469700</v>
+        <v>-3334300</v>
       </c>
       <c r="F27" s="3">
-        <v>-3990700</v>
+        <v>-3835000</v>
       </c>
       <c r="G27" s="3">
-        <v>1972000</v>
+        <v>1895100</v>
       </c>
       <c r="H27" s="3">
-        <v>1886900</v>
+        <v>1813300</v>
       </c>
       <c r="I27" s="3">
-        <v>1462400</v>
+        <v>1405300</v>
       </c>
       <c r="J27" s="3">
-        <v>-1473800</v>
+        <v>-1416300</v>
       </c>
       <c r="K27" s="3">
         <v>1146000</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>427600</v>
+        <v>410900</v>
       </c>
       <c r="H29" s="3">
-        <v>284400</v>
+        <v>273300</v>
       </c>
       <c r="I29" s="3">
-        <v>310300</v>
+        <v>298200</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-664300</v>
+        <v>-638300</v>
       </c>
       <c r="E32" s="3">
-        <v>719300</v>
+        <v>691200</v>
       </c>
       <c r="F32" s="3">
-        <v>-156700</v>
+        <v>-150600</v>
       </c>
       <c r="G32" s="3">
-        <v>-1360700</v>
+        <v>-1307600</v>
       </c>
       <c r="H32" s="3">
-        <v>-816800</v>
+        <v>-785000</v>
       </c>
       <c r="I32" s="3">
-        <v>-430700</v>
+        <v>-413900</v>
       </c>
       <c r="J32" s="3">
-        <v>-755600</v>
+        <v>-726100</v>
       </c>
       <c r="K32" s="3">
         <v>-1280400</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2531400</v>
+        <v>2432700</v>
       </c>
       <c r="E33" s="3">
-        <v>-3469700</v>
+        <v>-3334300</v>
       </c>
       <c r="F33" s="3">
-        <v>-3990700</v>
+        <v>-3835000</v>
       </c>
       <c r="G33" s="3">
-        <v>2399600</v>
+        <v>2306000</v>
       </c>
       <c r="H33" s="3">
-        <v>2171300</v>
+        <v>2086600</v>
       </c>
       <c r="I33" s="3">
-        <v>1772700</v>
+        <v>1703600</v>
       </c>
       <c r="J33" s="3">
-        <v>-1473800</v>
+        <v>-1416300</v>
       </c>
       <c r="K33" s="3">
         <v>1820100</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2531400</v>
+        <v>2432700</v>
       </c>
       <c r="E35" s="3">
-        <v>-3469700</v>
+        <v>-3334300</v>
       </c>
       <c r="F35" s="3">
-        <v>-3990700</v>
+        <v>-3835000</v>
       </c>
       <c r="G35" s="3">
-        <v>2399600</v>
+        <v>2306000</v>
       </c>
       <c r="H35" s="3">
-        <v>2171300</v>
+        <v>2086600</v>
       </c>
       <c r="I35" s="3">
-        <v>1772700</v>
+        <v>1703600</v>
       </c>
       <c r="J35" s="3">
-        <v>-1473800</v>
+        <v>-1416300</v>
       </c>
       <c r="K35" s="3">
         <v>1820100</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2603100</v>
+        <v>2501500</v>
       </c>
       <c r="E41" s="3">
-        <v>2318700</v>
+        <v>2228200</v>
       </c>
       <c r="F41" s="3">
-        <v>2459800</v>
+        <v>2363800</v>
       </c>
       <c r="G41" s="3">
-        <v>4280300</v>
+        <v>4113300</v>
       </c>
       <c r="H41" s="3">
-        <v>3895200</v>
+        <v>3743200</v>
       </c>
       <c r="I41" s="3">
-        <v>3328500</v>
+        <v>3198700</v>
       </c>
       <c r="J41" s="3">
-        <v>4939400</v>
+        <v>4746600</v>
       </c>
       <c r="K41" s="3">
         <v>2495300</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6813800</v>
+        <v>6547900</v>
       </c>
       <c r="E42" s="3">
-        <v>4017700</v>
+        <v>3860900</v>
       </c>
       <c r="F42" s="3">
-        <v>3712600</v>
+        <v>3567700</v>
       </c>
       <c r="G42" s="3">
-        <v>2713100</v>
+        <v>2607200</v>
       </c>
       <c r="H42" s="3">
-        <v>1209200</v>
+        <v>1162000</v>
       </c>
       <c r="I42" s="3">
-        <v>2931000</v>
+        <v>2816700</v>
       </c>
       <c r="J42" s="3">
-        <v>1854700</v>
+        <v>1782400</v>
       </c>
       <c r="K42" s="3">
         <v>6146800</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7484300</v>
+        <v>7192300</v>
       </c>
       <c r="E43" s="3">
-        <v>4002100</v>
+        <v>3846000</v>
       </c>
       <c r="F43" s="3">
-        <v>5960700</v>
+        <v>5728100</v>
       </c>
       <c r="G43" s="3">
-        <v>6086200</v>
+        <v>5848800</v>
       </c>
       <c r="H43" s="3">
-        <v>6073800</v>
+        <v>5836800</v>
       </c>
       <c r="I43" s="3">
-        <v>6041600</v>
+        <v>5805900</v>
       </c>
       <c r="J43" s="3">
-        <v>14068700</v>
+        <v>13519800</v>
       </c>
       <c r="K43" s="3">
         <v>5851000</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5425100</v>
+        <v>5213400</v>
       </c>
       <c r="E44" s="3">
-        <v>3507100</v>
+        <v>3370200</v>
       </c>
       <c r="F44" s="3">
-        <v>4771200</v>
+        <v>4585000</v>
       </c>
       <c r="G44" s="3">
-        <v>4556400</v>
+        <v>4378600</v>
       </c>
       <c r="H44" s="3">
-        <v>3940900</v>
+        <v>3787100</v>
       </c>
       <c r="I44" s="3">
-        <v>3741600</v>
+        <v>3595600</v>
       </c>
       <c r="J44" s="3">
-        <v>5922300</v>
+        <v>5691200</v>
       </c>
       <c r="K44" s="3">
         <v>4438500</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>966300</v>
+        <v>928600</v>
       </c>
       <c r="E45" s="3">
-        <v>253200</v>
+        <v>243400</v>
       </c>
       <c r="F45" s="3">
-        <v>207600</v>
+        <v>199500</v>
       </c>
       <c r="G45" s="3">
-        <v>313400</v>
+        <v>301200</v>
       </c>
       <c r="H45" s="3">
-        <v>211700</v>
+        <v>203500</v>
       </c>
       <c r="I45" s="3">
-        <v>488900</v>
+        <v>469800</v>
       </c>
       <c r="J45" s="3">
-        <v>553200</v>
+        <v>531600</v>
       </c>
       <c r="K45" s="3">
         <v>309400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>23292600</v>
+        <v>22383700</v>
       </c>
       <c r="E46" s="3">
-        <v>14098800</v>
+        <v>13548700</v>
       </c>
       <c r="F46" s="3">
-        <v>17111900</v>
+        <v>16444100</v>
       </c>
       <c r="G46" s="3">
-        <v>17949400</v>
+        <v>17249000</v>
       </c>
       <c r="H46" s="3">
-        <v>15330800</v>
+        <v>14732600</v>
       </c>
       <c r="I46" s="3">
-        <v>16531700</v>
+        <v>15886600</v>
       </c>
       <c r="J46" s="3">
-        <v>13235300</v>
+        <v>12718800</v>
       </c>
       <c r="K46" s="3">
         <v>19241000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5123100</v>
+        <v>4923200</v>
       </c>
       <c r="E47" s="3">
-        <v>7120000</v>
+        <v>6842200</v>
       </c>
       <c r="F47" s="3">
-        <v>8688300</v>
+        <v>8349200</v>
       </c>
       <c r="G47" s="3">
-        <v>8645700</v>
+        <v>8308300</v>
       </c>
       <c r="H47" s="3">
-        <v>11736600</v>
+        <v>11278600</v>
       </c>
       <c r="I47" s="3">
-        <v>11811300</v>
+        <v>11350400</v>
       </c>
       <c r="J47" s="3">
-        <v>12990400</v>
+        <v>12483500</v>
       </c>
       <c r="K47" s="3">
         <v>13213900</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22549400</v>
+        <v>21669500</v>
       </c>
       <c r="E48" s="3">
-        <v>21720100</v>
+        <v>20872600</v>
       </c>
       <c r="F48" s="3">
-        <v>24090700</v>
+        <v>23150700</v>
       </c>
       <c r="G48" s="3">
-        <v>26465400</v>
+        <v>25432700</v>
       </c>
       <c r="H48" s="3">
-        <v>25601900</v>
+        <v>24602900</v>
       </c>
       <c r="I48" s="3">
-        <v>28400100</v>
+        <v>27291900</v>
       </c>
       <c r="J48" s="3">
-        <v>58568700</v>
+        <v>56283300</v>
       </c>
       <c r="K48" s="3">
         <v>19379900</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3629500</v>
+        <v>3487900</v>
       </c>
       <c r="E49" s="3">
-        <v>3480100</v>
+        <v>3344300</v>
       </c>
       <c r="F49" s="3">
-        <v>4639400</v>
+        <v>4458400</v>
       </c>
       <c r="G49" s="3">
-        <v>5289100</v>
+        <v>5082800</v>
       </c>
       <c r="H49" s="3">
-        <v>4757700</v>
+        <v>4572100</v>
       </c>
       <c r="I49" s="3">
-        <v>5302600</v>
+        <v>5095700</v>
       </c>
       <c r="J49" s="3">
-        <v>9934800</v>
+        <v>9547100</v>
       </c>
       <c r="K49" s="3">
         <v>2099000</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3791400</v>
+        <v>3643500</v>
       </c>
       <c r="E52" s="3">
-        <v>4751500</v>
+        <v>4566100</v>
       </c>
       <c r="F52" s="3">
-        <v>5559000</v>
+        <v>5342100</v>
       </c>
       <c r="G52" s="3">
-        <v>4731800</v>
+        <v>4547100</v>
       </c>
       <c r="H52" s="3">
-        <v>4698600</v>
+        <v>4515200</v>
       </c>
       <c r="I52" s="3">
-        <v>5261100</v>
+        <v>5055800</v>
       </c>
       <c r="J52" s="3">
-        <v>5375300</v>
+        <v>5165500</v>
       </c>
       <c r="K52" s="3">
         <v>4654200</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>58386000</v>
+        <v>56107700</v>
       </c>
       <c r="E54" s="3">
-        <v>51170500</v>
+        <v>49173800</v>
       </c>
       <c r="F54" s="3">
-        <v>60089200</v>
+        <v>57744500</v>
       </c>
       <c r="G54" s="3">
-        <v>63081500</v>
+        <v>60620000</v>
       </c>
       <c r="H54" s="3">
-        <v>62125600</v>
+        <v>59701400</v>
       </c>
       <c r="I54" s="3">
-        <v>67306800</v>
+        <v>64680400</v>
       </c>
       <c r="J54" s="3">
-        <v>65591100</v>
+        <v>63031700</v>
       </c>
       <c r="K54" s="3">
         <v>58587900</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5758300</v>
+        <v>5533600</v>
       </c>
       <c r="E57" s="3">
-        <v>2564700</v>
+        <v>2464600</v>
       </c>
       <c r="F57" s="3">
-        <v>3775900</v>
+        <v>3628500</v>
       </c>
       <c r="G57" s="3">
-        <v>3366900</v>
+        <v>3235600</v>
       </c>
       <c r="H57" s="3">
-        <v>2841800</v>
+        <v>2730900</v>
       </c>
       <c r="I57" s="3">
-        <v>2208700</v>
+        <v>2122500</v>
       </c>
       <c r="J57" s="3">
-        <v>1867200</v>
+        <v>1794300</v>
       </c>
       <c r="K57" s="3">
         <v>2653400</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4653900</v>
+        <v>4472300</v>
       </c>
       <c r="E58" s="3">
-        <v>3761300</v>
+        <v>3614600</v>
       </c>
       <c r="F58" s="3">
-        <v>6687200</v>
+        <v>6426200</v>
       </c>
       <c r="G58" s="3">
-        <v>4583400</v>
+        <v>4404500</v>
       </c>
       <c r="H58" s="3">
-        <v>4296900</v>
+        <v>4129200</v>
       </c>
       <c r="I58" s="3">
-        <v>4047800</v>
+        <v>3889900</v>
       </c>
       <c r="J58" s="3">
-        <v>4452600</v>
+        <v>4278800</v>
       </c>
       <c r="K58" s="3">
         <v>1684600</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7562100</v>
+        <v>7267100</v>
       </c>
       <c r="E59" s="3">
-        <v>4591700</v>
+        <v>4412500</v>
       </c>
       <c r="F59" s="3">
-        <v>5193700</v>
+        <v>4991000</v>
       </c>
       <c r="G59" s="3">
-        <v>5345200</v>
+        <v>5136600</v>
       </c>
       <c r="H59" s="3">
-        <v>5352500</v>
+        <v>5143600</v>
       </c>
       <c r="I59" s="3">
-        <v>9039100</v>
+        <v>8686400</v>
       </c>
       <c r="J59" s="3">
-        <v>22080300</v>
+        <v>21218700</v>
       </c>
       <c r="K59" s="3">
         <v>7227400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17974400</v>
+        <v>17273000</v>
       </c>
       <c r="E60" s="3">
-        <v>10917700</v>
+        <v>10491700</v>
       </c>
       <c r="F60" s="3">
-        <v>15656700</v>
+        <v>15045800</v>
       </c>
       <c r="G60" s="3">
-        <v>13295500</v>
+        <v>12776700</v>
       </c>
       <c r="H60" s="3">
-        <v>12491100</v>
+        <v>12003700</v>
       </c>
       <c r="I60" s="3">
-        <v>15295500</v>
+        <v>14698700</v>
       </c>
       <c r="J60" s="3">
-        <v>15025700</v>
+        <v>14439400</v>
       </c>
       <c r="K60" s="3">
         <v>11565400</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10387300</v>
+        <v>9982000</v>
       </c>
       <c r="E61" s="3">
-        <v>12387300</v>
+        <v>11904000</v>
       </c>
       <c r="F61" s="3">
-        <v>11179200</v>
+        <v>10743000</v>
       </c>
       <c r="G61" s="3">
-        <v>11071300</v>
+        <v>10639300</v>
       </c>
       <c r="H61" s="3">
-        <v>9064000</v>
+        <v>8710300</v>
       </c>
       <c r="I61" s="3">
-        <v>11360900</v>
+        <v>10917500</v>
       </c>
       <c r="J61" s="3">
-        <v>12477600</v>
+        <v>11990700</v>
       </c>
       <c r="K61" s="3">
         <v>10091900</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6366500</v>
+        <v>6118100</v>
       </c>
       <c r="E62" s="3">
-        <v>6548100</v>
+        <v>6292600</v>
       </c>
       <c r="F62" s="3">
-        <v>7088900</v>
+        <v>6812200</v>
       </c>
       <c r="G62" s="3">
-        <v>6629100</v>
+        <v>6370400</v>
       </c>
       <c r="H62" s="3">
-        <v>9368100</v>
+        <v>9002500</v>
       </c>
       <c r="I62" s="3">
-        <v>8360300</v>
+        <v>8034100</v>
       </c>
       <c r="J62" s="3">
-        <v>14283600</v>
+        <v>13726200</v>
       </c>
       <c r="K62" s="3">
         <v>5141900</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35122500</v>
+        <v>33752000</v>
       </c>
       <c r="E66" s="3">
-        <v>30106400</v>
+        <v>28931600</v>
       </c>
       <c r="F66" s="3">
-        <v>34216400</v>
+        <v>32881300</v>
       </c>
       <c r="G66" s="3">
-        <v>31292700</v>
+        <v>30071600</v>
       </c>
       <c r="H66" s="3">
-        <v>31203400</v>
+        <v>29985800</v>
       </c>
       <c r="I66" s="3">
-        <v>35269900</v>
+        <v>33893600</v>
       </c>
       <c r="J66" s="3">
-        <v>35975700</v>
+        <v>34571900</v>
       </c>
       <c r="K66" s="3">
         <v>27044200</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15688900</v>
+        <v>15076700</v>
       </c>
       <c r="E72" s="3">
-        <v>14286700</v>
+        <v>13729200</v>
       </c>
       <c r="F72" s="3">
-        <v>17267500</v>
+        <v>16593700</v>
       </c>
       <c r="G72" s="3">
-        <v>22633500</v>
+        <v>21750300</v>
       </c>
       <c r="H72" s="3">
-        <v>22038800</v>
+        <v>21178800</v>
       </c>
       <c r="I72" s="3">
-        <v>20280600</v>
+        <v>19489200</v>
       </c>
       <c r="J72" s="3">
-        <v>18893900</v>
+        <v>18156700</v>
       </c>
       <c r="K72" s="3">
         <v>22385500</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>23263500</v>
+        <v>22355700</v>
       </c>
       <c r="E76" s="3">
-        <v>21064200</v>
+        <v>20242200</v>
       </c>
       <c r="F76" s="3">
-        <v>25872800</v>
+        <v>24863200</v>
       </c>
       <c r="G76" s="3">
-        <v>31788800</v>
+        <v>30548400</v>
       </c>
       <c r="H76" s="3">
-        <v>30922200</v>
+        <v>29715500</v>
       </c>
       <c r="I76" s="3">
-        <v>32036900</v>
+        <v>30786700</v>
       </c>
       <c r="J76" s="3">
-        <v>29615400</v>
+        <v>28459800</v>
       </c>
       <c r="K76" s="3">
         <v>31543700</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2531400</v>
+        <v>2432700</v>
       </c>
       <c r="E81" s="3">
-        <v>-3469700</v>
+        <v>-3334300</v>
       </c>
       <c r="F81" s="3">
-        <v>-3990700</v>
+        <v>-3835000</v>
       </c>
       <c r="G81" s="3">
-        <v>2399600</v>
+        <v>2306000</v>
       </c>
       <c r="H81" s="3">
-        <v>2171300</v>
+        <v>2086600</v>
       </c>
       <c r="I81" s="3">
-        <v>1772700</v>
+        <v>1703600</v>
       </c>
       <c r="J81" s="3">
-        <v>-1473800</v>
+        <v>-1416300</v>
       </c>
       <c r="K81" s="3">
         <v>1820100</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2080000</v>
+        <v>1998800</v>
       </c>
       <c r="E83" s="3">
-        <v>2290600</v>
+        <v>2201300</v>
       </c>
       <c r="F83" s="3">
-        <v>2526200</v>
+        <v>2427700</v>
       </c>
       <c r="G83" s="3">
-        <v>2221100</v>
+        <v>2134400</v>
       </c>
       <c r="H83" s="3">
-        <v>2489900</v>
+        <v>2392800</v>
       </c>
       <c r="I83" s="3">
-        <v>2624800</v>
+        <v>2522400</v>
       </c>
       <c r="J83" s="3">
-        <v>3242400</v>
+        <v>3115900</v>
       </c>
       <c r="K83" s="3">
         <v>2027900</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4854300</v>
+        <v>4664800</v>
       </c>
       <c r="E89" s="3">
-        <v>2841800</v>
+        <v>2730900</v>
       </c>
       <c r="F89" s="3">
-        <v>5032800</v>
+        <v>4836400</v>
       </c>
       <c r="G89" s="3">
-        <v>4752500</v>
+        <v>4567100</v>
       </c>
       <c r="H89" s="3">
-        <v>5306800</v>
+        <v>5099700</v>
       </c>
       <c r="I89" s="3">
-        <v>4037400</v>
+        <v>3879900</v>
       </c>
       <c r="J89" s="3">
-        <v>5123100</v>
+        <v>4923200</v>
       </c>
       <c r="K89" s="3">
         <v>3496800</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1974100</v>
+        <v>-1897100</v>
       </c>
       <c r="E91" s="3">
-        <v>-1957500</v>
+        <v>-1881100</v>
       </c>
       <c r="F91" s="3">
-        <v>-3349300</v>
+        <v>-3218600</v>
       </c>
       <c r="G91" s="3">
-        <v>-2761900</v>
+        <v>-2654100</v>
       </c>
       <c r="H91" s="3">
-        <v>-2387200</v>
+        <v>-2294000</v>
       </c>
       <c r="I91" s="3">
-        <v>-2078900</v>
+        <v>-1997800</v>
       </c>
       <c r="J91" s="3">
-        <v>-3104400</v>
+        <v>-2983200</v>
       </c>
       <c r="K91" s="3">
         <v>-2942400</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3044200</v>
+        <v>-2925400</v>
       </c>
       <c r="E94" s="3">
-        <v>230400</v>
+        <v>221400</v>
       </c>
       <c r="F94" s="3">
-        <v>-4574000</v>
+        <v>-4395500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1410500</v>
+        <v>-1355500</v>
       </c>
       <c r="H94" s="3">
-        <v>-2894700</v>
+        <v>-2781700</v>
       </c>
       <c r="I94" s="3">
-        <v>405800</v>
+        <v>390000</v>
       </c>
       <c r="J94" s="3">
-        <v>-9299600</v>
+        <v>-8936700</v>
       </c>
       <c r="K94" s="3">
         <v>1277000</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-648700</v>
+        <v>-623400</v>
       </c>
       <c r="E96" s="3">
-        <v>-359100</v>
+        <v>-345100</v>
       </c>
       <c r="F96" s="3">
-        <v>-411000</v>
+        <v>-395000</v>
       </c>
       <c r="G96" s="3">
-        <v>-308300</v>
+        <v>-296200</v>
       </c>
       <c r="H96" s="3">
-        <v>-344600</v>
+        <v>-331100</v>
       </c>
       <c r="I96" s="3">
-        <v>-435900</v>
+        <v>-418900</v>
       </c>
       <c r="J96" s="3">
-        <v>-506500</v>
+        <v>-486700</v>
       </c>
       <c r="K96" s="3">
         <v>-1933000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-549000</v>
+        <v>-527600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1676200</v>
+        <v>-1610800</v>
       </c>
       <c r="F100" s="3">
-        <v>-2375800</v>
+        <v>-2283000</v>
       </c>
       <c r="G100" s="3">
-        <v>-3146900</v>
+        <v>-3024100</v>
       </c>
       <c r="H100" s="3">
-        <v>-2450500</v>
+        <v>-2354900</v>
       </c>
       <c r="I100" s="3">
-        <v>-2130800</v>
+        <v>-2047700</v>
       </c>
       <c r="J100" s="3">
-        <v>1842300</v>
+        <v>1770400</v>
       </c>
       <c r="K100" s="3">
         <v>-6157000</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>61200</v>
+        <v>58800</v>
       </c>
       <c r="E101" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="F101" s="3">
-        <v>41500</v>
+        <v>39900</v>
       </c>
       <c r="G101" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="H101" s="3">
-        <v>-50900</v>
+        <v>-48900</v>
       </c>
       <c r="I101" s="3">
-        <v>11400</v>
+        <v>11000</v>
       </c>
       <c r="J101" s="3">
-        <v>61200</v>
+        <v>58800</v>
       </c>
       <c r="K101" s="3">
         <v>166000</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1322300</v>
+        <v>1270700</v>
       </c>
       <c r="E102" s="3">
-        <v>1392900</v>
+        <v>1338500</v>
       </c>
       <c r="F102" s="3">
-        <v>-1875500</v>
+        <v>-1802300</v>
       </c>
       <c r="G102" s="3">
-        <v>192000</v>
+        <v>184500</v>
       </c>
       <c r="H102" s="3">
-        <v>-89300</v>
+        <v>-85800</v>
       </c>
       <c r="I102" s="3">
-        <v>2323900</v>
+        <v>2233200</v>
       </c>
       <c r="J102" s="3">
-        <v>-2273000</v>
+        <v>-2184300</v>
       </c>
       <c r="K102" s="3">
         <v>-1217200</v>

--- a/AAII_Financials/Yearly/REPYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/REPYY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>49615700</v>
+        <v>50779700</v>
       </c>
       <c r="E8" s="3">
-        <v>33195500</v>
+        <v>33974300</v>
       </c>
       <c r="F8" s="3">
-        <v>49199700</v>
+        <v>50354000</v>
       </c>
       <c r="G8" s="3">
-        <v>49743300</v>
+        <v>50910400</v>
       </c>
       <c r="H8" s="3">
-        <v>41559700</v>
+        <v>42534700</v>
       </c>
       <c r="I8" s="3">
-        <v>34598800</v>
+        <v>35410500</v>
       </c>
       <c r="J8" s="3">
-        <v>39633700</v>
+        <v>40563500</v>
       </c>
       <c r="K8" s="3">
         <v>51760200</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>37360600</v>
+        <v>38237100</v>
       </c>
       <c r="E9" s="3">
-        <v>25947400</v>
+        <v>26556100</v>
       </c>
       <c r="F9" s="3">
-        <v>37582000</v>
+        <v>38463700</v>
       </c>
       <c r="G9" s="3">
-        <v>38564500</v>
+        <v>39469200</v>
       </c>
       <c r="H9" s="3">
-        <v>30806700</v>
+        <v>31529400</v>
       </c>
       <c r="I9" s="3">
-        <v>23424900</v>
+        <v>23974500</v>
       </c>
       <c r="J9" s="3">
-        <v>33296200</v>
+        <v>34077400</v>
       </c>
       <c r="K9" s="3">
         <v>46852000</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12255100</v>
+        <v>12542600</v>
       </c>
       <c r="E10" s="3">
-        <v>7248100</v>
+        <v>7418200</v>
       </c>
       <c r="F10" s="3">
-        <v>11617700</v>
+        <v>11890300</v>
       </c>
       <c r="G10" s="3">
-        <v>11178900</v>
+        <v>11441100</v>
       </c>
       <c r="H10" s="3">
-        <v>10753000</v>
+        <v>11005200</v>
       </c>
       <c r="I10" s="3">
-        <v>11173900</v>
+        <v>11436000</v>
       </c>
       <c r="J10" s="3">
-        <v>6337500</v>
+        <v>6486200</v>
       </c>
       <c r="K10" s="3">
         <v>4908200</v>
@@ -857,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>80800</v>
+        <v>82700</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>8</v>
@@ -866,16 +866,16 @@
         <v>8</v>
       </c>
       <c r="G12" s="3">
-        <v>523600</v>
+        <v>535900</v>
       </c>
       <c r="H12" s="3">
-        <v>653300</v>
+        <v>668600</v>
       </c>
       <c r="I12" s="3">
-        <v>336100</v>
+        <v>344000</v>
       </c>
       <c r="J12" s="3">
-        <v>1570900</v>
+        <v>1607800</v>
       </c>
       <c r="K12" s="3">
         <v>449400</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>438900</v>
+        <v>449200</v>
       </c>
       <c r="E14" s="3">
-        <v>1911000</v>
+        <v>1955900</v>
       </c>
       <c r="F14" s="3">
-        <v>5291200</v>
+        <v>5415300</v>
       </c>
       <c r="G14" s="3">
-        <v>1114100</v>
+        <v>1140200</v>
       </c>
       <c r="H14" s="3">
-        <v>-1238800</v>
+        <v>-1267800</v>
       </c>
       <c r="I14" s="3">
-        <v>-861800</v>
+        <v>-882000</v>
       </c>
       <c r="J14" s="3">
-        <v>2251100</v>
+        <v>2303900</v>
       </c>
       <c r="K14" s="3">
         <v>-110700</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1998800</v>
+        <v>2045700</v>
       </c>
       <c r="E15" s="3">
-        <v>2201300</v>
+        <v>2252900</v>
       </c>
       <c r="F15" s="3">
-        <v>2427700</v>
+        <v>2484600</v>
       </c>
       <c r="G15" s="3">
-        <v>1908000</v>
+        <v>1952800</v>
       </c>
       <c r="H15" s="3">
-        <v>2216200</v>
+        <v>2268200</v>
       </c>
       <c r="I15" s="3">
-        <v>2282100</v>
+        <v>2335600</v>
       </c>
       <c r="J15" s="3">
-        <v>2324900</v>
+        <v>2379500</v>
       </c>
       <c r="K15" s="3">
         <v>1578500</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>45841500</v>
+        <v>46917000</v>
       </c>
       <c r="E17" s="3">
-        <v>35686000</v>
+        <v>36523200</v>
       </c>
       <c r="F17" s="3">
-        <v>52436300</v>
+        <v>53666500</v>
       </c>
       <c r="G17" s="3">
-        <v>47665700</v>
+        <v>48784000</v>
       </c>
       <c r="H17" s="3">
-        <v>38778900</v>
+        <v>39688700</v>
       </c>
       <c r="I17" s="3">
-        <v>32644900</v>
+        <v>33410800</v>
       </c>
       <c r="J17" s="3">
-        <v>42181000</v>
+        <v>43170700</v>
       </c>
       <c r="K17" s="3">
         <v>51255500</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3774200</v>
+        <v>3862700</v>
       </c>
       <c r="E18" s="3">
-        <v>-2490500</v>
+        <v>-2548900</v>
       </c>
       <c r="F18" s="3">
-        <v>-3236600</v>
+        <v>-3312500</v>
       </c>
       <c r="G18" s="3">
-        <v>2077600</v>
+        <v>2126300</v>
       </c>
       <c r="H18" s="3">
-        <v>2780800</v>
+        <v>2846000</v>
       </c>
       <c r="I18" s="3">
-        <v>1953900</v>
+        <v>1999700</v>
       </c>
       <c r="J18" s="3">
-        <v>-2547400</v>
+        <v>-2607100</v>
       </c>
       <c r="K18" s="3">
         <v>504700</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>638300</v>
+        <v>653300</v>
       </c>
       <c r="E20" s="3">
-        <v>-691200</v>
+        <v>-707400</v>
       </c>
       <c r="F20" s="3">
-        <v>150600</v>
+        <v>154100</v>
       </c>
       <c r="G20" s="3">
-        <v>1307600</v>
+        <v>1338300</v>
       </c>
       <c r="H20" s="3">
-        <v>785000</v>
+        <v>803400</v>
       </c>
       <c r="I20" s="3">
-        <v>413900</v>
+        <v>423600</v>
       </c>
       <c r="J20" s="3">
-        <v>726100</v>
+        <v>743100</v>
       </c>
       <c r="K20" s="3">
         <v>1280400</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6409500</v>
+        <v>6522200</v>
       </c>
       <c r="E21" s="3">
-        <v>-982400</v>
+        <v>-1046900</v>
       </c>
       <c r="F21" s="3">
-        <v>-660500</v>
+        <v>-721700</v>
       </c>
       <c r="G21" s="3">
-        <v>5517700</v>
+        <v>5606900</v>
       </c>
       <c r="H21" s="3">
-        <v>5956300</v>
+        <v>6051000</v>
       </c>
       <c r="I21" s="3">
-        <v>4888000</v>
+        <v>4955200</v>
       </c>
       <c r="J21" s="3">
-        <v>1291800</v>
+        <v>1263500</v>
       </c>
       <c r="K21" s="3">
         <v>3817600</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>94800</v>
+        <v>97000</v>
       </c>
       <c r="E22" s="3">
-        <v>113700</v>
+        <v>116400</v>
       </c>
       <c r="F22" s="3">
-        <v>106700</v>
+        <v>109200</v>
       </c>
       <c r="G22" s="3">
-        <v>60800</v>
+        <v>62300</v>
       </c>
       <c r="H22" s="3">
-        <v>466800</v>
+        <v>477700</v>
       </c>
       <c r="I22" s="3">
-        <v>501700</v>
+        <v>513500</v>
       </c>
       <c r="J22" s="3">
-        <v>524600</v>
+        <v>536900</v>
       </c>
       <c r="K22" s="3">
         <v>518300</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4317700</v>
+        <v>4419000</v>
       </c>
       <c r="E23" s="3">
-        <v>-3295400</v>
+        <v>-3372700</v>
       </c>
       <c r="F23" s="3">
-        <v>-3192700</v>
+        <v>-3267600</v>
       </c>
       <c r="G23" s="3">
-        <v>3324300</v>
+        <v>3402300</v>
       </c>
       <c r="H23" s="3">
-        <v>3098900</v>
+        <v>3171600</v>
       </c>
       <c r="I23" s="3">
-        <v>1866100</v>
+        <v>1909900</v>
       </c>
       <c r="J23" s="3">
-        <v>-2345900</v>
+        <v>-2400900</v>
       </c>
       <c r="K23" s="3">
         <v>1266900</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1796300</v>
+        <v>1838500</v>
       </c>
       <c r="E24" s="3">
-        <v>16000</v>
+        <v>16300</v>
       </c>
       <c r="F24" s="3">
-        <v>586500</v>
+        <v>600200</v>
       </c>
       <c r="G24" s="3">
-        <v>1382400</v>
+        <v>1414800</v>
       </c>
       <c r="H24" s="3">
-        <v>1216800</v>
+        <v>1245400</v>
       </c>
       <c r="I24" s="3">
-        <v>390000</v>
+        <v>399100</v>
       </c>
       <c r="J24" s="3">
-        <v>-993400</v>
+        <v>-1016700</v>
       </c>
       <c r="K24" s="3">
         <v>164800</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2521400</v>
+        <v>2580600</v>
       </c>
       <c r="E26" s="3">
-        <v>-3311400</v>
+        <v>-3389100</v>
       </c>
       <c r="F26" s="3">
-        <v>-3779100</v>
+        <v>-3867800</v>
       </c>
       <c r="G26" s="3">
-        <v>1941900</v>
+        <v>1987500</v>
       </c>
       <c r="H26" s="3">
-        <v>1882100</v>
+        <v>1926200</v>
       </c>
       <c r="I26" s="3">
-        <v>1476200</v>
+        <v>1510800</v>
       </c>
       <c r="J26" s="3">
-        <v>-1352500</v>
+        <v>-1384200</v>
       </c>
       <c r="K26" s="3">
         <v>1102000</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2432700</v>
+        <v>2489700</v>
       </c>
       <c r="E27" s="3">
-        <v>-3334300</v>
+        <v>-3412500</v>
       </c>
       <c r="F27" s="3">
-        <v>-3835000</v>
+        <v>-3925000</v>
       </c>
       <c r="G27" s="3">
-        <v>1895100</v>
+        <v>1939500</v>
       </c>
       <c r="H27" s="3">
-        <v>1813300</v>
+        <v>1855800</v>
       </c>
       <c r="I27" s="3">
-        <v>1405300</v>
+        <v>1438300</v>
       </c>
       <c r="J27" s="3">
-        <v>-1416300</v>
+        <v>-1449500</v>
       </c>
       <c r="K27" s="3">
         <v>1146000</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>410900</v>
+        <v>420600</v>
       </c>
       <c r="H29" s="3">
-        <v>273300</v>
+        <v>279700</v>
       </c>
       <c r="I29" s="3">
-        <v>298200</v>
+        <v>305200</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-638300</v>
+        <v>-653300</v>
       </c>
       <c r="E32" s="3">
-        <v>691200</v>
+        <v>707400</v>
       </c>
       <c r="F32" s="3">
-        <v>-150600</v>
+        <v>-154100</v>
       </c>
       <c r="G32" s="3">
-        <v>-1307600</v>
+        <v>-1338300</v>
       </c>
       <c r="H32" s="3">
-        <v>-785000</v>
+        <v>-803400</v>
       </c>
       <c r="I32" s="3">
-        <v>-413900</v>
+        <v>-423600</v>
       </c>
       <c r="J32" s="3">
-        <v>-726100</v>
+        <v>-743100</v>
       </c>
       <c r="K32" s="3">
         <v>-1280400</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2432700</v>
+        <v>2489700</v>
       </c>
       <c r="E33" s="3">
-        <v>-3334300</v>
+        <v>-3412500</v>
       </c>
       <c r="F33" s="3">
-        <v>-3835000</v>
+        <v>-3925000</v>
       </c>
       <c r="G33" s="3">
-        <v>2306000</v>
+        <v>2360100</v>
       </c>
       <c r="H33" s="3">
-        <v>2086600</v>
+        <v>2135500</v>
       </c>
       <c r="I33" s="3">
-        <v>1703600</v>
+        <v>1743500</v>
       </c>
       <c r="J33" s="3">
-        <v>-1416300</v>
+        <v>-1449500</v>
       </c>
       <c r="K33" s="3">
         <v>1820100</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2432700</v>
+        <v>2489700</v>
       </c>
       <c r="E35" s="3">
-        <v>-3334300</v>
+        <v>-3412500</v>
       </c>
       <c r="F35" s="3">
-        <v>-3835000</v>
+        <v>-3925000</v>
       </c>
       <c r="G35" s="3">
-        <v>2306000</v>
+        <v>2360100</v>
       </c>
       <c r="H35" s="3">
-        <v>2086600</v>
+        <v>2135500</v>
       </c>
       <c r="I35" s="3">
-        <v>1703600</v>
+        <v>1743500</v>
       </c>
       <c r="J35" s="3">
-        <v>-1416300</v>
+        <v>-1449500</v>
       </c>
       <c r="K35" s="3">
         <v>1820100</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2501500</v>
+        <v>2560200</v>
       </c>
       <c r="E41" s="3">
-        <v>2228200</v>
+        <v>2280500</v>
       </c>
       <c r="F41" s="3">
-        <v>2363800</v>
+        <v>2419300</v>
       </c>
       <c r="G41" s="3">
-        <v>4113300</v>
+        <v>4209800</v>
       </c>
       <c r="H41" s="3">
-        <v>3743200</v>
+        <v>3831100</v>
       </c>
       <c r="I41" s="3">
-        <v>3198700</v>
+        <v>3273700</v>
       </c>
       <c r="J41" s="3">
-        <v>4746600</v>
+        <v>4858000</v>
       </c>
       <c r="K41" s="3">
         <v>2495300</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6547900</v>
+        <v>6701600</v>
       </c>
       <c r="E42" s="3">
-        <v>3860900</v>
+        <v>3951500</v>
       </c>
       <c r="F42" s="3">
-        <v>3567700</v>
+        <v>3651400</v>
       </c>
       <c r="G42" s="3">
-        <v>2607200</v>
+        <v>2668400</v>
       </c>
       <c r="H42" s="3">
-        <v>1162000</v>
+        <v>1189200</v>
       </c>
       <c r="I42" s="3">
-        <v>2816700</v>
+        <v>2882700</v>
       </c>
       <c r="J42" s="3">
-        <v>1782400</v>
+        <v>1824200</v>
       </c>
       <c r="K42" s="3">
         <v>6146800</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7192300</v>
+        <v>7361000</v>
       </c>
       <c r="E43" s="3">
-        <v>3846000</v>
+        <v>3936200</v>
       </c>
       <c r="F43" s="3">
-        <v>5728100</v>
+        <v>5862500</v>
       </c>
       <c r="G43" s="3">
-        <v>5848800</v>
+        <v>5986000</v>
       </c>
       <c r="H43" s="3">
-        <v>5836800</v>
+        <v>5973700</v>
       </c>
       <c r="I43" s="3">
-        <v>5805900</v>
+        <v>5942100</v>
       </c>
       <c r="J43" s="3">
-        <v>13519800</v>
+        <v>13836900</v>
       </c>
       <c r="K43" s="3">
         <v>5851000</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5213400</v>
+        <v>5335700</v>
       </c>
       <c r="E44" s="3">
-        <v>3370200</v>
+        <v>3449300</v>
       </c>
       <c r="F44" s="3">
-        <v>4585000</v>
+        <v>4692600</v>
       </c>
       <c r="G44" s="3">
-        <v>4378600</v>
+        <v>4481300</v>
       </c>
       <c r="H44" s="3">
-        <v>3787100</v>
+        <v>3876000</v>
       </c>
       <c r="I44" s="3">
-        <v>3595600</v>
+        <v>3680000</v>
       </c>
       <c r="J44" s="3">
-        <v>5691200</v>
+        <v>5824700</v>
       </c>
       <c r="K44" s="3">
         <v>4438500</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>928600</v>
+        <v>950400</v>
       </c>
       <c r="E45" s="3">
-        <v>243400</v>
+        <v>249100</v>
       </c>
       <c r="F45" s="3">
-        <v>199500</v>
+        <v>204200</v>
       </c>
       <c r="G45" s="3">
-        <v>301200</v>
+        <v>308300</v>
       </c>
       <c r="H45" s="3">
-        <v>203500</v>
+        <v>208200</v>
       </c>
       <c r="I45" s="3">
-        <v>469800</v>
+        <v>480800</v>
       </c>
       <c r="J45" s="3">
-        <v>531600</v>
+        <v>544100</v>
       </c>
       <c r="K45" s="3">
         <v>309400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>22383700</v>
+        <v>22908800</v>
       </c>
       <c r="E46" s="3">
-        <v>13548700</v>
+        <v>13866500</v>
       </c>
       <c r="F46" s="3">
-        <v>16444100</v>
+        <v>16829900</v>
       </c>
       <c r="G46" s="3">
-        <v>17249000</v>
+        <v>17653700</v>
       </c>
       <c r="H46" s="3">
-        <v>14732600</v>
+        <v>15078200</v>
       </c>
       <c r="I46" s="3">
-        <v>15886600</v>
+        <v>16259300</v>
       </c>
       <c r="J46" s="3">
-        <v>12718800</v>
+        <v>13017200</v>
       </c>
       <c r="K46" s="3">
         <v>19241000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4923200</v>
+        <v>5038700</v>
       </c>
       <c r="E47" s="3">
-        <v>6842200</v>
+        <v>7002700</v>
       </c>
       <c r="F47" s="3">
-        <v>8349200</v>
+        <v>8545100</v>
       </c>
       <c r="G47" s="3">
-        <v>8308300</v>
+        <v>8503300</v>
       </c>
       <c r="H47" s="3">
-        <v>11278600</v>
+        <v>11543200</v>
       </c>
       <c r="I47" s="3">
-        <v>11350400</v>
+        <v>11616700</v>
       </c>
       <c r="J47" s="3">
-        <v>12483500</v>
+        <v>12776300</v>
       </c>
       <c r="K47" s="3">
         <v>13213900</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21669500</v>
+        <v>22177900</v>
       </c>
       <c r="E48" s="3">
-        <v>20872600</v>
+        <v>21362300</v>
       </c>
       <c r="F48" s="3">
-        <v>23150700</v>
+        <v>23693800</v>
       </c>
       <c r="G48" s="3">
-        <v>25432700</v>
+        <v>26029400</v>
       </c>
       <c r="H48" s="3">
-        <v>24602900</v>
+        <v>25180100</v>
       </c>
       <c r="I48" s="3">
-        <v>27291900</v>
+        <v>27932200</v>
       </c>
       <c r="J48" s="3">
-        <v>56283300</v>
+        <v>57603700</v>
       </c>
       <c r="K48" s="3">
         <v>19379900</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3487900</v>
+        <v>3569700</v>
       </c>
       <c r="E49" s="3">
-        <v>3344300</v>
+        <v>3422700</v>
       </c>
       <c r="F49" s="3">
-        <v>4458400</v>
+        <v>4563000</v>
       </c>
       <c r="G49" s="3">
-        <v>5082800</v>
+        <v>5202000</v>
       </c>
       <c r="H49" s="3">
-        <v>4572100</v>
+        <v>4679300</v>
       </c>
       <c r="I49" s="3">
-        <v>5095700</v>
+        <v>5215300</v>
       </c>
       <c r="J49" s="3">
-        <v>9547100</v>
+        <v>9771100</v>
       </c>
       <c r="K49" s="3">
         <v>2099000</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3643500</v>
+        <v>3729000</v>
       </c>
       <c r="E52" s="3">
-        <v>4566100</v>
+        <v>4673200</v>
       </c>
       <c r="F52" s="3">
-        <v>5342100</v>
+        <v>5467400</v>
       </c>
       <c r="G52" s="3">
-        <v>4547100</v>
+        <v>4653800</v>
       </c>
       <c r="H52" s="3">
-        <v>4515200</v>
+        <v>4621200</v>
       </c>
       <c r="I52" s="3">
-        <v>5055800</v>
+        <v>5174400</v>
       </c>
       <c r="J52" s="3">
-        <v>5165500</v>
+        <v>5286700</v>
       </c>
       <c r="K52" s="3">
         <v>4654200</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>56107700</v>
+        <v>57424100</v>
       </c>
       <c r="E54" s="3">
-        <v>49173800</v>
+        <v>50327500</v>
       </c>
       <c r="F54" s="3">
-        <v>57744500</v>
+        <v>59099200</v>
       </c>
       <c r="G54" s="3">
-        <v>60620000</v>
+        <v>62042200</v>
       </c>
       <c r="H54" s="3">
-        <v>59701400</v>
+        <v>61102000</v>
       </c>
       <c r="I54" s="3">
-        <v>64680400</v>
+        <v>66197900</v>
       </c>
       <c r="J54" s="3">
-        <v>63031700</v>
+        <v>64510500</v>
       </c>
       <c r="K54" s="3">
         <v>58587900</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5533600</v>
+        <v>5663400</v>
       </c>
       <c r="E57" s="3">
-        <v>2464600</v>
+        <v>2522400</v>
       </c>
       <c r="F57" s="3">
-        <v>3628500</v>
+        <v>3713700</v>
       </c>
       <c r="G57" s="3">
-        <v>3235600</v>
+        <v>3311500</v>
       </c>
       <c r="H57" s="3">
-        <v>2730900</v>
+        <v>2795000</v>
       </c>
       <c r="I57" s="3">
-        <v>2122500</v>
+        <v>2172300</v>
       </c>
       <c r="J57" s="3">
-        <v>1794300</v>
+        <v>1836400</v>
       </c>
       <c r="K57" s="3">
         <v>2653400</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4472300</v>
+        <v>4577300</v>
       </c>
       <c r="E58" s="3">
-        <v>3614600</v>
+        <v>3699400</v>
       </c>
       <c r="F58" s="3">
-        <v>6426200</v>
+        <v>6577000</v>
       </c>
       <c r="G58" s="3">
-        <v>4404500</v>
+        <v>4507900</v>
       </c>
       <c r="H58" s="3">
-        <v>4129200</v>
+        <v>4226100</v>
       </c>
       <c r="I58" s="3">
-        <v>3889900</v>
+        <v>3981100</v>
       </c>
       <c r="J58" s="3">
-        <v>4278800</v>
+        <v>4379200</v>
       </c>
       <c r="K58" s="3">
         <v>1684600</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7267100</v>
+        <v>7437500</v>
       </c>
       <c r="E59" s="3">
-        <v>4412500</v>
+        <v>4516000</v>
       </c>
       <c r="F59" s="3">
-        <v>4991000</v>
+        <v>5108100</v>
       </c>
       <c r="G59" s="3">
-        <v>5136600</v>
+        <v>5257100</v>
       </c>
       <c r="H59" s="3">
-        <v>5143600</v>
+        <v>5264300</v>
       </c>
       <c r="I59" s="3">
-        <v>8686400</v>
+        <v>8890100</v>
       </c>
       <c r="J59" s="3">
-        <v>21218700</v>
+        <v>21716500</v>
       </c>
       <c r="K59" s="3">
         <v>7227400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17273000</v>
+        <v>17678200</v>
       </c>
       <c r="E60" s="3">
-        <v>10491700</v>
+        <v>10737800</v>
       </c>
       <c r="F60" s="3">
-        <v>15045800</v>
+        <v>15398800</v>
       </c>
       <c r="G60" s="3">
-        <v>12776700</v>
+        <v>13076400</v>
       </c>
       <c r="H60" s="3">
-        <v>12003700</v>
+        <v>12285300</v>
       </c>
       <c r="I60" s="3">
-        <v>14698700</v>
+        <v>15043500</v>
       </c>
       <c r="J60" s="3">
-        <v>14439400</v>
+        <v>14778100</v>
       </c>
       <c r="K60" s="3">
         <v>11565400</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9982000</v>
+        <v>10216200</v>
       </c>
       <c r="E61" s="3">
-        <v>11904000</v>
+        <v>12183200</v>
       </c>
       <c r="F61" s="3">
-        <v>10743000</v>
+        <v>10995000</v>
       </c>
       <c r="G61" s="3">
-        <v>10639300</v>
+        <v>10888900</v>
       </c>
       <c r="H61" s="3">
-        <v>8710300</v>
+        <v>8914600</v>
       </c>
       <c r="I61" s="3">
-        <v>10917500</v>
+        <v>11173700</v>
       </c>
       <c r="J61" s="3">
-        <v>11990700</v>
+        <v>12272100</v>
       </c>
       <c r="K61" s="3">
         <v>10091900</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6118100</v>
+        <v>6261600</v>
       </c>
       <c r="E62" s="3">
-        <v>6292600</v>
+        <v>6440200</v>
       </c>
       <c r="F62" s="3">
-        <v>6812200</v>
+        <v>6972100</v>
       </c>
       <c r="G62" s="3">
-        <v>6370400</v>
+        <v>6519800</v>
       </c>
       <c r="H62" s="3">
-        <v>9002500</v>
+        <v>9213700</v>
       </c>
       <c r="I62" s="3">
-        <v>8034100</v>
+        <v>8222500</v>
       </c>
       <c r="J62" s="3">
-        <v>13726200</v>
+        <v>14048200</v>
       </c>
       <c r="K62" s="3">
         <v>5141900</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33752000</v>
+        <v>34543900</v>
       </c>
       <c r="E66" s="3">
-        <v>28931600</v>
+        <v>29610300</v>
       </c>
       <c r="F66" s="3">
-        <v>32881300</v>
+        <v>33652700</v>
       </c>
       <c r="G66" s="3">
-        <v>30071600</v>
+        <v>30777100</v>
       </c>
       <c r="H66" s="3">
-        <v>29985800</v>
+        <v>30689300</v>
       </c>
       <c r="I66" s="3">
-        <v>33893600</v>
+        <v>34688800</v>
       </c>
       <c r="J66" s="3">
-        <v>34571900</v>
+        <v>35383000</v>
       </c>
       <c r="K66" s="3">
         <v>27044200</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15076700</v>
+        <v>15430400</v>
       </c>
       <c r="E72" s="3">
-        <v>13729200</v>
+        <v>14051300</v>
       </c>
       <c r="F72" s="3">
-        <v>16593700</v>
+        <v>16983000</v>
       </c>
       <c r="G72" s="3">
-        <v>21750300</v>
+        <v>22260600</v>
       </c>
       <c r="H72" s="3">
-        <v>21178800</v>
+        <v>21675700</v>
       </c>
       <c r="I72" s="3">
-        <v>19489200</v>
+        <v>19946400</v>
       </c>
       <c r="J72" s="3">
-        <v>18156700</v>
+        <v>18582600</v>
       </c>
       <c r="K72" s="3">
         <v>22385500</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22355700</v>
+        <v>22880200</v>
       </c>
       <c r="E76" s="3">
-        <v>20242200</v>
+        <v>20717100</v>
       </c>
       <c r="F76" s="3">
-        <v>24863200</v>
+        <v>25446500</v>
       </c>
       <c r="G76" s="3">
-        <v>30548400</v>
+        <v>31265100</v>
       </c>
       <c r="H76" s="3">
-        <v>29715500</v>
+        <v>30412700</v>
       </c>
       <c r="I76" s="3">
-        <v>30786700</v>
+        <v>31509000</v>
       </c>
       <c r="J76" s="3">
-        <v>28459800</v>
+        <v>29127500</v>
       </c>
       <c r="K76" s="3">
         <v>31543700</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2432700</v>
+        <v>2489700</v>
       </c>
       <c r="E81" s="3">
-        <v>-3334300</v>
+        <v>-3412500</v>
       </c>
       <c r="F81" s="3">
-        <v>-3835000</v>
+        <v>-3925000</v>
       </c>
       <c r="G81" s="3">
-        <v>2306000</v>
+        <v>2360100</v>
       </c>
       <c r="H81" s="3">
-        <v>2086600</v>
+        <v>2135500</v>
       </c>
       <c r="I81" s="3">
-        <v>1703600</v>
+        <v>1743500</v>
       </c>
       <c r="J81" s="3">
-        <v>-1416300</v>
+        <v>-1449500</v>
       </c>
       <c r="K81" s="3">
         <v>1820100</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1998800</v>
+        <v>2045700</v>
       </c>
       <c r="E83" s="3">
-        <v>2201300</v>
+        <v>2252900</v>
       </c>
       <c r="F83" s="3">
-        <v>2427700</v>
+        <v>2484600</v>
       </c>
       <c r="G83" s="3">
-        <v>2134400</v>
+        <v>2184500</v>
       </c>
       <c r="H83" s="3">
-        <v>2392800</v>
+        <v>2448900</v>
       </c>
       <c r="I83" s="3">
-        <v>2522400</v>
+        <v>2581600</v>
       </c>
       <c r="J83" s="3">
-        <v>3115900</v>
+        <v>3189000</v>
       </c>
       <c r="K83" s="3">
         <v>2027900</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4664800</v>
+        <v>4774300</v>
       </c>
       <c r="E89" s="3">
-        <v>2730900</v>
+        <v>2795000</v>
       </c>
       <c r="F89" s="3">
-        <v>4836400</v>
+        <v>4949900</v>
       </c>
       <c r="G89" s="3">
-        <v>4567100</v>
+        <v>4674200</v>
       </c>
       <c r="H89" s="3">
-        <v>5099700</v>
+        <v>5219400</v>
       </c>
       <c r="I89" s="3">
-        <v>3879900</v>
+        <v>3970900</v>
       </c>
       <c r="J89" s="3">
-        <v>4923200</v>
+        <v>5038700</v>
       </c>
       <c r="K89" s="3">
         <v>3496800</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1897100</v>
+        <v>-1941600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1881100</v>
+        <v>-1925200</v>
       </c>
       <c r="F91" s="3">
-        <v>-3218600</v>
+        <v>-3294100</v>
       </c>
       <c r="G91" s="3">
-        <v>-2654100</v>
+        <v>-2716300</v>
       </c>
       <c r="H91" s="3">
-        <v>-2294000</v>
+        <v>-2347800</v>
       </c>
       <c r="I91" s="3">
-        <v>-1997800</v>
+        <v>-2044700</v>
       </c>
       <c r="J91" s="3">
-        <v>-2983200</v>
+        <v>-3053200</v>
       </c>
       <c r="K91" s="3">
         <v>-2942400</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2925400</v>
+        <v>-2994000</v>
       </c>
       <c r="E94" s="3">
-        <v>221400</v>
+        <v>226600</v>
       </c>
       <c r="F94" s="3">
-        <v>-4395500</v>
+        <v>-4498700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1355500</v>
+        <v>-1387300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2781700</v>
+        <v>-2847000</v>
       </c>
       <c r="I94" s="3">
-        <v>390000</v>
+        <v>399100</v>
       </c>
       <c r="J94" s="3">
-        <v>-8936700</v>
+        <v>-9146400</v>
       </c>
       <c r="K94" s="3">
         <v>1277000</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-623400</v>
+        <v>-638000</v>
       </c>
       <c r="E96" s="3">
-        <v>-345100</v>
+        <v>-353200</v>
       </c>
       <c r="F96" s="3">
-        <v>-395000</v>
+        <v>-404200</v>
       </c>
       <c r="G96" s="3">
-        <v>-296200</v>
+        <v>-303200</v>
       </c>
       <c r="H96" s="3">
-        <v>-331100</v>
+        <v>-338900</v>
       </c>
       <c r="I96" s="3">
-        <v>-418900</v>
+        <v>-428700</v>
       </c>
       <c r="J96" s="3">
-        <v>-486700</v>
+        <v>-498200</v>
       </c>
       <c r="K96" s="3">
         <v>-1933000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-527600</v>
+        <v>-540000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1610800</v>
+        <v>-1648600</v>
       </c>
       <c r="F100" s="3">
-        <v>-2283000</v>
+        <v>-2336600</v>
       </c>
       <c r="G100" s="3">
-        <v>-3024100</v>
+        <v>-3095100</v>
       </c>
       <c r="H100" s="3">
-        <v>-2354900</v>
+        <v>-2410100</v>
       </c>
       <c r="I100" s="3">
-        <v>-2047700</v>
+        <v>-2095700</v>
       </c>
       <c r="J100" s="3">
-        <v>1770400</v>
+        <v>1811900</v>
       </c>
       <c r="K100" s="3">
         <v>-6157000</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>58800</v>
+        <v>60200</v>
       </c>
       <c r="E101" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="F101" s="3">
-        <v>39900</v>
+        <v>40800</v>
       </c>
       <c r="G101" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="H101" s="3">
-        <v>-48900</v>
+        <v>-50000</v>
       </c>
       <c r="I101" s="3">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="J101" s="3">
-        <v>58800</v>
+        <v>60200</v>
       </c>
       <c r="K101" s="3">
         <v>166000</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1270700</v>
+        <v>1300500</v>
       </c>
       <c r="E102" s="3">
-        <v>1338500</v>
+        <v>1369900</v>
       </c>
       <c r="F102" s="3">
-        <v>-1802300</v>
+        <v>-1844600</v>
       </c>
       <c r="G102" s="3">
-        <v>184500</v>
+        <v>188800</v>
       </c>
       <c r="H102" s="3">
-        <v>-85800</v>
+        <v>-87800</v>
       </c>
       <c r="I102" s="3">
-        <v>2233200</v>
+        <v>2285600</v>
       </c>
       <c r="J102" s="3">
-        <v>-2184300</v>
+        <v>-2235600</v>
       </c>
       <c r="K102" s="3">
         <v>-1217200</v>

--- a/AAII_Financials/Yearly/REPYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/REPYY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>REPYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>50779700</v>
+        <v>79511900</v>
       </c>
       <c r="E8" s="3">
-        <v>33974300</v>
+        <v>52630200</v>
       </c>
       <c r="F8" s="3">
-        <v>50354000</v>
+        <v>35212400</v>
       </c>
       <c r="G8" s="3">
-        <v>50910400</v>
+        <v>52189000</v>
       </c>
       <c r="H8" s="3">
-        <v>42534700</v>
+        <v>52765600</v>
       </c>
       <c r="I8" s="3">
-        <v>35410500</v>
+        <v>44084700</v>
       </c>
       <c r="J8" s="3">
+        <v>36701000</v>
+      </c>
+      <c r="K8" s="3">
         <v>40563500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>51760200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>56046800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>63623600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>61785800</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>38237100</v>
+        <v>59714600</v>
       </c>
       <c r="E9" s="3">
-        <v>26556100</v>
+        <v>39630600</v>
       </c>
       <c r="F9" s="3">
-        <v>38463700</v>
+        <v>27523900</v>
       </c>
       <c r="G9" s="3">
-        <v>39469200</v>
+        <v>39865400</v>
       </c>
       <c r="H9" s="3">
-        <v>31529400</v>
+        <v>40907600</v>
       </c>
       <c r="I9" s="3">
-        <v>23974500</v>
+        <v>32678400</v>
       </c>
       <c r="J9" s="3">
+        <v>24848200</v>
+      </c>
+      <c r="K9" s="3">
         <v>34077400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>46852000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>50053800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>48447100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>46491100</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12542600</v>
+        <v>19797300</v>
       </c>
       <c r="E10" s="3">
-        <v>7418200</v>
+        <v>12999600</v>
       </c>
       <c r="F10" s="3">
-        <v>11890300</v>
+        <v>7688500</v>
       </c>
       <c r="G10" s="3">
-        <v>11441100</v>
+        <v>12323600</v>
       </c>
       <c r="H10" s="3">
-        <v>11005200</v>
+        <v>11858100</v>
       </c>
       <c r="I10" s="3">
-        <v>11436000</v>
+        <v>11406300</v>
       </c>
       <c r="J10" s="3">
+        <v>11852800</v>
+      </c>
+      <c r="K10" s="3">
         <v>6486200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4908200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5993000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>15176600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>15294700</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,47 +863,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>82700</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
+        <v>79400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>85700</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="3">
-        <v>535900</v>
+      <c r="G12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H12" s="3">
-        <v>668600</v>
+        <v>555500</v>
       </c>
       <c r="I12" s="3">
-        <v>344000</v>
+        <v>693000</v>
       </c>
       <c r="J12" s="3">
+        <v>356500</v>
+      </c>
+      <c r="K12" s="3">
         <v>1607800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>449400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>201000</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,87 +944,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>449200</v>
+        <v>2499000</v>
       </c>
       <c r="E14" s="3">
-        <v>1955900</v>
+        <v>465500</v>
       </c>
       <c r="F14" s="3">
-        <v>5415300</v>
+        <v>2027100</v>
       </c>
       <c r="G14" s="3">
-        <v>1140200</v>
+        <v>5612700</v>
       </c>
       <c r="H14" s="3">
-        <v>-1267800</v>
+        <v>1181800</v>
       </c>
       <c r="I14" s="3">
-        <v>-882000</v>
+        <v>-1314000</v>
       </c>
       <c r="J14" s="3">
+        <v>-914100</v>
+      </c>
+      <c r="K14" s="3">
         <v>2303900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-110700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>19100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>46100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>212500</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2045700</v>
+        <v>2474700</v>
       </c>
       <c r="E15" s="3">
-        <v>2252900</v>
+        <v>2120200</v>
       </c>
       <c r="F15" s="3">
-        <v>2484600</v>
+        <v>2335000</v>
       </c>
       <c r="G15" s="3">
-        <v>1952800</v>
+        <v>2575200</v>
       </c>
       <c r="H15" s="3">
-        <v>2268200</v>
+        <v>2024000</v>
       </c>
       <c r="I15" s="3">
-        <v>2335600</v>
+        <v>2350900</v>
       </c>
       <c r="J15" s="3">
+        <v>2420700</v>
+      </c>
+      <c r="K15" s="3">
         <v>2379500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1578500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1617300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2743900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2428600</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>46917000</v>
+        <v>73260200</v>
       </c>
       <c r="E17" s="3">
-        <v>36523200</v>
+        <v>48626700</v>
       </c>
       <c r="F17" s="3">
-        <v>53666500</v>
+        <v>37854200</v>
       </c>
       <c r="G17" s="3">
-        <v>48784000</v>
+        <v>55622200</v>
       </c>
       <c r="H17" s="3">
-        <v>39688700</v>
+        <v>50561800</v>
       </c>
       <c r="I17" s="3">
-        <v>33410800</v>
+        <v>41135000</v>
       </c>
       <c r="J17" s="3">
+        <v>34628300</v>
+      </c>
+      <c r="K17" s="3">
         <v>43170700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>51255500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>54805100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>59629100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>57618800</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3862700</v>
+        <v>6251700</v>
       </c>
       <c r="E18" s="3">
-        <v>-2548900</v>
+        <v>4003500</v>
       </c>
       <c r="F18" s="3">
-        <v>-3312500</v>
+        <v>-2641800</v>
       </c>
       <c r="G18" s="3">
-        <v>2126300</v>
+        <v>-3433200</v>
       </c>
       <c r="H18" s="3">
-        <v>2846000</v>
+        <v>2203800</v>
       </c>
       <c r="I18" s="3">
-        <v>1999700</v>
+        <v>2949700</v>
       </c>
       <c r="J18" s="3">
+        <v>2072600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2607100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>504700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1241700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3994500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4167000</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>653300</v>
+        <v>1457900</v>
       </c>
       <c r="E20" s="3">
-        <v>-707400</v>
+        <v>677100</v>
       </c>
       <c r="F20" s="3">
-        <v>154100</v>
+        <v>-733200</v>
       </c>
       <c r="G20" s="3">
-        <v>1338300</v>
+        <v>159800</v>
       </c>
       <c r="H20" s="3">
-        <v>803400</v>
+        <v>1387000</v>
       </c>
       <c r="I20" s="3">
-        <v>423600</v>
+        <v>832600</v>
       </c>
       <c r="J20" s="3">
+        <v>439100</v>
+      </c>
+      <c r="K20" s="3">
         <v>743100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1280400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>940200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1168300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>9400</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6522200</v>
+        <v>10175900</v>
       </c>
       <c r="E21" s="3">
-        <v>-1046900</v>
+        <v>6793600</v>
       </c>
       <c r="F21" s="3">
-        <v>-721700</v>
+        <v>-1048000</v>
       </c>
       <c r="G21" s="3">
-        <v>5606900</v>
+        <v>-707000</v>
       </c>
       <c r="H21" s="3">
-        <v>6051000</v>
+        <v>5847300</v>
       </c>
       <c r="I21" s="3">
-        <v>4955200</v>
+        <v>6311900</v>
       </c>
       <c r="J21" s="3">
+        <v>5178300</v>
+      </c>
+      <c r="K21" s="3">
         <v>1263500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3817600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3992600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7910900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6606700</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>97000</v>
+        <v>113200</v>
       </c>
       <c r="E22" s="3">
-        <v>116400</v>
+        <v>100500</v>
       </c>
       <c r="F22" s="3">
-        <v>109200</v>
+        <v>120600</v>
       </c>
       <c r="G22" s="3">
-        <v>62300</v>
+        <v>113200</v>
       </c>
       <c r="H22" s="3">
-        <v>477700</v>
+        <v>64500</v>
       </c>
       <c r="I22" s="3">
-        <v>513500</v>
+        <v>495100</v>
       </c>
       <c r="J22" s="3">
+        <v>532200</v>
+      </c>
+      <c r="K22" s="3">
         <v>536900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>518300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>648300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1975300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1022400</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4419000</v>
+        <v>7596400</v>
       </c>
       <c r="E23" s="3">
-        <v>-3372700</v>
+        <v>4580100</v>
       </c>
       <c r="F23" s="3">
-        <v>-3267600</v>
+        <v>-3495600</v>
       </c>
       <c r="G23" s="3">
-        <v>3402300</v>
+        <v>-3386700</v>
       </c>
       <c r="H23" s="3">
-        <v>3171600</v>
+        <v>3526300</v>
       </c>
       <c r="I23" s="3">
-        <v>1909900</v>
+        <v>3287200</v>
       </c>
       <c r="J23" s="3">
+        <v>1979500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2400900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1266900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1533500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3187500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3154000</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1838500</v>
+        <v>2999400</v>
       </c>
       <c r="E24" s="3">
-        <v>16300</v>
+        <v>1905500</v>
       </c>
       <c r="F24" s="3">
-        <v>600200</v>
+        <v>16900</v>
       </c>
       <c r="G24" s="3">
-        <v>1414800</v>
+        <v>622100</v>
       </c>
       <c r="H24" s="3">
-        <v>1245400</v>
+        <v>1466400</v>
       </c>
       <c r="I24" s="3">
-        <v>399100</v>
+        <v>1290800</v>
       </c>
       <c r="J24" s="3">
+        <v>413700</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1016700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>164800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>515600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1543800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1163200</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2580600</v>
+        <v>4597000</v>
       </c>
       <c r="E26" s="3">
-        <v>-3389100</v>
+        <v>2674600</v>
       </c>
       <c r="F26" s="3">
-        <v>-3867800</v>
+        <v>-3512600</v>
       </c>
       <c r="G26" s="3">
-        <v>1987500</v>
+        <v>-4008800</v>
       </c>
       <c r="H26" s="3">
-        <v>1926200</v>
+        <v>2059900</v>
       </c>
       <c r="I26" s="3">
-        <v>1510800</v>
+        <v>1996400</v>
       </c>
       <c r="J26" s="3">
+        <v>1565800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1384200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1102000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1018000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1643700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1990800</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2489700</v>
+        <v>4434100</v>
       </c>
       <c r="E27" s="3">
-        <v>-3412500</v>
+        <v>2580500</v>
       </c>
       <c r="F27" s="3">
-        <v>-3925000</v>
+        <v>-3536900</v>
       </c>
       <c r="G27" s="3">
-        <v>1939500</v>
+        <v>-4068000</v>
       </c>
       <c r="H27" s="3">
-        <v>1855800</v>
+        <v>2010200</v>
       </c>
       <c r="I27" s="3">
-        <v>1438300</v>
+        <v>1923400</v>
       </c>
       <c r="J27" s="3">
+        <v>1490700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1449500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1146000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1051500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1570100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1663300</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1478,36 +1538,39 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>420600</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>279700</v>
+        <v>435900</v>
       </c>
       <c r="I29" s="3">
-        <v>305200</v>
+        <v>289900</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
+        <v>316300</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>674100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-818200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>820200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>910900</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-653300</v>
+        <v>-1457900</v>
       </c>
       <c r="E32" s="3">
-        <v>707400</v>
+        <v>-677100</v>
       </c>
       <c r="F32" s="3">
-        <v>-154100</v>
+        <v>733200</v>
       </c>
       <c r="G32" s="3">
-        <v>-1338300</v>
+        <v>-159800</v>
       </c>
       <c r="H32" s="3">
-        <v>-803400</v>
+        <v>-1387000</v>
       </c>
       <c r="I32" s="3">
-        <v>-423600</v>
+        <v>-832600</v>
       </c>
       <c r="J32" s="3">
+        <v>-439100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-743100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1280400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-940200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1168300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-9400</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2489700</v>
+        <v>4434100</v>
       </c>
       <c r="E33" s="3">
-        <v>-3412500</v>
+        <v>2580500</v>
       </c>
       <c r="F33" s="3">
-        <v>-3925000</v>
+        <v>-3536900</v>
       </c>
       <c r="G33" s="3">
-        <v>2360100</v>
+        <v>-4068000</v>
       </c>
       <c r="H33" s="3">
-        <v>2135500</v>
+        <v>2446100</v>
       </c>
       <c r="I33" s="3">
-        <v>1743500</v>
+        <v>2213300</v>
       </c>
       <c r="J33" s="3">
+        <v>1807100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1449500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1820100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>233300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2390300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2574200</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2489700</v>
+        <v>4434100</v>
       </c>
       <c r="E35" s="3">
-        <v>-3412500</v>
+        <v>2580500</v>
       </c>
       <c r="F35" s="3">
-        <v>-3925000</v>
+        <v>-3536900</v>
       </c>
       <c r="G35" s="3">
-        <v>2360100</v>
+        <v>-4068000</v>
       </c>
       <c r="H35" s="3">
-        <v>2135500</v>
+        <v>2446100</v>
       </c>
       <c r="I35" s="3">
-        <v>1743500</v>
+        <v>2213300</v>
       </c>
       <c r="J35" s="3">
+        <v>1807100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1449500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1820100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>233300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2390300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2574200</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2560200</v>
+        <v>2831200</v>
       </c>
       <c r="E41" s="3">
-        <v>2280500</v>
+        <v>2653500</v>
       </c>
       <c r="F41" s="3">
-        <v>2419300</v>
+        <v>2363600</v>
       </c>
       <c r="G41" s="3">
-        <v>4209800</v>
+        <v>2507500</v>
       </c>
       <c r="H41" s="3">
-        <v>3831100</v>
+        <v>4363200</v>
       </c>
       <c r="I41" s="3">
-        <v>3273700</v>
+        <v>3970700</v>
       </c>
       <c r="J41" s="3">
+        <v>3393000</v>
+      </c>
+      <c r="K41" s="3">
         <v>4858000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2495300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11515800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6481500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3142300</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6701600</v>
+        <v>7820700</v>
       </c>
       <c r="E42" s="3">
-        <v>3951500</v>
+        <v>6945800</v>
       </c>
       <c r="F42" s="3">
-        <v>3651400</v>
+        <v>4095500</v>
       </c>
       <c r="G42" s="3">
-        <v>2668400</v>
+        <v>3784500</v>
       </c>
       <c r="H42" s="3">
-        <v>1189200</v>
+        <v>2765600</v>
       </c>
       <c r="I42" s="3">
-        <v>2882700</v>
+        <v>1232600</v>
       </c>
       <c r="J42" s="3">
+        <v>2987800</v>
+      </c>
+      <c r="K42" s="3">
         <v>1824200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>6146800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2611300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>455700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>791100</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7361000</v>
+        <v>9023700</v>
       </c>
       <c r="E43" s="3">
-        <v>3936200</v>
+        <v>7629200</v>
       </c>
       <c r="F43" s="3">
-        <v>5862500</v>
+        <v>4079600</v>
       </c>
       <c r="G43" s="3">
-        <v>5986000</v>
+        <v>6076100</v>
       </c>
       <c r="H43" s="3">
-        <v>5973700</v>
+        <v>6204100</v>
       </c>
       <c r="I43" s="3">
-        <v>5942100</v>
+        <v>6191400</v>
       </c>
       <c r="J43" s="3">
+        <v>6158600</v>
+      </c>
+      <c r="K43" s="3">
         <v>13836900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5851000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17219300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8543500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10824900</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5335700</v>
+        <v>7716000</v>
       </c>
       <c r="E44" s="3">
-        <v>3449300</v>
+        <v>5530200</v>
       </c>
       <c r="F44" s="3">
-        <v>4692600</v>
+        <v>3575000</v>
       </c>
       <c r="G44" s="3">
-        <v>4481300</v>
+        <v>4863600</v>
       </c>
       <c r="H44" s="3">
-        <v>3876000</v>
+        <v>4644600</v>
       </c>
       <c r="I44" s="3">
-        <v>3680000</v>
+        <v>4017200</v>
       </c>
       <c r="J44" s="3">
+        <v>3814100</v>
+      </c>
+      <c r="K44" s="3">
         <v>5824700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4438500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>11813700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6040100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8543000</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>950400</v>
+        <v>310000</v>
       </c>
       <c r="E45" s="3">
-        <v>249100</v>
+        <v>985000</v>
       </c>
       <c r="F45" s="3">
-        <v>204200</v>
+        <v>258200</v>
       </c>
       <c r="G45" s="3">
-        <v>308300</v>
+        <v>211600</v>
       </c>
       <c r="H45" s="3">
-        <v>208200</v>
+        <v>319500</v>
       </c>
       <c r="I45" s="3">
-        <v>480800</v>
+        <v>215800</v>
       </c>
       <c r="J45" s="3">
+        <v>498300</v>
+      </c>
+      <c r="K45" s="3">
         <v>544100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>309400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2192600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>616000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>561100</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>22908800</v>
+        <v>27701600</v>
       </c>
       <c r="E46" s="3">
-        <v>13866500</v>
+        <v>23743600</v>
       </c>
       <c r="F46" s="3">
-        <v>16829900</v>
+        <v>14371900</v>
       </c>
       <c r="G46" s="3">
-        <v>17653700</v>
+        <v>17443200</v>
       </c>
       <c r="H46" s="3">
-        <v>15078200</v>
+        <v>18297100</v>
       </c>
       <c r="I46" s="3">
-        <v>16259300</v>
+        <v>15627700</v>
       </c>
       <c r="J46" s="3">
+        <v>16851800</v>
+      </c>
+      <c r="K46" s="3">
         <v>13017200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19241000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>21263700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>22136800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>23862400</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5038700</v>
+        <v>6149100</v>
       </c>
       <c r="E47" s="3">
-        <v>7002700</v>
+        <v>5222300</v>
       </c>
       <c r="F47" s="3">
-        <v>8545100</v>
+        <v>7257900</v>
       </c>
       <c r="G47" s="3">
-        <v>8503300</v>
+        <v>8856500</v>
       </c>
       <c r="H47" s="3">
-        <v>11543200</v>
+        <v>8813100</v>
       </c>
       <c r="I47" s="3">
-        <v>11616700</v>
+        <v>11963900</v>
       </c>
       <c r="J47" s="3">
+        <v>12040000</v>
+      </c>
+      <c r="K47" s="3">
         <v>12776300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>13213900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>16090100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8171300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3696300</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22177900</v>
+        <v>23773300</v>
       </c>
       <c r="E48" s="3">
-        <v>21362300</v>
+        <v>22986100</v>
       </c>
       <c r="F48" s="3">
-        <v>23693800</v>
+        <v>22140800</v>
       </c>
       <c r="G48" s="3">
-        <v>26029400</v>
+        <v>24557200</v>
       </c>
       <c r="H48" s="3">
-        <v>25180100</v>
+        <v>26977900</v>
       </c>
       <c r="I48" s="3">
-        <v>27932200</v>
+        <v>26097700</v>
       </c>
       <c r="J48" s="3">
+        <v>28950100</v>
+      </c>
+      <c r="K48" s="3">
         <v>57603700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19379900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>38369300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>31020700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>43176300</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3569700</v>
+        <v>2090600</v>
       </c>
       <c r="E49" s="3">
-        <v>3422700</v>
+        <v>3699800</v>
       </c>
       <c r="F49" s="3">
-        <v>4563000</v>
+        <v>3547500</v>
       </c>
       <c r="G49" s="3">
-        <v>5202000</v>
+        <v>4729300</v>
       </c>
       <c r="H49" s="3">
-        <v>4679300</v>
+        <v>5391600</v>
       </c>
       <c r="I49" s="3">
-        <v>5215300</v>
+        <v>4849900</v>
       </c>
       <c r="J49" s="3">
+        <v>5405300</v>
+      </c>
+      <c r="K49" s="3">
         <v>9771100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2099000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6717900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6054400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9135800</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3729000</v>
+        <v>3727300</v>
       </c>
       <c r="E52" s="3">
-        <v>4673200</v>
+        <v>3864900</v>
       </c>
       <c r="F52" s="3">
-        <v>5467400</v>
+        <v>4843500</v>
       </c>
       <c r="G52" s="3">
-        <v>4653800</v>
+        <v>5666600</v>
       </c>
       <c r="H52" s="3">
-        <v>4621200</v>
+        <v>4823400</v>
       </c>
       <c r="I52" s="3">
-        <v>5174400</v>
+        <v>4789600</v>
       </c>
       <c r="J52" s="3">
+        <v>5363000</v>
+      </c>
+      <c r="K52" s="3">
         <v>5286700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4654200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9589900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3900100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3419300</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>57424100</v>
+        <v>63441900</v>
       </c>
       <c r="E54" s="3">
-        <v>50327500</v>
+        <v>59516700</v>
       </c>
       <c r="F54" s="3">
-        <v>59099200</v>
+        <v>52161500</v>
       </c>
       <c r="G54" s="3">
-        <v>62042200</v>
+        <v>61252900</v>
       </c>
       <c r="H54" s="3">
-        <v>61102000</v>
+        <v>64303100</v>
       </c>
       <c r="I54" s="3">
-        <v>66197900</v>
+        <v>63328700</v>
       </c>
       <c r="J54" s="3">
+        <v>68610200</v>
+      </c>
+      <c r="K54" s="3">
         <v>64510500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>58587900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>66445300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>71283300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>83290000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5663400</v>
+        <v>5328100</v>
       </c>
       <c r="E57" s="3">
-        <v>2522400</v>
+        <v>5869800</v>
       </c>
       <c r="F57" s="3">
-        <v>3713700</v>
+        <v>2614300</v>
       </c>
       <c r="G57" s="3">
-        <v>3311500</v>
+        <v>3849000</v>
       </c>
       <c r="H57" s="3">
-        <v>2795000</v>
+        <v>3432200</v>
       </c>
       <c r="I57" s="3">
-        <v>2172300</v>
+        <v>2896800</v>
       </c>
       <c r="J57" s="3">
+        <v>2251400</v>
+      </c>
+      <c r="K57" s="3">
         <v>1836400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2653400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3095800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4804800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5583800</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4577300</v>
+        <v>3416300</v>
       </c>
       <c r="E58" s="3">
-        <v>3699400</v>
+        <v>4744100</v>
       </c>
       <c r="F58" s="3">
-        <v>6577000</v>
+        <v>3834200</v>
       </c>
       <c r="G58" s="3">
-        <v>4507900</v>
+        <v>6816700</v>
       </c>
       <c r="H58" s="3">
-        <v>4226100</v>
+        <v>4672100</v>
       </c>
       <c r="I58" s="3">
-        <v>3981100</v>
+        <v>4380100</v>
       </c>
       <c r="J58" s="3">
+        <v>4126200</v>
+      </c>
+      <c r="K58" s="3">
         <v>4379200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1684600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4266800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4407400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6113200</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7437500</v>
+        <v>9154900</v>
       </c>
       <c r="E59" s="3">
-        <v>4516000</v>
+        <v>7708600</v>
       </c>
       <c r="F59" s="3">
-        <v>5108100</v>
+        <v>4680600</v>
       </c>
       <c r="G59" s="3">
-        <v>5257100</v>
+        <v>5294200</v>
       </c>
       <c r="H59" s="3">
-        <v>5264300</v>
+        <v>5448700</v>
       </c>
       <c r="I59" s="3">
-        <v>8890100</v>
+        <v>5456100</v>
       </c>
       <c r="J59" s="3">
+        <v>9214100</v>
+      </c>
+      <c r="K59" s="3">
         <v>21716500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7227400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19340200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5402200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8379800</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17678200</v>
+        <v>17899200</v>
       </c>
       <c r="E60" s="3">
-        <v>10737800</v>
+        <v>18322400</v>
       </c>
       <c r="F60" s="3">
-        <v>15398800</v>
+        <v>11129100</v>
       </c>
       <c r="G60" s="3">
-        <v>13076400</v>
+        <v>15959900</v>
       </c>
       <c r="H60" s="3">
-        <v>12285300</v>
+        <v>13553000</v>
       </c>
       <c r="I60" s="3">
-        <v>15043500</v>
+        <v>12733000</v>
       </c>
       <c r="J60" s="3">
+        <v>15591700</v>
+      </c>
+      <c r="K60" s="3">
         <v>14778100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11565400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>16000400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14614400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>20076800</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10216200</v>
+        <v>10717500</v>
       </c>
       <c r="E61" s="3">
-        <v>12183200</v>
+        <v>10588500</v>
       </c>
       <c r="F61" s="3">
-        <v>10995000</v>
+        <v>12627200</v>
       </c>
       <c r="G61" s="3">
-        <v>10888900</v>
+        <v>11395700</v>
       </c>
       <c r="H61" s="3">
-        <v>8914600</v>
+        <v>11285700</v>
       </c>
       <c r="I61" s="3">
-        <v>11173700</v>
+        <v>9239500</v>
       </c>
       <c r="J61" s="3">
+        <v>11580900</v>
+      </c>
+      <c r="K61" s="3">
         <v>12272100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10091900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11574400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>19813400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>21373900</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6261600</v>
+        <v>7345700</v>
       </c>
       <c r="E62" s="3">
-        <v>6440200</v>
+        <v>6489800</v>
       </c>
       <c r="F62" s="3">
-        <v>6972100</v>
+        <v>6674900</v>
       </c>
       <c r="G62" s="3">
-        <v>6519800</v>
+        <v>7226100</v>
       </c>
       <c r="H62" s="3">
-        <v>9213700</v>
+        <v>6757400</v>
       </c>
       <c r="I62" s="3">
-        <v>8222500</v>
+        <v>9549500</v>
       </c>
       <c r="J62" s="3">
+        <v>8522200</v>
+      </c>
+      <c r="K62" s="3">
         <v>14048200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5141900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10932100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6691200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10095900</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>34543900</v>
+        <v>36680900</v>
       </c>
       <c r="E66" s="3">
-        <v>29610300</v>
+        <v>35802700</v>
       </c>
       <c r="F66" s="3">
-        <v>33652700</v>
+        <v>30689400</v>
       </c>
       <c r="G66" s="3">
-        <v>30777100</v>
+        <v>34879100</v>
       </c>
       <c r="H66" s="3">
-        <v>30689300</v>
+        <v>31898700</v>
       </c>
       <c r="I66" s="3">
-        <v>34688800</v>
+        <v>31807700</v>
       </c>
       <c r="J66" s="3">
+        <v>35953000</v>
+      </c>
+      <c r="K66" s="3">
         <v>35383000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>27044200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>33900300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>41964500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>55660900</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15430400</v>
+        <v>17946900</v>
       </c>
       <c r="E72" s="3">
-        <v>14051300</v>
+        <v>15992700</v>
       </c>
       <c r="F72" s="3">
-        <v>16983000</v>
+        <v>14563400</v>
       </c>
       <c r="G72" s="3">
-        <v>22260600</v>
+        <v>17601900</v>
       </c>
       <c r="H72" s="3">
-        <v>21675700</v>
+        <v>23071800</v>
       </c>
       <c r="I72" s="3">
-        <v>19946400</v>
+        <v>22465600</v>
       </c>
       <c r="J72" s="3">
+        <v>20673300</v>
+      </c>
+      <c r="K72" s="3">
         <v>18582600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>22385500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>56477400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>22421200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>22074700</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22880200</v>
+        <v>26761100</v>
       </c>
       <c r="E76" s="3">
-        <v>20717100</v>
+        <v>23714000</v>
       </c>
       <c r="F76" s="3">
-        <v>25446500</v>
+        <v>21472100</v>
       </c>
       <c r="G76" s="3">
-        <v>31265100</v>
+        <v>26373800</v>
       </c>
       <c r="H76" s="3">
-        <v>30412700</v>
+        <v>32404400</v>
       </c>
       <c r="I76" s="3">
-        <v>31509000</v>
+        <v>31521000</v>
       </c>
       <c r="J76" s="3">
+        <v>32657300</v>
+      </c>
+      <c r="K76" s="3">
         <v>29127500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>31543700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>32545000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>29318800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>27629100</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2489700</v>
+        <v>4434100</v>
       </c>
       <c r="E81" s="3">
-        <v>-3412500</v>
+        <v>2580500</v>
       </c>
       <c r="F81" s="3">
-        <v>-3925000</v>
+        <v>-3536900</v>
       </c>
       <c r="G81" s="3">
-        <v>2360100</v>
+        <v>-4068000</v>
       </c>
       <c r="H81" s="3">
-        <v>2135500</v>
+        <v>2446100</v>
       </c>
       <c r="I81" s="3">
-        <v>1743500</v>
+        <v>2213300</v>
       </c>
       <c r="J81" s="3">
+        <v>1807100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1449500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1820100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>233300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2390300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2574200</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2045700</v>
+        <v>2474700</v>
       </c>
       <c r="E83" s="3">
-        <v>2252900</v>
+        <v>2120200</v>
       </c>
       <c r="F83" s="3">
-        <v>2484600</v>
+        <v>2335000</v>
       </c>
       <c r="G83" s="3">
-        <v>2184500</v>
+        <v>2575200</v>
       </c>
       <c r="H83" s="3">
-        <v>2448900</v>
+        <v>2264100</v>
       </c>
       <c r="I83" s="3">
-        <v>2581600</v>
+        <v>2538100</v>
       </c>
       <c r="J83" s="3">
+        <v>2675700</v>
+      </c>
+      <c r="K83" s="3">
         <v>3189000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2027900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1818200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2743900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2428600</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4774300</v>
+        <v>8286300</v>
       </c>
       <c r="E89" s="3">
-        <v>2795000</v>
+        <v>4948300</v>
       </c>
       <c r="F89" s="3">
-        <v>4949900</v>
+        <v>2896800</v>
       </c>
       <c r="G89" s="3">
-        <v>4674200</v>
+        <v>5130200</v>
       </c>
       <c r="H89" s="3">
-        <v>5219400</v>
+        <v>4844600</v>
       </c>
       <c r="I89" s="3">
-        <v>3970900</v>
+        <v>5409600</v>
       </c>
       <c r="J89" s="3">
+        <v>4115600</v>
+      </c>
+      <c r="K89" s="3">
         <v>5038700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3496800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3198600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7434600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4836100</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1941600</v>
+        <v>-3740000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1925200</v>
+        <v>-2012300</v>
       </c>
       <c r="F91" s="3">
-        <v>-3294100</v>
+        <v>-1995400</v>
       </c>
       <c r="G91" s="3">
-        <v>-2716300</v>
+        <v>-3414200</v>
       </c>
       <c r="H91" s="3">
-        <v>-2347800</v>
+        <v>-2815300</v>
       </c>
       <c r="I91" s="3">
-        <v>-2044700</v>
+        <v>-2433400</v>
       </c>
       <c r="J91" s="3">
+        <v>-2119200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3053200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2942400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2382800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3743100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4169400</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2994000</v>
+        <v>-4341000</v>
       </c>
       <c r="E94" s="3">
-        <v>226600</v>
+        <v>-3103100</v>
       </c>
       <c r="F94" s="3">
-        <v>-4498700</v>
+        <v>234900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1387300</v>
+        <v>-4662600</v>
       </c>
       <c r="H94" s="3">
-        <v>-2847000</v>
+        <v>-1437800</v>
       </c>
       <c r="I94" s="3">
-        <v>399100</v>
+        <v>-2950800</v>
       </c>
       <c r="J94" s="3">
+        <v>413700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-9146400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1277000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>372000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4125200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6225900</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-638000</v>
+        <v>-1086600</v>
       </c>
       <c r="E96" s="3">
-        <v>-353200</v>
+        <v>-661300</v>
       </c>
       <c r="F96" s="3">
-        <v>-404200</v>
+        <v>-366100</v>
       </c>
       <c r="G96" s="3">
-        <v>-303200</v>
+        <v>-419000</v>
       </c>
       <c r="H96" s="3">
-        <v>-338900</v>
+        <v>-314200</v>
       </c>
       <c r="I96" s="3">
-        <v>-428700</v>
+        <v>-351300</v>
       </c>
       <c r="J96" s="3">
+        <v>-444400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-498200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1933000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-562200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1039800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1564700</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-540000</v>
+        <v>-2996300</v>
       </c>
       <c r="E100" s="3">
-        <v>-1648600</v>
+        <v>-559700</v>
       </c>
       <c r="F100" s="3">
-        <v>-2336600</v>
+        <v>-1708700</v>
       </c>
       <c r="G100" s="3">
-        <v>-3095100</v>
+        <v>-2421800</v>
       </c>
       <c r="H100" s="3">
-        <v>-2410100</v>
+        <v>-3207900</v>
       </c>
       <c r="I100" s="3">
-        <v>-2095700</v>
+        <v>-2497900</v>
       </c>
       <c r="J100" s="3">
+        <v>-2172100</v>
+      </c>
+      <c r="K100" s="3">
         <v>1811900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6157000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1625600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>318400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2938000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>62400</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G101" s="3">
+        <v>42300</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-51800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K101" s="3">
         <v>60200</v>
       </c>
-      <c r="E101" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="F101" s="3">
-        <v>40800</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-50000</v>
-      </c>
-      <c r="I101" s="3">
-        <v>11200</v>
-      </c>
-      <c r="J101" s="3">
-        <v>60200</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>166000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-21500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-85600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-98600</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1300500</v>
+        <v>970200</v>
       </c>
       <c r="E102" s="3">
-        <v>1369900</v>
+        <v>1347900</v>
       </c>
       <c r="F102" s="3">
-        <v>-1844600</v>
+        <v>1419800</v>
       </c>
       <c r="G102" s="3">
-        <v>188800</v>
+        <v>-1911800</v>
       </c>
       <c r="H102" s="3">
-        <v>-87800</v>
+        <v>195700</v>
       </c>
       <c r="I102" s="3">
-        <v>2285600</v>
+        <v>-91000</v>
       </c>
       <c r="J102" s="3">
+        <v>2368900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2235600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1217200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1923500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3542100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4426400</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/REPYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/REPYY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>79511900</v>
+        <v>80932300</v>
       </c>
       <c r="E8" s="3">
-        <v>52630200</v>
+        <v>53570400</v>
       </c>
       <c r="F8" s="3">
-        <v>35212400</v>
+        <v>35841400</v>
       </c>
       <c r="G8" s="3">
-        <v>52189000</v>
+        <v>53121300</v>
       </c>
       <c r="H8" s="3">
-        <v>52765600</v>
+        <v>53708200</v>
       </c>
       <c r="I8" s="3">
-        <v>44084700</v>
+        <v>44872300</v>
       </c>
       <c r="J8" s="3">
-        <v>36701000</v>
+        <v>37356600</v>
       </c>
       <c r="K8" s="3">
         <v>40563500</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>59714600</v>
+        <v>60781300</v>
       </c>
       <c r="E9" s="3">
-        <v>39630600</v>
+        <v>40338500</v>
       </c>
       <c r="F9" s="3">
-        <v>27523900</v>
+        <v>28015600</v>
       </c>
       <c r="G9" s="3">
-        <v>39865400</v>
+        <v>40577600</v>
       </c>
       <c r="H9" s="3">
-        <v>40907600</v>
+        <v>41638300</v>
       </c>
       <c r="I9" s="3">
-        <v>32678400</v>
+        <v>33262200</v>
       </c>
       <c r="J9" s="3">
-        <v>24848200</v>
+        <v>25292100</v>
       </c>
       <c r="K9" s="3">
         <v>34077400</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>19797300</v>
+        <v>20151000</v>
       </c>
       <c r="E10" s="3">
-        <v>12999600</v>
+        <v>13231900</v>
       </c>
       <c r="F10" s="3">
-        <v>7688500</v>
+        <v>7825800</v>
       </c>
       <c r="G10" s="3">
-        <v>12323600</v>
+        <v>12543700</v>
       </c>
       <c r="H10" s="3">
-        <v>11858100</v>
+        <v>12069900</v>
       </c>
       <c r="I10" s="3">
-        <v>11406300</v>
+        <v>11610100</v>
       </c>
       <c r="J10" s="3">
-        <v>11852800</v>
+        <v>12064500</v>
       </c>
       <c r="K10" s="3">
         <v>6486200</v>
@@ -870,10 +870,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>79400</v>
+        <v>80800</v>
       </c>
       <c r="E12" s="3">
-        <v>85700</v>
+        <v>87200</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>8</v>
@@ -882,13 +882,13 @@
         <v>8</v>
       </c>
       <c r="H12" s="3">
-        <v>555500</v>
+        <v>565400</v>
       </c>
       <c r="I12" s="3">
-        <v>693000</v>
+        <v>705400</v>
       </c>
       <c r="J12" s="3">
-        <v>356500</v>
+        <v>362900</v>
       </c>
       <c r="K12" s="3">
         <v>1607800</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2499000</v>
+        <v>2543600</v>
       </c>
       <c r="E14" s="3">
-        <v>465500</v>
+        <v>473800</v>
       </c>
       <c r="F14" s="3">
-        <v>2027100</v>
+        <v>2063300</v>
       </c>
       <c r="G14" s="3">
-        <v>5612700</v>
+        <v>5713000</v>
       </c>
       <c r="H14" s="3">
-        <v>1181800</v>
+        <v>1202900</v>
       </c>
       <c r="I14" s="3">
-        <v>-1314000</v>
+        <v>-1337500</v>
       </c>
       <c r="J14" s="3">
-        <v>-914100</v>
+        <v>-930400</v>
       </c>
       <c r="K14" s="3">
         <v>2303900</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2474700</v>
+        <v>2518900</v>
       </c>
       <c r="E15" s="3">
-        <v>2120200</v>
+        <v>2158100</v>
       </c>
       <c r="F15" s="3">
-        <v>2335000</v>
+        <v>2376700</v>
       </c>
       <c r="G15" s="3">
-        <v>2575200</v>
+        <v>2621200</v>
       </c>
       <c r="H15" s="3">
-        <v>2024000</v>
+        <v>2060100</v>
       </c>
       <c r="I15" s="3">
-        <v>2350900</v>
+        <v>2392900</v>
       </c>
       <c r="J15" s="3">
-        <v>2420700</v>
+        <v>2463900</v>
       </c>
       <c r="K15" s="3">
         <v>2379500</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>73260200</v>
+        <v>74568900</v>
       </c>
       <c r="E17" s="3">
-        <v>48626700</v>
+        <v>49495400</v>
       </c>
       <c r="F17" s="3">
-        <v>37854200</v>
+        <v>38530400</v>
       </c>
       <c r="G17" s="3">
-        <v>55622200</v>
+        <v>56615900</v>
       </c>
       <c r="H17" s="3">
-        <v>50561800</v>
+        <v>51465100</v>
       </c>
       <c r="I17" s="3">
-        <v>41135000</v>
+        <v>41869900</v>
       </c>
       <c r="J17" s="3">
-        <v>34628300</v>
+        <v>35246900</v>
       </c>
       <c r="K17" s="3">
         <v>43170700</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6251700</v>
+        <v>6363400</v>
       </c>
       <c r="E18" s="3">
-        <v>4003500</v>
+        <v>4075000</v>
       </c>
       <c r="F18" s="3">
-        <v>-2641800</v>
+        <v>-2689000</v>
       </c>
       <c r="G18" s="3">
-        <v>-3433200</v>
+        <v>-3494500</v>
       </c>
       <c r="H18" s="3">
-        <v>2203800</v>
+        <v>2243200</v>
       </c>
       <c r="I18" s="3">
-        <v>2949700</v>
+        <v>3002400</v>
       </c>
       <c r="J18" s="3">
-        <v>2072600</v>
+        <v>2109600</v>
       </c>
       <c r="K18" s="3">
         <v>-2607100</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1457900</v>
+        <v>1484000</v>
       </c>
       <c r="E20" s="3">
-        <v>677100</v>
+        <v>689200</v>
       </c>
       <c r="F20" s="3">
-        <v>-733200</v>
+        <v>-746300</v>
       </c>
       <c r="G20" s="3">
-        <v>159800</v>
+        <v>162600</v>
       </c>
       <c r="H20" s="3">
-        <v>1387000</v>
+        <v>1411800</v>
       </c>
       <c r="I20" s="3">
-        <v>832600</v>
+        <v>847500</v>
       </c>
       <c r="J20" s="3">
-        <v>439100</v>
+        <v>446900</v>
       </c>
       <c r="K20" s="3">
         <v>743100</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>10175900</v>
+        <v>10382600</v>
       </c>
       <c r="E21" s="3">
-        <v>6793600</v>
+        <v>6936400</v>
       </c>
       <c r="F21" s="3">
-        <v>-1048000</v>
+        <v>-1043100</v>
       </c>
       <c r="G21" s="3">
-        <v>-707000</v>
+        <v>-693700</v>
       </c>
       <c r="H21" s="3">
-        <v>5847300</v>
+        <v>5974600</v>
       </c>
       <c r="I21" s="3">
-        <v>6311900</v>
+        <v>6450200</v>
       </c>
       <c r="J21" s="3">
-        <v>5178300</v>
+        <v>5297800</v>
       </c>
       <c r="K21" s="3">
         <v>1263500</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>113200</v>
+        <v>115200</v>
       </c>
       <c r="E22" s="3">
-        <v>100500</v>
+        <v>102300</v>
       </c>
       <c r="F22" s="3">
-        <v>120600</v>
+        <v>122800</v>
       </c>
       <c r="G22" s="3">
-        <v>113200</v>
+        <v>115200</v>
       </c>
       <c r="H22" s="3">
-        <v>64500</v>
+        <v>65700</v>
       </c>
       <c r="I22" s="3">
-        <v>495100</v>
+        <v>504000</v>
       </c>
       <c r="J22" s="3">
-        <v>532200</v>
+        <v>541700</v>
       </c>
       <c r="K22" s="3">
         <v>536900</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7596400</v>
+        <v>7732100</v>
       </c>
       <c r="E23" s="3">
-        <v>4580100</v>
+        <v>4661900</v>
       </c>
       <c r="F23" s="3">
-        <v>-3495600</v>
+        <v>-3558100</v>
       </c>
       <c r="G23" s="3">
-        <v>-3386700</v>
+        <v>-3447200</v>
       </c>
       <c r="H23" s="3">
-        <v>3526300</v>
+        <v>3589300</v>
       </c>
       <c r="I23" s="3">
-        <v>3287200</v>
+        <v>3345900</v>
       </c>
       <c r="J23" s="3">
-        <v>1979500</v>
+        <v>2014900</v>
       </c>
       <c r="K23" s="3">
         <v>-2400900</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2999400</v>
+        <v>3053000</v>
       </c>
       <c r="E24" s="3">
-        <v>1905500</v>
+        <v>1939500</v>
       </c>
       <c r="F24" s="3">
-        <v>16900</v>
+        <v>17200</v>
       </c>
       <c r="G24" s="3">
-        <v>622100</v>
+        <v>633200</v>
       </c>
       <c r="H24" s="3">
-        <v>1466400</v>
+        <v>1492600</v>
       </c>
       <c r="I24" s="3">
-        <v>1290800</v>
+        <v>1313800</v>
       </c>
       <c r="J24" s="3">
-        <v>413700</v>
+        <v>421100</v>
       </c>
       <c r="K24" s="3">
         <v>-1016700</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4597000</v>
+        <v>4679100</v>
       </c>
       <c r="E26" s="3">
-        <v>2674600</v>
+        <v>2722400</v>
       </c>
       <c r="F26" s="3">
-        <v>-3512600</v>
+        <v>-3575300</v>
       </c>
       <c r="G26" s="3">
-        <v>-4008800</v>
+        <v>-4080400</v>
       </c>
       <c r="H26" s="3">
-        <v>2059900</v>
+        <v>2096700</v>
       </c>
       <c r="I26" s="3">
-        <v>1996400</v>
+        <v>2032100</v>
       </c>
       <c r="J26" s="3">
-        <v>1565800</v>
+        <v>1593800</v>
       </c>
       <c r="K26" s="3">
         <v>-1384200</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4434100</v>
+        <v>4513300</v>
       </c>
       <c r="E27" s="3">
-        <v>2580500</v>
+        <v>2626600</v>
       </c>
       <c r="F27" s="3">
-        <v>-3536900</v>
+        <v>-3600100</v>
       </c>
       <c r="G27" s="3">
-        <v>-4068000</v>
+        <v>-4140700</v>
       </c>
       <c r="H27" s="3">
-        <v>2010200</v>
+        <v>2046100</v>
       </c>
       <c r="I27" s="3">
-        <v>1923400</v>
+        <v>1957800</v>
       </c>
       <c r="J27" s="3">
-        <v>1490700</v>
+        <v>1517400</v>
       </c>
       <c r="K27" s="3">
         <v>-1449500</v>
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>435900</v>
+        <v>443700</v>
       </c>
       <c r="I29" s="3">
-        <v>289900</v>
+        <v>295100</v>
       </c>
       <c r="J29" s="3">
-        <v>316300</v>
+        <v>322000</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1457900</v>
+        <v>-1484000</v>
       </c>
       <c r="E32" s="3">
-        <v>-677100</v>
+        <v>-689200</v>
       </c>
       <c r="F32" s="3">
-        <v>733200</v>
+        <v>746300</v>
       </c>
       <c r="G32" s="3">
-        <v>-159800</v>
+        <v>-162600</v>
       </c>
       <c r="H32" s="3">
-        <v>-1387000</v>
+        <v>-1411800</v>
       </c>
       <c r="I32" s="3">
-        <v>-832600</v>
+        <v>-847500</v>
       </c>
       <c r="J32" s="3">
-        <v>-439100</v>
+        <v>-446900</v>
       </c>
       <c r="K32" s="3">
         <v>-743100</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4434100</v>
+        <v>4513300</v>
       </c>
       <c r="E33" s="3">
-        <v>2580500</v>
+        <v>2626600</v>
       </c>
       <c r="F33" s="3">
-        <v>-3536900</v>
+        <v>-3600100</v>
       </c>
       <c r="G33" s="3">
-        <v>-4068000</v>
+        <v>-4140700</v>
       </c>
       <c r="H33" s="3">
-        <v>2446100</v>
+        <v>2489800</v>
       </c>
       <c r="I33" s="3">
-        <v>2213300</v>
+        <v>2252900</v>
       </c>
       <c r="J33" s="3">
-        <v>1807100</v>
+        <v>1839300</v>
       </c>
       <c r="K33" s="3">
         <v>-1449500</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4434100</v>
+        <v>4513300</v>
       </c>
       <c r="E35" s="3">
-        <v>2580500</v>
+        <v>2626600</v>
       </c>
       <c r="F35" s="3">
-        <v>-3536900</v>
+        <v>-3600100</v>
       </c>
       <c r="G35" s="3">
-        <v>-4068000</v>
+        <v>-4140700</v>
       </c>
       <c r="H35" s="3">
-        <v>2446100</v>
+        <v>2489800</v>
       </c>
       <c r="I35" s="3">
-        <v>2213300</v>
+        <v>2252900</v>
       </c>
       <c r="J35" s="3">
-        <v>1807100</v>
+        <v>1839300</v>
       </c>
       <c r="K35" s="3">
         <v>-1449500</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2831200</v>
+        <v>2881800</v>
       </c>
       <c r="E41" s="3">
-        <v>2653500</v>
+        <v>2700900</v>
       </c>
       <c r="F41" s="3">
-        <v>2363600</v>
+        <v>2405800</v>
       </c>
       <c r="G41" s="3">
-        <v>2507500</v>
+        <v>2552300</v>
       </c>
       <c r="H41" s="3">
-        <v>4363200</v>
+        <v>4441100</v>
       </c>
       <c r="I41" s="3">
-        <v>3970700</v>
+        <v>4041600</v>
       </c>
       <c r="J41" s="3">
-        <v>3393000</v>
+        <v>3453600</v>
       </c>
       <c r="K41" s="3">
         <v>4858000</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7820700</v>
+        <v>7960400</v>
       </c>
       <c r="E42" s="3">
-        <v>6945800</v>
+        <v>7069800</v>
       </c>
       <c r="F42" s="3">
-        <v>4095500</v>
+        <v>4168700</v>
       </c>
       <c r="G42" s="3">
-        <v>3784500</v>
+        <v>3852100</v>
       </c>
       <c r="H42" s="3">
-        <v>2765600</v>
+        <v>2815000</v>
       </c>
       <c r="I42" s="3">
-        <v>1232600</v>
+        <v>1254600</v>
       </c>
       <c r="J42" s="3">
-        <v>2987800</v>
+        <v>3041200</v>
       </c>
       <c r="K42" s="3">
         <v>1824200</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9023700</v>
+        <v>9184900</v>
       </c>
       <c r="E43" s="3">
-        <v>7629200</v>
+        <v>7765500</v>
       </c>
       <c r="F43" s="3">
-        <v>4079600</v>
+        <v>4152500</v>
       </c>
       <c r="G43" s="3">
-        <v>6076100</v>
+        <v>6184600</v>
       </c>
       <c r="H43" s="3">
-        <v>6204100</v>
+        <v>6314900</v>
       </c>
       <c r="I43" s="3">
-        <v>6191400</v>
+        <v>6302000</v>
       </c>
       <c r="J43" s="3">
-        <v>6158600</v>
+        <v>6268600</v>
       </c>
       <c r="K43" s="3">
         <v>13836900</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7716000</v>
+        <v>7853800</v>
       </c>
       <c r="E44" s="3">
-        <v>5530200</v>
+        <v>5629000</v>
       </c>
       <c r="F44" s="3">
-        <v>3575000</v>
+        <v>3638800</v>
       </c>
       <c r="G44" s="3">
-        <v>4863600</v>
+        <v>4950500</v>
       </c>
       <c r="H44" s="3">
-        <v>4644600</v>
+        <v>4727600</v>
       </c>
       <c r="I44" s="3">
-        <v>4017200</v>
+        <v>4089000</v>
       </c>
       <c r="J44" s="3">
-        <v>3814100</v>
+        <v>3882200</v>
       </c>
       <c r="K44" s="3">
         <v>5824700</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>310000</v>
+        <v>315500</v>
       </c>
       <c r="E45" s="3">
-        <v>985000</v>
+        <v>1002600</v>
       </c>
       <c r="F45" s="3">
-        <v>258200</v>
+        <v>262800</v>
       </c>
       <c r="G45" s="3">
-        <v>211600</v>
+        <v>215400</v>
       </c>
       <c r="H45" s="3">
-        <v>319500</v>
+        <v>325200</v>
       </c>
       <c r="I45" s="3">
-        <v>215800</v>
+        <v>219700</v>
       </c>
       <c r="J45" s="3">
-        <v>498300</v>
+        <v>507200</v>
       </c>
       <c r="K45" s="3">
         <v>544100</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>27701600</v>
+        <v>28196500</v>
       </c>
       <c r="E46" s="3">
-        <v>23743600</v>
+        <v>24167800</v>
       </c>
       <c r="F46" s="3">
-        <v>14371900</v>
+        <v>14628600</v>
       </c>
       <c r="G46" s="3">
-        <v>17443200</v>
+        <v>17754900</v>
       </c>
       <c r="H46" s="3">
-        <v>18297100</v>
+        <v>18623900</v>
       </c>
       <c r="I46" s="3">
-        <v>15627700</v>
+        <v>15906900</v>
       </c>
       <c r="J46" s="3">
-        <v>16851800</v>
+        <v>17152900</v>
       </c>
       <c r="K46" s="3">
         <v>13017200</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6149100</v>
+        <v>6258900</v>
       </c>
       <c r="E47" s="3">
-        <v>5222300</v>
+        <v>5315600</v>
       </c>
       <c r="F47" s="3">
-        <v>7257900</v>
+        <v>7387500</v>
       </c>
       <c r="G47" s="3">
-        <v>8856500</v>
+        <v>9014700</v>
       </c>
       <c r="H47" s="3">
-        <v>8813100</v>
+        <v>8970600</v>
       </c>
       <c r="I47" s="3">
-        <v>11963900</v>
+        <v>12177600</v>
       </c>
       <c r="J47" s="3">
-        <v>12040000</v>
+        <v>12255100</v>
       </c>
       <c r="K47" s="3">
         <v>12776300</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23773300</v>
+        <v>24197900</v>
       </c>
       <c r="E48" s="3">
-        <v>22986100</v>
+        <v>23396700</v>
       </c>
       <c r="F48" s="3">
-        <v>22140800</v>
+        <v>22536300</v>
       </c>
       <c r="G48" s="3">
-        <v>24557200</v>
+        <v>24995900</v>
       </c>
       <c r="H48" s="3">
-        <v>26977900</v>
+        <v>27459900</v>
       </c>
       <c r="I48" s="3">
-        <v>26097700</v>
+        <v>26563900</v>
       </c>
       <c r="J48" s="3">
-        <v>28950100</v>
+        <v>29467200</v>
       </c>
       <c r="K48" s="3">
         <v>57603700</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2090600</v>
+        <v>2128000</v>
       </c>
       <c r="E49" s="3">
-        <v>3699800</v>
+        <v>3765900</v>
       </c>
       <c r="F49" s="3">
-        <v>3547500</v>
+        <v>3610800</v>
       </c>
       <c r="G49" s="3">
-        <v>4729300</v>
+        <v>4813700</v>
       </c>
       <c r="H49" s="3">
-        <v>5391600</v>
+        <v>5487900</v>
       </c>
       <c r="I49" s="3">
-        <v>4849900</v>
+        <v>4936500</v>
       </c>
       <c r="J49" s="3">
-        <v>5405300</v>
+        <v>5501900</v>
       </c>
       <c r="K49" s="3">
         <v>9771100</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3727300</v>
+        <v>3793900</v>
       </c>
       <c r="E52" s="3">
-        <v>3864900</v>
+        <v>3933900</v>
       </c>
       <c r="F52" s="3">
-        <v>4843500</v>
+        <v>4930000</v>
       </c>
       <c r="G52" s="3">
-        <v>5666600</v>
+        <v>5767900</v>
       </c>
       <c r="H52" s="3">
-        <v>4823400</v>
+        <v>4909600</v>
       </c>
       <c r="I52" s="3">
-        <v>4789600</v>
+        <v>4875100</v>
       </c>
       <c r="J52" s="3">
-        <v>5363000</v>
+        <v>5458800</v>
       </c>
       <c r="K52" s="3">
         <v>5286700</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>63441900</v>
+        <v>64575200</v>
       </c>
       <c r="E54" s="3">
-        <v>59516700</v>
+        <v>60579900</v>
       </c>
       <c r="F54" s="3">
-        <v>52161500</v>
+        <v>53093300</v>
       </c>
       <c r="G54" s="3">
-        <v>61252900</v>
+        <v>62347100</v>
       </c>
       <c r="H54" s="3">
-        <v>64303100</v>
+        <v>65451800</v>
       </c>
       <c r="I54" s="3">
-        <v>63328700</v>
+        <v>64460000</v>
       </c>
       <c r="J54" s="3">
-        <v>68610200</v>
+        <v>69835900</v>
       </c>
       <c r="K54" s="3">
         <v>64510500</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5328100</v>
+        <v>5423300</v>
       </c>
       <c r="E57" s="3">
-        <v>5869800</v>
+        <v>5974600</v>
       </c>
       <c r="F57" s="3">
-        <v>2614300</v>
+        <v>2661000</v>
       </c>
       <c r="G57" s="3">
-        <v>3849000</v>
+        <v>3917800</v>
       </c>
       <c r="H57" s="3">
-        <v>3432200</v>
+        <v>3493500</v>
       </c>
       <c r="I57" s="3">
-        <v>2896800</v>
+        <v>2948600</v>
       </c>
       <c r="J57" s="3">
-        <v>2251400</v>
+        <v>2291600</v>
       </c>
       <c r="K57" s="3">
         <v>1836400</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3416300</v>
+        <v>3477300</v>
       </c>
       <c r="E58" s="3">
-        <v>4744100</v>
+        <v>4828800</v>
       </c>
       <c r="F58" s="3">
-        <v>3834200</v>
+        <v>3902700</v>
       </c>
       <c r="G58" s="3">
-        <v>6816700</v>
+        <v>6938500</v>
       </c>
       <c r="H58" s="3">
-        <v>4672100</v>
+        <v>4755600</v>
       </c>
       <c r="I58" s="3">
-        <v>4380100</v>
+        <v>4458400</v>
       </c>
       <c r="J58" s="3">
-        <v>4126200</v>
+        <v>4199900</v>
       </c>
       <c r="K58" s="3">
         <v>4379200</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9154900</v>
+        <v>9318400</v>
       </c>
       <c r="E59" s="3">
-        <v>7708600</v>
+        <v>7846300</v>
       </c>
       <c r="F59" s="3">
-        <v>4680600</v>
+        <v>4764200</v>
       </c>
       <c r="G59" s="3">
-        <v>5294200</v>
+        <v>5388800</v>
       </c>
       <c r="H59" s="3">
-        <v>5448700</v>
+        <v>5546000</v>
       </c>
       <c r="I59" s="3">
-        <v>5456100</v>
+        <v>5553600</v>
       </c>
       <c r="J59" s="3">
-        <v>9214100</v>
+        <v>9378700</v>
       </c>
       <c r="K59" s="3">
         <v>21716500</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17899200</v>
+        <v>18219000</v>
       </c>
       <c r="E60" s="3">
-        <v>18322400</v>
+        <v>18649800</v>
       </c>
       <c r="F60" s="3">
-        <v>11129100</v>
+        <v>11327900</v>
       </c>
       <c r="G60" s="3">
-        <v>15959900</v>
+        <v>16245000</v>
       </c>
       <c r="H60" s="3">
-        <v>13553000</v>
+        <v>13795100</v>
       </c>
       <c r="I60" s="3">
-        <v>12733000</v>
+        <v>12960500</v>
       </c>
       <c r="J60" s="3">
-        <v>15591700</v>
+        <v>15870300</v>
       </c>
       <c r="K60" s="3">
         <v>14778100</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10717500</v>
+        <v>10909000</v>
       </c>
       <c r="E61" s="3">
-        <v>10588500</v>
+        <v>10777600</v>
       </c>
       <c r="F61" s="3">
-        <v>12627200</v>
+        <v>12852800</v>
       </c>
       <c r="G61" s="3">
-        <v>11395700</v>
+        <v>11599300</v>
       </c>
       <c r="H61" s="3">
-        <v>11285700</v>
+        <v>11487300</v>
       </c>
       <c r="I61" s="3">
-        <v>9239500</v>
+        <v>9404600</v>
       </c>
       <c r="J61" s="3">
-        <v>11580900</v>
+        <v>11787700</v>
       </c>
       <c r="K61" s="3">
         <v>12272100</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7345700</v>
+        <v>7476900</v>
       </c>
       <c r="E62" s="3">
-        <v>6489800</v>
+        <v>6605700</v>
       </c>
       <c r="F62" s="3">
-        <v>6674900</v>
+        <v>6794200</v>
       </c>
       <c r="G62" s="3">
-        <v>7226100</v>
+        <v>7355200</v>
       </c>
       <c r="H62" s="3">
-        <v>6757400</v>
+        <v>6878200</v>
       </c>
       <c r="I62" s="3">
-        <v>9549500</v>
+        <v>9720100</v>
       </c>
       <c r="J62" s="3">
-        <v>8522200</v>
+        <v>8674400</v>
       </c>
       <c r="K62" s="3">
         <v>14048200</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>36680900</v>
+        <v>37336100</v>
       </c>
       <c r="E66" s="3">
-        <v>35802700</v>
+        <v>36442300</v>
       </c>
       <c r="F66" s="3">
-        <v>30689400</v>
+        <v>31237600</v>
       </c>
       <c r="G66" s="3">
-        <v>34879100</v>
+        <v>35502200</v>
       </c>
       <c r="H66" s="3">
-        <v>31898700</v>
+        <v>32468500</v>
       </c>
       <c r="I66" s="3">
-        <v>31807700</v>
+        <v>32375900</v>
       </c>
       <c r="J66" s="3">
-        <v>35953000</v>
+        <v>36595200</v>
       </c>
       <c r="K66" s="3">
         <v>35383000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17946900</v>
+        <v>18267500</v>
       </c>
       <c r="E72" s="3">
-        <v>15992700</v>
+        <v>16278400</v>
       </c>
       <c r="F72" s="3">
-        <v>14563400</v>
+        <v>14823500</v>
       </c>
       <c r="G72" s="3">
-        <v>17601900</v>
+        <v>17916400</v>
       </c>
       <c r="H72" s="3">
-        <v>23071800</v>
+        <v>23484000</v>
       </c>
       <c r="I72" s="3">
-        <v>22465600</v>
+        <v>22866900</v>
       </c>
       <c r="J72" s="3">
-        <v>20673300</v>
+        <v>21042600</v>
       </c>
       <c r="K72" s="3">
         <v>18582600</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>26761100</v>
+        <v>27239100</v>
       </c>
       <c r="E76" s="3">
-        <v>23714000</v>
+        <v>24137600</v>
       </c>
       <c r="F76" s="3">
-        <v>21472100</v>
+        <v>21855700</v>
       </c>
       <c r="G76" s="3">
-        <v>26373800</v>
+        <v>26845000</v>
       </c>
       <c r="H76" s="3">
-        <v>32404400</v>
+        <v>32983300</v>
       </c>
       <c r="I76" s="3">
-        <v>31521000</v>
+        <v>32084100</v>
       </c>
       <c r="J76" s="3">
-        <v>32657300</v>
+        <v>33240700</v>
       </c>
       <c r="K76" s="3">
         <v>29127500</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4434100</v>
+        <v>4513300</v>
       </c>
       <c r="E81" s="3">
-        <v>2580500</v>
+        <v>2626600</v>
       </c>
       <c r="F81" s="3">
-        <v>-3536900</v>
+        <v>-3600100</v>
       </c>
       <c r="G81" s="3">
-        <v>-4068000</v>
+        <v>-4140700</v>
       </c>
       <c r="H81" s="3">
-        <v>2446100</v>
+        <v>2489800</v>
       </c>
       <c r="I81" s="3">
-        <v>2213300</v>
+        <v>2252900</v>
       </c>
       <c r="J81" s="3">
-        <v>1807100</v>
+        <v>1839300</v>
       </c>
       <c r="K81" s="3">
         <v>-1449500</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2474700</v>
+        <v>2518900</v>
       </c>
       <c r="E83" s="3">
-        <v>2120200</v>
+        <v>2158100</v>
       </c>
       <c r="F83" s="3">
-        <v>2335000</v>
+        <v>2376700</v>
       </c>
       <c r="G83" s="3">
-        <v>2575200</v>
+        <v>2621200</v>
       </c>
       <c r="H83" s="3">
-        <v>2264100</v>
+        <v>2304600</v>
       </c>
       <c r="I83" s="3">
-        <v>2538100</v>
+        <v>2583500</v>
       </c>
       <c r="J83" s="3">
-        <v>2675700</v>
+        <v>2723500</v>
       </c>
       <c r="K83" s="3">
         <v>3189000</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8286300</v>
+        <v>8434300</v>
       </c>
       <c r="E89" s="3">
-        <v>4948300</v>
+        <v>5036700</v>
       </c>
       <c r="F89" s="3">
-        <v>2896800</v>
+        <v>2948600</v>
       </c>
       <c r="G89" s="3">
-        <v>5130200</v>
+        <v>5221900</v>
       </c>
       <c r="H89" s="3">
-        <v>4844600</v>
+        <v>4931100</v>
       </c>
       <c r="I89" s="3">
-        <v>5409600</v>
+        <v>5506200</v>
       </c>
       <c r="J89" s="3">
-        <v>4115600</v>
+        <v>4189100</v>
       </c>
       <c r="K89" s="3">
         <v>5038700</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3740000</v>
+        <v>-3806800</v>
       </c>
       <c r="E91" s="3">
-        <v>-2012300</v>
+        <v>-2048300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1995400</v>
+        <v>-2031000</v>
       </c>
       <c r="G91" s="3">
-        <v>-3414200</v>
+        <v>-3475200</v>
       </c>
       <c r="H91" s="3">
-        <v>-2815300</v>
+        <v>-2865600</v>
       </c>
       <c r="I91" s="3">
-        <v>-2433400</v>
+        <v>-2476900</v>
       </c>
       <c r="J91" s="3">
-        <v>-2119200</v>
+        <v>-2157000</v>
       </c>
       <c r="K91" s="3">
         <v>-3053200</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4341000</v>
+        <v>-4418500</v>
       </c>
       <c r="E94" s="3">
-        <v>-3103100</v>
+        <v>-3158500</v>
       </c>
       <c r="F94" s="3">
-        <v>234900</v>
+        <v>239100</v>
       </c>
       <c r="G94" s="3">
-        <v>-4662600</v>
+        <v>-4745900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1437800</v>
+        <v>-1463500</v>
       </c>
       <c r="I94" s="3">
-        <v>-2950800</v>
+        <v>-3003500</v>
       </c>
       <c r="J94" s="3">
-        <v>413700</v>
+        <v>421100</v>
       </c>
       <c r="K94" s="3">
         <v>-9146400</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1086600</v>
+        <v>-1106000</v>
       </c>
       <c r="E96" s="3">
-        <v>-661300</v>
+        <v>-673100</v>
       </c>
       <c r="F96" s="3">
-        <v>-366100</v>
+        <v>-372600</v>
       </c>
       <c r="G96" s="3">
-        <v>-419000</v>
+        <v>-426500</v>
       </c>
       <c r="H96" s="3">
-        <v>-314200</v>
+        <v>-319800</v>
       </c>
       <c r="I96" s="3">
-        <v>-351300</v>
+        <v>-357500</v>
       </c>
       <c r="J96" s="3">
-        <v>-444400</v>
+        <v>-452300</v>
       </c>
       <c r="K96" s="3">
         <v>-498200</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2996300</v>
+        <v>-3049800</v>
       </c>
       <c r="E100" s="3">
-        <v>-559700</v>
+        <v>-569700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1708700</v>
+        <v>-1739200</v>
       </c>
       <c r="G100" s="3">
-        <v>-2421800</v>
+        <v>-2465000</v>
       </c>
       <c r="H100" s="3">
-        <v>-3207900</v>
+        <v>-3265200</v>
       </c>
       <c r="I100" s="3">
-        <v>-2497900</v>
+        <v>-2542600</v>
       </c>
       <c r="J100" s="3">
-        <v>-2172100</v>
+        <v>-2210900</v>
       </c>
       <c r="K100" s="3">
         <v>1811900</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>21200</v>
+        <v>21500</v>
       </c>
       <c r="E101" s="3">
-        <v>62400</v>
+        <v>63500</v>
       </c>
       <c r="F101" s="3">
         <v>-3200</v>
       </c>
       <c r="G101" s="3">
-        <v>42300</v>
+        <v>43100</v>
       </c>
       <c r="H101" s="3">
         <v>-3200</v>
       </c>
       <c r="I101" s="3">
-        <v>-51800</v>
+        <v>-52800</v>
       </c>
       <c r="J101" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="K101" s="3">
         <v>60200</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>970200</v>
+        <v>987500</v>
       </c>
       <c r="E102" s="3">
-        <v>1347900</v>
+        <v>1372000</v>
       </c>
       <c r="F102" s="3">
-        <v>1419800</v>
+        <v>1445200</v>
       </c>
       <c r="G102" s="3">
-        <v>-1911800</v>
+        <v>-1946000</v>
       </c>
       <c r="H102" s="3">
-        <v>195700</v>
+        <v>199200</v>
       </c>
       <c r="I102" s="3">
-        <v>-91000</v>
+        <v>-92600</v>
       </c>
       <c r="J102" s="3">
-        <v>2368900</v>
+        <v>2411200</v>
       </c>
       <c r="K102" s="3">
         <v>-2235600</v>

--- a/AAII_Financials/Yearly/REPYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/REPYY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>80932300</v>
+        <v>81473400</v>
       </c>
       <c r="E8" s="3">
-        <v>53570400</v>
+        <v>53928600</v>
       </c>
       <c r="F8" s="3">
-        <v>35841400</v>
+        <v>36081000</v>
       </c>
       <c r="G8" s="3">
-        <v>53121300</v>
+        <v>53476500</v>
       </c>
       <c r="H8" s="3">
-        <v>53708200</v>
+        <v>54067300</v>
       </c>
       <c r="I8" s="3">
-        <v>44872300</v>
+        <v>45172300</v>
       </c>
       <c r="J8" s="3">
-        <v>37356600</v>
+        <v>37606300</v>
       </c>
       <c r="K8" s="3">
         <v>40563500</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>60781300</v>
+        <v>54832700</v>
       </c>
       <c r="E9" s="3">
-        <v>40338500</v>
+        <v>34953600</v>
       </c>
       <c r="F9" s="3">
-        <v>28015600</v>
+        <v>22746600</v>
       </c>
       <c r="G9" s="3">
-        <v>40577600</v>
+        <v>33422800</v>
       </c>
       <c r="H9" s="3">
-        <v>41638300</v>
+        <v>35092300</v>
       </c>
       <c r="I9" s="3">
-        <v>33262200</v>
+        <v>26643900</v>
       </c>
       <c r="J9" s="3">
-        <v>25292100</v>
+        <v>18686600</v>
       </c>
       <c r="K9" s="3">
         <v>34077400</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>20151000</v>
+        <v>26640700</v>
       </c>
       <c r="E10" s="3">
-        <v>13231900</v>
+        <v>18975000</v>
       </c>
       <c r="F10" s="3">
-        <v>7825800</v>
+        <v>13334400</v>
       </c>
       <c r="G10" s="3">
-        <v>12543700</v>
+        <v>20053700</v>
       </c>
       <c r="H10" s="3">
-        <v>12069900</v>
+        <v>18975000</v>
       </c>
       <c r="I10" s="3">
-        <v>11610100</v>
+        <v>18528400</v>
       </c>
       <c r="J10" s="3">
-        <v>12064500</v>
+        <v>18919700</v>
       </c>
       <c r="K10" s="3">
         <v>6486200</v>
@@ -870,10 +870,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>80800</v>
+        <v>81300</v>
       </c>
       <c r="E12" s="3">
-        <v>87200</v>
+        <v>87800</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>8</v>
@@ -882,13 +882,13 @@
         <v>8</v>
       </c>
       <c r="H12" s="3">
-        <v>565400</v>
+        <v>569200</v>
       </c>
       <c r="I12" s="3">
-        <v>705400</v>
+        <v>710100</v>
       </c>
       <c r="J12" s="3">
-        <v>362900</v>
+        <v>365300</v>
       </c>
       <c r="K12" s="3">
         <v>1607800</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2543600</v>
+        <v>2560600</v>
       </c>
       <c r="E14" s="3">
-        <v>473800</v>
+        <v>477000</v>
       </c>
       <c r="F14" s="3">
-        <v>2063300</v>
+        <v>2077100</v>
       </c>
       <c r="G14" s="3">
-        <v>5713000</v>
+        <v>5751200</v>
       </c>
       <c r="H14" s="3">
-        <v>1202900</v>
+        <v>1210900</v>
       </c>
       <c r="I14" s="3">
-        <v>-1337500</v>
+        <v>-1346500</v>
       </c>
       <c r="J14" s="3">
-        <v>-930400</v>
+        <v>-936700</v>
       </c>
       <c r="K14" s="3">
         <v>2303900</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2518900</v>
+        <v>2535700</v>
       </c>
       <c r="E15" s="3">
-        <v>2158100</v>
+        <v>2172500</v>
       </c>
       <c r="F15" s="3">
-        <v>2376700</v>
+        <v>2392600</v>
       </c>
       <c r="G15" s="3">
-        <v>2621200</v>
+        <v>2638700</v>
       </c>
       <c r="H15" s="3">
-        <v>2060100</v>
+        <v>2073900</v>
       </c>
       <c r="I15" s="3">
-        <v>2392900</v>
+        <v>2408900</v>
       </c>
       <c r="J15" s="3">
-        <v>2463900</v>
+        <v>2480400</v>
       </c>
       <c r="K15" s="3">
         <v>2379500</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>74568900</v>
+        <v>75067400</v>
       </c>
       <c r="E17" s="3">
-        <v>49495400</v>
+        <v>49826300</v>
       </c>
       <c r="F17" s="3">
-        <v>38530400</v>
+        <v>38788000</v>
       </c>
       <c r="G17" s="3">
-        <v>56615900</v>
+        <v>56994400</v>
       </c>
       <c r="H17" s="3">
-        <v>51465100</v>
+        <v>51809100</v>
       </c>
       <c r="I17" s="3">
-        <v>41869900</v>
+        <v>42149800</v>
       </c>
       <c r="J17" s="3">
-        <v>35246900</v>
+        <v>35482600</v>
       </c>
       <c r="K17" s="3">
         <v>43170700</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6363400</v>
+        <v>6405900</v>
       </c>
       <c r="E18" s="3">
-        <v>4075000</v>
+        <v>4102200</v>
       </c>
       <c r="F18" s="3">
-        <v>-2689000</v>
+        <v>-2707000</v>
       </c>
       <c r="G18" s="3">
-        <v>-3494500</v>
+        <v>-3517900</v>
       </c>
       <c r="H18" s="3">
-        <v>2243200</v>
+        <v>2258200</v>
       </c>
       <c r="I18" s="3">
-        <v>3002400</v>
+        <v>3022500</v>
       </c>
       <c r="J18" s="3">
-        <v>2109600</v>
+        <v>2123800</v>
       </c>
       <c r="K18" s="3">
         <v>-2607100</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1484000</v>
+        <v>1493900</v>
       </c>
       <c r="E20" s="3">
-        <v>689200</v>
+        <v>693800</v>
       </c>
       <c r="F20" s="3">
-        <v>-746300</v>
+        <v>-751300</v>
       </c>
       <c r="G20" s="3">
-        <v>162600</v>
+        <v>163700</v>
       </c>
       <c r="H20" s="3">
-        <v>1411800</v>
+        <v>1421300</v>
       </c>
       <c r="I20" s="3">
-        <v>847500</v>
+        <v>853200</v>
       </c>
       <c r="J20" s="3">
-        <v>446900</v>
+        <v>449900</v>
       </c>
       <c r="K20" s="3">
         <v>743100</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>10382600</v>
+        <v>10435500</v>
       </c>
       <c r="E21" s="3">
-        <v>6936400</v>
+        <v>6968600</v>
       </c>
       <c r="F21" s="3">
-        <v>-1043100</v>
+        <v>-1065700</v>
       </c>
       <c r="G21" s="3">
-        <v>-693700</v>
+        <v>-715500</v>
       </c>
       <c r="H21" s="3">
-        <v>5974600</v>
+        <v>5999400</v>
       </c>
       <c r="I21" s="3">
-        <v>6450200</v>
+        <v>6476400</v>
       </c>
       <c r="J21" s="3">
-        <v>5297800</v>
+        <v>5315300</v>
       </c>
       <c r="K21" s="3">
         <v>1263500</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>115200</v>
+        <v>116000</v>
       </c>
       <c r="E22" s="3">
-        <v>102300</v>
+        <v>103000</v>
       </c>
       <c r="F22" s="3">
-        <v>122800</v>
+        <v>123600</v>
       </c>
       <c r="G22" s="3">
-        <v>115200</v>
+        <v>116000</v>
       </c>
       <c r="H22" s="3">
-        <v>65700</v>
+        <v>66100</v>
       </c>
       <c r="I22" s="3">
-        <v>504000</v>
+        <v>507400</v>
       </c>
       <c r="J22" s="3">
-        <v>541700</v>
+        <v>545300</v>
       </c>
       <c r="K22" s="3">
         <v>536900</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7732100</v>
+        <v>7783800</v>
       </c>
       <c r="E23" s="3">
-        <v>4661900</v>
+        <v>4693100</v>
       </c>
       <c r="F23" s="3">
-        <v>-3558100</v>
+        <v>-3581900</v>
       </c>
       <c r="G23" s="3">
-        <v>-3447200</v>
+        <v>-3470200</v>
       </c>
       <c r="H23" s="3">
-        <v>3589300</v>
+        <v>3613300</v>
       </c>
       <c r="I23" s="3">
-        <v>3345900</v>
+        <v>3368300</v>
       </c>
       <c r="J23" s="3">
-        <v>2014900</v>
+        <v>2028400</v>
       </c>
       <c r="K23" s="3">
         <v>-2400900</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3053000</v>
+        <v>3073400</v>
       </c>
       <c r="E24" s="3">
-        <v>1939500</v>
+        <v>1952500</v>
       </c>
       <c r="F24" s="3">
-        <v>17200</v>
+        <v>17300</v>
       </c>
       <c r="G24" s="3">
-        <v>633200</v>
+        <v>637500</v>
       </c>
       <c r="H24" s="3">
-        <v>1492600</v>
+        <v>1502600</v>
       </c>
       <c r="I24" s="3">
-        <v>1313800</v>
+        <v>1322600</v>
       </c>
       <c r="J24" s="3">
-        <v>421100</v>
+        <v>423900</v>
       </c>
       <c r="K24" s="3">
         <v>-1016700</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4679100</v>
+        <v>4710400</v>
       </c>
       <c r="E26" s="3">
-        <v>2722400</v>
+        <v>2740600</v>
       </c>
       <c r="F26" s="3">
-        <v>-3575300</v>
+        <v>-3599200</v>
       </c>
       <c r="G26" s="3">
-        <v>-4080400</v>
+        <v>-4107700</v>
       </c>
       <c r="H26" s="3">
-        <v>2096700</v>
+        <v>2110700</v>
       </c>
       <c r="I26" s="3">
-        <v>2032100</v>
+        <v>2045700</v>
       </c>
       <c r="J26" s="3">
-        <v>1593800</v>
+        <v>1604500</v>
       </c>
       <c r="K26" s="3">
         <v>-1384200</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4513300</v>
+        <v>4543500</v>
       </c>
       <c r="E27" s="3">
-        <v>2626600</v>
+        <v>2644100</v>
       </c>
       <c r="F27" s="3">
-        <v>-3600100</v>
+        <v>-3624100</v>
       </c>
       <c r="G27" s="3">
-        <v>-4140700</v>
+        <v>-4168400</v>
       </c>
       <c r="H27" s="3">
-        <v>2046100</v>
+        <v>2059800</v>
       </c>
       <c r="I27" s="3">
-        <v>1957800</v>
+        <v>1970900</v>
       </c>
       <c r="J27" s="3">
-        <v>1517400</v>
+        <v>1527500</v>
       </c>
       <c r="K27" s="3">
         <v>-1449500</v>
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>443700</v>
+        <v>446600</v>
       </c>
       <c r="I29" s="3">
-        <v>295100</v>
+        <v>297000</v>
       </c>
       <c r="J29" s="3">
-        <v>322000</v>
+        <v>324100</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1484000</v>
+        <v>-1493900</v>
       </c>
       <c r="E32" s="3">
-        <v>-689200</v>
+        <v>-693800</v>
       </c>
       <c r="F32" s="3">
-        <v>746300</v>
+        <v>751300</v>
       </c>
       <c r="G32" s="3">
-        <v>-162600</v>
+        <v>-163700</v>
       </c>
       <c r="H32" s="3">
-        <v>-1411800</v>
+        <v>-1421300</v>
       </c>
       <c r="I32" s="3">
-        <v>-847500</v>
+        <v>-853200</v>
       </c>
       <c r="J32" s="3">
-        <v>-446900</v>
+        <v>-449900</v>
       </c>
       <c r="K32" s="3">
         <v>-743100</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4513300</v>
+        <v>4543500</v>
       </c>
       <c r="E33" s="3">
-        <v>2626600</v>
+        <v>2644100</v>
       </c>
       <c r="F33" s="3">
-        <v>-3600100</v>
+        <v>-3624100</v>
       </c>
       <c r="G33" s="3">
-        <v>-4140700</v>
+        <v>-4168400</v>
       </c>
       <c r="H33" s="3">
-        <v>2489800</v>
+        <v>2506400</v>
       </c>
       <c r="I33" s="3">
-        <v>2252900</v>
+        <v>2267900</v>
       </c>
       <c r="J33" s="3">
-        <v>1839300</v>
+        <v>1851600</v>
       </c>
       <c r="K33" s="3">
         <v>-1449500</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4513300</v>
+        <v>4543500</v>
       </c>
       <c r="E35" s="3">
-        <v>2626600</v>
+        <v>2644100</v>
       </c>
       <c r="F35" s="3">
-        <v>-3600100</v>
+        <v>-3624100</v>
       </c>
       <c r="G35" s="3">
-        <v>-4140700</v>
+        <v>-4168400</v>
       </c>
       <c r="H35" s="3">
-        <v>2489800</v>
+        <v>2506400</v>
       </c>
       <c r="I35" s="3">
-        <v>2252900</v>
+        <v>2267900</v>
       </c>
       <c r="J35" s="3">
-        <v>1839300</v>
+        <v>1851600</v>
       </c>
       <c r="K35" s="3">
         <v>-1449500</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2881800</v>
+        <v>2901100</v>
       </c>
       <c r="E41" s="3">
-        <v>2700900</v>
+        <v>2718900</v>
       </c>
       <c r="F41" s="3">
-        <v>2405800</v>
+        <v>2421900</v>
       </c>
       <c r="G41" s="3">
-        <v>2552300</v>
+        <v>2569300</v>
       </c>
       <c r="H41" s="3">
-        <v>4441100</v>
+        <v>4470800</v>
       </c>
       <c r="I41" s="3">
-        <v>4041600</v>
+        <v>4068600</v>
       </c>
       <c r="J41" s="3">
-        <v>3453600</v>
+        <v>3476700</v>
       </c>
       <c r="K41" s="3">
         <v>4858000</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7960400</v>
+        <v>8013700</v>
       </c>
       <c r="E42" s="3">
-        <v>7069800</v>
+        <v>7117100</v>
       </c>
       <c r="F42" s="3">
-        <v>4168700</v>
+        <v>4196600</v>
       </c>
       <c r="G42" s="3">
-        <v>3852100</v>
+        <v>3877800</v>
       </c>
       <c r="H42" s="3">
-        <v>2815000</v>
+        <v>2833800</v>
       </c>
       <c r="I42" s="3">
-        <v>1254600</v>
+        <v>1263000</v>
       </c>
       <c r="J42" s="3">
-        <v>3041200</v>
+        <v>3061500</v>
       </c>
       <c r="K42" s="3">
         <v>1824200</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9184900</v>
+        <v>9246300</v>
       </c>
       <c r="E43" s="3">
-        <v>7765500</v>
+        <v>7817400</v>
       </c>
       <c r="F43" s="3">
-        <v>4152500</v>
+        <v>4180300</v>
       </c>
       <c r="G43" s="3">
-        <v>6184600</v>
+        <v>6226000</v>
       </c>
       <c r="H43" s="3">
-        <v>6314900</v>
+        <v>6357200</v>
       </c>
       <c r="I43" s="3">
-        <v>6302000</v>
+        <v>6344200</v>
       </c>
       <c r="J43" s="3">
-        <v>6268600</v>
+        <v>6310500</v>
       </c>
       <c r="K43" s="3">
         <v>13836900</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7853800</v>
+        <v>7906300</v>
       </c>
       <c r="E44" s="3">
-        <v>5629000</v>
+        <v>5666600</v>
       </c>
       <c r="F44" s="3">
-        <v>3638800</v>
+        <v>3663200</v>
       </c>
       <c r="G44" s="3">
-        <v>4950500</v>
+        <v>4983600</v>
       </c>
       <c r="H44" s="3">
-        <v>4727600</v>
+        <v>4759200</v>
       </c>
       <c r="I44" s="3">
-        <v>4089000</v>
+        <v>4116300</v>
       </c>
       <c r="J44" s="3">
-        <v>3882200</v>
+        <v>3908200</v>
       </c>
       <c r="K44" s="3">
         <v>5824700</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>315500</v>
+        <v>317600</v>
       </c>
       <c r="E45" s="3">
-        <v>1002600</v>
+        <v>1009300</v>
       </c>
       <c r="F45" s="3">
-        <v>262800</v>
+        <v>264500</v>
       </c>
       <c r="G45" s="3">
-        <v>215400</v>
+        <v>216800</v>
       </c>
       <c r="H45" s="3">
-        <v>325200</v>
+        <v>327400</v>
       </c>
       <c r="I45" s="3">
-        <v>219700</v>
+        <v>221200</v>
       </c>
       <c r="J45" s="3">
-        <v>507200</v>
+        <v>510600</v>
       </c>
       <c r="K45" s="3">
         <v>544100</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>28196500</v>
+        <v>28385000</v>
       </c>
       <c r="E46" s="3">
-        <v>24167800</v>
+        <v>24329400</v>
       </c>
       <c r="F46" s="3">
-        <v>14628600</v>
+        <v>14726400</v>
       </c>
       <c r="G46" s="3">
-        <v>17754900</v>
+        <v>17873600</v>
       </c>
       <c r="H46" s="3">
-        <v>18623900</v>
+        <v>18748400</v>
       </c>
       <c r="I46" s="3">
-        <v>15906900</v>
+        <v>16013200</v>
       </c>
       <c r="J46" s="3">
-        <v>17152900</v>
+        <v>17267500</v>
       </c>
       <c r="K46" s="3">
         <v>13017200</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6258900</v>
+        <v>6300800</v>
       </c>
       <c r="E47" s="3">
-        <v>5315600</v>
+        <v>5351100</v>
       </c>
       <c r="F47" s="3">
-        <v>7387500</v>
+        <v>7436900</v>
       </c>
       <c r="G47" s="3">
-        <v>9014700</v>
+        <v>9075000</v>
       </c>
       <c r="H47" s="3">
-        <v>8970600</v>
+        <v>9030600</v>
       </c>
       <c r="I47" s="3">
-        <v>12177600</v>
+        <v>12259000</v>
       </c>
       <c r="J47" s="3">
-        <v>12255100</v>
+        <v>12337100</v>
       </c>
       <c r="K47" s="3">
         <v>12776300</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24197900</v>
+        <v>24359700</v>
       </c>
       <c r="E48" s="3">
-        <v>23396700</v>
+        <v>23553200</v>
       </c>
       <c r="F48" s="3">
-        <v>22536300</v>
+        <v>22687000</v>
       </c>
       <c r="G48" s="3">
-        <v>24995900</v>
+        <v>25163000</v>
       </c>
       <c r="H48" s="3">
-        <v>27459900</v>
+        <v>27643500</v>
       </c>
       <c r="I48" s="3">
-        <v>26563900</v>
+        <v>26741500</v>
       </c>
       <c r="J48" s="3">
-        <v>29467200</v>
+        <v>29664200</v>
       </c>
       <c r="K48" s="3">
         <v>57603700</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2128000</v>
+        <v>2142200</v>
       </c>
       <c r="E49" s="3">
-        <v>3765900</v>
+        <v>3791100</v>
       </c>
       <c r="F49" s="3">
-        <v>3610800</v>
+        <v>3635000</v>
       </c>
       <c r="G49" s="3">
-        <v>4813700</v>
+        <v>4845900</v>
       </c>
       <c r="H49" s="3">
-        <v>5487900</v>
+        <v>5524600</v>
       </c>
       <c r="I49" s="3">
-        <v>4936500</v>
+        <v>4969500</v>
       </c>
       <c r="J49" s="3">
-        <v>5501900</v>
+        <v>5538700</v>
       </c>
       <c r="K49" s="3">
         <v>9771100</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3793900</v>
+        <v>3819300</v>
       </c>
       <c r="E52" s="3">
-        <v>3933900</v>
+        <v>3960200</v>
       </c>
       <c r="F52" s="3">
-        <v>4930000</v>
+        <v>4963000</v>
       </c>
       <c r="G52" s="3">
-        <v>5767900</v>
+        <v>5806400</v>
       </c>
       <c r="H52" s="3">
-        <v>4909600</v>
+        <v>4942400</v>
       </c>
       <c r="I52" s="3">
-        <v>4875100</v>
+        <v>4907700</v>
       </c>
       <c r="J52" s="3">
-        <v>5458800</v>
+        <v>5495300</v>
       </c>
       <c r="K52" s="3">
         <v>5286700</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>64575200</v>
+        <v>65007000</v>
       </c>
       <c r="E54" s="3">
-        <v>60579900</v>
+        <v>60985000</v>
       </c>
       <c r="F54" s="3">
-        <v>53093300</v>
+        <v>53448300</v>
       </c>
       <c r="G54" s="3">
-        <v>62347100</v>
+        <v>62764000</v>
       </c>
       <c r="H54" s="3">
-        <v>65451800</v>
+        <v>65889400</v>
       </c>
       <c r="I54" s="3">
-        <v>64460000</v>
+        <v>64891000</v>
       </c>
       <c r="J54" s="3">
-        <v>69835900</v>
+        <v>70302800</v>
       </c>
       <c r="K54" s="3">
         <v>64510500</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5423300</v>
+        <v>5459500</v>
       </c>
       <c r="E57" s="3">
-        <v>5974600</v>
+        <v>6014600</v>
       </c>
       <c r="F57" s="3">
-        <v>2661000</v>
+        <v>2678800</v>
       </c>
       <c r="G57" s="3">
-        <v>3917800</v>
+        <v>3944000</v>
       </c>
       <c r="H57" s="3">
-        <v>3493500</v>
+        <v>3516800</v>
       </c>
       <c r="I57" s="3">
-        <v>2948600</v>
+        <v>2968300</v>
       </c>
       <c r="J57" s="3">
-        <v>2291600</v>
+        <v>2307000</v>
       </c>
       <c r="K57" s="3">
         <v>1836400</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3477300</v>
+        <v>3500600</v>
       </c>
       <c r="E58" s="3">
-        <v>4828800</v>
+        <v>4861100</v>
       </c>
       <c r="F58" s="3">
-        <v>3902700</v>
+        <v>3928800</v>
       </c>
       <c r="G58" s="3">
-        <v>6938500</v>
+        <v>6984900</v>
       </c>
       <c r="H58" s="3">
-        <v>4755600</v>
+        <v>4787400</v>
       </c>
       <c r="I58" s="3">
-        <v>4458400</v>
+        <v>4488200</v>
       </c>
       <c r="J58" s="3">
-        <v>4199900</v>
+        <v>4228000</v>
       </c>
       <c r="K58" s="3">
         <v>4379200</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9318400</v>
+        <v>9380700</v>
       </c>
       <c r="E59" s="3">
-        <v>7846300</v>
+        <v>7898800</v>
       </c>
       <c r="F59" s="3">
-        <v>4764200</v>
+        <v>4796100</v>
       </c>
       <c r="G59" s="3">
-        <v>5388800</v>
+        <v>5424800</v>
       </c>
       <c r="H59" s="3">
-        <v>5546000</v>
+        <v>5583100</v>
       </c>
       <c r="I59" s="3">
-        <v>5553600</v>
+        <v>5590700</v>
       </c>
       <c r="J59" s="3">
-        <v>9378700</v>
+        <v>9441400</v>
       </c>
       <c r="K59" s="3">
         <v>21716500</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>18219000</v>
+        <v>18340800</v>
       </c>
       <c r="E60" s="3">
-        <v>18649800</v>
+        <v>18774400</v>
       </c>
       <c r="F60" s="3">
-        <v>11327900</v>
+        <v>11403600</v>
       </c>
       <c r="G60" s="3">
-        <v>16245000</v>
+        <v>16353600</v>
       </c>
       <c r="H60" s="3">
-        <v>13795100</v>
+        <v>13887300</v>
       </c>
       <c r="I60" s="3">
-        <v>12960500</v>
+        <v>13047100</v>
       </c>
       <c r="J60" s="3">
-        <v>15870300</v>
+        <v>15976400</v>
       </c>
       <c r="K60" s="3">
         <v>14778100</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10909000</v>
+        <v>10981900</v>
       </c>
       <c r="E61" s="3">
-        <v>10777600</v>
+        <v>10849700</v>
       </c>
       <c r="F61" s="3">
-        <v>12852800</v>
+        <v>12938700</v>
       </c>
       <c r="G61" s="3">
-        <v>11599300</v>
+        <v>11676800</v>
       </c>
       <c r="H61" s="3">
-        <v>11487300</v>
+        <v>11564100</v>
       </c>
       <c r="I61" s="3">
-        <v>9404600</v>
+        <v>9467400</v>
       </c>
       <c r="J61" s="3">
-        <v>11787700</v>
+        <v>11866600</v>
       </c>
       <c r="K61" s="3">
         <v>12272100</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7476900</v>
+        <v>7526900</v>
       </c>
       <c r="E62" s="3">
-        <v>6605700</v>
+        <v>6649900</v>
       </c>
       <c r="F62" s="3">
-        <v>6794200</v>
+        <v>6839600</v>
       </c>
       <c r="G62" s="3">
-        <v>7355200</v>
+        <v>7404400</v>
       </c>
       <c r="H62" s="3">
-        <v>6878200</v>
+        <v>6924100</v>
       </c>
       <c r="I62" s="3">
-        <v>9720100</v>
+        <v>9785100</v>
       </c>
       <c r="J62" s="3">
-        <v>8674400</v>
+        <v>8732400</v>
       </c>
       <c r="K62" s="3">
         <v>14048200</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>37336100</v>
+        <v>37585700</v>
       </c>
       <c r="E66" s="3">
-        <v>36442300</v>
+        <v>36685900</v>
       </c>
       <c r="F66" s="3">
-        <v>31237600</v>
+        <v>31446500</v>
       </c>
       <c r="G66" s="3">
-        <v>35502200</v>
+        <v>35739500</v>
       </c>
       <c r="H66" s="3">
-        <v>32468500</v>
+        <v>32685600</v>
       </c>
       <c r="I66" s="3">
-        <v>32375900</v>
+        <v>32592400</v>
       </c>
       <c r="J66" s="3">
-        <v>36595200</v>
+        <v>36839900</v>
       </c>
       <c r="K66" s="3">
         <v>35383000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18267500</v>
+        <v>18389600</v>
       </c>
       <c r="E72" s="3">
-        <v>16278400</v>
+        <v>16387300</v>
       </c>
       <c r="F72" s="3">
-        <v>14823500</v>
+        <v>14922600</v>
       </c>
       <c r="G72" s="3">
-        <v>17916400</v>
+        <v>18036200</v>
       </c>
       <c r="H72" s="3">
-        <v>23484000</v>
+        <v>23641000</v>
       </c>
       <c r="I72" s="3">
-        <v>22866900</v>
+        <v>23019800</v>
       </c>
       <c r="J72" s="3">
-        <v>21042600</v>
+        <v>21183300</v>
       </c>
       <c r="K72" s="3">
         <v>18582600</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>27239100</v>
+        <v>27421200</v>
       </c>
       <c r="E76" s="3">
-        <v>24137600</v>
+        <v>24299000</v>
       </c>
       <c r="F76" s="3">
-        <v>21855700</v>
+        <v>22001800</v>
       </c>
       <c r="G76" s="3">
-        <v>26845000</v>
+        <v>27024400</v>
       </c>
       <c r="H76" s="3">
-        <v>32983300</v>
+        <v>33203800</v>
       </c>
       <c r="I76" s="3">
-        <v>32084100</v>
+        <v>32298600</v>
       </c>
       <c r="J76" s="3">
-        <v>33240700</v>
+        <v>33462900</v>
       </c>
       <c r="K76" s="3">
         <v>29127500</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4513300</v>
+        <v>4543500</v>
       </c>
       <c r="E81" s="3">
-        <v>2626600</v>
+        <v>2644100</v>
       </c>
       <c r="F81" s="3">
-        <v>-3600100</v>
+        <v>-3624100</v>
       </c>
       <c r="G81" s="3">
-        <v>-4140700</v>
+        <v>-4168400</v>
       </c>
       <c r="H81" s="3">
-        <v>2489800</v>
+        <v>2506400</v>
       </c>
       <c r="I81" s="3">
-        <v>2252900</v>
+        <v>2267900</v>
       </c>
       <c r="J81" s="3">
-        <v>1839300</v>
+        <v>1851600</v>
       </c>
       <c r="K81" s="3">
         <v>-1449500</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2518900</v>
+        <v>2535700</v>
       </c>
       <c r="E83" s="3">
-        <v>2158100</v>
+        <v>2172500</v>
       </c>
       <c r="F83" s="3">
-        <v>2376700</v>
+        <v>2392600</v>
       </c>
       <c r="G83" s="3">
-        <v>2621200</v>
+        <v>2638700</v>
       </c>
       <c r="H83" s="3">
-        <v>2304600</v>
+        <v>2320000</v>
       </c>
       <c r="I83" s="3">
-        <v>2583500</v>
+        <v>2600800</v>
       </c>
       <c r="J83" s="3">
-        <v>2723500</v>
+        <v>2741700</v>
       </c>
       <c r="K83" s="3">
         <v>3189000</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8434300</v>
+        <v>8490700</v>
       </c>
       <c r="E89" s="3">
-        <v>5036700</v>
+        <v>5070300</v>
       </c>
       <c r="F89" s="3">
-        <v>2948600</v>
+        <v>2968300</v>
       </c>
       <c r="G89" s="3">
-        <v>5221900</v>
+        <v>5256800</v>
       </c>
       <c r="H89" s="3">
-        <v>4931100</v>
+        <v>4964100</v>
       </c>
       <c r="I89" s="3">
-        <v>5506200</v>
+        <v>5543000</v>
       </c>
       <c r="J89" s="3">
-        <v>4189100</v>
+        <v>4217100</v>
       </c>
       <c r="K89" s="3">
         <v>5038700</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3806800</v>
+        <v>-3832300</v>
       </c>
       <c r="E91" s="3">
-        <v>-2048300</v>
+        <v>-2062000</v>
       </c>
       <c r="F91" s="3">
-        <v>-2031000</v>
+        <v>-2044600</v>
       </c>
       <c r="G91" s="3">
-        <v>-3475200</v>
+        <v>-3498400</v>
       </c>
       <c r="H91" s="3">
-        <v>-2865600</v>
+        <v>-2884800</v>
       </c>
       <c r="I91" s="3">
-        <v>-2476900</v>
+        <v>-2493400</v>
       </c>
       <c r="J91" s="3">
-        <v>-2157000</v>
+        <v>-2171500</v>
       </c>
       <c r="K91" s="3">
         <v>-3053200</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4418500</v>
+        <v>-4448100</v>
       </c>
       <c r="E94" s="3">
-        <v>-3158500</v>
+        <v>-3179700</v>
       </c>
       <c r="F94" s="3">
-        <v>239100</v>
+        <v>240700</v>
       </c>
       <c r="G94" s="3">
-        <v>-4745900</v>
+        <v>-4777600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1463500</v>
+        <v>-1473300</v>
       </c>
       <c r="I94" s="3">
-        <v>-3003500</v>
+        <v>-3023600</v>
       </c>
       <c r="J94" s="3">
-        <v>421100</v>
+        <v>423900</v>
       </c>
       <c r="K94" s="3">
         <v>-9146400</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1106000</v>
+        <v>-1113400</v>
       </c>
       <c r="E96" s="3">
-        <v>-673100</v>
+        <v>-677600</v>
       </c>
       <c r="F96" s="3">
-        <v>-372600</v>
+        <v>-375100</v>
       </c>
       <c r="G96" s="3">
-        <v>-426500</v>
+        <v>-429300</v>
       </c>
       <c r="H96" s="3">
-        <v>-319800</v>
+        <v>-322000</v>
       </c>
       <c r="I96" s="3">
-        <v>-357500</v>
+        <v>-359900</v>
       </c>
       <c r="J96" s="3">
-        <v>-452300</v>
+        <v>-455300</v>
       </c>
       <c r="K96" s="3">
         <v>-498200</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3049800</v>
+        <v>-3070200</v>
       </c>
       <c r="E100" s="3">
-        <v>-569700</v>
+        <v>-573500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1739200</v>
+        <v>-1750800</v>
       </c>
       <c r="G100" s="3">
-        <v>-2465000</v>
+        <v>-2481500</v>
       </c>
       <c r="H100" s="3">
-        <v>-3265200</v>
+        <v>-3287000</v>
       </c>
       <c r="I100" s="3">
-        <v>-2542600</v>
+        <v>-2559600</v>
       </c>
       <c r="J100" s="3">
-        <v>-2210900</v>
+        <v>-2225700</v>
       </c>
       <c r="K100" s="3">
         <v>1811900</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>21500</v>
+        <v>21700</v>
       </c>
       <c r="E101" s="3">
-        <v>63500</v>
+        <v>64000</v>
       </c>
       <c r="F101" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="G101" s="3">
-        <v>43100</v>
+        <v>43400</v>
       </c>
       <c r="H101" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="I101" s="3">
-        <v>-52800</v>
+        <v>-53100</v>
       </c>
       <c r="J101" s="3">
-        <v>11800</v>
+        <v>11900</v>
       </c>
       <c r="K101" s="3">
         <v>60200</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>987500</v>
+        <v>994100</v>
       </c>
       <c r="E102" s="3">
-        <v>1372000</v>
+        <v>1381100</v>
       </c>
       <c r="F102" s="3">
-        <v>1445200</v>
+        <v>1454900</v>
       </c>
       <c r="G102" s="3">
-        <v>-1946000</v>
+        <v>-1959000</v>
       </c>
       <c r="H102" s="3">
-        <v>199200</v>
+        <v>200600</v>
       </c>
       <c r="I102" s="3">
-        <v>-92600</v>
+        <v>-93200</v>
       </c>
       <c r="J102" s="3">
-        <v>2411200</v>
+        <v>2427300</v>
       </c>
       <c r="K102" s="3">
         <v>-2235600</v>

--- a/AAII_Financials/Yearly/REPYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/REPYY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>81473400</v>
+        <v>81541000</v>
       </c>
       <c r="E8" s="3">
-        <v>53928600</v>
+        <v>53973300</v>
       </c>
       <c r="F8" s="3">
-        <v>36081000</v>
+        <v>36111000</v>
       </c>
       <c r="G8" s="3">
-        <v>53476500</v>
+        <v>53520900</v>
       </c>
       <c r="H8" s="3">
-        <v>54067300</v>
+        <v>54112200</v>
       </c>
       <c r="I8" s="3">
-        <v>45172300</v>
+        <v>45209800</v>
       </c>
       <c r="J8" s="3">
-        <v>37606300</v>
+        <v>37637600</v>
       </c>
       <c r="K8" s="3">
         <v>40563500</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>54832700</v>
+        <v>54878200</v>
       </c>
       <c r="E9" s="3">
-        <v>34953600</v>
+        <v>34982600</v>
       </c>
       <c r="F9" s="3">
-        <v>22746600</v>
+        <v>22765500</v>
       </c>
       <c r="G9" s="3">
-        <v>33422800</v>
+        <v>33450600</v>
       </c>
       <c r="H9" s="3">
-        <v>35092300</v>
+        <v>35121500</v>
       </c>
       <c r="I9" s="3">
-        <v>26643900</v>
+        <v>26666000</v>
       </c>
       <c r="J9" s="3">
-        <v>18686600</v>
+        <v>18702100</v>
       </c>
       <c r="K9" s="3">
         <v>34077400</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>26640700</v>
+        <v>26662800</v>
       </c>
       <c r="E10" s="3">
-        <v>18975000</v>
+        <v>18990800</v>
       </c>
       <c r="F10" s="3">
-        <v>13334400</v>
+        <v>13345500</v>
       </c>
       <c r="G10" s="3">
-        <v>20053700</v>
+        <v>20070300</v>
       </c>
       <c r="H10" s="3">
-        <v>18975000</v>
+        <v>18990800</v>
       </c>
       <c r="I10" s="3">
-        <v>18528400</v>
+        <v>18543700</v>
       </c>
       <c r="J10" s="3">
-        <v>18919700</v>
+        <v>18935400</v>
       </c>
       <c r="K10" s="3">
         <v>6486200</v>
@@ -870,10 +870,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>81300</v>
+        <v>81400</v>
       </c>
       <c r="E12" s="3">
-        <v>87800</v>
+        <v>87900</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>8</v>
@@ -882,13 +882,13 @@
         <v>8</v>
       </c>
       <c r="H12" s="3">
-        <v>569200</v>
+        <v>569600</v>
       </c>
       <c r="I12" s="3">
-        <v>710100</v>
+        <v>710700</v>
       </c>
       <c r="J12" s="3">
-        <v>365300</v>
+        <v>365600</v>
       </c>
       <c r="K12" s="3">
         <v>1607800</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2560600</v>
+        <v>2562800</v>
       </c>
       <c r="E14" s="3">
-        <v>477000</v>
+        <v>477400</v>
       </c>
       <c r="F14" s="3">
-        <v>2077100</v>
+        <v>2078900</v>
       </c>
       <c r="G14" s="3">
-        <v>5751200</v>
+        <v>5755900</v>
       </c>
       <c r="H14" s="3">
-        <v>1210900</v>
+        <v>1211900</v>
       </c>
       <c r="I14" s="3">
-        <v>-1346500</v>
+        <v>-1347600</v>
       </c>
       <c r="J14" s="3">
-        <v>-936700</v>
+        <v>-937400</v>
       </c>
       <c r="K14" s="3">
         <v>2303900</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2535700</v>
+        <v>2537800</v>
       </c>
       <c r="E15" s="3">
-        <v>2172500</v>
+        <v>2174300</v>
       </c>
       <c r="F15" s="3">
-        <v>2392600</v>
+        <v>2394600</v>
       </c>
       <c r="G15" s="3">
-        <v>2638700</v>
+        <v>2640900</v>
       </c>
       <c r="H15" s="3">
-        <v>2073900</v>
+        <v>2075600</v>
       </c>
       <c r="I15" s="3">
-        <v>2408900</v>
+        <v>2410900</v>
       </c>
       <c r="J15" s="3">
-        <v>2480400</v>
+        <v>2482500</v>
       </c>
       <c r="K15" s="3">
         <v>2379500</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>75067400</v>
+        <v>75129700</v>
       </c>
       <c r="E17" s="3">
-        <v>49826300</v>
+        <v>49867700</v>
       </c>
       <c r="F17" s="3">
-        <v>38788000</v>
+        <v>38820200</v>
       </c>
       <c r="G17" s="3">
-        <v>56994400</v>
+        <v>57041700</v>
       </c>
       <c r="H17" s="3">
-        <v>51809100</v>
+        <v>51852200</v>
       </c>
       <c r="I17" s="3">
-        <v>42149800</v>
+        <v>42184800</v>
       </c>
       <c r="J17" s="3">
-        <v>35482600</v>
+        <v>35512100</v>
       </c>
       <c r="K17" s="3">
         <v>43170700</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6405900</v>
+        <v>6411300</v>
       </c>
       <c r="E18" s="3">
-        <v>4102200</v>
+        <v>4105600</v>
       </c>
       <c r="F18" s="3">
-        <v>-2707000</v>
+        <v>-2709200</v>
       </c>
       <c r="G18" s="3">
-        <v>-3517900</v>
+        <v>-3520800</v>
       </c>
       <c r="H18" s="3">
-        <v>2258200</v>
+        <v>2260100</v>
       </c>
       <c r="I18" s="3">
-        <v>3022500</v>
+        <v>3025000</v>
       </c>
       <c r="J18" s="3">
-        <v>2123800</v>
+        <v>2125500</v>
       </c>
       <c r="K18" s="3">
         <v>-2607100</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1493900</v>
+        <v>1495100</v>
       </c>
       <c r="E20" s="3">
-        <v>693800</v>
+        <v>694400</v>
       </c>
       <c r="F20" s="3">
-        <v>-751300</v>
+        <v>-751900</v>
       </c>
       <c r="G20" s="3">
-        <v>163700</v>
+        <v>163800</v>
       </c>
       <c r="H20" s="3">
-        <v>1421300</v>
+        <v>1422400</v>
       </c>
       <c r="I20" s="3">
-        <v>853200</v>
+        <v>853900</v>
       </c>
       <c r="J20" s="3">
-        <v>449900</v>
+        <v>450300</v>
       </c>
       <c r="K20" s="3">
         <v>743100</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>10435500</v>
+        <v>10443300</v>
       </c>
       <c r="E21" s="3">
-        <v>6968600</v>
+        <v>6973600</v>
       </c>
       <c r="F21" s="3">
-        <v>-1065700</v>
+        <v>-1067400</v>
       </c>
       <c r="G21" s="3">
-        <v>-715500</v>
+        <v>-717100</v>
       </c>
       <c r="H21" s="3">
-        <v>5999400</v>
+        <v>6003500</v>
       </c>
       <c r="I21" s="3">
-        <v>6476400</v>
+        <v>6480800</v>
       </c>
       <c r="J21" s="3">
-        <v>5315300</v>
+        <v>5318700</v>
       </c>
       <c r="K21" s="3">
         <v>1263500</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>116000</v>
+        <v>116100</v>
       </c>
       <c r="E22" s="3">
-        <v>103000</v>
+        <v>103100</v>
       </c>
       <c r="F22" s="3">
-        <v>123600</v>
+        <v>123700</v>
       </c>
       <c r="G22" s="3">
-        <v>116000</v>
+        <v>116100</v>
       </c>
       <c r="H22" s="3">
-        <v>66100</v>
+        <v>66200</v>
       </c>
       <c r="I22" s="3">
-        <v>507400</v>
+        <v>507800</v>
       </c>
       <c r="J22" s="3">
-        <v>545300</v>
+        <v>545800</v>
       </c>
       <c r="K22" s="3">
         <v>536900</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7783800</v>
+        <v>7790300</v>
       </c>
       <c r="E23" s="3">
-        <v>4693100</v>
+        <v>4697000</v>
       </c>
       <c r="F23" s="3">
-        <v>-3581900</v>
+        <v>-3584800</v>
       </c>
       <c r="G23" s="3">
-        <v>-3470200</v>
+        <v>-3473100</v>
       </c>
       <c r="H23" s="3">
-        <v>3613300</v>
+        <v>3616300</v>
       </c>
       <c r="I23" s="3">
-        <v>3368300</v>
+        <v>3371100</v>
       </c>
       <c r="J23" s="3">
-        <v>2028400</v>
+        <v>2030000</v>
       </c>
       <c r="K23" s="3">
         <v>-2400900</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3073400</v>
+        <v>3076000</v>
       </c>
       <c r="E24" s="3">
-        <v>1952500</v>
+        <v>1954100</v>
       </c>
       <c r="F24" s="3">
-        <v>17300</v>
+        <v>17400</v>
       </c>
       <c r="G24" s="3">
-        <v>637500</v>
+        <v>638000</v>
       </c>
       <c r="H24" s="3">
-        <v>1502600</v>
+        <v>1503800</v>
       </c>
       <c r="I24" s="3">
-        <v>1322600</v>
+        <v>1323700</v>
       </c>
       <c r="J24" s="3">
-        <v>423900</v>
+        <v>424200</v>
       </c>
       <c r="K24" s="3">
         <v>-1016700</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4710400</v>
+        <v>4714300</v>
       </c>
       <c r="E26" s="3">
-        <v>2740600</v>
+        <v>2742900</v>
       </c>
       <c r="F26" s="3">
-        <v>-3599200</v>
+        <v>-3602200</v>
       </c>
       <c r="G26" s="3">
-        <v>-4107700</v>
+        <v>-4111100</v>
       </c>
       <c r="H26" s="3">
-        <v>2110700</v>
+        <v>2112500</v>
       </c>
       <c r="I26" s="3">
-        <v>2045700</v>
+        <v>2047400</v>
       </c>
       <c r="J26" s="3">
-        <v>1604500</v>
+        <v>1605800</v>
       </c>
       <c r="K26" s="3">
         <v>-1384200</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4543500</v>
+        <v>4547200</v>
       </c>
       <c r="E27" s="3">
-        <v>2644100</v>
+        <v>2646300</v>
       </c>
       <c r="F27" s="3">
-        <v>-3624100</v>
+        <v>-3627200</v>
       </c>
       <c r="G27" s="3">
-        <v>-4168400</v>
+        <v>-4171800</v>
       </c>
       <c r="H27" s="3">
-        <v>2059800</v>
+        <v>2061500</v>
       </c>
       <c r="I27" s="3">
-        <v>1970900</v>
+        <v>1972500</v>
       </c>
       <c r="J27" s="3">
-        <v>1527500</v>
+        <v>1528800</v>
       </c>
       <c r="K27" s="3">
         <v>-1449500</v>
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>446600</v>
+        <v>447000</v>
       </c>
       <c r="I29" s="3">
-        <v>297000</v>
+        <v>297300</v>
       </c>
       <c r="J29" s="3">
-        <v>324100</v>
+        <v>324400</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1493900</v>
+        <v>-1495100</v>
       </c>
       <c r="E32" s="3">
-        <v>-693800</v>
+        <v>-694400</v>
       </c>
       <c r="F32" s="3">
-        <v>751300</v>
+        <v>751900</v>
       </c>
       <c r="G32" s="3">
-        <v>-163700</v>
+        <v>-163800</v>
       </c>
       <c r="H32" s="3">
-        <v>-1421300</v>
+        <v>-1422400</v>
       </c>
       <c r="I32" s="3">
-        <v>-853200</v>
+        <v>-853900</v>
       </c>
       <c r="J32" s="3">
-        <v>-449900</v>
+        <v>-450300</v>
       </c>
       <c r="K32" s="3">
         <v>-743100</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4543500</v>
+        <v>4547200</v>
       </c>
       <c r="E33" s="3">
-        <v>2644100</v>
+        <v>2646300</v>
       </c>
       <c r="F33" s="3">
-        <v>-3624100</v>
+        <v>-3627200</v>
       </c>
       <c r="G33" s="3">
-        <v>-4168400</v>
+        <v>-4171800</v>
       </c>
       <c r="H33" s="3">
-        <v>2506400</v>
+        <v>2508500</v>
       </c>
       <c r="I33" s="3">
-        <v>2267900</v>
+        <v>2269800</v>
       </c>
       <c r="J33" s="3">
-        <v>1851600</v>
+        <v>1853200</v>
       </c>
       <c r="K33" s="3">
         <v>-1449500</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4543500</v>
+        <v>4547200</v>
       </c>
       <c r="E35" s="3">
-        <v>2644100</v>
+        <v>2646300</v>
       </c>
       <c r="F35" s="3">
-        <v>-3624100</v>
+        <v>-3627200</v>
       </c>
       <c r="G35" s="3">
-        <v>-4168400</v>
+        <v>-4171800</v>
       </c>
       <c r="H35" s="3">
-        <v>2506400</v>
+        <v>2508500</v>
       </c>
       <c r="I35" s="3">
-        <v>2267900</v>
+        <v>2269800</v>
       </c>
       <c r="J35" s="3">
-        <v>1851600</v>
+        <v>1853200</v>
       </c>
       <c r="K35" s="3">
         <v>-1449500</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2901100</v>
+        <v>2903500</v>
       </c>
       <c r="E41" s="3">
-        <v>2718900</v>
+        <v>2721200</v>
       </c>
       <c r="F41" s="3">
-        <v>2421900</v>
+        <v>2423900</v>
       </c>
       <c r="G41" s="3">
-        <v>2569300</v>
+        <v>2571400</v>
       </c>
       <c r="H41" s="3">
-        <v>4470800</v>
+        <v>4474500</v>
       </c>
       <c r="I41" s="3">
-        <v>4068600</v>
+        <v>4072000</v>
       </c>
       <c r="J41" s="3">
-        <v>3476700</v>
+        <v>3479600</v>
       </c>
       <c r="K41" s="3">
         <v>4858000</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8013700</v>
+        <v>8020300</v>
       </c>
       <c r="E42" s="3">
-        <v>7117100</v>
+        <v>7123000</v>
       </c>
       <c r="F42" s="3">
-        <v>4196600</v>
+        <v>4200000</v>
       </c>
       <c r="G42" s="3">
-        <v>3877800</v>
+        <v>3881000</v>
       </c>
       <c r="H42" s="3">
-        <v>2833800</v>
+        <v>2836200</v>
       </c>
       <c r="I42" s="3">
-        <v>1263000</v>
+        <v>1264000</v>
       </c>
       <c r="J42" s="3">
-        <v>3061500</v>
+        <v>3064000</v>
       </c>
       <c r="K42" s="3">
         <v>1824200</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9246300</v>
+        <v>9254000</v>
       </c>
       <c r="E43" s="3">
-        <v>7817400</v>
+        <v>7823900</v>
       </c>
       <c r="F43" s="3">
-        <v>4180300</v>
+        <v>4183800</v>
       </c>
       <c r="G43" s="3">
-        <v>6226000</v>
+        <v>6231200</v>
       </c>
       <c r="H43" s="3">
-        <v>6357200</v>
+        <v>6362400</v>
       </c>
       <c r="I43" s="3">
-        <v>6344200</v>
+        <v>6349400</v>
       </c>
       <c r="J43" s="3">
-        <v>6310500</v>
+        <v>6315800</v>
       </c>
       <c r="K43" s="3">
         <v>13836900</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7906300</v>
+        <v>7912900</v>
       </c>
       <c r="E44" s="3">
-        <v>5666600</v>
+        <v>5671300</v>
       </c>
       <c r="F44" s="3">
-        <v>3663200</v>
+        <v>3666200</v>
       </c>
       <c r="G44" s="3">
-        <v>4983600</v>
+        <v>4987700</v>
       </c>
       <c r="H44" s="3">
-        <v>4759200</v>
+        <v>4763100</v>
       </c>
       <c r="I44" s="3">
-        <v>4116300</v>
+        <v>4119700</v>
       </c>
       <c r="J44" s="3">
-        <v>3908200</v>
+        <v>3911400</v>
       </c>
       <c r="K44" s="3">
         <v>5824700</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>317600</v>
+        <v>317900</v>
       </c>
       <c r="E45" s="3">
-        <v>1009300</v>
+        <v>1010100</v>
       </c>
       <c r="F45" s="3">
-        <v>264500</v>
+        <v>264700</v>
       </c>
       <c r="G45" s="3">
-        <v>216800</v>
+        <v>217000</v>
       </c>
       <c r="H45" s="3">
-        <v>327400</v>
+        <v>327700</v>
       </c>
       <c r="I45" s="3">
-        <v>221200</v>
+        <v>221300</v>
       </c>
       <c r="J45" s="3">
-        <v>510600</v>
+        <v>511000</v>
       </c>
       <c r="K45" s="3">
         <v>544100</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>28385000</v>
+        <v>28408600</v>
       </c>
       <c r="E46" s="3">
-        <v>24329400</v>
+        <v>24349600</v>
       </c>
       <c r="F46" s="3">
-        <v>14726400</v>
+        <v>14738600</v>
       </c>
       <c r="G46" s="3">
-        <v>17873600</v>
+        <v>17888400</v>
       </c>
       <c r="H46" s="3">
-        <v>18748400</v>
+        <v>18764000</v>
       </c>
       <c r="I46" s="3">
-        <v>16013200</v>
+        <v>16026500</v>
       </c>
       <c r="J46" s="3">
-        <v>17267500</v>
+        <v>17281900</v>
       </c>
       <c r="K46" s="3">
         <v>13017200</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6300800</v>
+        <v>6306000</v>
       </c>
       <c r="E47" s="3">
-        <v>5351100</v>
+        <v>5355600</v>
       </c>
       <c r="F47" s="3">
-        <v>7436900</v>
+        <v>7443100</v>
       </c>
       <c r="G47" s="3">
-        <v>9075000</v>
+        <v>9082500</v>
       </c>
       <c r="H47" s="3">
-        <v>9030600</v>
+        <v>9038000</v>
       </c>
       <c r="I47" s="3">
-        <v>12259000</v>
+        <v>12269200</v>
       </c>
       <c r="J47" s="3">
-        <v>12337100</v>
+        <v>12347300</v>
       </c>
       <c r="K47" s="3">
         <v>12776300</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24359700</v>
+        <v>24380000</v>
       </c>
       <c r="E48" s="3">
-        <v>23553200</v>
+        <v>23572700</v>
       </c>
       <c r="F48" s="3">
-        <v>22687000</v>
+        <v>22705800</v>
       </c>
       <c r="G48" s="3">
-        <v>25163000</v>
+        <v>25183900</v>
       </c>
       <c r="H48" s="3">
-        <v>27643500</v>
+        <v>27666400</v>
       </c>
       <c r="I48" s="3">
-        <v>26741500</v>
+        <v>26763700</v>
       </c>
       <c r="J48" s="3">
-        <v>29664200</v>
+        <v>29688900</v>
       </c>
       <c r="K48" s="3">
         <v>57603700</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2142200</v>
+        <v>2144000</v>
       </c>
       <c r="E49" s="3">
-        <v>3791100</v>
+        <v>3794200</v>
       </c>
       <c r="F49" s="3">
-        <v>3635000</v>
+        <v>3638000</v>
       </c>
       <c r="G49" s="3">
-        <v>4845900</v>
+        <v>4849900</v>
       </c>
       <c r="H49" s="3">
-        <v>5524600</v>
+        <v>5529200</v>
       </c>
       <c r="I49" s="3">
-        <v>4969500</v>
+        <v>4973600</v>
       </c>
       <c r="J49" s="3">
-        <v>5538700</v>
+        <v>5543300</v>
       </c>
       <c r="K49" s="3">
         <v>9771100</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3819300</v>
+        <v>3822500</v>
       </c>
       <c r="E52" s="3">
-        <v>3960200</v>
+        <v>3963500</v>
       </c>
       <c r="F52" s="3">
-        <v>4963000</v>
+        <v>4967100</v>
       </c>
       <c r="G52" s="3">
-        <v>5806400</v>
+        <v>5811300</v>
       </c>
       <c r="H52" s="3">
-        <v>4942400</v>
+        <v>4946500</v>
       </c>
       <c r="I52" s="3">
-        <v>4907700</v>
+        <v>4911800</v>
       </c>
       <c r="J52" s="3">
-        <v>5495300</v>
+        <v>5499900</v>
       </c>
       <c r="K52" s="3">
         <v>5286700</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>65007000</v>
+        <v>65060900</v>
       </c>
       <c r="E54" s="3">
-        <v>60985000</v>
+        <v>61035600</v>
       </c>
       <c r="F54" s="3">
-        <v>53448300</v>
+        <v>53492700</v>
       </c>
       <c r="G54" s="3">
-        <v>62764000</v>
+        <v>62816100</v>
       </c>
       <c r="H54" s="3">
-        <v>65889400</v>
+        <v>65944100</v>
       </c>
       <c r="I54" s="3">
-        <v>64891000</v>
+        <v>64944800</v>
       </c>
       <c r="J54" s="3">
-        <v>70302800</v>
+        <v>70361200</v>
       </c>
       <c r="K54" s="3">
         <v>64510500</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5459500</v>
+        <v>5464100</v>
       </c>
       <c r="E57" s="3">
-        <v>6014600</v>
+        <v>6019600</v>
       </c>
       <c r="F57" s="3">
-        <v>2678800</v>
+        <v>2681000</v>
       </c>
       <c r="G57" s="3">
-        <v>3944000</v>
+        <v>3947200</v>
       </c>
       <c r="H57" s="3">
-        <v>3516800</v>
+        <v>3519700</v>
       </c>
       <c r="I57" s="3">
-        <v>2968300</v>
+        <v>2970700</v>
       </c>
       <c r="J57" s="3">
-        <v>2307000</v>
+        <v>2308900</v>
       </c>
       <c r="K57" s="3">
         <v>1836400</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3500600</v>
+        <v>3503500</v>
       </c>
       <c r="E58" s="3">
-        <v>4861100</v>
+        <v>4865100</v>
       </c>
       <c r="F58" s="3">
-        <v>3928800</v>
+        <v>3932000</v>
       </c>
       <c r="G58" s="3">
-        <v>6984900</v>
+        <v>6990700</v>
       </c>
       <c r="H58" s="3">
-        <v>4787400</v>
+        <v>4791400</v>
       </c>
       <c r="I58" s="3">
-        <v>4488200</v>
+        <v>4491900</v>
       </c>
       <c r="J58" s="3">
-        <v>4228000</v>
+        <v>4231500</v>
       </c>
       <c r="K58" s="3">
         <v>4379200</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9380700</v>
+        <v>9388500</v>
       </c>
       <c r="E59" s="3">
-        <v>7898800</v>
+        <v>7905300</v>
       </c>
       <c r="F59" s="3">
-        <v>4796100</v>
+        <v>4800000</v>
       </c>
       <c r="G59" s="3">
-        <v>5424800</v>
+        <v>5429300</v>
       </c>
       <c r="H59" s="3">
-        <v>5583100</v>
+        <v>5587800</v>
       </c>
       <c r="I59" s="3">
-        <v>5590700</v>
+        <v>5595300</v>
       </c>
       <c r="J59" s="3">
-        <v>9441400</v>
+        <v>9449300</v>
       </c>
       <c r="K59" s="3">
         <v>21716500</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>18340800</v>
+        <v>18356000</v>
       </c>
       <c r="E60" s="3">
-        <v>18774400</v>
+        <v>18790000</v>
       </c>
       <c r="F60" s="3">
-        <v>11403600</v>
+        <v>11413100</v>
       </c>
       <c r="G60" s="3">
-        <v>16353600</v>
+        <v>16367200</v>
       </c>
       <c r="H60" s="3">
-        <v>13887300</v>
+        <v>13898900</v>
       </c>
       <c r="I60" s="3">
-        <v>13047100</v>
+        <v>13058000</v>
       </c>
       <c r="J60" s="3">
-        <v>15976400</v>
+        <v>15989600</v>
       </c>
       <c r="K60" s="3">
         <v>14778100</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10981900</v>
+        <v>10991000</v>
       </c>
       <c r="E61" s="3">
-        <v>10849700</v>
+        <v>10858700</v>
       </c>
       <c r="F61" s="3">
-        <v>12938700</v>
+        <v>12949500</v>
       </c>
       <c r="G61" s="3">
-        <v>11676800</v>
+        <v>11686500</v>
       </c>
       <c r="H61" s="3">
-        <v>11564100</v>
+        <v>11573700</v>
       </c>
       <c r="I61" s="3">
-        <v>9467400</v>
+        <v>9475300</v>
       </c>
       <c r="J61" s="3">
-        <v>11866600</v>
+        <v>11876400</v>
       </c>
       <c r="K61" s="3">
         <v>12272100</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7526900</v>
+        <v>7533200</v>
       </c>
       <c r="E62" s="3">
-        <v>6649900</v>
+        <v>6655400</v>
       </c>
       <c r="F62" s="3">
-        <v>6839600</v>
+        <v>6845300</v>
       </c>
       <c r="G62" s="3">
-        <v>7404400</v>
+        <v>7410600</v>
       </c>
       <c r="H62" s="3">
-        <v>6924100</v>
+        <v>6929900</v>
       </c>
       <c r="I62" s="3">
-        <v>9785100</v>
+        <v>9793200</v>
       </c>
       <c r="J62" s="3">
-        <v>8732400</v>
+        <v>8739700</v>
       </c>
       <c r="K62" s="3">
         <v>14048200</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>37585700</v>
+        <v>37616900</v>
       </c>
       <c r="E66" s="3">
-        <v>36685900</v>
+        <v>36716400</v>
       </c>
       <c r="F66" s="3">
-        <v>31446500</v>
+        <v>31472600</v>
       </c>
       <c r="G66" s="3">
-        <v>35739500</v>
+        <v>35769200</v>
       </c>
       <c r="H66" s="3">
-        <v>32685600</v>
+        <v>32712800</v>
       </c>
       <c r="I66" s="3">
-        <v>32592400</v>
+        <v>32619400</v>
       </c>
       <c r="J66" s="3">
-        <v>36839900</v>
+        <v>36870500</v>
       </c>
       <c r="K66" s="3">
         <v>35383000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18389600</v>
+        <v>18404900</v>
       </c>
       <c r="E72" s="3">
-        <v>16387300</v>
+        <v>16400900</v>
       </c>
       <c r="F72" s="3">
-        <v>14922600</v>
+        <v>14935000</v>
       </c>
       <c r="G72" s="3">
-        <v>18036200</v>
+        <v>18051100</v>
       </c>
       <c r="H72" s="3">
-        <v>23641000</v>
+        <v>23660600</v>
       </c>
       <c r="I72" s="3">
-        <v>23019800</v>
+        <v>23038900</v>
       </c>
       <c r="J72" s="3">
-        <v>21183300</v>
+        <v>21200900</v>
       </c>
       <c r="K72" s="3">
         <v>18582600</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>27421200</v>
+        <v>27444000</v>
       </c>
       <c r="E76" s="3">
-        <v>24299000</v>
+        <v>24319200</v>
       </c>
       <c r="F76" s="3">
-        <v>22001800</v>
+        <v>22020100</v>
       </c>
       <c r="G76" s="3">
-        <v>27024400</v>
+        <v>27046900</v>
       </c>
       <c r="H76" s="3">
-        <v>33203800</v>
+        <v>33231400</v>
       </c>
       <c r="I76" s="3">
-        <v>32298600</v>
+        <v>32325400</v>
       </c>
       <c r="J76" s="3">
-        <v>33462900</v>
+        <v>33490700</v>
       </c>
       <c r="K76" s="3">
         <v>29127500</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4543500</v>
+        <v>4547200</v>
       </c>
       <c r="E81" s="3">
-        <v>2644100</v>
+        <v>2646300</v>
       </c>
       <c r="F81" s="3">
-        <v>-3624100</v>
+        <v>-3627200</v>
       </c>
       <c r="G81" s="3">
-        <v>-4168400</v>
+        <v>-4171800</v>
       </c>
       <c r="H81" s="3">
-        <v>2506400</v>
+        <v>2508500</v>
       </c>
       <c r="I81" s="3">
-        <v>2267900</v>
+        <v>2269800</v>
       </c>
       <c r="J81" s="3">
-        <v>1851600</v>
+        <v>1853200</v>
       </c>
       <c r="K81" s="3">
         <v>-1449500</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2535700</v>
+        <v>2537800</v>
       </c>
       <c r="E83" s="3">
-        <v>2172500</v>
+        <v>2174300</v>
       </c>
       <c r="F83" s="3">
-        <v>2392600</v>
+        <v>2394600</v>
       </c>
       <c r="G83" s="3">
-        <v>2638700</v>
+        <v>2640900</v>
       </c>
       <c r="H83" s="3">
-        <v>2320000</v>
+        <v>2321900</v>
       </c>
       <c r="I83" s="3">
-        <v>2600800</v>
+        <v>2602900</v>
       </c>
       <c r="J83" s="3">
-        <v>2741700</v>
+        <v>2744000</v>
       </c>
       <c r="K83" s="3">
         <v>3189000</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8490700</v>
+        <v>8497700</v>
       </c>
       <c r="E89" s="3">
-        <v>5070300</v>
+        <v>5074500</v>
       </c>
       <c r="F89" s="3">
-        <v>2968300</v>
+        <v>2970700</v>
       </c>
       <c r="G89" s="3">
-        <v>5256800</v>
+        <v>5261200</v>
       </c>
       <c r="H89" s="3">
-        <v>4964100</v>
+        <v>4968200</v>
       </c>
       <c r="I89" s="3">
-        <v>5543000</v>
+        <v>5547600</v>
       </c>
       <c r="J89" s="3">
-        <v>4217100</v>
+        <v>4220700</v>
       </c>
       <c r="K89" s="3">
         <v>5038700</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3832300</v>
+        <v>-3835500</v>
       </c>
       <c r="E91" s="3">
-        <v>-2062000</v>
+        <v>-2063700</v>
       </c>
       <c r="F91" s="3">
-        <v>-2044600</v>
+        <v>-2046300</v>
       </c>
       <c r="G91" s="3">
-        <v>-3498400</v>
+        <v>-3501300</v>
       </c>
       <c r="H91" s="3">
-        <v>-2884800</v>
+        <v>-2887200</v>
       </c>
       <c r="I91" s="3">
-        <v>-2493400</v>
+        <v>-2495500</v>
       </c>
       <c r="J91" s="3">
-        <v>-2171500</v>
+        <v>-2173300</v>
       </c>
       <c r="K91" s="3">
         <v>-3053200</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4448100</v>
+        <v>-4451800</v>
       </c>
       <c r="E94" s="3">
-        <v>-3179700</v>
+        <v>-3182300</v>
       </c>
       <c r="F94" s="3">
-        <v>240700</v>
+        <v>240900</v>
       </c>
       <c r="G94" s="3">
-        <v>-4777600</v>
+        <v>-4781600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1473300</v>
+        <v>-1474500</v>
       </c>
       <c r="I94" s="3">
-        <v>-3023600</v>
+        <v>-3026100</v>
       </c>
       <c r="J94" s="3">
-        <v>423900</v>
+        <v>424200</v>
       </c>
       <c r="K94" s="3">
         <v>-9146400</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1113400</v>
+        <v>-1114300</v>
       </c>
       <c r="E96" s="3">
-        <v>-677600</v>
+        <v>-678100</v>
       </c>
       <c r="F96" s="3">
-        <v>-375100</v>
+        <v>-375400</v>
       </c>
       <c r="G96" s="3">
-        <v>-429300</v>
+        <v>-429700</v>
       </c>
       <c r="H96" s="3">
-        <v>-322000</v>
+        <v>-322200</v>
       </c>
       <c r="I96" s="3">
-        <v>-359900</v>
+        <v>-360200</v>
       </c>
       <c r="J96" s="3">
-        <v>-455300</v>
+        <v>-455700</v>
       </c>
       <c r="K96" s="3">
         <v>-498200</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3070200</v>
+        <v>-3072700</v>
       </c>
       <c r="E100" s="3">
-        <v>-573500</v>
+        <v>-574000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1750800</v>
+        <v>-1752300</v>
       </c>
       <c r="G100" s="3">
-        <v>-2481500</v>
+        <v>-2483600</v>
       </c>
       <c r="H100" s="3">
-        <v>-3287000</v>
+        <v>-3289700</v>
       </c>
       <c r="I100" s="3">
-        <v>-2559600</v>
+        <v>-2561700</v>
       </c>
       <c r="J100" s="3">
-        <v>-2225700</v>
+        <v>-2227500</v>
       </c>
       <c r="K100" s="3">
         <v>1811900</v>
@@ -4222,7 +4222,7 @@
         <v>-3300</v>
       </c>
       <c r="I101" s="3">
-        <v>-53100</v>
+        <v>-53200</v>
       </c>
       <c r="J101" s="3">
         <v>11900</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>994100</v>
+        <v>994900</v>
       </c>
       <c r="E102" s="3">
-        <v>1381100</v>
+        <v>1382300</v>
       </c>
       <c r="F102" s="3">
-        <v>1454900</v>
+        <v>1456100</v>
       </c>
       <c r="G102" s="3">
-        <v>-1959000</v>
+        <v>-1960600</v>
       </c>
       <c r="H102" s="3">
-        <v>200600</v>
+        <v>200700</v>
       </c>
       <c r="I102" s="3">
-        <v>-93200</v>
+        <v>-93300</v>
       </c>
       <c r="J102" s="3">
-        <v>2427300</v>
+        <v>2429300</v>
       </c>
       <c r="K102" s="3">
         <v>-2235600</v>
